--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1114.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1114.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8781306565948526</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04390653282974263</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04390653282974263</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.07025045252758821</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06185476386403051</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0118547638640305</v>
+        <v>0.01146031254146931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01161360077562008</v>
+        <v>0.01122717383045412</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>-0.0004313760806771288</v>
+        <v>0.001448090830797215</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007735034766697377</v>
+        <v>0.0007831947792513417</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.00124670073291306</v>
+        <v>0.004012161935529418</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007273369733408862</v>
+        <v>0.0007759946354583126</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.003559471824183841</v>
+        <v>0.007414283953795953</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007652327984790294</v>
+        <v>0.0007733431995058784</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.007515594960021688</v>
+        <v>0.001448090830797215</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007608038160332861</v>
+        <v>0.0007831947792513417</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002074202708660912</v>
+        <v>0.002999999999999996</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001547006953339475</v>
+        <v>0.001763382352941174</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
+        <v>0.008420731866679798</v>
+      </c>
+      <c r="K67" s="171" t="n">
+        <v>0.001551989270916625</v>
+      </c>
+      <c r="L67" s="172" t="n">
+        <v>0.0140828972550755</v>
+      </c>
+      <c r="M67" s="170" t="n">
+        <v>0.001546686399011757</v>
+      </c>
+      <c r="N67" s="171" t="n">
         <v>0.002999999999999996</v>
       </c>
-      <c r="K67" s="171" t="n">
+      <c r="O67" s="172" t="n">
         <v>0.001763382352941174</v>
-      </c>
-      <c r="L67" s="172" t="n">
-        <v>0.006999999999999978</v>
-      </c>
-      <c r="M67" s="170" t="n">
-        <v>0.00142866625816993</v>
-      </c>
-      <c r="N67" s="171" t="n">
-        <v>0.01600000000000001</v>
-      </c>
-      <c r="O67" s="172" t="n">
-        <v>0.00179137254901961</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.002453691238029326</v>
+        <v>0.003725410997193222</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002320510430009213</v>
+        <v>0.002349584337754025</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.003516696668143492</v>
+        <v>0.01187978002553985</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002182010920022659</v>
+        <v>0.002327983906374938</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.009888921316063753</v>
+        <v>0.02100000000000002</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002295698395437088</v>
+        <v>0.002571599264705884</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01868810692662248</v>
+        <v>0.003725410997193222</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002282411448099858</v>
+        <v>0.002349584337754025</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.003644044377443263</v>
+        <v>0.004450540027636403</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003094013906678951</v>
+        <v>0.003132779117005367</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.004262443648453816</v>
+        <v>0.01599999999999999</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002909347893363545</v>
+        <v>0.00337086232342399</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01230755662753566</v>
+        <v>0.02311910812802459</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003060931193916118</v>
+        <v>0.003093372798023514</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02278222751680858</v>
+        <v>0.004450540027636403</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003043215264133144</v>
+        <v>0.003132779117005367</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003871200258540025</v>
+        <v>0.001763382352941174</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006585979924461388</v>
+        <v>0.002999999999999996</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006585979924461388</v>
+        <v>0.005526053220271124</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003871200258540025</v>
+        <v>0.003915973896256708</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.005148107169970884</v>
+        <v>0.01706257533812069</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003636684866704431</v>
+        <v>0.003879973177291563</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01433758234681554</v>
+        <v>0.02682455289707031</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003826163992395147</v>
+        <v>0.003866715997529392</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.02624959982189928</v>
+        <v>0.005526053220271124</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.00380401908016643</v>
+        <v>0.003915973896256708</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.005320265536078207</v>
+        <v>0.006352799357926528</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004641020860018426</v>
+        <v>0.00469916867550805</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.005880553143261906</v>
+        <v>0.01888242639650728</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004364021840045317</v>
+        <v>0.004655967812749876</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.01619533698122272</v>
+        <v>0.02925441110961841</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004591396790874176</v>
+        <v>0.00464005919703527</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.02933095901224675</v>
+        <v>0.006352799357926528</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004564822896199716</v>
+        <v>0.00469916867550805</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.00596564108818997</v>
+        <v>0.00703162722343173</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005414524336688164</v>
+        <v>0.005482363454759391</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.006366647478894108</v>
+        <v>0.02018310455256925</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005091358813386203</v>
+        <v>0.005431962448208189</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.01829715903807652</v>
+        <v>0.03232708414287344</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005356629589353206</v>
+        <v>0.005413402396541148</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03236704025820303</v>
+        <v>0.00703162722343173</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005325626712233002</v>
+        <v>0.005482363454759391</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.006535466196457083</v>
+        <v>0.007663385599615873</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006188027813357901</v>
+        <v>0.006265558234010734</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.007113256087434724</v>
+        <v>0.02149612265660322</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005818695786727089</v>
+        <v>0.006207957083666501</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02035938702469636</v>
+        <v>0.0345609733740399</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006121862387832236</v>
+        <v>0.006186745596047027</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.03499857873012019</v>
+        <v>0.007663385599615873</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006086430528266289</v>
+        <v>0.006265558234010734</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.009046861072606882</v>
+        <v>0.008448923269308059</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.00696153129002764</v>
+        <v>0.007048753013262075</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.007627244879450983</v>
+        <v>0.02295299355890579</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006546032760067976</v>
+        <v>0.006983951719124814</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02159835944840144</v>
+        <v>0.03647448018032223</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006887095186311265</v>
+        <v>0.006960088795552906</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.03746630959835034</v>
+        <v>0.008448923269308059</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006847234344299575</v>
+        <v>0.007048753013262075</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.008516945928366715</v>
+        <v>0.009089089015337441</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007735034766697377</v>
+        <v>0.007831947792513417</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.008315479765510086</v>
+        <v>0.02388523010977353</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007273369733408861</v>
+        <v>0.007759946354583126</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02303041481651125</v>
+        <v>0.03921685252555845</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007652327984790294</v>
+        <v>0.008003970564984536</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.03921685252555845</v>
+        <v>0.009089089015337441</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007317915945128719</v>
+        <v>0.007831947792513417</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.009962840975463891</v>
+        <v>0.009584731620533138</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008508538243367114</v>
+        <v>0.008615142571764758</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.008784826656179287</v>
+        <v>0.0253385825335139</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008000706706749747</v>
+        <v>0.008897174290749089</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.0253385825335139</v>
+        <v>0.03976825926545258</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008619137594163181</v>
+        <v>0.008506775194564661</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04154441747398951</v>
+        <v>0.009584731620533138</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008368841976366148</v>
+        <v>0.008615142571764758</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.009401666425625774</v>
+        <v>0.01033669986772427</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009282041720036853</v>
+        <v>0.0093983373510161</v>
       </c>
       <c r="J77" t="n">
-        <v>0.009342151462025786</v>
+        <v>0.02550743478851972</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008728043680090634</v>
+        <v>0.009311935625499751</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02626211554338187</v>
+        <v>0.04111788436014213</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009182793581748352</v>
+        <v>0.00928011839407054</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04415694854719926</v>
+        <v>0.01033669986772427</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009129645792399431</v>
+        <v>0.0093983373510161</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.009850542490579685</v>
+        <v>0.01064584253973998</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01005554519670659</v>
+        <v>0.01018153213026744</v>
       </c>
       <c r="J78" t="n">
-        <v>0.00999432009361681</v>
+        <v>0.02618260263097075</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009455380653431522</v>
+        <v>0.01008793026095806</v>
       </c>
       <c r="L78" t="n">
-        <v>0.02776435457908685</v>
+        <v>0.0430502937637392</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009948026380227383</v>
+        <v>0.01005346159357642</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04635521300249501</v>
+        <v>0.01064584253973998</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009890449608432718</v>
+        <v>0.01018153213026744</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01132658938205296</v>
+        <v>0.01146031254146931</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01082904867337633</v>
+        <v>0.01122717383045412</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01044819846151959</v>
+        <v>0.02715445749040926</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01018271762677241</v>
+        <v>0.01086392489641638</v>
       </c>
       <c r="L79" t="n">
-        <v>0.02907452334320784</v>
+        <v>0.04376478806785411</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01071325917870641</v>
+        <v>0.0108268047930823</v>
       </c>
       <c r="N79" t="n">
-        <v>0.04823165022413239</v>
+        <v>0.01146031254146931</v>
       </c>
       <c r="O79" t="n">
-        <v>0.010651253424466</v>
+        <v>0.01122717383045412</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.0118547638640305</v>
+        <v>0.01164770083972159</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01161360077562008</v>
+        <v>0.01174792168877012</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01146031254146931</v>
+        <v>0.02842220628109504</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01122717383045412</v>
+        <v>0.01163991953187469</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03008532313886936</v>
+        <v>0.04556066786409668</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01147849197718544</v>
+        <v>0.01160014799258817</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05037869959636698</v>
+        <v>0.01164770083972159</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01141205724049929</v>
+        <v>0.01174792168877012</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0124274937916238</v>
+        <v>0.01207847099075873</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0123760556267158</v>
+        <v>0.01253111646802147</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01159105662517199</v>
+        <v>0.02918505591728787</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01163739157345418</v>
+        <v>0.012415914167333</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03158945526919615</v>
+        <v>0.0468372337440775</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01224372477566447</v>
+        <v>0.01237349119209405</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05198880050345445</v>
+        <v>0.01207847099075873</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01217286105653258</v>
+        <v>0.01253111646802147</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01306608387619178</v>
+        <v>0.01240709722142879</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01314955910338554</v>
+        <v>0.01331431124727281</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01230265620386092</v>
+        <v>0.03014221331324748</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01236472854679507</v>
+        <v>0.01319190880279131</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03287962103731279</v>
+        <v>0.04809378629940642</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0130089575741435</v>
+        <v>0.01314683439159993</v>
       </c>
       <c r="N82" t="n">
-        <v>0.05435439232965045</v>
+        <v>0.01240709722142879</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01293366487256586</v>
+        <v>0.01331431124727281</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01175231654958712</v>
+        <v>0.01293313545800216</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01392306258005528</v>
+        <v>0.01409750602652415</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01284102507708158</v>
+        <v>0.03069288538323364</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01309206552013595</v>
+        <v>0.01396790343824963</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03454852174634385</v>
+        <v>0.04982962612169362</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01377419037262253</v>
+        <v>0.01392017759110581</v>
       </c>
       <c r="N83" t="n">
-        <v>0.05586791445921063</v>
+        <v>0.01293313545800216</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01369446868859915</v>
+        <v>0.01409750602652415</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.0144758101090711</v>
+        <v>0.01335614162674915</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01469656605672501</v>
+        <v>0.01488070080577549</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01349981944483998</v>
+        <v>0.03173627904150611</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01381940249347684</v>
+        <v>0.01474389807370794</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03598885869941396</v>
+        <v>0.05094405380254935</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01453942317110156</v>
+        <v>0.01469352079061169</v>
       </c>
       <c r="N84" t="n">
-        <v>0.05792180627639054</v>
+        <v>0.01335614162674915</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01445527250463243</v>
+        <v>0.01488070080577549</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01422618285190498</v>
+        <v>0.01367567165394018</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01547006953339475</v>
+        <v>0.01566389558502683</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01427269550714214</v>
+        <v>0.03217160120232471</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01454673946681772</v>
+        <v>0.01551989270916625</v>
       </c>
       <c r="L85" t="n">
-        <v>0.03739333319964772</v>
+        <v>0.05203636993358374</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01530465596958059</v>
+        <v>0.01546686399011757</v>
       </c>
       <c r="N85" t="n">
-        <v>0.05930850716544595</v>
+        <v>0.01367567165394018</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01521607632066572</v>
+        <v>0.01566389558502683</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01499305307535004</v>
+        <v>0.01409128146584558</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01624357301006449</v>
+        <v>0.01644709036427817</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01485330946399402</v>
+        <v>0.03329805877994912</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01527407644015861</v>
+        <v>0.01629588734462456</v>
       </c>
       <c r="L86" t="n">
-        <v>0.03855464655016974</v>
+        <v>0.05350587510640692</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01606988876805962</v>
+        <v>0.01624020718962344</v>
       </c>
       <c r="N86" t="n">
-        <v>0.06172045651063229</v>
+        <v>0.01409128146584558</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01597688013669901</v>
+        <v>0.01644709036427817</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01676603907666752</v>
+        <v>0.01470252698873571</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01701707648673423</v>
+        <v>0.01723028514352952</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01573531751540169</v>
+        <v>0.03391485868863917</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01600141341349949</v>
+        <v>0.01707188198008288</v>
       </c>
       <c r="L87" t="n">
-        <v>0.03986550005410461</v>
+        <v>0.05495186991262913</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01683512156653865</v>
+        <v>0.01701355038912932</v>
       </c>
       <c r="N87" t="n">
-        <v>0.06315009369620544</v>
+        <v>0.01470252698873571</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0167376839527323</v>
+        <v>0.01723028514352952</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01753475915311873</v>
+        <v>0.01490896414888097</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01779057996340397</v>
+        <v>0.01801347992278086</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01641237586137112</v>
+        <v>0.03502120784265467</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01672875038684038</v>
+        <v>0.01784787661554119</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04091859501457701</v>
+        <v>0.05617365494386045</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01760035436501768</v>
+        <v>0.0177868935886352</v>
       </c>
       <c r="N88" t="n">
-        <v>0.06458985810642082</v>
+        <v>0.01490896414888097</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01749848776876558</v>
+        <v>0.01801347992278086</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01728883160196491</v>
+        <v>0.01551014887255169</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01856408344007371</v>
+        <v>0.0187966747020322</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01697814070190835</v>
+        <v>0.03591631315625524</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01745608736018127</v>
+        <v>0.0186238712509995</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04200663273471147</v>
+        <v>0.05717053079171103</v>
       </c>
       <c r="M89" t="n">
-        <v>0.0183655871634967</v>
+        <v>0.01856023678814108</v>
       </c>
       <c r="N89" t="n">
-        <v>0.06583218912553418</v>
+        <v>0.01551014887255169</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01825929158479886</v>
+        <v>0.0187966747020322</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01801787472046734</v>
+        <v>0.01580563708601822</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01933758691674344</v>
+        <v>0.01957986948128354</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01752626823701937</v>
+        <v>0.03619938154370078</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01818342433352215</v>
+        <v>0.01939986588645782</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04262231451763263</v>
+        <v>0.05804179804779108</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01913081996197574</v>
+        <v>0.01933357998764696</v>
       </c>
       <c r="N90" t="n">
-        <v>0.06766952613780114</v>
+        <v>0.01580563708601822</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01902009540083215</v>
+        <v>0.01957986948128354</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.0187115068058873</v>
+        <v>0.01619498471555096</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02011109039341318</v>
+        <v>0.02036306426053489</v>
       </c>
       <c r="J91" t="n">
-        <v>0.01825041466671018</v>
+        <v>0.03736961991925106</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01891076130686304</v>
+        <v>0.02017586052191613</v>
       </c>
       <c r="L91" t="n">
-        <v>0.0438583416664651</v>
+        <v>0.05958675730371071</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01989605276045477</v>
+        <v>0.02010692318715284</v>
       </c>
       <c r="N91" t="n">
-        <v>0.06829430852747737</v>
+        <v>0.01619498471555096</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01978089921686544</v>
+        <v>0.02036306426053489</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01835934615548604</v>
+        <v>0.01667774768742025</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02088459387008292</v>
+        <v>0.02114625903978622</v>
       </c>
       <c r="J92" t="n">
-        <v>0.01894423619098683</v>
+        <v>0.03782623519716571</v>
       </c>
       <c r="K92" t="n">
-        <v>0.01963809828020393</v>
+        <v>0.02095185515737444</v>
       </c>
       <c r="L92" t="n">
-        <v>0.04490741548433352</v>
+        <v>0.06040470915108015</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02066128555893379</v>
+        <v>0.02088026638665871</v>
       </c>
       <c r="N92" t="n">
-        <v>0.06969897567881833</v>
+        <v>0.01667774768742025</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02054170303289872</v>
+        <v>0.02114625903978622</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01895101106652483</v>
+        <v>0.01705348192789646</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02165809734675266</v>
+        <v>0.02192945381903756</v>
       </c>
       <c r="J93" t="n">
-        <v>0.01940138900985529</v>
+        <v>0.03896843429170463</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02036543525354481</v>
+        <v>0.02172784979283275</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04566223727436253</v>
+        <v>0.06139495418150948</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02142651835741282</v>
+        <v>0.02165360958616459</v>
       </c>
       <c r="N93" t="n">
-        <v>0.0708759669760799</v>
+        <v>0.01705348192789646</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02130250684893201</v>
+        <v>0.02192945381903756</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02147611983626498</v>
+        <v>0.01742174336324996</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02243160082342239</v>
+        <v>0.02271264859828891</v>
       </c>
       <c r="J94" t="n">
-        <v>0.01981552932332159</v>
+        <v>0.0394954241171275</v>
       </c>
       <c r="K94" t="n">
-        <v>0.0210927722268857</v>
+        <v>0.02250384442829106</v>
       </c>
       <c r="L94" t="n">
-        <v>0.04611550833967659</v>
+        <v>0.06245679298660894</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02219175115589185</v>
+        <v>0.02242695278567047</v>
       </c>
       <c r="N94" t="n">
-        <v>0.07151772180351751</v>
+        <v>0.01742174336324996</v>
       </c>
       <c r="O94" t="n">
-        <v>0.0220633106649653</v>
+        <v>0.02271264859828891</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.0219242907619677</v>
+        <v>0.0177820879197511</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02320510430009213</v>
+        <v>0.02349584337754025</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02028031333139173</v>
+        <v>0.04000641158769416</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02182010920022658</v>
+        <v>0.02327983906374938</v>
       </c>
       <c r="L95" t="n">
-        <v>0.04685992998340049</v>
+        <v>0.06398952615798853</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02295698395437088</v>
+        <v>0.02320029598517635</v>
       </c>
       <c r="N95" t="n">
-        <v>0.07191667954538689</v>
+        <v>0.0177820879197511</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02282411448099858</v>
+        <v>0.02349584337754025</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.0222851421408943</v>
+        <v>0.01813407152367025</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02397860777676187</v>
+        <v>0.02427903815679159</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02078939723407174</v>
+        <v>0.04060060361766438</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02254744617356747</v>
+        <v>0.02405583369920769</v>
       </c>
       <c r="L96" t="n">
-        <v>0.04718820350865874</v>
+        <v>0.06469245428725856</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02372221675284991</v>
+        <v>0.02397363918468223</v>
       </c>
       <c r="N96" t="n">
-        <v>0.07296527958594368</v>
+        <v>0.01813407152367025</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02358491829703187</v>
+        <v>0.02427903815679159</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02154829227030604</v>
+        <v>0.01827725010127776</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02475211125343161</v>
+        <v>0.02506223293604293</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02103643723136761</v>
+        <v>0.04167720712129783</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02327478314690836</v>
+        <v>0.024831828334666</v>
       </c>
       <c r="L97" t="n">
-        <v>0.04739303021857594</v>
+        <v>0.06596487796602923</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02448744955132894</v>
+        <v>0.02474698238418811</v>
       </c>
       <c r="N97" t="n">
-        <v>0.07305596130944342</v>
+        <v>0.01827725010127776</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02434572211306515</v>
+        <v>0.02506223293604293</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02270335944746418</v>
+        <v>0.01881117957884401</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02552561473010135</v>
+        <v>0.02584542771529427</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02151508952328536</v>
+        <v>0.04193542901285433</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02400212012024924</v>
+        <v>0.02560782297012432</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0475671114162767</v>
+        <v>0.06700609778591055</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02525268234980797</v>
+        <v>0.02552032558369399</v>
       </c>
       <c r="N98" t="n">
-        <v>0.07308116410014187</v>
+        <v>0.01881117957884401</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02510652592909844</v>
+        <v>0.02584542771529427</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02174054771519841</v>
+        <v>0.01893541588263935</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02629911820677108</v>
+        <v>0.02662862249454561</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02171901030983099</v>
+        <v>0.04267447620659362</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02472945709359013</v>
+        <v>0.02638381760558263</v>
       </c>
       <c r="L99" t="n">
-        <v>0.04750359625051875</v>
+        <v>0.0676154143385127</v>
       </c>
       <c r="M99" t="n">
-        <v>0.026017915148287</v>
+        <v>0.02629366878319987</v>
       </c>
       <c r="N99" t="n">
-        <v>0.07342801778710167</v>
+        <v>0.01893541588263935</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02586732974513173</v>
+        <v>0.02662862249454561</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02067381429350262</v>
+        <v>0.01934951493893416</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02707262168344082</v>
+        <v>0.02741181727379696</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02164185579101054</v>
+        <v>0.04359355561677561</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02545679406693101</v>
+        <v>0.02715981224104094</v>
       </c>
       <c r="L100" t="n">
-        <v>0.04751022974485913</v>
+        <v>0.06849212821544592</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02678314794676603</v>
+        <v>0.02706701198270575</v>
       </c>
       <c r="N100" t="n">
-        <v>0.07273660571240437</v>
+        <v>0.01934951493893416</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02662813356116501</v>
+        <v>0.02741181727379696</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0215228516146377</v>
+        <v>0.0196530326739988</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02784612516011056</v>
+        <v>0.0281950120530483</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02167758486354757</v>
+        <v>0.04379187415765989</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0261841310402719</v>
+        <v>0.02793580687649926</v>
       </c>
       <c r="L101" t="n">
-        <v>0.04710089874308679</v>
+        <v>0.06893554000832031</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02754838074524506</v>
+        <v>0.02784035518221162</v>
       </c>
       <c r="N101" t="n">
-        <v>0.07237526857333287</v>
+        <v>0.0196530326739988</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0273889373771983</v>
+        <v>0.0281950120530483</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02230095170773756</v>
+        <v>0.0199455250141036</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02861962863678029</v>
+        <v>0.02897820683229964</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0218512033854056</v>
+        <v>0.04446863874350626</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02691146801361279</v>
+        <v>0.02871180151195757</v>
       </c>
       <c r="L102" t="n">
-        <v>0.0468870235813752</v>
+        <v>0.0703449503087461</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02831361354372409</v>
+        <v>0.0286136983817175</v>
       </c>
       <c r="N102" t="n">
-        <v>0.07159868507465811</v>
+        <v>0.0199455250141036</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02814974119323158</v>
+        <v>0.02897820683229964</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02202140660193622</v>
+        <v>0.02012654788551896</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02939313211345003</v>
+        <v>0.02976140161155098</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02158446580033577</v>
+        <v>0.04532305628857461</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02763880498695367</v>
+        <v>0.02948779614741588</v>
       </c>
       <c r="L103" t="n">
-        <v>0.04628002459589786</v>
+        <v>0.07051965970833335</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02907884634220312</v>
+        <v>0.02938704158122338</v>
       </c>
       <c r="N103" t="n">
-        <v>0.07056153392115044</v>
+        <v>0.02012654788551896</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02891054500926487</v>
+        <v>0.02976140161155098</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02169750832636756</v>
+        <v>0.02049565721451524</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03016663559011977</v>
+        <v>0.03054459639080232</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02158116776989855</v>
+        <v>0.04575433370712451</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02836614196029456</v>
+        <v>0.03026379078287419</v>
       </c>
       <c r="L104" t="n">
-        <v>0.04629132212282824</v>
+        <v>0.07155896879869222</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02984407914068215</v>
+        <v>0.03016038478072925</v>
       </c>
       <c r="N104" t="n">
-        <v>0.06861849381758056</v>
+        <v>0.02049565721451524</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02967134882529816</v>
+        <v>0.03054459639080232</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.01934254891016562</v>
+        <v>0.02065240892736278</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03094013906678951</v>
+        <v>0.03132779117005367</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02134510495565446</v>
+        <v>0.0462616779134159</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02909347893363545</v>
+        <v>0.0310397854183325</v>
       </c>
       <c r="L105" t="n">
-        <v>0.04553233649833985</v>
+        <v>0.07196217817143302</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03060931193916118</v>
+        <v>0.03093372798023513</v>
       </c>
       <c r="N105" t="n">
-        <v>0.06692424346871911</v>
+        <v>0.02065240892736278</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03043215264133144</v>
+        <v>0.03132779117005367</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.01996982038246431</v>
+        <v>0.02089635895033197</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03171364254345924</v>
+        <v>0.032110985949305</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02118007301916396</v>
+        <v>0.04674429582170847</v>
       </c>
       <c r="K106" t="n">
-        <v>0.02982081590697633</v>
+        <v>0.03181578005379081</v>
       </c>
       <c r="L106" t="n">
-        <v>0.04491448805860609</v>
+        <v>0.07312858841816577</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03137454473764021</v>
+        <v>0.03170707117974101</v>
       </c>
       <c r="N106" t="n">
-        <v>0.06523346157933668</v>
+        <v>0.02089635895033197</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03119295645736473</v>
+        <v>0.032110985949305</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02059261477239761</v>
+        <v>0.02112706320969318</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03248714602012898</v>
+        <v>0.03289418072855635</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02118986762198755</v>
+        <v>0.04710139434626195</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03054815288031722</v>
+        <v>0.03259177468924913</v>
       </c>
       <c r="L107" t="n">
-        <v>0.04414919713980059</v>
+        <v>0.07385750013050058</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03213977753611924</v>
+        <v>0.03248041437924689</v>
       </c>
       <c r="N107" t="n">
-        <v>0.06340082685420395</v>
+        <v>0.02112706320969318</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03195376027339801</v>
+        <v>0.03289418072855635</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.01922422410909945</v>
+        <v>0.02144407763171671</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03326064949679872</v>
+        <v>0.03367737550780769</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02087828442568569</v>
+        <v>0.04783218040133619</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03127548985365811</v>
+        <v>0.03336776932470744</v>
       </c>
       <c r="L108" t="n">
-        <v>0.04354788407809673</v>
+        <v>0.07424821390004771</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03290501033459827</v>
+        <v>0.03325375757875277</v>
       </c>
       <c r="N108" t="n">
-        <v>0.06178101799809144</v>
+        <v>0.02144407763171671</v>
       </c>
       <c r="O108" t="n">
-        <v>0.0327145640894313</v>
+        <v>0.03367737550780769</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.01987794042170382</v>
+        <v>0.02164695814267301</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03403415297346846</v>
+        <v>0.03446057028705903</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02064911909181889</v>
+        <v>0.04813586090119093</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03200282682699899</v>
+        <v>0.03414376396016575</v>
       </c>
       <c r="L109" t="n">
-        <v>0.042521969209668</v>
+        <v>0.07440003031841735</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03367024313307729</v>
+        <v>0.03402710077825864</v>
       </c>
       <c r="N109" t="n">
-        <v>0.06052871371576984</v>
+        <v>0.02164695814267301</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03347536790546459</v>
+        <v>0.03446057028705903</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.01756705573934464</v>
+        <v>0.02183526066883237</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0348076564501382</v>
+        <v>0.03524376506631038</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02040616728194761</v>
+        <v>0.04841164276008586</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03273016380033988</v>
+        <v>0.03491975859562407</v>
       </c>
       <c r="L110" t="n">
-        <v>0.04218287287068792</v>
+        <v>0.07551224997721956</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03443547593155633</v>
+        <v>0.03480044397776452</v>
       </c>
       <c r="N110" t="n">
-        <v>0.05859859271200973</v>
+        <v>0.02183526066883237</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03423617172149787</v>
+        <v>0.03524376506631038</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01730486209115589</v>
+        <v>0.02190854113646519</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03558115992680794</v>
+        <v>0.03602695984556172</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02015322465763236</v>
+        <v>0.04855873289228085</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03345750077368076</v>
+        <v>0.03569575323108238</v>
       </c>
       <c r="L111" t="n">
-        <v>0.04104201539732993</v>
+        <v>0.07608417346806451</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03520070873003536</v>
+        <v>0.0355737871772704</v>
       </c>
       <c r="N111" t="n">
-        <v>0.05764533369158181</v>
+        <v>0.02190854113646519</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03499697553753116</v>
+        <v>0.03602695984556172</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01710465150627152</v>
+        <v>0.02216635547184181</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03635466340347767</v>
+        <v>0.03681015462481305</v>
       </c>
       <c r="J112" t="n">
-        <v>0.01979408688043359</v>
+        <v>0.04917633821203563</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03418483774702166</v>
+        <v>0.03647174786654069</v>
       </c>
       <c r="L112" t="n">
-        <v>0.0407108171257676</v>
+        <v>0.07651510138256246</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03596594152851438</v>
+        <v>0.03634713037677628</v>
       </c>
       <c r="N112" t="n">
-        <v>0.05672361535925646</v>
+        <v>0.02216635547184181</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03575777935356445</v>
+        <v>0.03681015462481305</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.0169797160138255</v>
+        <v>0.02230825960123263</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03712816688014741</v>
+        <v>0.0375933494040644</v>
       </c>
       <c r="J113" t="n">
-        <v>0.01953254961191182</v>
+        <v>0.04916366563360991</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03491217472036254</v>
+        <v>0.03724774250199901</v>
       </c>
       <c r="L113" t="n">
-        <v>0.04010069839217434</v>
+        <v>0.07670433431232349</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03673117432699341</v>
+        <v>0.03712047357628216</v>
       </c>
       <c r="N113" t="n">
-        <v>0.0555881164198046</v>
+        <v>0.02230825960123263</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03651858316959773</v>
+        <v>0.0375933494040644</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01894280455312715</v>
+        <v>0.02233380945090799</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03790167035681715</v>
+        <v>0.03837654418331574</v>
       </c>
       <c r="J114" t="n">
-        <v>0.01927240851362751</v>
+        <v>0.04981992207126359</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03563951169370342</v>
+        <v>0.03802373713745732</v>
       </c>
       <c r="L114" t="n">
-        <v>0.03892307953272364</v>
+        <v>0.07675117284895772</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03749640712547244</v>
+        <v>0.03789381677578804</v>
       </c>
       <c r="N114" t="n">
-        <v>0.05539351557799665</v>
+        <v>0.02233380945090799</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03727938698563102</v>
+        <v>0.03837654418331574</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01695986630974568</v>
+        <v>0.02244256094713826</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03867517383348688</v>
+        <v>0.03915973896256708</v>
       </c>
       <c r="J115" t="n">
-        <v>0.01921745924714116</v>
+        <v>0.0498443144392563</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03636684866704431</v>
+        <v>0.03879973177291563</v>
       </c>
       <c r="L115" t="n">
-        <v>0.03828938088358899</v>
+        <v>0.07695491758407536</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03826163992395147</v>
+        <v>0.03866715997529392</v>
       </c>
       <c r="N115" t="n">
-        <v>0.05478292916249033</v>
+        <v>0.02244256094713826</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0380401908016643</v>
+        <v>0.03915973896256708</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.0170030456967135</v>
+        <v>0.02263407001619379</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03944867731015662</v>
+        <v>0.03994293374181843</v>
       </c>
       <c r="J116" t="n">
-        <v>0.01897149747401325</v>
+        <v>0.04983604965184787</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03709418564038519</v>
+        <v>0.03957572640837394</v>
       </c>
       <c r="L116" t="n">
-        <v>0.03801102278094387</v>
+        <v>0.07731486910928659</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0390268727224305</v>
+        <v>0.0394405031747998</v>
       </c>
       <c r="N116" t="n">
-        <v>0.0548646352121771</v>
+        <v>0.02263407001619379</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03880099461769759</v>
+        <v>0.03994293374181843</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01907058904294448</v>
+        <v>0.02270789258434493</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04022218078682636</v>
+        <v>0.04072612852106977</v>
       </c>
       <c r="J117" t="n">
-        <v>0.01873831885580425</v>
+        <v>0.0502943346232981</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03782152261372609</v>
+        <v>0.04035172104383225</v>
       </c>
       <c r="L117" t="n">
-        <v>0.03739942556096179</v>
+        <v>0.07753032801620152</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03979210552090953</v>
+        <v>0.04021384637430567</v>
       </c>
       <c r="N117" t="n">
-        <v>0.05504837683825686</v>
+        <v>0.02270789258434493</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03956179843373087</v>
+        <v>0.04072612852106977</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01916074267735245</v>
+        <v>0.02266358457786209</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0409956842634961</v>
+        <v>0.04150932330032111</v>
       </c>
       <c r="J118" t="n">
-        <v>0.01852171905407467</v>
+        <v>0.05051837626786665</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03854885958706697</v>
+        <v>0.04112771567929057</v>
       </c>
       <c r="L118" t="n">
-        <v>0.03676600955981624</v>
+        <v>0.07750059489643035</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04055733831938856</v>
+        <v>0.04098718957381155</v>
       </c>
       <c r="N118" t="n">
-        <v>0.05542823218668219</v>
+        <v>0.02266358457786209</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04032260224976416</v>
+        <v>0.04150932330032111</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01727175292885119</v>
+        <v>0.02290070192301559</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04176918774016584</v>
+        <v>0.04229251807957245</v>
       </c>
       <c r="J119" t="n">
-        <v>0.01832549373038496</v>
+        <v>0.05060738149981339</v>
       </c>
       <c r="K119" t="n">
-        <v>0.03927619656040785</v>
+        <v>0.04190371031474888</v>
       </c>
       <c r="L119" t="n">
-        <v>0.03682219511368071</v>
+        <v>0.07782497034158309</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04132257111786759</v>
+        <v>0.04176053277331743</v>
       </c>
       <c r="N119" t="n">
-        <v>0.05589827940340547</v>
+        <v>0.02290070192301559</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04108340606579745</v>
+        <v>0.04229251807957245</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.0184018661263546</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04254269121683557</v>
+        <v>0.04307571285882379</v>
       </c>
       <c r="J120" t="n">
-        <v>0.01795343854629564</v>
+        <v>0.05067716506702777</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04000353353374874</v>
+        <v>0.04267970495020719</v>
       </c>
       <c r="L120" t="n">
-        <v>0.0363794025587286</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04208780391634662</v>
+        <v>0.04253387597282331</v>
       </c>
       <c r="N120" t="n">
-        <v>0.05625259663437931</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04184420988183073</v>
+        <v>0.04307571285882379</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01854932859877646</v>
+        <v>0.02291891738949881</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04331619469350531</v>
+        <v>0.04385890763807513</v>
       </c>
       <c r="J121" t="n">
-        <v>0.01790934916336716</v>
+        <v>0.05037711856196855</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04073087050708962</v>
+        <v>0.04345569958566551</v>
       </c>
       <c r="L121" t="n">
-        <v>0.03644905223113351</v>
+        <v>0.07813324929310156</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04285303671482565</v>
+        <v>0.04330721917232919</v>
       </c>
       <c r="N121" t="n">
-        <v>0.05658526202555608</v>
+        <v>0.02291891738949881</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04260501369786401</v>
+        <v>0.04385890763807513</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01971238667503061</v>
+        <v>0.02280781899453881</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04408969817017505</v>
+        <v>0.04464210241732647</v>
       </c>
       <c r="J122" t="n">
-        <v>0.01769702124316003</v>
+        <v>0.05025977141449445</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04145820748043051</v>
+        <v>0.04423169422112382</v>
       </c>
       <c r="L122" t="n">
-        <v>0.03604380919524999</v>
+        <v>0.07842490096245114</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04361826951330468</v>
+        <v>0.04408056237183507</v>
       </c>
       <c r="N122" t="n">
-        <v>0.05729035372288843</v>
+        <v>0.02280781899453881</v>
       </c>
       <c r="O122" t="n">
-        <v>0.0433658175138973</v>
+        <v>0.04464210241732647</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01888928668403091</v>
+        <v>0.0227868078502995</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04486320164684478</v>
+        <v>0.04542529719657782</v>
       </c>
       <c r="J123" t="n">
-        <v>0.01772025044723474</v>
+        <v>0.05031214016925439</v>
       </c>
       <c r="K123" t="n">
-        <v>0.0421855444537714</v>
+        <v>0.04500768885658213</v>
       </c>
       <c r="L123" t="n">
-        <v>0.03617621877874894</v>
+        <v>0.07829296480856596</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04438350231178371</v>
+        <v>0.04485390557134095</v>
       </c>
       <c r="N123" t="n">
-        <v>0.05776194987232874</v>
+        <v>0.0227868078502995</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04412662132993059</v>
+        <v>0.04542529719657782</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01807827495469114</v>
+        <v>0.02265636122795649</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04563670512351452</v>
+        <v>0.04620849197582916</v>
       </c>
       <c r="J124" t="n">
-        <v>0.01778283243715174</v>
+        <v>0.05023568324402847</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04291288142711228</v>
+        <v>0.04578368349204045</v>
       </c>
       <c r="L124" t="n">
-        <v>0.03643727407515215</v>
+        <v>0.07793823360595692</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04514873511026274</v>
+        <v>0.04562724877084683</v>
       </c>
       <c r="N124" t="n">
-        <v>0.05909412861982954</v>
+        <v>0.02265636122795649</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04488742514596387</v>
+        <v>0.04620849197582916</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01827759781592517</v>
+        <v>0.0228169563986854</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04641020860018426</v>
+        <v>0.0469916867550805</v>
       </c>
       <c r="J125" t="n">
-        <v>0.01778727174894036</v>
+        <v>0.04993185905659697</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04364021840045317</v>
+        <v>0.04655967812749875</v>
       </c>
       <c r="L125" t="n">
-        <v>0.03721485089328364</v>
+        <v>0.07806127076294256</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04591396790874176</v>
+        <v>0.0464005919703527</v>
       </c>
       <c r="N125" t="n">
-        <v>0.05938096811134341</v>
+        <v>0.0228169563986854</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04564822896199716</v>
+        <v>0.0469916867550805</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01948550159664683</v>
+        <v>0.02266907063366184</v>
       </c>
       <c r="G126" t="n">
-        <v>0.047183712076854</v>
+        <v>0.04777488153433184</v>
       </c>
       <c r="J126" t="n">
-        <v>0.01772962393116302</v>
+        <v>0.05020212602474014</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04436755537379405</v>
+        <v>0.04733567276295707</v>
       </c>
       <c r="L126" t="n">
-        <v>0.03749682504196736</v>
+        <v>0.07786263968784124</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04667920070722079</v>
+        <v>0.04717393516985858</v>
       </c>
       <c r="N126" t="n">
-        <v>0.06051654649282273</v>
+        <v>0.02266907063366184</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04640903277803045</v>
+        <v>0.04777488153433184</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01970023262576993</v>
+        <v>0.02271318120406142</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04795721555352374</v>
+        <v>0.04855807631358319</v>
       </c>
       <c r="J127" t="n">
-        <v>0.01770683473375183</v>
+        <v>0.04984794256623809</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04509489234713494</v>
+        <v>0.04811166739841538</v>
       </c>
       <c r="L127" t="n">
-        <v>0.03817107233002728</v>
+        <v>0.07784290378897163</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04744443350569982</v>
+        <v>0.04794727836936446</v>
       </c>
       <c r="N127" t="n">
-        <v>0.06129494191022</v>
+        <v>0.02271318120406142</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04716983659406374</v>
+        <v>0.04855807631358319</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01992003723220831</v>
+        <v>0.02254976538105975</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04873071903019348</v>
+        <v>0.04934127109283452</v>
       </c>
       <c r="J128" t="n">
-        <v>0.01781616356222615</v>
+        <v>0.04957076709887109</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04582222932047583</v>
+        <v>0.04888766203387369</v>
       </c>
       <c r="L128" t="n">
-        <v>0.0386254685662874</v>
+        <v>0.07770262647465204</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04820966630417885</v>
+        <v>0.04872062156887034</v>
       </c>
       <c r="N128" t="n">
-        <v>0.06241023250948791</v>
+        <v>0.02254976538105975</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04793064041009702</v>
+        <v>0.04934127109283452</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02114316174487582</v>
+        <v>0.02237930043583246</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04950422250686321</v>
+        <v>0.05012446587208587</v>
       </c>
       <c r="J129" t="n">
-        <v>0.01795486982210528</v>
+        <v>0.04937205804041936</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04654956629381671</v>
+        <v>0.04966365666933201</v>
       </c>
       <c r="L129" t="n">
-        <v>0.03944788955957174</v>
+        <v>0.07744237115320091</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04897489910265788</v>
+        <v>0.04949396476837622</v>
       </c>
       <c r="N129" t="n">
-        <v>0.06345649643657869</v>
+        <v>0.02237930043583246</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04869144422613031</v>
+        <v>0.05012446587208587</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02036785249268626</v>
+        <v>0.02230226363955515</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05027772598353295</v>
+        <v>0.05090766065133721</v>
       </c>
       <c r="J130" t="n">
-        <v>0.0183202129189086</v>
+        <v>0.04935327380866311</v>
       </c>
       <c r="K130" t="n">
-        <v>0.0472769032671576</v>
+        <v>0.05043965130479031</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04032621111870419</v>
+        <v>0.0770627012329369</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04974013190113692</v>
+        <v>0.05026730796788209</v>
       </c>
       <c r="N130" t="n">
-        <v>0.064427811837445</v>
+        <v>0.02230226363955515</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04945224804216359</v>
+        <v>0.05090766065133721</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02159235580455347</v>
+        <v>0.02241913226340343</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05105122946020269</v>
+        <v>0.05169085543058854</v>
       </c>
       <c r="J131" t="n">
-        <v>0.01850945225815542</v>
+        <v>0.04911587282138255</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04800424024049849</v>
+        <v>0.05121564594024863</v>
       </c>
       <c r="L131" t="n">
-        <v>0.04114830905250882</v>
+        <v>0.07666418012217829</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05050536469961595</v>
+        <v>0.05104065116738797</v>
       </c>
       <c r="N131" t="n">
-        <v>0.06491825685803937</v>
+        <v>0.02241913226340343</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05021305185819688</v>
+        <v>0.05169085543058854</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02181491800939128</v>
+        <v>0.02223038357855292</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05182473293687243</v>
+        <v>0.05247405020983989</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0185198472453651</v>
+        <v>0.04906131349635784</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04873157721383937</v>
+        <v>0.05199164057570695</v>
       </c>
       <c r="L132" t="n">
-        <v>0.04210205916980958</v>
+        <v>0.07684737122924351</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05127059749809498</v>
+        <v>0.05181399436689385</v>
       </c>
       <c r="N132" t="n">
-        <v>0.06602190964431415</v>
+        <v>0.02223038357855292</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05097385567423016</v>
+        <v>0.05247405020983989</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02203378543611353</v>
+        <v>0.02223649485617923</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05259823641354217</v>
+        <v>0.05325724498909123</v>
       </c>
       <c r="J133" t="n">
-        <v>0.01874865728605694</v>
+        <v>0.04859105425136925</v>
       </c>
       <c r="K133" t="n">
-        <v>0.04945891418718026</v>
+        <v>0.05276763521116525</v>
       </c>
       <c r="L133" t="n">
-        <v>0.04267533727943038</v>
+        <v>0.07681283796245125</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05203583029657401</v>
+        <v>0.05258733756639973</v>
       </c>
       <c r="N133" t="n">
-        <v>0.06723284834222198</v>
+        <v>0.02223649485617923</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05173465949026345</v>
+        <v>0.05325724498909123</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02224720441363405</v>
+        <v>0.02203794336745798</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05337173989021191</v>
+        <v>0.05404043976834258</v>
       </c>
       <c r="J134" t="n">
-        <v>0.01919314178575034</v>
+        <v>0.04800655350419697</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05018625116052115</v>
+        <v>0.05354362984662357</v>
       </c>
       <c r="L134" t="n">
-        <v>0.04365601919019527</v>
+        <v>0.07626114373011983</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05280106309505304</v>
+        <v>0.0533606807659056</v>
       </c>
       <c r="N134" t="n">
-        <v>0.06844515109771532</v>
+        <v>0.02203794336745798</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05249546330629674</v>
+        <v>0.05404043976834258</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02145342127086666</v>
+        <v>0.02203520638356479</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05414524336688163</v>
+        <v>0.05482363454759392</v>
       </c>
       <c r="J135" t="n">
-        <v>0.01925056014996457</v>
+        <v>0.04770926967262121</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05091358813386203</v>
+        <v>0.05431962448208188</v>
       </c>
       <c r="L135" t="n">
-        <v>0.0448319807109282</v>
+        <v>0.07569285194056774</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05356629589353207</v>
+        <v>0.05413402396541149</v>
       </c>
       <c r="N135" t="n">
-        <v>0.06925289605674656</v>
+        <v>0.02203520638356479</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05325626712233002</v>
+        <v>0.05482363454759392</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02165068233672521</v>
+        <v>0.02172876117567524</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05491874684355138</v>
+        <v>0.05560682932684526</v>
       </c>
       <c r="J136" t="n">
-        <v>0.01961817178421904</v>
+        <v>0.04760066117442219</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05164092510720292</v>
+        <v>0.05509561911754019</v>
       </c>
       <c r="L136" t="n">
-        <v>0.04559109765045319</v>
+        <v>0.07570852600211342</v>
       </c>
       <c r="M136" t="n">
-        <v>0.0543315286920111</v>
+        <v>0.05490736716491736</v>
       </c>
       <c r="N136" t="n">
-        <v>0.07035016136526845</v>
+        <v>0.02172876117567524</v>
       </c>
       <c r="O136" t="n">
-        <v>0.0540170709383633</v>
+        <v>0.05560682932684526</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02183723394012352</v>
+        <v>0.02161908501496498</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05569225032022112</v>
+        <v>0.0563900241060966</v>
       </c>
       <c r="J137" t="n">
-        <v>0.01979323609403304</v>
+        <v>0.04728218642738011</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05236826208054381</v>
+        <v>0.05587161375299851</v>
       </c>
       <c r="L137" t="n">
-        <v>0.04632124581759414</v>
+        <v>0.0755087293230754</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05509676149049012</v>
+        <v>0.05568071036442325</v>
       </c>
       <c r="N137" t="n">
-        <v>0.07143102516923328</v>
+        <v>0.02161908501496498</v>
       </c>
       <c r="O137" t="n">
-        <v>0.0547778747543966</v>
+        <v>0.0563900241060966</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.0230113224099754</v>
+        <v>0.02160665517260961</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05646575379689085</v>
+        <v>0.05717321888534794</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02017301248492592</v>
+        <v>0.04695530384927518</v>
       </c>
       <c r="K138" t="n">
-        <v>0.0530955990538847</v>
+        <v>0.05664760838845682</v>
       </c>
       <c r="L138" t="n">
-        <v>0.04701030102117512</v>
+        <v>0.07479402531177209</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05586199428896915</v>
+        <v>0.05645405356392912</v>
       </c>
       <c r="N138" t="n">
-        <v>0.07228956561459354</v>
+        <v>0.02160665517260961</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05553867857042988</v>
+        <v>0.05717321888534794</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02317119407519472</v>
+        <v>0.02139194891978476</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05723925727356059</v>
+        <v>0.05795641366459928</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02055476036241703</v>
+        <v>0.0468214718578876</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05382293602722558</v>
+        <v>0.05742360302391513</v>
       </c>
       <c r="L139" t="n">
-        <v>0.04784613907002006</v>
+        <v>0.074664977376522</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05662722708744818</v>
+        <v>0.057227396763435</v>
       </c>
       <c r="N139" t="n">
-        <v>0.07281986084730185</v>
+        <v>0.02139194891978476</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05629948238646316</v>
+        <v>0.05795641366459928</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02131509526469527</v>
+        <v>0.02137544352766599</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05801276075023033</v>
+        <v>0.05873960844385063</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02063573913202568</v>
+        <v>0.04608214887099762</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05455027300056646</v>
+        <v>0.05819959765937345</v>
       </c>
       <c r="L140" t="n">
-        <v>0.04851663577295293</v>
+        <v>0.07412214892564351</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05739245988592721</v>
+        <v>0.05800073996294088</v>
       </c>
       <c r="N140" t="n">
-        <v>0.07381598901331066</v>
+        <v>0.02137544352766599</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05706028620249646</v>
+        <v>0.05873960844385063</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02244127230739092</v>
+        <v>0.02135761626742898</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05878626422690006</v>
+        <v>0.05952280322310197</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02091320819927124</v>
+        <v>0.04573879330638544</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05527760997390735</v>
+        <v>0.05897559229483176</v>
       </c>
       <c r="L141" t="n">
-        <v>0.04880966693879776</v>
+        <v>0.07446610336745524</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05815769268440624</v>
+        <v>0.05877408316244676</v>
       </c>
       <c r="N141" t="n">
-        <v>0.07497202825857241</v>
+        <v>0.02135761626742898</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05782109001852973</v>
+        <v>0.05952280322310197</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02254797153219547</v>
+        <v>0.02103894441024928</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0595597677035698</v>
+        <v>0.0603059980023533</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02118442696967306</v>
+        <v>0.04549286358183122</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05600494694724823</v>
+        <v>0.05975158693029007</v>
       </c>
       <c r="L142" t="n">
-        <v>0.04951310837637851</v>
+        <v>0.07359740411027549</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05892292548288527</v>
+        <v>0.05954742636195264</v>
       </c>
       <c r="N142" t="n">
-        <v>0.07568205672903972</v>
+        <v>0.02103894441024928</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05858189383456303</v>
+        <v>0.0603059980023533</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02263343926802276</v>
+        <v>0.02091990522730257</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06033327118023955</v>
+        <v>0.06108919278160465</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02164665484875045</v>
+        <v>0.04534581811511526</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05673228392058913</v>
+        <v>0.06052758156574839</v>
       </c>
       <c r="L143" t="n">
-        <v>0.04971483589451911</v>
+        <v>0.07301661456242292</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05968815828136429</v>
+        <v>0.06032076956145851</v>
       </c>
       <c r="N143" t="n">
-        <v>0.07654015257066504</v>
+        <v>0.02091990522730257</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05934269765059632</v>
+        <v>0.06108919278160465</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02370952772806101</v>
+        <v>0.02090097598976441</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06110677465690927</v>
+        <v>0.06187238756085599</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02169715124202273</v>
+        <v>0.04509911532401772</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05745962089393001</v>
+        <v>0.06130357620120669</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05040272530204359</v>
+        <v>0.0733242981322158</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06045339107984332</v>
+        <v>0.06109411276096439</v>
       </c>
       <c r="N144" t="n">
-        <v>0.07694039392940077</v>
+        <v>0.02090097598976441</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06010350146662959</v>
+        <v>0.06187238756085599</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02273993380317801</v>
+        <v>0.02068263396881044</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06188027813357901</v>
+        <v>0.06265558234010733</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02213317555500929</v>
+        <v>0.04445421362631877</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05818695786727089</v>
+        <v>0.06207957083666501</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05067716506702777</v>
+        <v>0.07232101822797271</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06121862387832235</v>
+        <v>0.06186745596047027</v>
       </c>
       <c r="N145" t="n">
-        <v>0.07767685895119958</v>
+        <v>0.02068263396881044</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06086430528266289</v>
+        <v>0.06265558234010733</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02178216504399913</v>
+        <v>0.02076535643561626</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06265378161024876</v>
+        <v>0.06343877711935868</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02215198719322944</v>
+        <v>0.04411257143979869</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05891429484061178</v>
+        <v>0.06285556547212333</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05073976764020038</v>
+        <v>0.0724073382580121</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06198385667680138</v>
+        <v>0.06264079915997614</v>
       </c>
       <c r="N146" t="n">
-        <v>0.07843370505111691</v>
+        <v>0.02076535643561626</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06162510909869617</v>
+        <v>0.06343877711935868</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02182361489810174</v>
+        <v>0.0206496206613575</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06342728508691849</v>
+        <v>0.06422197189861001</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02245084556220252</v>
+        <v>0.04417564718223765</v>
       </c>
       <c r="K147" t="n">
-        <v>0.05964163181395266</v>
+        <v>0.06363156010758163</v>
       </c>
       <c r="L147" t="n">
-        <v>0.05081126888309367</v>
+        <v>0.07138382163065238</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06274908947528042</v>
+        <v>0.06341414235948202</v>
       </c>
       <c r="N147" t="n">
-        <v>0.0788241609479951</v>
+        <v>0.0206496206613575</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06238591291472945</v>
+        <v>0.06422197189861001</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02386425281707356</v>
+        <v>0.02053590391720976</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06420078856358823</v>
+        <v>0.06500516667786137</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02262701006744788</v>
+        <v>0.04384489927141588</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06036896878729356</v>
+        <v>0.06440755474303994</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05068065409735659</v>
+        <v>0.0712510317542121</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06351432227375944</v>
+        <v>0.0641874855589879</v>
       </c>
       <c r="N148" t="n">
-        <v>0.07911194255020776</v>
+        <v>0.02053590391720976</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06314671673076275</v>
+        <v>0.06500516667786137</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02190404825250238</v>
+        <v>0.02042468347434867</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06497429204025797</v>
+        <v>0.0657883614571127</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02292062508293861</v>
+        <v>0.04302178612511359</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06109630576063444</v>
+        <v>0.06518354937849825</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05064792291673825</v>
+        <v>0.0706095320370097</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06427955507223848</v>
+        <v>0.06496082875849378</v>
       </c>
       <c r="N149" t="n">
-        <v>0.08021064030158664</v>
+        <v>0.02042468347434867</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06390752054679602</v>
+        <v>0.0657883614571127</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02394297065597593</v>
+        <v>0.02011643660394979</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06574779551692771</v>
+        <v>0.06657155623636404</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02290727181594841</v>
+        <v>0.042907766161111</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06182364273397532</v>
+        <v>0.06595954401395657</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05061307497498777</v>
+        <v>0.07045988588736363</v>
       </c>
       <c r="M150" t="n">
-        <v>0.0650447878707175</v>
+        <v>0.06573417195799966</v>
       </c>
       <c r="N150" t="n">
-        <v>0.0810170685424248</v>
+        <v>0.02011643660394979</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06466832436282932</v>
+        <v>0.06657155623636404</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02398098947908199</v>
+        <v>0.02021164057718881</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06652129899359745</v>
+        <v>0.06735475101561539</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02293594595676755</v>
+        <v>0.04270429779718829</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06255097970731621</v>
+        <v>0.06673553864941488</v>
       </c>
       <c r="L151" t="n">
-        <v>0.05067610990585417</v>
+        <v>0.07030265671359237</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06581002066919654</v>
+        <v>0.06650751515750554</v>
       </c>
       <c r="N151" t="n">
-        <v>0.08162804161301551</v>
+        <v>0.02021164057718881</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06542912817886259</v>
+        <v>0.06735475101561539</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.0240180741734083</v>
+        <v>0.02011077266524129</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06729480247026719</v>
+        <v>0.06813794579486672</v>
       </c>
       <c r="J152" t="n">
-        <v>0.0232650339906834</v>
+        <v>0.0424128394511257</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06327831668065709</v>
+        <v>0.06751153328487319</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05113702734308667</v>
+        <v>0.06913840792401443</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06657525346767557</v>
+        <v>0.06728085835701142</v>
       </c>
       <c r="N152" t="n">
-        <v>0.08204037385365198</v>
+        <v>0.02011077266524129</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06618993199489588</v>
+        <v>0.06813794579486672</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02405419419054264</v>
+        <v>0.01981431013928286</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06806830594693691</v>
+        <v>0.06892114057411806</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02339425225900509</v>
+        <v>0.04183484954070341</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06400565365399798</v>
+        <v>0.06828752792033151</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05069582692043431</v>
+        <v>0.06866770292694818</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06734048626615459</v>
+        <v>0.06805420155651729</v>
       </c>
       <c r="N153" t="n">
-        <v>0.08215087960462736</v>
+        <v>0.01981431013928286</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06695073581092918</v>
+        <v>0.06892114057411806</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02408931898207275</v>
+        <v>0.01992273027048916</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06884180942360665</v>
+        <v>0.06970433535336941</v>
       </c>
       <c r="J154" t="n">
-        <v>0.0234233171030418</v>
+        <v>0.04207178648370169</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06473299062733888</v>
+        <v>0.06906352255578982</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05125250827164618</v>
+        <v>0.06839110513071212</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06810571906463361</v>
+        <v>0.06882754475602318</v>
       </c>
       <c r="N154" t="n">
-        <v>0.08315637320623487</v>
+        <v>0.01992273027048916</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06771153962696246</v>
+        <v>0.06970433535336941</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02312341799958638</v>
+        <v>0.01983508267746995</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06961531290027639</v>
+        <v>0.07048753013262075</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02355194486410268</v>
+        <v>0.04172510869790069</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06546032760067975</v>
+        <v>0.06983951719124813</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05110707103047143</v>
+        <v>0.06830917794362479</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06887095186311265</v>
+        <v>0.06960088795552904</v>
       </c>
       <c r="N155" t="n">
-        <v>0.08395366899876772</v>
+        <v>0.01983508267746995</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06847234344299574</v>
+        <v>0.07048753013262075</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02415646069467133</v>
+        <v>0.01954957709300149</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07038881637694612</v>
+        <v>0.07127072491187209</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02377985188349695</v>
+        <v>0.04149627460108066</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06618766457402064</v>
+        <v>0.07061551182670645</v>
       </c>
       <c r="L156" t="n">
-        <v>0.0512595148306591</v>
+        <v>0.06732248477400454</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06963618466159167</v>
+        <v>0.07037423115503494</v>
       </c>
       <c r="N156" t="n">
-        <v>0.08423958132251896</v>
+        <v>0.01954957709300149</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06923314725902903</v>
+        <v>0.07127072491187209</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02318841651891532</v>
+        <v>0.01966606097724981</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07116231985361587</v>
+        <v>0.07205391969112344</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02370675450253372</v>
+        <v>0.04108197472312353</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06691500154736152</v>
+        <v>0.07139150646216476</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05110983930595833</v>
+        <v>0.06693158903016994</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07040141746007071</v>
+        <v>0.0711475743545408</v>
       </c>
       <c r="N157" t="n">
-        <v>0.08521092451778189</v>
+        <v>0.01966606097724981</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06999395107506232</v>
+        <v>0.07205391969112344</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0242192549239061</v>
+        <v>0.01938438996351191</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07193582333028561</v>
+        <v>0.07283711447037478</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02393236906252218</v>
+        <v>0.04067673438987768</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06764233852070241</v>
+        <v>0.07216750109762307</v>
       </c>
       <c r="L158" t="n">
-        <v>0.0511580440901182</v>
+        <v>0.0662370541204394</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07116665025854974</v>
+        <v>0.07192091755404668</v>
       </c>
       <c r="N158" t="n">
-        <v>0.08566451292484972</v>
+        <v>0.01938438996351191</v>
       </c>
       <c r="O158" t="n">
-        <v>0.0707547548910956</v>
+        <v>0.07283711447037478</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02224894536123145</v>
+        <v>0.01940441968508486</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07270932680695534</v>
+        <v>0.07362030924962611</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02405641190477152</v>
+        <v>0.04048002054886318</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06836967549404331</v>
+        <v>0.07294349573308138</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05110412881688786</v>
+        <v>0.06643944345313141</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07193188305702876</v>
+        <v>0.07269426075355256</v>
       </c>
       <c r="N159" t="n">
-        <v>0.08569716088401547</v>
+        <v>0.01940441968508486</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07151555870712889</v>
+        <v>0.07362030924962611</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02427745728247914</v>
+        <v>0.01942600577526565</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07348283028362508</v>
+        <v>0.07440350402887747</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02427859937059088</v>
+        <v>0.0403913099184684</v>
       </c>
       <c r="K160" t="n">
-        <v>0.06909701246738419</v>
+        <v>0.0737194903685397</v>
       </c>
       <c r="L160" t="n">
-        <v>0.0515480931200164</v>
+        <v>0.06583932043656443</v>
       </c>
       <c r="M160" t="n">
-        <v>0.0726971158555078</v>
+        <v>0.07346760395305844</v>
       </c>
       <c r="N160" t="n">
-        <v>0.08610568273557245</v>
+        <v>0.01942600577526565</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07227636252316218</v>
+        <v>0.07440350402887747</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02230476013923689</v>
+        <v>0.01914900386735134</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07425633376029482</v>
+        <v>0.0751866988081288</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02439864780128945</v>
+        <v>0.04011007921708193</v>
       </c>
       <c r="K161" t="n">
-        <v>0.06982434944072508</v>
+        <v>0.07449548500399801</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05108993663325284</v>
+        <v>0.06483724847905697</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07346234865398682</v>
+        <v>0.07424094715256432</v>
       </c>
       <c r="N161" t="n">
-        <v>0.08678689281981389</v>
+        <v>0.01914900386735134</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07303716633919545</v>
+        <v>0.0751866988081288</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02233082338309249</v>
+        <v>0.01927326959463894</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07502983723696455</v>
+        <v>0.07596989358738014</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02451627353817637</v>
+        <v>0.04023580516309211</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07055168641406595</v>
+        <v>0.07527147963945632</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05132965899034639</v>
+        <v>0.06443379098892743</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07422758145246586</v>
+        <v>0.07501429035207019</v>
       </c>
       <c r="N162" t="n">
-        <v>0.08723760547703291</v>
+        <v>0.01927326959463894</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07379797015522875</v>
+        <v>0.07596989358738014</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02335561646563367</v>
+        <v>0.01919865859042551</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0758033407136343</v>
+        <v>0.07675308836663149</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02453119292256083</v>
+        <v>0.04026796447488742</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07127902338740684</v>
+        <v>0.07604747427491464</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05166725982504611</v>
+        <v>0.06422951137449434</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07499281425094488</v>
+        <v>0.07578763355157608</v>
       </c>
       <c r="N163" t="n">
-        <v>0.0875546350475227</v>
+        <v>0.01919865859042551</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07455877397126204</v>
+        <v>0.07675308836663149</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02237910883844821</v>
+        <v>0.01892502648800805</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07657684419030404</v>
+        <v>0.07753628314588283</v>
       </c>
       <c r="J164" t="n">
-        <v>0.024743122295752</v>
+        <v>0.04010603387085632</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07200636036074774</v>
+        <v>0.07682346891037295</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05170273877110107</v>
+        <v>0.06322334742701285</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07575804704942392</v>
+        <v>0.07656097675108195</v>
       </c>
       <c r="N164" t="n">
-        <v>0.0882347958715764</v>
+        <v>0.01892502648800805</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07531957778729531</v>
+        <v>0.07753628314588283</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02440126995312386</v>
+        <v>0.01905222892068362</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07735034766697377</v>
+        <v>0.07831947792513416</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02485177799905904</v>
+        <v>0.03954949006938718</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07273369733408862</v>
+        <v>0.07759946354583126</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05133609546226042</v>
+        <v>0.06275190744304771</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07652327984790294</v>
+        <v>0.07733431995058784</v>
       </c>
       <c r="N165" t="n">
-        <v>0.08837490228948736</v>
+        <v>0.01905222892068362</v>
       </c>
       <c r="O165" t="n">
-        <v>0.0760803816033286</v>
+        <v>0.07831947792513416</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02442206926124839</v>
+        <v>0.01898012152174922</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07812385114364351</v>
+        <v>0.07910267270438551</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02485687637379111</v>
+        <v>0.03969780978886853</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07346103430742951</v>
+        <v>0.07837545818128956</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05166732953227329</v>
+        <v>0.0623872682467102</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07728851264638198</v>
+        <v>0.07810766315009371</v>
       </c>
       <c r="N166" t="n">
-        <v>0.08897176864154854</v>
+        <v>0.01898012152174922</v>
       </c>
       <c r="O166" t="n">
-        <v>0.0768411854193619</v>
+        <v>0.07910267270438551</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02344147621440955</v>
+        <v>0.01880855992450189</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07889735462031325</v>
+        <v>0.07988586748363685</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02485813376125739</v>
+        <v>0.03945046974768873</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07418837128077038</v>
+        <v>0.07915145281674789</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05159644061488866</v>
+        <v>0.06173623380962789</v>
       </c>
       <c r="M167" t="n">
-        <v>0.078053745444861</v>
+        <v>0.0788810063495996</v>
       </c>
       <c r="N167" t="n">
-        <v>0.08882220926805318</v>
+        <v>0.01880855992450189</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07760198923539517</v>
+        <v>0.07988586748363685</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02445946026419507</v>
+        <v>0.01873739976223869</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07967085809698297</v>
+        <v>0.08066906226288818</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02515526650276706</v>
+        <v>0.03900694666423632</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07491570825411127</v>
+        <v>0.0799274474522062</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05162342834385575</v>
+        <v>0.06060560810342774</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07881897824334004</v>
+        <v>0.07965434954910547</v>
       </c>
       <c r="N168" t="n">
-        <v>0.08962303850929454</v>
+        <v>0.01873739976223869</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07836279305142846</v>
+        <v>0.08066906226288818</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02447599086219275</v>
+        <v>0.01866649666825661</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08044436157365271</v>
+        <v>0.08145225704213954</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02504799093962927</v>
+        <v>0.03886671725689972</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07564304522745217</v>
+        <v>0.0807034420876645</v>
       </c>
       <c r="L169" t="n">
-        <v>0.0513482923529236</v>
+        <v>0.06020219509973707</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07958421104181906</v>
+        <v>0.08042769274861135</v>
       </c>
       <c r="N169" t="n">
-        <v>0.08977107070556589</v>
+        <v>0.01866649666825661</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07912359686746175</v>
+        <v>0.08145225704213954</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02249103745999033</v>
+        <v>0.01859570627585271</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08121786505032247</v>
+        <v>0.08223545182139087</v>
       </c>
       <c r="J170" t="n">
-        <v>0.0251360234131532</v>
+        <v>0.03882925824406727</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07637038220079305</v>
+        <v>0.08147943672312281</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05147103227584135</v>
+        <v>0.05923279877018317</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08034944384029809</v>
+        <v>0.08120103594811723</v>
       </c>
       <c r="N170" t="n">
-        <v>0.08946312019716018</v>
+        <v>0.01859570627585271</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07988440068349503</v>
+        <v>0.08223545182139087</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02450456950917555</v>
+        <v>0.01852488421832399</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08199136852699219</v>
+        <v>0.08301864660064222</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02541908026464801</v>
+        <v>0.0388940463441276</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07709771917413394</v>
+        <v>0.08225543135858114</v>
       </c>
       <c r="L171" t="n">
-        <v>0.0515916477463581</v>
+        <v>0.05760422308639329</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08111467663877711</v>
+        <v>0.08197437914762311</v>
       </c>
       <c r="N171" t="n">
-        <v>0.08979600132437082</v>
+        <v>0.01852488421832399</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08064520449952832</v>
+        <v>0.08301864660064222</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02351655646133621</v>
+        <v>0.01835388612896752</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08276487200366194</v>
+        <v>0.08380184137989356</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02549687783542286</v>
+        <v>0.03876055827546895</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07782505614747481</v>
+        <v>0.08303142599403944</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05141013839822292</v>
+        <v>0.05642327201999453</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08187990943725615</v>
+        <v>0.08274772234712899</v>
       </c>
       <c r="N172" t="n">
-        <v>0.0894451955630402</v>
+        <v>0.01835388612896752</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08140600831556161</v>
+        <v>0.08380184137989356</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02452696776806003</v>
+        <v>0.01828256764108031</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08353837548033168</v>
+        <v>0.08458503615914489</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02536913246678693</v>
+        <v>0.03862827075647993</v>
       </c>
       <c r="K173" t="n">
-        <v>0.0785523931208157</v>
+        <v>0.08380742062949775</v>
       </c>
       <c r="L173" t="n">
-        <v>0.05172650386518496</v>
+        <v>0.05579674954261427</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08264514223573517</v>
+        <v>0.08352106554663485</v>
       </c>
       <c r="N173" t="n">
-        <v>0.0895889169468061</v>
+        <v>0.01828256764108031</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08216681213159489</v>
+        <v>0.08458503615914489</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02353577288093478</v>
+        <v>0.01821078438795938</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0843118789570014</v>
+        <v>0.08536823093839624</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02563556050004939</v>
+        <v>0.03829666050554892</v>
       </c>
       <c r="K174" t="n">
-        <v>0.07927973009415659</v>
+        <v>0.08458341526495608</v>
       </c>
       <c r="L174" t="n">
-        <v>0.05174074378099322</v>
+        <v>0.0544314596258797</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08341037503421421</v>
+        <v>0.08429440874614075</v>
       </c>
       <c r="N174" t="n">
-        <v>0.0889331728567459</v>
+        <v>0.01821078438795938</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08292761594762817</v>
+        <v>0.08536823093839624</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02254294125154822</v>
+        <v>0.0183383920029018</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08508538243367114</v>
+        <v>0.08615142571764758</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02569587827651941</v>
+        <v>0.03806520424106438</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08000706706749748</v>
+        <v>0.08535940990041438</v>
       </c>
       <c r="L175" t="n">
-        <v>0.05155285777939692</v>
+        <v>0.05313420624141807</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08417560783269323</v>
+        <v>0.08506775194564661</v>
       </c>
       <c r="N175" t="n">
-        <v>0.08888400207496672</v>
+        <v>0.0183383920029018</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08368841976366147</v>
+        <v>0.08615142571764758</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.0245484423314881</v>
+        <v>0.01816524611920455</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0858588859103409</v>
+        <v>0.08693462049689893</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02564980213750614</v>
+        <v>0.03793337868141472</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08073440404083837</v>
+        <v>0.08613540453587269</v>
       </c>
       <c r="L176" t="n">
-        <v>0.05186284549414513</v>
+        <v>0.05191179336085666</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08494084063117227</v>
+        <v>0.08584109514515251</v>
       </c>
       <c r="N176" t="n">
-        <v>0.08854744338357567</v>
+        <v>0.01816524611920455</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08444922357969475</v>
+        <v>0.08693462049689893</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02355224557234221</v>
+        <v>0.0179912023701647</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08663238938701062</v>
+        <v>0.08771781527615026</v>
       </c>
       <c r="J177" t="n">
-        <v>0.0255970484243188</v>
+        <v>0.03820066054498839</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08146174101417925</v>
+        <v>0.08691139917133102</v>
       </c>
       <c r="L177" t="n">
-        <v>0.05147070655898692</v>
+        <v>0.05087102495582257</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08570607342965129</v>
+        <v>0.08661443834465837</v>
       </c>
       <c r="N177" t="n">
-        <v>0.08792953556467986</v>
+        <v>0.0179912023701647</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08521002739572803</v>
+        <v>0.08771781527615026</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02455432042569825</v>
+        <v>0.01791611638907925</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08740589286368036</v>
+        <v>0.0885010100554016</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02583733347826649</v>
+        <v>0.03786652655017383</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08218907798752013</v>
+        <v>0.08768739380678932</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05187644060767144</v>
+        <v>0.04931870499794316</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08647130622813033</v>
+        <v>0.08738778154416425</v>
       </c>
       <c r="N178" t="n">
-        <v>0.08693631740038626</v>
+        <v>0.01791611638907925</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08597083121176133</v>
+        <v>0.0885010100554016</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02455389765368629</v>
+        <v>0.01783984380924526</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0881793963403501</v>
+        <v>0.08928420483465295</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02577037364065841</v>
+        <v>0.03803045341535954</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08291641496086102</v>
+        <v>0.08846338844224763</v>
       </c>
       <c r="L179" t="n">
-        <v>0.05188004727394774</v>
+        <v>0.04846163745884563</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08723653902660936</v>
+        <v>0.08816112474367013</v>
       </c>
       <c r="N179" t="n">
-        <v>0.08647382767280215</v>
+        <v>0.01783984380924526</v>
       </c>
       <c r="O179" t="n">
-        <v>0.0867316350277946</v>
+        <v>0.08928420483465295</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.0225409169491393</v>
+        <v>0.01796224026395976</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08895289981701983</v>
+        <v>0.09006739961390429</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02579588525280373</v>
+        <v>0.03779191785893396</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08364375193420191</v>
+        <v>0.08923938307770596</v>
       </c>
       <c r="L180" t="n">
-        <v>0.05168152619156491</v>
+        <v>0.0473066263101572</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08800177182508839</v>
+        <v>0.08893446794317601</v>
       </c>
       <c r="N180" t="n">
-        <v>0.08564810516403454</v>
+        <v>0.01796224026395976</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08749243884382789</v>
+        <v>0.09006739961390429</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02351280297938767</v>
+        <v>0.01778316138651977</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08972640329368957</v>
+        <v>0.09085059439315564</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02571358465601162</v>
+        <v>0.03725039659928545</v>
       </c>
       <c r="K181" t="n">
-        <v>0.0843710889075428</v>
+        <v>0.09001537771316426</v>
       </c>
       <c r="L181" t="n">
-        <v>0.05176415749542479</v>
+        <v>0.04576047552350521</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08876700462356742</v>
+        <v>0.08970781114268189</v>
       </c>
       <c r="N181" t="n">
-        <v>0.08526518865619059</v>
+        <v>0.01778316138651977</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08825324265986119</v>
+        <v>0.09085059439315564</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02447033250395206</v>
+        <v>0.01770246281022229</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09049990677035931</v>
+        <v>0.09163378917240697</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02582318819159124</v>
+        <v>0.03710536635480252</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08509842588088368</v>
+        <v>0.09079137234862257</v>
       </c>
       <c r="L182" t="n">
-        <v>0.05149576000672831</v>
+        <v>0.04432998907051683</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08953223742204645</v>
+        <v>0.09048115434218777</v>
       </c>
       <c r="N182" t="n">
-        <v>0.08393111693137734</v>
+        <v>0.01770246281022229</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08901404647589446</v>
+        <v>0.09163378917240697</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02241428228235315</v>
+        <v>0.01762000016836439</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09127341024702905</v>
+        <v>0.09241698395165832</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02592378143029497</v>
+        <v>0.03705630384387357</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08582576285422457</v>
+        <v>0.0915673669840809</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05157849332271869</v>
+        <v>0.0433219709228192</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09029747022052548</v>
+        <v>0.09125449754169365</v>
       </c>
       <c r="N183" t="n">
-        <v>0.08355192877170187</v>
+        <v>0.01762000016836439</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08977485029192775</v>
+        <v>0.09241698395165832</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02434542907411162</v>
+        <v>0.01743562909424312</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09204691372369879</v>
+        <v>0.09320017873090966</v>
       </c>
       <c r="J184" t="n">
-        <v>0.0259081053667297</v>
+        <v>0.0371026857848871</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08655309982756546</v>
+        <v>0.0923433616195392</v>
       </c>
       <c r="L184" t="n">
-        <v>0.0516155177360513</v>
+        <v>0.04254322505203972</v>
       </c>
       <c r="M184" t="n">
-        <v>0.0910627030190045</v>
+        <v>0.09202784074119952</v>
       </c>
       <c r="N184" t="n">
-        <v>0.08213366295927138</v>
+        <v>0.01743562909424312</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09053565410796105</v>
+        <v>0.09320017873090966</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02226454963874813</v>
+        <v>0.01734920522115546</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09282041720036853</v>
+        <v>0.09398337351016099</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02577474118545744</v>
+        <v>0.03694398889623157</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08728043680090633</v>
+        <v>0.09311935625499751</v>
       </c>
       <c r="L185" t="n">
-        <v>0.05090999353938139</v>
+        <v>0.04130055542980554</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09182793581748352</v>
+        <v>0.0928011839407054</v>
       </c>
       <c r="N185" t="n">
-        <v>0.08168235827619291</v>
+        <v>0.01734920522115546</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09129645792399432</v>
+        <v>0.09398337351016099</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02417242073578334</v>
+        <v>0.01726058418239847</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09359392067703826</v>
+        <v>0.09476656828941235</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02572441654736532</v>
+        <v>0.03667968989629536</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08800777377424723</v>
+        <v>0.09389535089045582</v>
       </c>
       <c r="L186" t="n">
-        <v>0.0511650810253643</v>
+        <v>0.03970076602774397</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09259316861596256</v>
+        <v>0.09357452714021128</v>
       </c>
       <c r="N186" t="n">
-        <v>0.08050405350457351</v>
+        <v>0.01726058418239847</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09205726174002761</v>
+        <v>0.09476656828941235</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02306981912473795</v>
+        <v>0.01716962161126917</v>
       </c>
       <c r="G187" t="n">
-        <v>0.094367424153708</v>
+        <v>0.09554976306866368</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02565785911334047</v>
+        <v>0.03660926550346694</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08873511074758811</v>
+        <v>0.09467134552591414</v>
       </c>
       <c r="L187" t="n">
-        <v>0.05058394048665532</v>
+        <v>0.03905066081748221</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09335840141444159</v>
+        <v>0.09434787033971716</v>
       </c>
       <c r="N187" t="n">
-        <v>0.07940478742652041</v>
+        <v>0.01716962161126917</v>
       </c>
       <c r="O187" t="n">
-        <v>0.0928180655560609</v>
+        <v>0.09554976306866368</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.0239575215651326</v>
+        <v>0.01727617314106461</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09514092763037774</v>
+        <v>0.09633295784791503</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02557579654426997</v>
+        <v>0.03653219243613476</v>
       </c>
       <c r="K188" t="n">
-        <v>0.089462447720929</v>
+        <v>0.09544734016137245</v>
       </c>
       <c r="L188" t="n">
-        <v>0.05036973221590976</v>
+        <v>0.03805704377064745</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09412363421292062</v>
+        <v>0.09512121353922304</v>
       </c>
       <c r="N188" t="n">
-        <v>0.07869059882414059</v>
+        <v>0.01727617314106461</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09357886937209418</v>
+        <v>0.09633295784791503</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02383630481648799</v>
+        <v>0.01708009440508181</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09591443110704748</v>
+        <v>0.09711615262716637</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02547895650104096</v>
+        <v>0.03614794741268723</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09018978469426989</v>
+        <v>0.09622333479683076</v>
       </c>
       <c r="L189" t="n">
-        <v>0.04992561650578298</v>
+        <v>0.03732671885886696</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09488886701139965</v>
+        <v>0.09589455673872892</v>
       </c>
       <c r="N189" t="n">
-        <v>0.07706752647954129</v>
+        <v>0.01708009440508181</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09433967318812747</v>
+        <v>0.09711615262716637</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02270694563832476</v>
+        <v>0.01708124103661778</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09668793458371722</v>
+        <v>0.0978993474064177</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02536806664454057</v>
+        <v>0.03605600715151283</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09091712166761076</v>
+        <v>0.09699932943228907</v>
       </c>
       <c r="L190" t="n">
-        <v>0.04945475364893023</v>
+        <v>0.03596649005376806</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09565409980987867</v>
+        <v>0.0966678999382348</v>
       </c>
       <c r="N190" t="n">
-        <v>0.07654160917482944</v>
+        <v>0.01708124103661778</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09510047700416076</v>
+        <v>0.0978993474064177</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.0235702207901636</v>
+        <v>0.01677946866896957</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09746143806038696</v>
+        <v>0.09868254218566905</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02534385463565587</v>
+        <v>0.03565584837100005</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09164445864095166</v>
+        <v>0.09777532406774739</v>
       </c>
       <c r="L191" t="n">
-        <v>0.04946030393800691</v>
+        <v>0.03538316132697777</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09641933260835771</v>
+        <v>0.09744124313774068</v>
       </c>
       <c r="N191" t="n">
-        <v>0.07541888569211219</v>
+        <v>0.01677946866896957</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09586128082019404</v>
+        <v>0.09868254218566905</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.0224269070315252</v>
+        <v>0.0168746329354342</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09823494153705668</v>
+        <v>0.09946573696492039</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02510704813527402</v>
+        <v>0.03544694778953725</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09237179561429254</v>
+        <v>0.0985513187032057</v>
       </c>
       <c r="L192" t="n">
-        <v>0.04884542766566818</v>
+        <v>0.03448353665012366</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09718456540683673</v>
+        <v>0.09821458633724656</v>
       </c>
       <c r="N192" t="n">
-        <v>0.07450539481349677</v>
+        <v>0.0168746329354342</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09662208463622732</v>
+        <v>0.09946573696492039</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02127778112193018</v>
+        <v>0.01666658946930874</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09900844501372642</v>
+        <v>0.1002489317441717</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02505837480428211</v>
+        <v>0.03552878212551291</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09309913258763343</v>
+        <v>0.09932731333866401</v>
       </c>
       <c r="L193" t="n">
-        <v>0.04851328512456954</v>
+        <v>0.03377441999483277</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09794979820531577</v>
+        <v>0.09898792953675244</v>
       </c>
       <c r="N193" t="n">
-        <v>0.07340717532109009</v>
+        <v>0.01666658946930874</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09738288845226062</v>
+        <v>0.1002489317441717</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02112361982089925</v>
+        <v>0.01655519390389018</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09978194849039616</v>
+        <v>0.1010321265234231</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02469856230356725</v>
+        <v>0.03510082809731543</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09382646956097432</v>
+        <v>0.1001033079741223</v>
       </c>
       <c r="L194" t="n">
-        <v>0.04786703660736616</v>
+        <v>0.03386261533273233</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09871503100379479</v>
+        <v>0.0997612727362583</v>
       </c>
       <c r="N194" t="n">
-        <v>0.0721302659969994</v>
+        <v>0.01655519390389018</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09814369226829391</v>
+        <v>0.1010321265234231</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02296519988795308</v>
+        <v>0.01634030187247557</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1005554519670659</v>
+        <v>0.1018153213026744</v>
       </c>
       <c r="J195" t="n">
-        <v>0.0246283382940166</v>
+        <v>0.03486256242333333</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09455380653431519</v>
+        <v>0.1008793026095806</v>
       </c>
       <c r="L195" t="n">
-        <v>0.04770984240671336</v>
+        <v>0.0332549266354496</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09948026380227383</v>
+        <v>0.1005346159357642</v>
       </c>
       <c r="N195" t="n">
-        <v>0.07108070562333174</v>
+        <v>0.01634030187247557</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09890449608432718</v>
+        <v>0.1018153213026744</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02180329808261233</v>
+        <v>0.01622176900836191</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1013289554437356</v>
+        <v>0.1025985160819258</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02434843043651723</v>
+        <v>0.03461346182195504</v>
       </c>
       <c r="K196" t="n">
-        <v>0.0952811435076561</v>
+        <v>0.101655297245039</v>
       </c>
       <c r="L196" t="n">
-        <v>0.04674486281526649</v>
+        <v>0.03245815787461187</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1002454966007529</v>
+        <v>0.1013079591352701</v>
       </c>
       <c r="N196" t="n">
-        <v>0.07026453298219426</v>
+        <v>0.01622176900836191</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09966529990036048</v>
+        <v>0.1025985160819258</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02063869116439766</v>
+        <v>0.01609945094484626</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1021024589204054</v>
+        <v>0.1033817108611771</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02415956639195629</v>
+        <v>0.03445300301156898</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09600848048099697</v>
+        <v>0.1024312918804973</v>
       </c>
       <c r="L197" t="n">
-        <v>0.0464752581256809</v>
+        <v>0.03277911302184627</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1010107293992319</v>
+        <v>0.1020813023347759</v>
       </c>
       <c r="N197" t="n">
-        <v>0.06938778685569391</v>
+        <v>0.01609945094484626</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1004261037163938</v>
+        <v>0.1033817108611771</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02147215589282978</v>
+        <v>0.01607320331522567</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1028759623970751</v>
+        <v>0.1041649056404284</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02406247382122087</v>
+        <v>0.03398066271056355</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09673581745433786</v>
+        <v>0.1032072865159556</v>
       </c>
       <c r="L198" t="n">
-        <v>0.04630418863061181</v>
+        <v>0.03249891262407584</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1017759621977109</v>
+        <v>0.1028546455342818</v>
       </c>
       <c r="N198" t="n">
-        <v>0.06855650602593799</v>
+        <v>0.01607320331522567</v>
       </c>
       <c r="O198" t="n">
-        <v>0.101186907532427</v>
+        <v>0.1041649056404284</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02030446902742931</v>
+        <v>0.01604288175279713</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1036494658737449</v>
+        <v>0.1049481004196798</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02385788038519809</v>
+        <v>0.03399591763732732</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09746315442767875</v>
+        <v>0.1039832811514139</v>
       </c>
       <c r="L199" t="n">
-        <v>0.04583481462271463</v>
+        <v>0.03263305411189749</v>
       </c>
       <c r="M199" t="n">
-        <v>0.10254119499619</v>
+        <v>0.1036279887337877</v>
       </c>
       <c r="N199" t="n">
-        <v>0.0680767292750335</v>
+        <v>0.01604288175279713</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1019477113484603</v>
+        <v>0.1049481004196798</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02113640732771697</v>
+        <v>0.01570834189085768</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1044229693504146</v>
+        <v>0.1057312951989311</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02354651374477508</v>
+        <v>0.0337982445102486</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09819049140101963</v>
+        <v>0.1047592757868722</v>
       </c>
       <c r="L200" t="n">
-        <v>0.04517029639464459</v>
+        <v>0.03257378046017118</v>
       </c>
       <c r="M200" t="n">
-        <v>0.103306427794669</v>
+        <v>0.1044013319332936</v>
       </c>
       <c r="N200" t="n">
-        <v>0.06695449538508758</v>
+        <v>0.01570834189085768</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1027085151644936</v>
+        <v>0.1057312951989311</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.0209687475532134</v>
+        <v>0.0155659900749644</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1051964728270843</v>
+        <v>0.1065144899781825</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02342910156083895</v>
+        <v>0.03308712004771591</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09891782837436053</v>
+        <v>0.1055352704223305</v>
       </c>
       <c r="L201" t="n">
-        <v>0.04481379423905704</v>
+        <v>0.03232052839426347</v>
       </c>
       <c r="M201" t="n">
-        <v>0.104071660593148</v>
+        <v>0.1051746751327995</v>
       </c>
       <c r="N201" t="n">
-        <v>0.06639584313820723</v>
+        <v>0.0155659900749644</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1034693189805269</v>
+        <v>0.1065144899781825</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02080226646343929</v>
+        <v>0.01539644594941206</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1059699763037541</v>
+        <v>0.1072976847574338</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02320637149427682</v>
+        <v>0.03316202096811768</v>
       </c>
       <c r="K202" t="n">
-        <v>0.0996451653477014</v>
+        <v>0.1063112650577888</v>
       </c>
       <c r="L202" t="n">
-        <v>0.04436846844860728</v>
+        <v>0.03207273463954063</v>
       </c>
       <c r="M202" t="n">
-        <v>0.104836893391627</v>
+        <v>0.1059480183323053</v>
       </c>
       <c r="N202" t="n">
-        <v>0.06580681131649974</v>
+        <v>0.01539644594941206</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1042301227965602</v>
+        <v>0.1072976847574338</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02063774081791529</v>
+        <v>0.01519906238633667</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1067434797804238</v>
+        <v>0.1080808795366852</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02287905120597579</v>
+        <v>0.0326222743811988</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1003725023210423</v>
+        <v>0.1070872596932471</v>
       </c>
       <c r="L203" t="n">
-        <v>0.04383747931595058</v>
+        <v>0.03232983592136895</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1056021261901061</v>
+        <v>0.1067213615318112</v>
       </c>
       <c r="N203" t="n">
-        <v>0.06549343870207197</v>
+        <v>0.01519906238633667</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1049909266125935</v>
+        <v>0.1080808795366852</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01947594737616208</v>
+        <v>0.01507664774659688</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1075169832570935</v>
+        <v>0.1088640743159365</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02264786835682299</v>
+        <v>0.0318798415919424</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1010998392943832</v>
+        <v>0.1078632543287055</v>
       </c>
       <c r="L204" t="n">
-        <v>0.04312398713374238</v>
+        <v>0.03239126896511496</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1063673589885851</v>
+        <v>0.1074947047313171</v>
       </c>
       <c r="N204" t="n">
-        <v>0.0648617640770312</v>
+        <v>0.01507664774659688</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1057517304286268</v>
+        <v>0.1088640743159365</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02031766289770033</v>
+        <v>0.01473201039105128</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1082904867337633</v>
+        <v>0.1096472690951878</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02261355060770553</v>
+        <v>0.03137659588066799</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1018271762677241</v>
+        <v>0.1086392489641638</v>
       </c>
       <c r="L205" t="n">
-        <v>0.04303115219463782</v>
+        <v>0.03225647049614477</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1071325917870641</v>
+        <v>0.108268047930823</v>
       </c>
       <c r="N205" t="n">
-        <v>0.06481782622348448</v>
+        <v>0.01473201039105128</v>
       </c>
       <c r="O205" t="n">
-        <v>0.10651253424466</v>
+        <v>0.1096472690951878</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02116366414205073</v>
+        <v>0.01446795868055847</v>
       </c>
       <c r="G206" t="n">
-        <v>0.109063990210433</v>
+        <v>0.1104304638744392</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02217682561951054</v>
+        <v>0.03083617357986634</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1025545132410649</v>
+        <v>0.1094152435996221</v>
       </c>
       <c r="L206" t="n">
-        <v>0.04256213479129237</v>
+        <v>0.03182487723982502</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1078978245855431</v>
+        <v>0.1090413911303288</v>
       </c>
       <c r="N206" t="n">
-        <v>0.06466766392353901</v>
+        <v>0.01446795868055847</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1072733380606933</v>
+        <v>0.1104304638744392</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02101472786873393</v>
+        <v>0.01438730097597705</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1098374936871028</v>
+        <v>0.1112136586536905</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02213842105312512</v>
+        <v>0.02968221102202834</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1032818502144058</v>
+        <v>0.1101912382350804</v>
       </c>
       <c r="L207" t="n">
-        <v>0.0421200952163612</v>
+        <v>0.03219592592152171</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1086630573840222</v>
+        <v>0.1098147343298347</v>
       </c>
       <c r="N207" t="n">
-        <v>0.06471731595930169</v>
+        <v>0.01438730097597705</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1080341418767266</v>
+        <v>0.1112136586536905</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01887162653203937</v>
+        <v>0.01399284563816559</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1106109971637725</v>
+        <v>0.1119968534329419</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02179906456943638</v>
+        <v>0.02883834453964479</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1040091871877467</v>
+        <v>0.1109672328705387</v>
       </c>
       <c r="L208" t="n">
-        <v>0.04220753914587261</v>
+        <v>0.03186905326660144</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1094282901825012</v>
+        <v>0.1105880775293406</v>
       </c>
       <c r="N208" t="n">
-        <v>0.06397233288039039</v>
+        <v>0.01399284563816559</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1087949456927599</v>
+        <v>0.1119968534329419</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01973106578628797</v>
+        <v>0.01368740102798277</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1113845006404422</v>
+        <v>0.1127800482121932</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02165948382933146</v>
+        <v>0.0278282104652067</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1047365241610876</v>
+        <v>0.111743227505997</v>
       </c>
       <c r="L209" t="n">
-        <v>0.0416057688754822</v>
+        <v>0.03174369600043053</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1101935229809802</v>
+        <v>0.1113614207288465</v>
       </c>
       <c r="N209" t="n">
-        <v>0.06407244597531853</v>
+        <v>0.01368740102798277</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1095557495087932</v>
+        <v>0.1127800482121932</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01858972295143667</v>
+        <v>0.01337377550628716</v>
       </c>
       <c r="G210" t="n">
-        <v>0.112158004117112</v>
+        <v>0.1135632429914445</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02142040649369747</v>
+        <v>0.02687544513120488</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1054638611344285</v>
+        <v>0.1125192221414553</v>
       </c>
       <c r="L210" t="n">
-        <v>0.04150500732139112</v>
+        <v>0.03231929084837526</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1109587557794593</v>
+        <v>0.1121347639283524</v>
       </c>
       <c r="N210" t="n">
-        <v>0.06427312682895436</v>
+        <v>0.01337377550628716</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1103165533248265</v>
+        <v>0.1135632429914445</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.0184475950920969</v>
+        <v>0.01305477743393732</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1129315075937817</v>
+        <v>0.1143464377706959</v>
       </c>
       <c r="J211" t="n">
-        <v>0.0209825602234215</v>
+        <v>0.02570368487013022</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1061911981077694</v>
+        <v>0.1132952167769136</v>
       </c>
       <c r="L211" t="n">
-        <v>0.04130528905101871</v>
+        <v>0.03169527453580201</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1117239885779383</v>
+        <v>0.1129081071278582</v>
       </c>
       <c r="N211" t="n">
-        <v>0.0641748946146562</v>
+        <v>0.01305477743393732</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1110773571408598</v>
+        <v>0.1143464377706959</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01930467927288007</v>
+        <v>0.01273321517179192</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1137050110704514</v>
+        <v>0.1151296325499472</v>
       </c>
       <c r="J212" t="n">
-        <v>0.0207466726793907</v>
+        <v>0.02473656601447349</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1069185350811103</v>
+        <v>0.1140712114123719</v>
       </c>
       <c r="L212" t="n">
-        <v>0.04100664863178405</v>
+        <v>0.03197108378807717</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1124892213764173</v>
+        <v>0.1136814503273641</v>
       </c>
       <c r="N212" t="n">
-        <v>0.06407826850578208</v>
+        <v>0.01273321517179192</v>
       </c>
       <c r="O212" t="n">
-        <v>0.111838160956893</v>
+        <v>0.1151296325499472</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01816097255839766</v>
+        <v>0.01231189708070953</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1144785145471212</v>
+        <v>0.1159128273291986</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02061347152249217</v>
+        <v>0.02369772489672564</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1076458720544512</v>
+        <v>0.1148472060478303</v>
       </c>
       <c r="L213" t="n">
-        <v>0.04040912063110647</v>
+        <v>0.03194615533056699</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1132544541748964</v>
+        <v>0.11445479352687</v>
       </c>
       <c r="N213" t="n">
-        <v>0.06398376767569014</v>
+        <v>0.01231189708070953</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1125989647729263</v>
+        <v>0.1159128273291986</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02001647201326108</v>
+        <v>0.01209363152154875</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1152520180237909</v>
+        <v>0.1166960221084499</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02028368441361303</v>
+        <v>0.02281079784937751</v>
       </c>
       <c r="K214" t="n">
-        <v>0.108373209027792</v>
+        <v>0.1156232006832886</v>
       </c>
       <c r="L214" t="n">
-        <v>0.04041273961640512</v>
+        <v>0.03181992588863791</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1140196869733754</v>
+        <v>0.1152281367263759</v>
       </c>
       <c r="N214" t="n">
-        <v>0.06439191129773858</v>
+        <v>0.01209363152154875</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1133597685889596</v>
+        <v>0.1166960221084499</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01987117470208176</v>
+        <v>0.01188122685516821</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1160255215004607</v>
+        <v>0.1174792168877013</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02005803901364039</v>
+        <v>0.02179942120492001</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1091005460011329</v>
+        <v>0.1163991953187469</v>
       </c>
       <c r="L215" t="n">
-        <v>0.04001754015509931</v>
+        <v>0.0322918321876563</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1147849197718544</v>
+        <v>0.1160014799258818</v>
       </c>
       <c r="N215" t="n">
-        <v>0.06450321854528562</v>
+        <v>0.01188122685516821</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1141205724049929</v>
+        <v>0.1174792168877013</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01972507768947115</v>
+        <v>0.01137749144242649</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1167990249771304</v>
+        <v>0.1182624116669526</v>
       </c>
       <c r="J216" t="n">
-        <v>0.01993726298346138</v>
+        <v>0.02118723129584402</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1098278829744738</v>
+        <v>0.1171751899542052</v>
       </c>
       <c r="L216" t="n">
-        <v>0.03982355681460817</v>
+        <v>0.03156131095298842</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1155501525703335</v>
+        <v>0.1167748231253876</v>
       </c>
       <c r="N216" t="n">
-        <v>0.06411820859168926</v>
+        <v>0.01137749144242649</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1148813762210262</v>
+        <v>0.1182624116669526</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01957817804004068</v>
+        <v>0.01108523364418218</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1175725284538001</v>
+        <v>0.1190456064462039</v>
       </c>
       <c r="J217" t="n">
-        <v>0.01962189707692308</v>
+        <v>0.02029786445464027</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1105552199478147</v>
+        <v>0.1179511845896635</v>
       </c>
       <c r="L217" t="n">
-        <v>0.03923082416235099</v>
+        <v>0.03152779891000079</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1163153853688125</v>
+        <v>0.1175481663248935</v>
       </c>
       <c r="N217" t="n">
-        <v>0.06433740061030774</v>
+        <v>0.01108523364418218</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1156421800370595</v>
+        <v>0.1190456064462039</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01843047281840181</v>
+        <v>0.01080726182129393</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1183460319304699</v>
+        <v>0.1198288012254553</v>
       </c>
       <c r="J218" t="n">
-        <v>0.01940648700074551</v>
+        <v>0.0200203609320441</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1112825569211556</v>
+        <v>0.1187271792251218</v>
       </c>
       <c r="L218" t="n">
-        <v>0.03913937676574697</v>
+        <v>0.03219073278405943</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1170806181672915</v>
+        <v>0.1183215095243994</v>
       </c>
       <c r="N218" t="n">
-        <v>0.06406131377449931</v>
+        <v>0.01080726182129393</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1164029838530928</v>
+        <v>0.1198288012254553</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01928195908916593</v>
+        <v>0.0107463843346203</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1191195354071396</v>
+        <v>0.1206119960047066</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01918823696377329</v>
+        <v>0.01895220462115405</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1120098938944965</v>
+        <v>0.1195031738605801</v>
       </c>
       <c r="L219" t="n">
-        <v>0.03854924919221531</v>
+        <v>0.03184954930053102</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1178458509657705</v>
+        <v>0.1190948527239053</v>
       </c>
       <c r="N219" t="n">
-        <v>0.06479046725762189</v>
+        <v>0.0107463843346203</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1171637876691261</v>
+        <v>0.1206119960047066</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0181326339169445</v>
+        <v>0.01030540954501992</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1198930388838093</v>
+        <v>0.121395190783958</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01916716106316949</v>
+        <v>0.0187850681793994</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1127372308678374</v>
+        <v>0.1202791684960385</v>
       </c>
       <c r="L220" t="n">
-        <v>0.03866047600917524</v>
+        <v>0.03160368518478179</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1186110837642496</v>
+        <v>0.1198681959234111</v>
       </c>
       <c r="N220" t="n">
-        <v>0.06482538023303386</v>
+        <v>0.01030540954501992</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1179245914851593</v>
+        <v>0.121395190783958</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01798249436634897</v>
+        <v>0.01028714581335139</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1206665423604791</v>
+        <v>0.1221783855632093</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01874327339609722</v>
+        <v>0.01791945451280216</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1134645678411783</v>
+        <v>0.1210551631314968</v>
       </c>
       <c r="L221" t="n">
-        <v>0.03837309178404605</v>
+        <v>0.03155257716217807</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1193763165627286</v>
+        <v>0.120641539122917</v>
       </c>
       <c r="N221" t="n">
-        <v>0.0641665718740933</v>
+        <v>0.01028714581335139</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1186853953011926</v>
+        <v>0.1221783855632093</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01683153750199075</v>
+        <v>0.01009440150047331</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1214400458371488</v>
+        <v>0.1229615803424606</v>
       </c>
       <c r="J222" t="n">
-        <v>0.01851658805971955</v>
+        <v>0.01775586652738434</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1141919048145191</v>
+        <v>0.1218311577669551</v>
       </c>
       <c r="L222" t="n">
-        <v>0.03758713108424686</v>
+        <v>0.03169566195808621</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1201415493612076</v>
+        <v>0.1214148823224229</v>
       </c>
       <c r="N222" t="n">
-        <v>0.0644145613541583</v>
+        <v>0.01009440150047331</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1194461991172259</v>
+        <v>0.1229615803424606</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01867976038848131</v>
+        <v>0.009929984967244287</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1222135493138185</v>
+        <v>0.123744775121712</v>
       </c>
       <c r="J223" t="n">
-        <v>0.01838711915119962</v>
+        <v>0.01669480712916799</v>
       </c>
       <c r="K223" t="n">
-        <v>0.11491924178786</v>
+        <v>0.1226071524024134</v>
       </c>
       <c r="L223" t="n">
-        <v>0.03780262847719695</v>
+        <v>0.03123237629787262</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1209067821596866</v>
+        <v>0.1221882255219288</v>
       </c>
       <c r="N223" t="n">
-        <v>0.06426986784658711</v>
+        <v>0.009929984967244287</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1202070029332592</v>
+        <v>0.123744775121712</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01852716009043204</v>
+        <v>0.009694127565410139</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1229870527904883</v>
+        <v>0.1245279699009633</v>
       </c>
       <c r="J224" t="n">
-        <v>0.01805488076770048</v>
+        <v>0.01633677922417512</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1156465787612009</v>
+        <v>0.1233831470378717</v>
       </c>
       <c r="L224" t="n">
-        <v>0.03701961853031549</v>
+        <v>0.03155954083884688</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1216720149581657</v>
+        <v>0.1229615687214347</v>
       </c>
       <c r="N224" t="n">
-        <v>0.06473301052473779</v>
+        <v>0.009694127565410139</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1209678067492925</v>
+        <v>0.1245279699009633</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01837373367245442</v>
+        <v>0.009564798654360253</v>
       </c>
       <c r="G225" t="n">
-        <v>0.123760556267158</v>
+        <v>0.1253111646802147</v>
       </c>
       <c r="J225" t="n">
-        <v>0.01791988700638528</v>
+        <v>0.01578228571842769</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1163739157345418</v>
+        <v>0.12415914167333</v>
       </c>
       <c r="L225" t="n">
-        <v>0.03723813581102178</v>
+        <v>0.03105770212791664</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1224372477566447</v>
+        <v>0.1237349119209405</v>
       </c>
       <c r="N225" t="n">
-        <v>0.06470450856196858</v>
+        <v>0.009564798654360253</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1217286105653258</v>
+        <v>0.1253111646802147</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01621947819915986</v>
+        <v>0.009536428509118157</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1245340597438278</v>
+        <v>0.126094359459466</v>
       </c>
       <c r="J226" t="n">
-        <v>0.01778215196441707</v>
+        <v>0.01533182951794776</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1171012527078827</v>
+        <v>0.1249351363087883</v>
       </c>
       <c r="L226" t="n">
-        <v>0.03655821488673502</v>
+        <v>0.03152353839429606</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1232024805551237</v>
+        <v>0.1245082551204464</v>
       </c>
       <c r="N226" t="n">
-        <v>0.06468488113163756</v>
+        <v>0.009536428509118157</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1224894143813591</v>
+        <v>0.126094359459466</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01806439073515979</v>
+        <v>0.009309137415955182</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1253075632204975</v>
+        <v>0.1268775542387174</v>
       </c>
       <c r="J227" t="n">
-        <v>0.01754168973895899</v>
+        <v>0.01448591352875733</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1178285896812236</v>
+        <v>0.1257111309442467</v>
       </c>
       <c r="L227" t="n">
-        <v>0.03657989032487444</v>
+        <v>0.03145769715840313</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1239677133536028</v>
+        <v>0.1252815983199523</v>
       </c>
       <c r="N227" t="n">
-        <v>0.065074647407103</v>
+        <v>0.009309137415955182</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1232502181973923</v>
+        <v>0.1268775542387174</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01590846834506567</v>
+        <v>0.009183045661142655</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1260810666971672</v>
+        <v>0.1276607490179687</v>
       </c>
       <c r="J228" t="n">
-        <v>0.0172985144271741</v>
+        <v>0.01434504065687853</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1185559266545645</v>
+        <v>0.126487125579705</v>
       </c>
       <c r="L228" t="n">
-        <v>0.0363031966928592</v>
+        <v>0.031160825940656</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1247329461520818</v>
+        <v>0.1260549415194582</v>
       </c>
       <c r="N228" t="n">
-        <v>0.06537432656172287</v>
+        <v>0.009183045661142655</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1240110220134256</v>
+        <v>0.1276607490179687</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01775170809348893</v>
+        <v>0.009058273530951934</v>
       </c>
       <c r="G229" t="n">
-        <v>0.126854570173837</v>
+        <v>0.12844394379722</v>
       </c>
       <c r="J229" t="n">
-        <v>0.01705264012622554</v>
+        <v>0.0139097138083332</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1192832636279053</v>
+        <v>0.1272631202151633</v>
       </c>
       <c r="L229" t="n">
-        <v>0.03602816855810856</v>
+        <v>0.03053357226147235</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1254981789505608</v>
+        <v>0.126828284718964</v>
       </c>
       <c r="N229" t="n">
-        <v>0.0648844377688555</v>
+        <v>0.009058273530951934</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1247718258294589</v>
+        <v>0.12844394379722</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01759410704504099</v>
+        <v>0.008834941311654368</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1276280736505067</v>
+        <v>0.1292271385764714</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01680408093327636</v>
+        <v>0.01328043588914346</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1200106006012462</v>
+        <v>0.1280391148506216</v>
       </c>
       <c r="L230" t="n">
-        <v>0.03575484048804173</v>
+        <v>0.03057658364127036</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1262634117490398</v>
+        <v>0.1276016279184699</v>
       </c>
       <c r="N230" t="n">
-        <v>0.06490550020185898</v>
+        <v>0.008834941311654368</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1255326296454922</v>
+        <v>0.1292271385764714</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.0154356622643333</v>
+        <v>0.008713169289521261</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1284015771271765</v>
+        <v>0.1300103333557227</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01645285094548966</v>
+        <v>0.0125577098053313</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1207379375745871</v>
+        <v>0.1288151094860799</v>
       </c>
       <c r="L231" t="n">
-        <v>0.03528324705007799</v>
+        <v>0.03029050760046798</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1270286445475189</v>
+        <v>0.1283749711179758</v>
       </c>
       <c r="N231" t="n">
-        <v>0.06553803303409145</v>
+        <v>0.008713169289521261</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1262934334615255</v>
+        <v>0.1300103333557227</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01727637081597729</v>
+        <v>0.008593077750823984</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1291750806038462</v>
+        <v>0.1307935281349741</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01629896426002859</v>
+        <v>0.01224203846291874</v>
       </c>
       <c r="K232" t="n">
-        <v>0.121465274547928</v>
+        <v>0.1295911041215382</v>
       </c>
       <c r="L232" t="n">
-        <v>0.03481342281163649</v>
+        <v>0.03017599165948309</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1277938773459979</v>
+        <v>0.1291483143174817</v>
       </c>
       <c r="N232" t="n">
-        <v>0.06528255543891104</v>
+        <v>0.008593077750823984</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1270542372775588</v>
+        <v>0.1307935281349741</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.0151162297645844</v>
+        <v>0.008474786981833862</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1299485840805159</v>
+        <v>0.1315767229142254</v>
       </c>
       <c r="J233" t="n">
-        <v>0.0159424349740562</v>
+        <v>0.01173392476792784</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1221926115212689</v>
+        <v>0.1303670987569965</v>
       </c>
       <c r="L233" t="n">
-        <v>0.03474540234013648</v>
+        <v>0.02943368333873381</v>
       </c>
       <c r="M233" t="n">
-        <v>0.128559110144477</v>
+        <v>0.1299216575169876</v>
       </c>
       <c r="N233" t="n">
-        <v>0.06553958658967596</v>
+        <v>0.008474786981833862</v>
       </c>
       <c r="O233" t="n">
-        <v>0.127815041093592</v>
+        <v>0.1315767229142254</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01695523617476607</v>
+        <v>0.008558417268822255</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1307220875571857</v>
+        <v>0.1323599176934767</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01568327718473564</v>
+        <v>0.01103387162638059</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1229199484946098</v>
+        <v>0.1311430933924548</v>
       </c>
       <c r="L234" t="n">
-        <v>0.03477922020299717</v>
+        <v>0.02946423015863797</v>
       </c>
       <c r="M234" t="n">
-        <v>0.129324342942956</v>
+        <v>0.1306950007164934</v>
       </c>
       <c r="N234" t="n">
-        <v>0.06620964565974435</v>
+        <v>0.008558417268822255</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1285758449096253</v>
+        <v>0.1323599176934767</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01579338711113373</v>
+        <v>0.008244088898060491</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1314955910338554</v>
+        <v>0.1331431124727281</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01552150498922994</v>
+        <v>0.01034238194429893</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1236472854679506</v>
+        <v>0.1319190880279131</v>
       </c>
       <c r="L235" t="n">
-        <v>0.0341149109676378</v>
+        <v>0.02846827963961363</v>
       </c>
       <c r="M235" t="n">
-        <v>0.130089575741435</v>
+        <v>0.1314683439159993</v>
       </c>
       <c r="N235" t="n">
-        <v>0.06569325182247437</v>
+        <v>0.008244088898060491</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1293366487256586</v>
+        <v>0.1331431124727281</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01663067963829881</v>
+        <v>0.008131922155819905</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1322690945105252</v>
+        <v>0.1339263072519794</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01505713248470222</v>
+        <v>0.01015995862770497</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1243746224412915</v>
+        <v>0.1326950826633715</v>
       </c>
       <c r="L236" t="n">
-        <v>0.03425250920147765</v>
+        <v>0.02854647930207871</v>
       </c>
       <c r="M236" t="n">
-        <v>0.130854808539914</v>
+        <v>0.1322416871155052</v>
       </c>
       <c r="N236" t="n">
-        <v>0.06599092425122416</v>
+        <v>0.008131922155819905</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1300974525416919</v>
+        <v>0.1339263072519794</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01546711082087276</v>
+        <v>0.008022037328371846</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1330425979871949</v>
+        <v>0.1347095020312308</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01489017376831561</v>
+        <v>0.009487104582620698</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1251019594146324</v>
+        <v>0.1334710772988298</v>
       </c>
       <c r="L237" t="n">
-        <v>0.03399204947193585</v>
+        <v>0.02819947666645134</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1316200413383931</v>
+        <v>0.1330150303150111</v>
       </c>
       <c r="N237" t="n">
-        <v>0.0665031821193518</v>
+        <v>0.008022037328371846</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1308582563577252</v>
+        <v>0.1347095020312308</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.014302677723467</v>
+        <v>0.008114554701987652</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1338161014638646</v>
+        <v>0.1354926968104821</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01472064293723317</v>
+        <v>0.009424322715068184</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1258292963879733</v>
+        <v>0.1342470719342881</v>
       </c>
       <c r="L238" t="n">
-        <v>0.03343356634643163</v>
+        <v>0.0274279192531493</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1323852741368721</v>
+        <v>0.1337883735145169</v>
       </c>
       <c r="N238" t="n">
-        <v>0.06633054460021565</v>
+        <v>0.008114554701987652</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1316190601737585</v>
+        <v>0.1354926968104821</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01413737741069298</v>
+        <v>0.007809594562938657</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1345896049405344</v>
+        <v>0.1362758915897334</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01444855408861803</v>
+        <v>0.008772115931069357</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1265566333613142</v>
+        <v>0.1350230665697464</v>
       </c>
       <c r="L239" t="n">
-        <v>0.03347709439238422</v>
+        <v>0.02693245458259064</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1331505069353511</v>
+        <v>0.1345617167140228</v>
       </c>
       <c r="N239" t="n">
-        <v>0.06727353086717364</v>
+        <v>0.007809594562938657</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1323798639897918</v>
+        <v>0.1362758915897334</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01597120694716214</v>
+        <v>0.007707277197496219</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1353631084172041</v>
+        <v>0.1370590863689848</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01407392131963327</v>
+        <v>0.008130987136646256</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1272839703346551</v>
+        <v>0.1357990612052047</v>
       </c>
       <c r="L240" t="n">
-        <v>0.03282266817721288</v>
+        <v>0.02641373017519333</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1339157397338301</v>
+        <v>0.1353350599135287</v>
       </c>
       <c r="N240" t="n">
-        <v>0.06743266009358406</v>
+        <v>0.007707277197496219</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1331406678058251</v>
+        <v>0.1370590863689848</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.0148041633974859</v>
+        <v>0.007807722891931664</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1361366118938738</v>
+        <v>0.1378422811482361</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01369675872744197</v>
+        <v>0.007601439237820945</v>
       </c>
       <c r="K241" t="n">
-        <v>0.128011307307996</v>
+        <v>0.136575055840663</v>
       </c>
       <c r="L241" t="n">
-        <v>0.03287032226833683</v>
+        <v>0.02587239355137538</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1346809725323092</v>
+        <v>0.1361084031130346</v>
       </c>
       <c r="N241" t="n">
-        <v>0.06730845145280501</v>
+        <v>0.007807722891931664</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1339014716218584</v>
+        <v>0.1378422811482361</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.0156362438262757</v>
+        <v>0.007711051932516338</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1369101153705436</v>
+        <v>0.1386254759274875</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01341708040920725</v>
+        <v>0.007383975140615423</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1287386442813369</v>
+        <v>0.1373510504761213</v>
       </c>
       <c r="L242" t="n">
-        <v>0.03262009123317527</v>
+        <v>0.02560909223155483</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1354462053307882</v>
+        <v>0.1368817463125405</v>
       </c>
       <c r="N242" t="n">
-        <v>0.06750142411819465</v>
+        <v>0.007711051932516338</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1346622754378916</v>
+        <v>0.1386254759274875</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01446744529814297</v>
+        <v>0.007417384605521576</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1376836188472133</v>
+        <v>0.1394086707067388</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01333490046209221</v>
+        <v>0.00697909775105171</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1294659812546778</v>
+        <v>0.1381270451115796</v>
       </c>
       <c r="L243" t="n">
-        <v>0.03227200963914739</v>
+        <v>0.02462447373614945</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1362114381292672</v>
+        <v>0.1376550895120464</v>
       </c>
       <c r="N243" t="n">
-        <v>0.06801209726311114</v>
+        <v>0.007417384605521576</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1354230792539249</v>
+        <v>0.1394086707067388</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01329776487769917</v>
+        <v>0.007426841197218724</v>
       </c>
       <c r="G244" t="n">
-        <v>0.138457122323883</v>
+        <v>0.1401918654859902</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01295023298325994</v>
+        <v>0.006587309975151778</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1301933182280186</v>
+        <v>0.138903039747038</v>
       </c>
       <c r="L244" t="n">
-        <v>0.03222611205367246</v>
+        <v>0.02371918558557745</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1369766709277463</v>
+        <v>0.1384284327115522</v>
       </c>
       <c r="N244" t="n">
-        <v>0.06864099006091268</v>
+        <v>0.007426841197218724</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1361838830699582</v>
+        <v>0.1401918654859902</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01512719962955571</v>
+        <v>0.007439541993879126</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1392306258005528</v>
+        <v>0.1409750602652415</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01276309206987356</v>
+        <v>0.006009114718937669</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1309206552013595</v>
+        <v>0.1396790343824963</v>
       </c>
       <c r="L245" t="n">
-        <v>0.03178243304416972</v>
+        <v>0.02379387530025656</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1377419037262253</v>
+        <v>0.1392017759110581</v>
       </c>
       <c r="N245" t="n">
-        <v>0.06888862168495735</v>
+        <v>0.007439541993879126</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1369446868859915</v>
+        <v>0.1409750602652415</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01295574661832406</v>
+        <v>0.007255607281774122</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1400041292772225</v>
+        <v>0.1417582550444928</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01227349181909613</v>
+        <v>0.00594501488843141</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1316479921747004</v>
+        <v>0.1404550290179546</v>
       </c>
       <c r="L246" t="n">
-        <v>0.03124100717805833</v>
+        <v>0.02274919040060497</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1385071365247043</v>
+        <v>0.139975119110564</v>
       </c>
       <c r="N246" t="n">
-        <v>0.06885551130860335</v>
+        <v>0.007255607281774122</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1377054907020248</v>
+        <v>0.1417582550444928</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01478340290861561</v>
+        <v>0.007175157347175047</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1407776327538922</v>
+        <v>0.1425414498237442</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01218144632809075</v>
+        <v>0.005595513389655027</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1323753291480413</v>
+        <v>0.1412310236534129</v>
       </c>
       <c r="L247" t="n">
-        <v>0.03100186902275759</v>
+        <v>0.02238577840704065</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1392723693231833</v>
+        <v>0.1407484623100699</v>
       </c>
       <c r="N247" t="n">
-        <v>0.06964217810520879</v>
+        <v>0.007175157347175047</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1384662945180581</v>
+        <v>0.1425414498237442</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01261016556504181</v>
+        <v>0.00709831247635323</v>
       </c>
       <c r="G248" t="n">
-        <v>0.141551136230562</v>
+        <v>0.1433246446029955</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01178696969402054</v>
+        <v>0.005061113128630557</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1331026661213822</v>
+        <v>0.1420070182888712</v>
       </c>
       <c r="L248" t="n">
-        <v>0.03096505314568662</v>
+        <v>0.02170428683998138</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1400376021216624</v>
+        <v>0.1415218055095757</v>
       </c>
       <c r="N248" t="n">
-        <v>0.06974914124813186</v>
+        <v>0.00709831247635323</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1392270983340913</v>
+        <v>0.1433246446029955</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01343603165221412</v>
+        <v>0.007025192955580031</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1423246397072317</v>
+        <v>0.1441078393822469</v>
       </c>
       <c r="J249" t="n">
-        <v>0.0115900760140486</v>
+        <v>0.004742317011379948</v>
       </c>
       <c r="K249" t="n">
-        <v>0.133830003094723</v>
+        <v>0.1427830129243295</v>
       </c>
       <c r="L249" t="n">
-        <v>0.03073059411426474</v>
+        <v>0.0206053632198453</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1408028349201414</v>
+        <v>0.1422951487090816</v>
       </c>
       <c r="N249" t="n">
-        <v>0.07067691991073072</v>
+        <v>0.007025192955580031</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1399879021501246</v>
+        <v>0.1441078393822469</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01326099823474397</v>
+        <v>0.0070559190711268</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1430981431839015</v>
+        <v>0.1448910341614982</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01109077938533801</v>
+        <v>0.004439627943925301</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1345573400680639</v>
+        <v>0.1435590075597878</v>
       </c>
       <c r="L250" t="n">
-        <v>0.03039852649591107</v>
+        <v>0.01968965506705039</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1415680677186205</v>
+        <v>0.1430684919085875</v>
       </c>
       <c r="N250" t="n">
-        <v>0.07072603326636351</v>
+        <v>0.0070559190711268</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1407487059661579</v>
+        <v>0.1448910341614982</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01208506237724277</v>
+        <v>0.006890611109264845</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1438716466605712</v>
+        <v>0.1456742289407496</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01088909390505189</v>
+        <v>0.004253548832288567</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1352846770414048</v>
+        <v>0.1443350021952461</v>
       </c>
       <c r="L251" t="n">
-        <v>0.03056888485804499</v>
+        <v>0.01955780990201444</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1423333005170995</v>
+        <v>0.1438418351080934</v>
       </c>
       <c r="N251" t="n">
-        <v>0.07109700048838841</v>
+        <v>0.006890611109264845</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1415095097821912</v>
+        <v>0.1456742289407496</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01190822114432198</v>
+        <v>0.006929389356265539</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1446451501372409</v>
+        <v>0.1464574237200009</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01058503367035332</v>
+        <v>0.003784582582491758</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1360120140147457</v>
+        <v>0.1451109968307044</v>
       </c>
       <c r="L252" t="n">
-        <v>0.02984170376808554</v>
+        <v>0.01831047524515578</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1430985333155785</v>
+        <v>0.1446151783075992</v>
       </c>
       <c r="N252" t="n">
-        <v>0.07139034075016354</v>
+        <v>0.006929389356265539</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1422703135982245</v>
+        <v>0.1464574237200009</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01273047160059303</v>
+        <v>0.006672374098400199</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1454186536139107</v>
+        <v>0.1472406184992522</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01017861277840539</v>
+        <v>0.003833232100556971</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1367393509880866</v>
+        <v>0.1458869914661628</v>
       </c>
       <c r="L253" t="n">
-        <v>0.02991701779345204</v>
+        <v>0.01764829861689199</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1438637661140575</v>
+        <v>0.1453885215071051</v>
       </c>
       <c r="N253" t="n">
-        <v>0.07220657322504703</v>
+        <v>0.006672374098400199</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1430311174142578</v>
+        <v>0.1472406184992522</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01255181081066736</v>
+        <v>0.006819685621940172</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1461921570905804</v>
+        <v>0.1480238132785036</v>
       </c>
       <c r="J254" t="n">
-        <v>0.009869845326371217</v>
+        <v>0.00360000029250615</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1374666879614275</v>
+        <v>0.1466629861016211</v>
       </c>
       <c r="L254" t="n">
-        <v>0.02979486150156374</v>
+        <v>0.01697192753764132</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1446289989125366</v>
+        <v>0.146161864706611</v>
       </c>
       <c r="N254" t="n">
-        <v>0.07314621708639713</v>
+        <v>0.006819685621940172</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1437919212302911</v>
+        <v>0.1480238132785036</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01237223583915639</v>
+        <v>0.0065714442131568</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1469656605672502</v>
+        <v>0.1488070080577549</v>
       </c>
       <c r="J255" t="n">
-        <v>0.009658745411413892</v>
+        <v>0.003585390064361316</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1381940249347684</v>
+        <v>0.1474389807370794</v>
       </c>
       <c r="L255" t="n">
-        <v>0.02917526945983981</v>
+        <v>0.01608200952782157</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1453942317110156</v>
+        <v>0.1469352079061169</v>
       </c>
       <c r="N255" t="n">
-        <v>0.07330979150757189</v>
+        <v>0.0065714442131568</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1445527250463244</v>
+        <v>0.1488070080577549</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01219174375067158</v>
+        <v>0.006527770158321428</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1477391640439199</v>
+        <v>0.1495902028370063</v>
       </c>
       <c r="J256" t="n">
-        <v>0.009345327130696517</v>
+        <v>0.003189904322144554</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1389213619081092</v>
+        <v>0.1482149753725377</v>
       </c>
       <c r="L256" t="n">
-        <v>0.0293582762356995</v>
+        <v>0.01547919210785093</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1461594645094946</v>
+        <v>0.1477085511056228</v>
       </c>
       <c r="N256" t="n">
-        <v>0.0737978156619295</v>
+        <v>0.006527770158321428</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1453135288623576</v>
+        <v>0.1495902028370063</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01201033160982434</v>
+        <v>0.006688783743705393</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1485126675205896</v>
+        <v>0.1503733976162576</v>
       </c>
       <c r="J257" t="n">
-        <v>0.009129604581382178</v>
+        <v>0.003014045971877821</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1396486988814502</v>
+        <v>0.148990970007996</v>
       </c>
       <c r="L257" t="n">
-        <v>0.02894391639656196</v>
+        <v>0.01496412279814718</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1469246973079736</v>
+        <v>0.1484818943051286</v>
       </c>
       <c r="N257" t="n">
-        <v>0.0746108087228281</v>
+        <v>0.006688783743705393</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1460743326783909</v>
+        <v>0.1503733976162576</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01282799648122612</v>
+        <v>0.006454605255580032</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1492861709972594</v>
+        <v>0.1511565923955089</v>
       </c>
       <c r="J258" t="n">
-        <v>0.008811591860633974</v>
+        <v>0.003058317919583137</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1403760358547911</v>
+        <v>0.1497669646434543</v>
       </c>
       <c r="L258" t="n">
-        <v>0.0287322245098465</v>
+        <v>0.01343744911912836</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1476899301064527</v>
+        <v>0.1492552375046345</v>
       </c>
       <c r="N258" t="n">
-        <v>0.07544928986362598</v>
+        <v>0.006454605255580032</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1468351364944242</v>
+        <v>0.1511565923955089</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01264473542948836</v>
+        <v>0.006625354980216693</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1500596744739291</v>
+        <v>0.1519397871747603</v>
       </c>
       <c r="J259" t="n">
-        <v>0.008491303065615026</v>
+        <v>0.00242322307128251</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1411033728281319</v>
+        <v>0.1505429592789126</v>
       </c>
       <c r="L259" t="n">
-        <v>0.02882323514297233</v>
+        <v>0.01329981859121243</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1484551629049317</v>
+        <v>0.1500285807041404</v>
       </c>
       <c r="N259" t="n">
-        <v>0.07621377825768111</v>
+        <v>0.006625354980216693</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1475959403104575</v>
+        <v>0.1519397871747603</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01146054551922249</v>
+        <v>0.006401153203886713</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1508331779505989</v>
+        <v>0.1527229819540116</v>
       </c>
       <c r="J260" t="n">
-        <v>0.008168752293488395</v>
+        <v>0.002609264332997963</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1418307098014728</v>
+        <v>0.151318953914371</v>
       </c>
       <c r="L260" t="n">
-        <v>0.02831698286335868</v>
+        <v>0.01205187873481739</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1492203957034107</v>
+        <v>0.1508019239036463</v>
       </c>
       <c r="N260" t="n">
-        <v>0.07640479307835168</v>
+        <v>0.006401153203886713</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1483567441264908</v>
+        <v>0.1527229819540116</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01127542381503995</v>
+        <v>0.006582120212861427</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1516066814272686</v>
+        <v>0.153506176733263</v>
       </c>
       <c r="J261" t="n">
-        <v>0.007843953641417212</v>
+        <v>0.002316944610751576</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1425580467748137</v>
+        <v>0.1520949485498293</v>
       </c>
       <c r="L261" t="n">
-        <v>0.02841350223842468</v>
+        <v>0.01089427707036134</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1499856285018898</v>
+        <v>0.1515752671031522</v>
       </c>
       <c r="N261" t="n">
-        <v>0.07692285349899597</v>
+        <v>0.006582120212861427</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1491175479425241</v>
+        <v>0.153506176733263</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01208936738155217</v>
+        <v>0.006368376293412185</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1523801849039383</v>
+        <v>0.1542893715125143</v>
       </c>
       <c r="J262" t="n">
-        <v>0.00751692120656456</v>
+        <v>0.002546766810565315</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1432853837481546</v>
+        <v>0.1528709431852876</v>
       </c>
       <c r="L262" t="n">
-        <v>0.02801282783558964</v>
+        <v>0.01002766111826192</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1507508613003688</v>
+        <v>0.152348610302658</v>
       </c>
       <c r="N262" t="n">
-        <v>0.07836847869297198</v>
+        <v>0.006368376293412185</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1498783517585573</v>
+        <v>0.1542893715125143</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.00990237328337059</v>
+        <v>0.006360041731810331</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1531536883806081</v>
+        <v>0.1550725662917657</v>
       </c>
       <c r="J263" t="n">
-        <v>0.007187669086093522</v>
+        <v>0.002399233838461162</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1440127207214955</v>
+        <v>0.1536469378207459</v>
       </c>
       <c r="L263" t="n">
-        <v>0.02761499422227276</v>
+        <v>0.009152678398937464</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1515160940988478</v>
+        <v>0.1531219535021639</v>
       </c>
       <c r="N263" t="n">
-        <v>0.07844218783363793</v>
+        <v>0.006360041731810331</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1506391555745906</v>
+        <v>0.1550725662917657</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01071443858510664</v>
+        <v>0.006557236814327183</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1539271918572778</v>
+        <v>0.155855761071017</v>
       </c>
       <c r="J264" t="n">
-        <v>0.006656211377167237</v>
+        <v>0.002374848600461194</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1447400576948363</v>
+        <v>0.1544229324562042</v>
       </c>
       <c r="L264" t="n">
-        <v>0.0276200359658933</v>
+        <v>0.008369976432805681</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1522813268973268</v>
+        <v>0.1538952967016698</v>
       </c>
       <c r="N264" t="n">
-        <v>0.07964450009435198</v>
+        <v>0.006557236814327183</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1513999593906239</v>
+        <v>0.155855761071017</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1114.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1114.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8781306565948526</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04390653282974263</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04390653282974263</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.07025045252758821</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.09134391969784558</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01146031254146931</v>
+        <v>0.04134391969784558</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01122717383045412</v>
+        <v>0.02759885380297656</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001448090830797215</v>
+        <v>0.001331143254118587</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007831947792513417</v>
+        <v>0.000682513674777541</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.004012161935529418</v>
+        <v>0.001281714134047061</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007759946354583126</v>
+        <v>0.0007831947792513417</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.007414283953795953</v>
+        <v>0.00448127649693611</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007733431995058784</v>
+        <v>0.0007723475386971418</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001448090830797215</v>
+        <v>0.008544073834070465</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007831947792513417</v>
+        <v>0.000770719321029796</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002999999999999996</v>
+        <v>0.002647560223677708</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001763382352941174</v>
+        <v>0.001365027349555082</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.008420731866679798</v>
+        <v>0.002869484089680609</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001551989270916625</v>
+        <v>0.001566389558502683</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.0140828972550755</v>
+        <v>0.009045475159649263</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001546686399011757</v>
+        <v>0.001544695077394284</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.002999999999999996</v>
+        <v>0.01612123582073577</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001763382352941174</v>
+        <v>0.001541438642059592</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.003725410997193222</v>
+        <v>0.00394911306254514</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002349584337754025</v>
+        <v>0.002047541024332623</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01187978002553985</v>
+        <v>0.003999999999999997</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002327983906374938</v>
+        <v>0.002351176470588233</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02100000000000002</v>
+        <v>0.01199999999999998</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002571599264705884</v>
+        <v>0.002177015250544659</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.003725410997193222</v>
+        <v>0.02275283770369257</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002349584337754025</v>
+        <v>0.002312157963089388</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.004450540027636403</v>
+        <v>0.005235663924588616</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003132779117005367</v>
+        <v>0.002730054699110164</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01599999999999999</v>
+        <v>0.00491205826676485</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.00337086232342399</v>
+        <v>0.003132779117005367</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02311910812802459</v>
+        <v>0.01459061544603085</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003093372798023514</v>
+        <v>0.003089390154788567</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.004450540027636403</v>
+        <v>0.02600000000000002</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003132779117005367</v>
+        <v>0.002830119825708064</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.001763382352941174</v>
+        <v>0.01548480103416012</v>
       </c>
       <c r="B70" t="n">
-        <v>0.002999999999999996</v>
+        <v>0.02634391969784558</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.005526053220271124</v>
+        <v>0.006507074963675891</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003915973896256708</v>
+        <v>0.003412568373887705</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01706257533812069</v>
+        <v>0.005669180093821384</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003879973177291563</v>
+        <v>0.003915973896256708</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02682455289707031</v>
+        <v>0.01703860535041951</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003866715997529392</v>
+        <v>0.003861737693485709</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.005526053220271124</v>
+        <v>0.03039582254903478</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003915973896256708</v>
+        <v>0.00385359660514898</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.006352799357926528</v>
+        <v>0.007763208333674727</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.00469916867550805</v>
+        <v>0.004095082048665245</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01888242639650728</v>
+        <v>0.006571820643526904</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004655967812749876</v>
+        <v>0.00469916867550805</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02925441110961841</v>
+        <v>0.01923846817813149</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.00464005919703527</v>
+        <v>0.004634085232182852</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.006352799357926528</v>
+        <v>0.03300972948714193</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.00469916867550805</v>
+        <v>0.004624315926178776</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.00703162722343173</v>
+        <v>0.009003926188452874</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005482363454759391</v>
+        <v>0.004777595723442787</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02018310455256925</v>
+        <v>0.00732235234461065</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005431962448208189</v>
+        <v>0.005482363454759391</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03232708414287344</v>
+        <v>0.02108819045733021</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005413402396541148</v>
+        <v>0.005406432770879994</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.00703162722343173</v>
+        <v>0.03518489394768126</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005482363454759391</v>
+        <v>0.005395035247208572</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.007663385599615873</v>
+        <v>0.01022909068187808</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006265558234010734</v>
+        <v>0.005460109398220328</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02149612265660322</v>
+        <v>0.007823147625801906</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006207957083666501</v>
+        <v>0.006265558234010734</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.0345609733740399</v>
+        <v>0.02258575871617902</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006186745596047027</v>
+        <v>0.006178780309577135</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.007663385599615873</v>
+        <v>0.03708764061756559</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006265558234010734</v>
+        <v>0.006165754568238368</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.008448923269308059</v>
+        <v>0.01143856396781811</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007048753013262075</v>
+        <v>0.006142623072997869</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02295299355890579</v>
+        <v>0.008576578915829906</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006983951719124814</v>
+        <v>0.007048753013262075</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03647448018032223</v>
+        <v>0.02412915948284144</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006960088795552906</v>
+        <v>0.006951127848274277</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.008448923269308059</v>
+        <v>0.03921685252555845</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007048753013262075</v>
+        <v>0.007114640502208475</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.009089089015337441</v>
+        <v>0.0126322082001407</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007831947792513417</v>
+        <v>0.006825136747775409</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02388523010977353</v>
+        <v>0.009085018643423946</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007759946354583126</v>
+        <v>0.007831947792513417</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03921685252555845</v>
+        <v>0.0253385825335139</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.008003970564984536</v>
+        <v>0.007661455639256161</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.009089089015337441</v>
+        <v>0.04029834318746917</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007831947792513417</v>
+        <v>0.00770719321029796</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.009584731620533138</v>
+        <v>0.01380988553271362</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008615142571764758</v>
+        <v>0.00750765042255295</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.0253385825335139</v>
+        <v>0.009650839237313247</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008897174290749089</v>
+        <v>0.008615142571764758</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03976825926545258</v>
+        <v>0.02598835576293765</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008506775194564661</v>
+        <v>0.008495822925668561</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.009584731620533138</v>
+        <v>0.04129225248078561</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008615142571764758</v>
+        <v>0.008477912531327757</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01033669986772427</v>
+        <v>0.01497145811940461</v>
       </c>
       <c r="G77" t="n">
+        <v>0.008190164097330491</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.0102764131262271</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.0093983373510161</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.02550743478851972</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009311935625499751</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.04111788436014213</v>
+        <v>0.02724553215317971</v>
       </c>
       <c r="M77" t="n">
-        <v>0.00928011839407054</v>
+        <v>0.009268170464365703</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01033669986772427</v>
+        <v>0.04287110175970893</v>
       </c>
       <c r="O77" t="n">
-        <v>0.0093983373510161</v>
+        <v>0.009248631852357551</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01064584253973998</v>
+        <v>0.01611678811408144</v>
       </c>
       <c r="G78" t="n">
+        <v>0.008872677772108033</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01076411273889476</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01018153213026744</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.02618260263097075</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01008793026095806</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.0430502937637392</v>
+        <v>0.02808837283222421</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01005346159357642</v>
+        <v>0.01004051800306285</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01064584253973998</v>
+        <v>0.04393420592278463</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01018153213026744</v>
+        <v>0.01001935117338735</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
+        <v>0.01724573767061185</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.009555191446885573</v>
+      </c>
+      <c r="J79" t="n">
         <v>0.01146031254146931</v>
       </c>
-      <c r="G79" t="n">
+      <c r="K79" t="n">
         <v>0.01122717383045412</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.02715445749040926</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01086392489641638</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.04376478806785411</v>
+        <v>0.02921655416329588</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0108268047930823</v>
+        <v>0.01081286554175999</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01146031254146931</v>
+        <v>0.04578087986855806</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01122717383045412</v>
+        <v>0.01079007049441714</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01164770083972159</v>
+        <v>0.0183581689428636</v>
       </c>
       <c r="G80" t="n">
+        <v>0.01023770512166312</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01164225830477517</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01174792168877012</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.02842220628109504</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01163991953187469</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.04556066786409668</v>
+        <v>0.02972975250961943</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01160014799258817</v>
+        <v>0.01158521308045713</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01164770083972159</v>
+        <v>0.04671043849557488</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01174792168877012</v>
+        <v>0.01156078981544694</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01207847099075873</v>
+        <v>0.01945394408470444</v>
       </c>
       <c r="G81" t="n">
+        <v>0.01092021879644066</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.012065508777683</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01253111646802147</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.02918505591728787</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.012415914167333</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.0468372337440775</v>
+        <v>0.03062764423441955</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01237349119209405</v>
+        <v>0.01235756061915427</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01207847099075873</v>
+        <v>0.04832219670238053</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01253111646802147</v>
+        <v>0.01233150913647674</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01240709722142879</v>
+        <v>0.02053292525000212</v>
       </c>
       <c r="G82" t="n">
+        <v>0.0116027324712182</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01238738843707255</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01331431124727281</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.03014221331324748</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01319190880279131</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.04809378629940642</v>
+        <v>0.03190990570092098</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01314683439159993</v>
+        <v>0.01312990815785141</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01240709722142879</v>
+        <v>0.04931546938752041</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01331431124727281</v>
+        <v>0.01310222845750653</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01293313545800216</v>
+        <v>0.02159497459262441</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01228524614599574</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.01280742316552901</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01409750602652415</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.03069288538323364</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01396790343824963</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.04982962612169362</v>
+        <v>0.0326762132723484</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01392017759110581</v>
+        <v>0.01390225569654855</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01293313545800216</v>
+        <v>0.05098957144954014</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01409750602652415</v>
+        <v>0.01387294777853633</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01335614162674915</v>
+        <v>0.02263995426643903</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01296775982077328</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01342513884563754</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01488070080577549</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.03173627904150611</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01474389807370794</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.05094405380254935</v>
+        <v>0.03332624331192649</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01469352079061169</v>
+        <v>0.0146746032352457</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01335614162674915</v>
+        <v>0.05174381778698506</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01488070080577549</v>
+        <v>0.01464366709956613</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01367567165394018</v>
+        <v>0.02366772642531377</v>
       </c>
       <c r="G85" t="n">
+        <v>0.01365027349555082</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.0136400613599833</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01566389558502683</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.03217160120232471</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01551989270916625</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.05203636993358374</v>
+        <v>0.03445967218288004</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01546686399011757</v>
+        <v>0.01544695077394284</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01367567165394018</v>
+        <v>0.05287752329840079</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01566389558502683</v>
+        <v>0.01541438642059592</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01409128146584558</v>
+        <v>0.02467815322311637</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01433278717032836</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.01405171659115147</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01644709036427817</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.03329805877994912</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01629588734462456</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.05350587510640692</v>
+        <v>0.03507617624843365</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01624020718962344</v>
+        <v>0.01621929831263998</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01409128146584558</v>
+        <v>0.05409000288233273</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01644709036427817</v>
+        <v>0.01618510574162571</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01470252698873571</v>
+        <v>0.02567109681371456</v>
       </c>
       <c r="G87" t="n">
+        <v>0.0150153008451059</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.01445963042172722</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01723028514352952</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.03391485868863917</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01707188198008288</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.05495186991262913</v>
+        <v>0.03557543187181209</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01701355038912932</v>
+        <v>0.01699164585133712</v>
       </c>
       <c r="N87" t="n">
-        <v>0.01470252698873571</v>
+        <v>0.05518057143732646</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01723028514352952</v>
+        <v>0.01695582506265551</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01490896414888097</v>
+        <v>0.02634391969784558</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01548480103416012</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.01496332873429572</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01801347992278086</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.03502120784265467</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01784787661554119</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.05617365494386045</v>
+        <v>0.03645711541624005</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0177868935886352</v>
+        <v>0.01776399339003426</v>
       </c>
       <c r="N88" t="n">
-        <v>0.01490896414888097</v>
+        <v>0.05674854386192735</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01801347992278086</v>
+        <v>0.01772654438368531</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01551014887255169</v>
+        <v>0.02758740963880026</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01638032819466098</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.01546233741144215</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.0187966747020322</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.03591631315625524</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.0186238712509995</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.05717053079171103</v>
+        <v>0.03732090324494228</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01856023678814108</v>
+        <v>0.01853634092873141</v>
       </c>
       <c r="N89" t="n">
-        <v>0.01551014887255169</v>
+        <v>0.05749323505468096</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0187966747020322</v>
+        <v>0.0184972637047151</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01580563708601822</v>
+        <v>0.02849600679973852</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01706284186943852</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.01575618233575163</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01957986948128354</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.03619938154370078</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01939986588645782</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.05804179804779108</v>
+        <v>0.03826647172114342</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01933357998764696</v>
+        <v>0.01930868846742855</v>
       </c>
       <c r="N90" t="n">
-        <v>0.01580563708601822</v>
+        <v>0.05911395991413271</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01957986948128354</v>
+        <v>0.0192679830257449</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01619498471555096</v>
+        <v>0.02937535228875335</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01774535554421607</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.01614438938980936</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02036306426053489</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.03736961991925106</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02017586052191613</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.05958675730371071</v>
+        <v>0.03889349720806823</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02010692318715284</v>
+        <v>0.02008103600612569</v>
       </c>
       <c r="N91" t="n">
-        <v>0.01619498471555096</v>
+        <v>0.06041003333882822</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02036306426053489</v>
+        <v>0.02003870234677469</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01667774768742025</v>
+        <v>0.03022959485840984</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01842786921899361</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.01652648445620052</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02114625903978622</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.03782623519716571</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02095185515737444</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.06040470915108015</v>
+        <v>0.03970165606894133</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02088026638665871</v>
+        <v>0.02085338354482283</v>
       </c>
       <c r="N92" t="n">
-        <v>0.01667774768742025</v>
+        <v>0.06078077022731287</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02114625903978622</v>
+        <v>0.02080942166780449</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01705348192789646</v>
+        <v>0.03106288326127311</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01911038289377115</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.01700199341751027</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02192945381903756</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.03896843429170463</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02172784979283275</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.06139495418150948</v>
+        <v>0.04019062466698753</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02165360958616459</v>
+        <v>0.02162573108351997</v>
       </c>
       <c r="N93" t="n">
-        <v>0.01705348192789646</v>
+        <v>0.06192548547813209</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02192945381903756</v>
+        <v>0.02158014098883429</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.01742174336324996</v>
+        <v>0.03187936624990827</v>
       </c>
       <c r="G94" t="n">
+        <v>0.01979289656854868</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.01717044215632375</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02271264859828891</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.0394954241171275</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02250384442829106</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.06245679298660894</v>
+        <v>0.04116007936543145</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02242695278567047</v>
+        <v>0.02239807862221711</v>
       </c>
       <c r="N94" t="n">
-        <v>0.01742174336324996</v>
+        <v>0.06314349398983155</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02271264859828891</v>
+        <v>0.02235086030986408</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.0177820879197511</v>
+        <v>0.03268319257688045</v>
       </c>
       <c r="G95" t="n">
+        <v>0.02047541024332623</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.01753135655522618</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02349584337754025</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.04000641158769416</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02327983906374938</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.06398952615798853</v>
+        <v>0.04170969652749787</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02320029598517635</v>
+        <v>0.02317042616091426</v>
       </c>
       <c r="N95" t="n">
-        <v>0.0177820879197511</v>
+        <v>0.0640341106609566</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02349584337754025</v>
+        <v>0.02312157963089388</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.01813407152367025</v>
+        <v>0.03347851099475474</v>
       </c>
       <c r="G96" t="n">
+        <v>0.02115792391810377</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.01788426249680268</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02427903815679159</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.04060060361766438</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02405583369920769</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.06469245428725856</v>
+        <v>0.04193915251641142</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02397363918468223</v>
+        <v>0.0239427736996114</v>
       </c>
       <c r="N96" t="n">
-        <v>0.01813407152367025</v>
+        <v>0.06539665039005282</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02427903815679159</v>
+        <v>0.02389229895192367</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.01827725010127776</v>
+        <v>0.03426947025609628</v>
       </c>
       <c r="G97" t="n">
+        <v>0.02184043759288131</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.01842868586363848</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02506223293604293</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.04167720712129783</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.024831828334666</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.06596487796602923</v>
+        <v>0.04284812369539687</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02474698238418811</v>
+        <v>0.02471512123830854</v>
       </c>
       <c r="N97" t="n">
-        <v>0.01827725010127776</v>
+        <v>0.06633042807566558</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02506223293604293</v>
+        <v>0.02466301827295347</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.01881117957884401</v>
+        <v>0.03506021911347017</v>
       </c>
       <c r="G98" t="n">
+        <v>0.02252295126765885</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.01876415253831867</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02584542771529427</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.04193542901285433</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02560782297012432</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.06700609778591055</v>
+        <v>0.04353628642767893</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02552032558369399</v>
+        <v>0.02548746877700568</v>
       </c>
       <c r="N98" t="n">
-        <v>0.01881117957884401</v>
+        <v>0.06683475861634042</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02584542771529427</v>
+        <v>0.02543373759398327</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.01893541588263935</v>
+        <v>0.03585490631944155</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02320546494243639</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.01899018840342846</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02662862249454561</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.04267447620659362</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02638381760558263</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.0676154143385127</v>
+        <v>0.0437033170764822</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02629366878319987</v>
+        <v>0.02625981631570282</v>
       </c>
       <c r="N99" t="n">
-        <v>0.01893541588263935</v>
+        <v>0.06780895691062289</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02662862249454561</v>
+        <v>0.02620445691501306</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.01934951493893416</v>
+        <v>0.03665768062657554</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02388797861721393</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.01920631934155304</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02741181727379696</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.04359355561677561</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02715981224104094</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.06849212821544592</v>
+        <v>0.04454889200503154</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02706701198270575</v>
+        <v>0.02703216385439997</v>
       </c>
       <c r="N100" t="n">
-        <v>0.01934951493893416</v>
+        <v>0.06865233785705838</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02741181727379696</v>
+        <v>0.02697517623604286</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0196530326739988</v>
+        <v>0.03747269078743722</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02457049229199148</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.01961207123527754</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.0281950120530483</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.04379187415765989</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02793580687649926</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.06893554000832031</v>
+        <v>0.04507268757655153</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02784035518221162</v>
+        <v>0.02780451139309711</v>
       </c>
       <c r="N101" t="n">
-        <v>0.0196530326739988</v>
+        <v>0.06986421635419243</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0281950120530483</v>
+        <v>0.02774589555707265</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.0199455250141036</v>
+        <v>0.03830408555459172</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02525300596676901</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.01990696996718713</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02897820683229964</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.04446863874350626</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02871180151195757</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.0703449503087461</v>
+        <v>0.04577438015426696</v>
       </c>
       <c r="M102" t="n">
-        <v>0.0286136983817175</v>
+        <v>0.02857685893179425</v>
       </c>
       <c r="N102" t="n">
-        <v>0.0199455250141036</v>
+        <v>0.07064390730057057</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02897820683229964</v>
+        <v>0.02851661487810245</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02012654788551896</v>
+        <v>0.03915601368060416</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02593551964154656</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.02009054141986699</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.02976140161155098</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.04532305628857461</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02948779614741588</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.07051965970833335</v>
+        <v>0.04575364610140248</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02938704158122338</v>
+        <v>0.0293492064704914</v>
       </c>
       <c r="N103" t="n">
-        <v>0.02012654788551896</v>
+        <v>0.07089072559473819</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02976140161155098</v>
+        <v>0.02928733419913225</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02049565721451524</v>
+        <v>0.04003262391803969</v>
       </c>
       <c r="G104" t="n">
+        <v>0.0266180333163241</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.02036231147590231</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03054459639080232</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.04575433370712451</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03026379078287419</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.07155896879869222</v>
+        <v>0.04671016178118281</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03016038478072925</v>
+        <v>0.03012155400918853</v>
       </c>
       <c r="N104" t="n">
-        <v>0.02049565721451524</v>
+        <v>0.07150398613524084</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03054459639080232</v>
+        <v>0.03005805352016204</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02065240892736278</v>
+        <v>0.04134391969784558</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02759885380297656</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.02062180601787823</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03132779117005367</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.0462616779134159</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.0310397854183325</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.07196217817143302</v>
+        <v>0.04704360355683271</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03093372798023513</v>
+        <v>0.03089390154788567</v>
       </c>
       <c r="N105" t="n">
-        <v>0.02065240892736278</v>
+        <v>0.07258300382062399</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03132779117005367</v>
+        <v>0.03082877284119184</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02089635895033197</v>
+        <v>0.04189316168167295</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02798306066587918</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.02106855092837993</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.032110985949305</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.04674429582170847</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03181578005379081</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.07312858841816577</v>
+        <v>0.04755364779157684</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03170707117974101</v>
+        <v>0.03166624908658282</v>
       </c>
       <c r="N106" t="n">
-        <v>0.02089635895033197</v>
+        <v>0.07282709354943312</v>
       </c>
       <c r="O106" t="n">
-        <v>0.032110985949305</v>
+        <v>0.03159949216222163</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02112706320969318</v>
+        <v>0.04296543447356935</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02866557434065672</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.02120207208999257</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03289418072855635</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.04710139434626195</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03259177468924913</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.07385750013050058</v>
+        <v>0.04753997084863984</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03248041437924689</v>
+        <v>0.03243859662527996</v>
       </c>
       <c r="N107" t="n">
-        <v>0.02112706320969318</v>
+        <v>0.07353557022021373</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03289418072855635</v>
+        <v>0.03237021148325143</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02144407763171671</v>
+        <v>0.04413306412662481</v>
       </c>
       <c r="G108" t="n">
+        <v>0.02934808801543426</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.02132189538530133</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03367737550780769</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.04783218040133619</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03336776932470744</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.07424821390004771</v>
+        <v>0.04800224909124653</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03325375757875277</v>
+        <v>0.0332109441639771</v>
       </c>
       <c r="N108" t="n">
-        <v>0.02144407763171671</v>
+        <v>0.07440774873151124</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03367737550780769</v>
+        <v>0.03314093080428122</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02164695814267301</v>
+        <v>0.0453629940213309</v>
       </c>
       <c r="G109" t="n">
+        <v>0.0300306016902118</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.02172754669689136</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03446057028705903</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.04813586090119093</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03414376396016575</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.07440003031841735</v>
+        <v>0.04814015888262158</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03402710077825864</v>
+        <v>0.03398329170267424</v>
       </c>
       <c r="N109" t="n">
-        <v>0.02164695814267301</v>
+        <v>0.07494294398187129</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03446057028705903</v>
+        <v>0.03391165012531103</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02183526066883237</v>
+        <v>0.04662216753817909</v>
       </c>
       <c r="G110" t="n">
+        <v>0.03071311536498934</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.02191855190734784</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03524376506631038</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.04841164276008586</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03491975859562407</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.07551224997721956</v>
+        <v>0.04895337658598964</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03480044397776452</v>
+        <v>0.03475563924137139</v>
       </c>
       <c r="N110" t="n">
-        <v>0.02183526066883237</v>
+        <v>0.07544047086983924</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03524376506631038</v>
+        <v>0.03468236944634082</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02190854113646519</v>
+        <v>0.047877528057661</v>
       </c>
       <c r="G111" t="n">
+        <v>0.03139562903976689</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.02199443689925595</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03602695984556172</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.04855873289228085</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03569575323108238</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.07608417346806451</v>
+        <v>0.04874157856457548</v>
       </c>
       <c r="M111" t="n">
-        <v>0.0355737871772704</v>
+        <v>0.03552798678006853</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02190854113646519</v>
+        <v>0.07569964429396059</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03602695984556172</v>
+        <v>0.03545308876737061</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02216635547184181</v>
+        <v>0.04909601896026811</v>
       </c>
       <c r="G112" t="n">
+        <v>0.03207814271454443</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.02205472755520085</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03681015462481305</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.04917633821203563</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03647174786654069</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.07651510138256246</v>
+        <v>0.04940444118160378</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03634713037677628</v>
+        <v>0.03630033431876567</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02216635547184181</v>
+        <v>0.07601977915278091</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03681015462481305</v>
+        <v>0.03622380808840041</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02230825960123263</v>
+        <v>0.05024458362649196</v>
       </c>
       <c r="G113" t="n">
+        <v>0.03276065638932196</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.02229894975776768</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.0375933494040644</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.04916366563360991</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03724774250199901</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.07670433431232349</v>
+        <v>0.04934164080029921</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03712047357628216</v>
+        <v>0.03707268185746281</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02230825960123263</v>
+        <v>0.07650019034484556</v>
       </c>
       <c r="O113" t="n">
-        <v>0.0375933494040644</v>
+        <v>0.0369945274094302</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02233380945090799</v>
+        <v>0.05129016543682409</v>
       </c>
       <c r="G114" t="n">
+        <v>0.0334431700640995</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.02232662938954165</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03837654418331574</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.04981992207126359</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03802373713745732</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.07675117284895772</v>
+        <v>0.04995285378388659</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03789381677578804</v>
+        <v>0.03784502939615995</v>
       </c>
       <c r="N114" t="n">
-        <v>0.02233380945090799</v>
+        <v>0.07714019276870016</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03837654418331574</v>
+        <v>0.03776524673046</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02244256094713826</v>
+        <v>0.05219970777175606</v>
       </c>
       <c r="G115" t="n">
+        <v>0.03412568373887705</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.02253729233310792</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03915973896256708</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.0498443144392563</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03879973177291563</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.07695491758407536</v>
+        <v>0.05003775649559053</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03866715997529392</v>
+        <v>0.0386173769348571</v>
       </c>
       <c r="N115" t="n">
-        <v>0.02244256094713826</v>
+        <v>0.07723910132289008</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03915973896256708</v>
+        <v>0.0385359660514898</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02263407001619379</v>
+        <v>0.05294015401177939</v>
       </c>
       <c r="G116" t="n">
+        <v>0.03480819741365459</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.02253046447105164</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.03994293374181843</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.04983604965184787</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03957572640837394</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.07731486910928659</v>
+        <v>0.04989602529863571</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0394405031747998</v>
+        <v>0.03938972447355424</v>
       </c>
       <c r="N116" t="n">
-        <v>0.02263407001619379</v>
+        <v>0.07779623090596088</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03994293374181843</v>
+        <v>0.0393066853725196</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02270789258434493</v>
+        <v>0.05347844753738561</v>
       </c>
       <c r="G117" t="n">
+        <v>0.03549071108843213</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.02260567168595799</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04072612852106977</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.0502943346232981</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04035172104383225</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.07753032801620152</v>
+        <v>0.05042733655624693</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04021384637430567</v>
+        <v>0.04016207201225138</v>
       </c>
       <c r="N117" t="n">
-        <v>0.02270789258434493</v>
+        <v>0.07731089641645805</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04072612852106977</v>
+        <v>0.04007740469354939</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02266358457786209</v>
+        <v>0.0538435253962425</v>
       </c>
       <c r="G118" t="n">
+        <v>0.03617322476320967</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.02276243986041215</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04150932330032111</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.05051837626786665</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04112771567929057</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.07750059489643035</v>
+        <v>0.05033136663164883</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04098718957381155</v>
+        <v>0.04093441955094852</v>
       </c>
       <c r="N118" t="n">
-        <v>0.02266358457786209</v>
+        <v>0.07748241275292705</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04150932330032111</v>
+        <v>0.04084812401457918</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02290070192301559</v>
+        <v>0.05419142890516214</v>
       </c>
       <c r="G119" t="n">
+        <v>0.03685573843798721</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.02292062508293861</v>
+      </c>
+      <c r="K119" t="n">
         <v>0.04229251807957245</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.05060738149981339</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.04190371031474888</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.07782497034158309</v>
+        <v>0.05010779188806616</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04176053277331743</v>
+        <v>0.04170676708964566</v>
       </c>
       <c r="N119" t="n">
-        <v>0.02290070192301559</v>
+        <v>0.07781009481391338</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04229251807957245</v>
+        <v>0.04161884333560898</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02292062508293861</v>
+        <v>0.05453192047853903</v>
       </c>
       <c r="G120" t="n">
+        <v>0.03753825211276476</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.02281876261830451</v>
+      </c>
+      <c r="K120" t="n">
         <v>0.04307571285882379</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>0.05067716506702777</v>
       </c>
-      <c r="K120" t="n">
-        <v>0.04267970495020719</v>
-      </c>
-      <c r="L120" t="n">
+      <c r="M120" t="n">
+        <v>0.04247911462834281</v>
+      </c>
+      <c r="N120" t="n">
         <v>0.07843370505111691</v>
       </c>
-      <c r="M120" t="n">
-        <v>0.04253387597282331</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.02292062508293861</v>
-      </c>
       <c r="O120" t="n">
-        <v>0.04307571285882379</v>
+        <v>0.04238956265663878</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02291891738949881</v>
+        <v>0.05486498958580847</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03822076578754229</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.02291830170398296</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04385890763807513</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.05037711856196855</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04345569958566551</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.07813324929310156</v>
+        <v>0.05067653339684583</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04330721917232919</v>
+        <v>0.04325146216703995</v>
       </c>
       <c r="N121" t="n">
-        <v>0.02291891738949881</v>
+        <v>0.07813121570361986</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04385890763807513</v>
+        <v>0.04316028197766858</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02280781899453881</v>
+        <v>0.05519062569640569</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03890327946231983</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.02280320600600116</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04464210241732647</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.05025977141449445</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04423169422112382</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.07842490096245114</v>
+        <v>0.05027078606137358</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04408056237183507</v>
+        <v>0.04402380970573709</v>
       </c>
       <c r="N122" t="n">
-        <v>0.02280781899453881</v>
+        <v>0.07822094812380898</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04464210241732647</v>
+        <v>0.04393100129869837</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0227868078502995</v>
+        <v>0.05550881827976591</v>
       </c>
       <c r="G123" t="n">
+        <v>0.03958579313709737</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.02287463734657069</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04542529719657782</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.05031214016925439</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04500768885658213</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.07829296480856596</v>
+        <v>0.05044480478817215</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04485390557134095</v>
+        <v>0.04479615724443423</v>
       </c>
       <c r="N123" t="n">
-        <v>0.0227868078502995</v>
+        <v>0.07785565051073079</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04542529719657782</v>
+        <v>0.04470172061972816</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02265636122795649</v>
+        <v>0.05581955680532436</v>
       </c>
       <c r="G124" t="n">
+        <v>0.04026830681187492</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.02283325500127617</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04620849197582916</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.05023568324402847</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04578368349204045</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.07793823360595692</v>
+        <v>0.05019950182216165</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04562724877084683</v>
+        <v>0.04556850478313137</v>
       </c>
       <c r="N124" t="n">
-        <v>0.02265636122795649</v>
+        <v>0.07793693887858405</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04620849197582916</v>
+        <v>0.04547243994075796</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.0228169563986854</v>
+        <v>0.05612283074251628</v>
       </c>
       <c r="G125" t="n">
+        <v>0.04095082048665246</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.0225797182457023</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.0469916867550805</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.04993185905659697</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04655967812749875</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.07806127076294256</v>
+        <v>0.0502356144343889</v>
       </c>
       <c r="M125" t="n">
-        <v>0.0464005919703527</v>
+        <v>0.04634085232182852</v>
       </c>
       <c r="N125" t="n">
-        <v>0.0228169563986854</v>
+        <v>0.07766704262121066</v>
       </c>
       <c r="O125" t="n">
-        <v>0.0469916867550805</v>
+        <v>0.04624315926178776</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02266907063366184</v>
+        <v>0.05641862956077694</v>
       </c>
       <c r="G126" t="n">
+        <v>0.04163333416143</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.02251468635543374</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04777488153433184</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.05020212602474014</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04733567276295707</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.07786263968784124</v>
+        <v>0.05005387989590063</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04717393516985858</v>
+        <v>0.04711319986052566</v>
       </c>
       <c r="N126" t="n">
-        <v>0.02266907063366184</v>
+        <v>0.0776481911324528</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04777488153433184</v>
+        <v>0.04701387858281755</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02271318120406142</v>
+        <v>0.05670694272954156</v>
       </c>
       <c r="G127" t="n">
+        <v>0.04231584783620754</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.02243881860605516</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04855807631358319</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.04984794256623809</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04811166739841538</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.07784290378897163</v>
+        <v>0.05005503547774362</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04794727836936446</v>
+        <v>0.04788554739922279</v>
       </c>
       <c r="N127" t="n">
-        <v>0.02271318120406142</v>
+        <v>0.07728261380615237</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04855807631358319</v>
+        <v>0.04778459790384735</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02254976538105975</v>
+        <v>0.05698775971824539</v>
       </c>
       <c r="G128" t="n">
+        <v>0.04299836151098508</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.02255277427315125</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.04934127109283452</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.04957076709887109</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04888766203387369</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.07770262647465204</v>
+        <v>0.0501398184509646</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04872062156887034</v>
+        <v>0.04865789493791994</v>
       </c>
       <c r="N128" t="n">
-        <v>0.02254976538105975</v>
+        <v>0.0765725400361516</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04934127109283452</v>
+        <v>0.04855531722487715</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02237930043583246</v>
+        <v>0.05726106999632365</v>
       </c>
       <c r="G129" t="n">
+        <v>0.04368087518576262</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.02235721263230663</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.05012446587208587</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.04937205804041936</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.04966365666933201</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.07744237115320091</v>
+        <v>0.05010896608661033</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04949396476837622</v>
+        <v>0.04943024247661708</v>
       </c>
       <c r="N129" t="n">
-        <v>0.02237930043583246</v>
+        <v>0.07652019921629233</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05012446587208587</v>
+        <v>0.04932603654590694</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02230226363955515</v>
+        <v>0.05752686303321158</v>
       </c>
       <c r="G130" t="n">
+        <v>0.04436338886054016</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.02225279295910601</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05090766065133721</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.04935327380866311</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05043965130479031</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.0770627012329369</v>
+        <v>0.04976321565572758</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05026730796788209</v>
+        <v>0.05020259001531422</v>
       </c>
       <c r="N130" t="n">
-        <v>0.02230226363955515</v>
+        <v>0.07652782074041675</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05090766065133721</v>
+        <v>0.05009675586693674</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02241913226340343</v>
+        <v>0.05778512829834444</v>
       </c>
       <c r="G131" t="n">
+        <v>0.0450459025353177</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.02204017452913405</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05169085543058854</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.04911587282138255</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05121564594024863</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.07666418012217829</v>
+        <v>0.04930330442936309</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05104065116738797</v>
+        <v>0.05097493755401137</v>
       </c>
       <c r="N131" t="n">
-        <v>0.02241913226340343</v>
+        <v>0.07549763400236686</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05169085543058854</v>
+        <v>0.05086747518796653</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02223038357855292</v>
+        <v>0.05803585526115745</v>
       </c>
       <c r="G132" t="n">
+        <v>0.04572841621009525</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.02202001661797542</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05247405020983989</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.04906131349635784</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05199164057570695</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.07684737122924351</v>
+        <v>0.04912996967856362</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05181399436689385</v>
+        <v>0.0517472850927085</v>
       </c>
       <c r="N132" t="n">
-        <v>0.02223038357855292</v>
+        <v>0.0750318683959848</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05247405020983989</v>
+        <v>0.05163819450899634</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02223649485617923</v>
+        <v>0.05827903339108588</v>
       </c>
       <c r="G133" t="n">
+        <v>0.04641092988487278</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.02179297850121478</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05325724498909123</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.04859105425136925</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05276763521116525</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.07681283796245125</v>
+        <v>0.0492439486743759</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05258733756639973</v>
+        <v>0.05251963263140565</v>
       </c>
       <c r="N133" t="n">
-        <v>0.02223649485617923</v>
+        <v>0.0745327533151125</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05325724498909123</v>
+        <v>0.05240891383002613</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02203794336745798</v>
+        <v>0.05851465215756492</v>
       </c>
       <c r="G134" t="n">
+        <v>0.04709344355965032</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.02185971945443682</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05404043976834258</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.04800655350419697</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05354362984662357</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.07626114373011983</v>
+        <v>0.04894597868784675</v>
       </c>
       <c r="M134" t="n">
-        <v>0.0533606807659056</v>
+        <v>0.05329198017010279</v>
       </c>
       <c r="N134" t="n">
-        <v>0.02203794336745798</v>
+        <v>0.0745025181535921</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05404043976834258</v>
+        <v>0.05317963315105591</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02203520638356479</v>
+        <v>0.05874270103002985</v>
       </c>
       <c r="G135" t="n">
+        <v>0.04777595723442787</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.0216208987532262</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05482363454759392</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.04770926967262121</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05431962448208188</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.07569285194056774</v>
+        <v>0.04863679699002291</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05413402396541149</v>
+        <v>0.05406432770879993</v>
       </c>
       <c r="N135" t="n">
-        <v>0.02203520638356479</v>
+        <v>0.07404339230526552</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05482363454759392</v>
+        <v>0.05395035247208572</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02172876117567524</v>
+        <v>0.05896316947791587</v>
       </c>
       <c r="G136" t="n">
+        <v>0.04845847090920541</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.02157717567316757</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05560682932684526</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.04760066117442219</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05509561911754019</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.07570852600211342</v>
+        <v>0.04841714085195106</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05490736716491736</v>
+        <v>0.05483667524749708</v>
       </c>
       <c r="N136" t="n">
-        <v>0.02172876117567524</v>
+        <v>0.07335760516397499</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05560682932684526</v>
+        <v>0.05472107179311552</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02161908501496498</v>
+        <v>0.05917604697065826</v>
       </c>
       <c r="G137" t="n">
+        <v>0.04914098458398295</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.02122920948984562</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.0563900241060966</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.04728218642738011</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05587161375299851</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.0755087293230754</v>
+        <v>0.04808774754467807</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05568071036442325</v>
+        <v>0.05560902278619421</v>
       </c>
       <c r="N137" t="n">
-        <v>0.02161908501496498</v>
+        <v>0.07214738612356242</v>
       </c>
       <c r="O137" t="n">
-        <v>0.0563900241060966</v>
+        <v>0.05549179111414531</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02160665517260961</v>
+        <v>0.05938132297769223</v>
       </c>
       <c r="G138" t="n">
+        <v>0.04982349825876049</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.02107765947884502</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05717321888534794</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.04695530384927518</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05664760838845682</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.07479402531177209</v>
+        <v>0.04794935433925063</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05645405356392912</v>
+        <v>0.05638137032489136</v>
       </c>
       <c r="N138" t="n">
-        <v>0.02160665517260961</v>
+        <v>0.07161496457786992</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05717321888534794</v>
+        <v>0.05626251043517511</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02139194891978476</v>
+        <v>0.05957898696845307</v>
       </c>
       <c r="G139" t="n">
+        <v>0.05050601193353803</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.02102318491575043</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05795641366459928</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.0468214718578876</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05742360302391513</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.074664977376522</v>
+        <v>0.0476026985067155</v>
       </c>
       <c r="M139" t="n">
-        <v>0.057227396763435</v>
+        <v>0.0571537178635885</v>
       </c>
       <c r="N139" t="n">
-        <v>0.02139194891978476</v>
+        <v>0.07096256992073957</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05795641366459928</v>
+        <v>0.0570332297562049</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02137544352766599</v>
+        <v>0.05976902841237594</v>
       </c>
       <c r="G140" t="n">
+        <v>0.05118852560831557</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.02076644507614654</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05873960844385063</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.04608214887099762</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05819959765937345</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.07412214892564351</v>
+        <v>0.04734851731811943</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05800073996294088</v>
+        <v>0.05792606540228564</v>
       </c>
       <c r="N140" t="n">
-        <v>0.02137544352766599</v>
+        <v>0.07029243154601339</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05873960844385063</v>
+        <v>0.0578039490772347</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02135761626742898</v>
+        <v>0.05995143677889614</v>
       </c>
       <c r="G141" t="n">
+        <v>0.05187103928309311</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.02070809923561799</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.05952280322310197</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.04573879330638544</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05897559229483176</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.07446610336745524</v>
+        <v>0.0471875480445092</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05877408316244676</v>
+        <v>0.05869841294098279</v>
       </c>
       <c r="N141" t="n">
-        <v>0.02135761626742898</v>
+        <v>0.07010677884753336</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05952280322310197</v>
+        <v>0.0585746683982645</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02103894441024928</v>
+        <v>0.0601262015374489</v>
       </c>
       <c r="G142" t="n">
+        <v>0.05255355295787065</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.02064880666974946</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.0603059980023533</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.04549286358183122</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.05975158693029007</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.07359740411027549</v>
+        <v>0.04692052795693155</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05954742636195264</v>
+        <v>0.05947076047967993</v>
       </c>
       <c r="N142" t="n">
-        <v>0.02103894441024928</v>
+        <v>0.06920784121914159</v>
       </c>
       <c r="O142" t="n">
-        <v>0.0603059980023533</v>
+        <v>0.05934538771929429</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02091990522730257</v>
+        <v>0.06029331215746941</v>
       </c>
       <c r="G143" t="n">
+        <v>0.0532360666326482</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.02038922665412563</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06108919278160465</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.04534581811511526</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06052758156574839</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.07301661456242292</v>
+        <v>0.04654819432643326</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06032076956145851</v>
+        <v>0.06024310801837706</v>
       </c>
       <c r="N143" t="n">
-        <v>0.02091990522730257</v>
+        <v>0.0687978480546802</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06108919278160465</v>
+        <v>0.06011610704032409</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02090097598976441</v>
+        <v>0.06045275810839297</v>
       </c>
       <c r="G144" t="n">
+        <v>0.05391858030742573</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.02013001846433116</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06187238756085599</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.04509911532401772</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06130357620120669</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.0733242981322158</v>
+        <v>0.04667128442406107</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06109411276096439</v>
+        <v>0.06101545555707421</v>
       </c>
       <c r="N144" t="n">
-        <v>0.02090097598976441</v>
+        <v>0.06787902874799118</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06187238756085599</v>
+        <v>0.06088682636135388</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02068263396881044</v>
+        <v>0.06060452885965481</v>
       </c>
       <c r="G145" t="n">
+        <v>0.05460109398220327</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.01997184137595072</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06265558234010733</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.04445421362631877</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06207957083666501</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.07232101822797271</v>
+        <v>0.0463905355208617</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06186745596047027</v>
+        <v>0.06178780309577134</v>
       </c>
       <c r="N145" t="n">
-        <v>0.02068263396881044</v>
+        <v>0.06735361269291645</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06265558234010733</v>
+        <v>0.06165754568238368</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02076535643561626</v>
+        <v>0.06074861388069014</v>
       </c>
       <c r="G146" t="n">
+        <v>0.05528360765698082</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.01991535466456898</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06343877711935868</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.04411257143979869</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06285556547212333</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.0724073382580121</v>
+        <v>0.04580668488788195</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06264079915997614</v>
+        <v>0.0625601506344685</v>
       </c>
       <c r="N146" t="n">
-        <v>0.02076535643561626</v>
+        <v>0.06622382928329834</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06343877711935868</v>
+        <v>0.06242826500341347</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.0206496206613575</v>
+        <v>0.06088500264093422</v>
       </c>
       <c r="G147" t="n">
+        <v>0.05596612133175836</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.0196612176057706</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06422197189861001</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.04417564718223765</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06363156010758163</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.07138382163065238</v>
+        <v>0.04582046979616858</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06341414235948202</v>
+        <v>0.06333249817316564</v>
       </c>
       <c r="N147" t="n">
-        <v>0.0206496206613575</v>
+        <v>0.06589190791297861</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06422197189861001</v>
+        <v>0.06319898432444326</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02053590391720976</v>
+        <v>0.06101368460982229</v>
       </c>
       <c r="G148" t="n">
+        <v>0.0566486350065359</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.01951008947514027</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06500516667786137</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.04384489927141588</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06440755474303994</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.0712510317542121</v>
+        <v>0.04553262751676831</v>
       </c>
       <c r="M148" t="n">
-        <v>0.0641874855589879</v>
+        <v>0.06410484571186277</v>
       </c>
       <c r="N148" t="n">
-        <v>0.02053590391720976</v>
+        <v>0.06456007797579955</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06500516667786137</v>
+        <v>0.06396970364547307</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02042468347434867</v>
+        <v>0.06113464925678956</v>
       </c>
       <c r="G149" t="n">
+        <v>0.05733114868131343</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.01956262954826267</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.0657883614571127</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.04302178612511359</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06518354937849825</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.0706095320370097</v>
+        <v>0.04524389532072795</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06496082875849378</v>
+        <v>0.06487719325055992</v>
       </c>
       <c r="N149" t="n">
-        <v>0.02042468347434867</v>
+        <v>0.06393056886560311</v>
       </c>
       <c r="O149" t="n">
-        <v>0.0657883614571127</v>
+        <v>0.06474042296650286</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02011643660394979</v>
+        <v>0.06124788605127132</v>
       </c>
       <c r="G150" t="n">
+        <v>0.05801366235609098</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.01931949710072244</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06657155623636404</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.042907766161111</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06595954401395657</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.07045988588736363</v>
+        <v>0.04475501047909419</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06573417195799966</v>
+        <v>0.06564954078925705</v>
       </c>
       <c r="N150" t="n">
-        <v>0.02011643660394979</v>
+        <v>0.06350560997623128</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06657155623636404</v>
+        <v>0.06551114228753266</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02021164057718881</v>
+        <v>0.06135338446270276</v>
       </c>
       <c r="G151" t="n">
+        <v>0.05869617603086853</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.01908135140810423</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06735475101561539</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.04270429779718829</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06673553864941488</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.07030265671359237</v>
+        <v>0.04426671026291384</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06650751515750554</v>
+        <v>0.0664218883279542</v>
       </c>
       <c r="N151" t="n">
-        <v>0.02021164057718881</v>
+        <v>0.06288743070152614</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06735475101561539</v>
+        <v>0.06628186160856245</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02011077266524129</v>
+        <v>0.06145113396051917</v>
       </c>
       <c r="G152" t="n">
+        <v>0.05937868970564606</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.01894885174599276</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06813794579486672</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.0424128394511257</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06751153328487319</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.06913840792401443</v>
+        <v>0.04427973194323365</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06728085835701142</v>
+        <v>0.06719423586665134</v>
       </c>
       <c r="N152" t="n">
-        <v>0.02011077266524129</v>
+        <v>0.06207826043532982</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06813794579486672</v>
+        <v>0.06705258092959225</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01981431013928286</v>
+        <v>0.06154112401415573</v>
       </c>
       <c r="G153" t="n">
+        <v>0.0600612033804236</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.01902265738997268</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.06892114057411806</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.04183484954070341</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06828752792033151</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.06866770292694818</v>
+        <v>0.04369481279110035</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06805420155651729</v>
+        <v>0.06796658340534849</v>
       </c>
       <c r="N153" t="n">
-        <v>0.01981431013928286</v>
+        <v>0.06108032857148427</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06892114057411806</v>
+        <v>0.06782330025062205</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01992273027048916</v>
+        <v>0.06162334409304772</v>
       </c>
       <c r="G154" t="n">
+        <v>0.06074371705520115</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.01870342761562864</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.06970433535336941</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.04207178648370169</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.06906352255578982</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.06839110513071212</v>
+        <v>0.04371269007756071</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06882754475602318</v>
+        <v>0.06873893094404564</v>
       </c>
       <c r="N154" t="n">
-        <v>0.01992273027048916</v>
+        <v>0.06039586450383161</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06970433535336941</v>
+        <v>0.06859401957165184</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01983508267746995</v>
+        <v>0.06169778366663037</v>
       </c>
       <c r="G155" t="n">
+        <v>0.06142623072997868</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.01879182169854535</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.07048753013262075</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.04172510869790069</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.06983951719124813</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.06830917794362479</v>
+        <v>0.04353410107366149</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06960088795552904</v>
+        <v>0.06951127848274277</v>
       </c>
       <c r="N155" t="n">
-        <v>0.01983508267746995</v>
+        <v>0.05972709762621392</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07048753013262075</v>
+        <v>0.06936473889268165</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01954957709300149</v>
+        <v>0.06176443220433891</v>
       </c>
       <c r="G156" t="n">
+        <v>0.06210874440475623</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.01858849891430743</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07127072491187209</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.04149627460108066</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07061551182670645</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.06732248477400454</v>
+        <v>0.04335978305044941</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07037423115503494</v>
+        <v>0.07028362602143992</v>
       </c>
       <c r="N156" t="n">
-        <v>0.01954957709300149</v>
+        <v>0.05917625733247317</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07127072491187209</v>
+        <v>0.07013545821371144</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01966606097724981</v>
+        <v>0.06182327917560861</v>
       </c>
       <c r="G157" t="n">
+        <v>0.06279125807953377</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.01859411853849958</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07205391969112344</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.04108197472312353</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07139150646216476</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.06693158903016994</v>
+        <v>0.04269047327897127</v>
       </c>
       <c r="M157" t="n">
-        <v>0.0711475743545408</v>
+        <v>0.07105597356013706</v>
       </c>
       <c r="N157" t="n">
-        <v>0.01966606097724981</v>
+        <v>0.0586455730164514</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07205391969112344</v>
+        <v>0.07090617753474122</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01938438996351191</v>
+        <v>0.06187431404987469</v>
       </c>
       <c r="G158" t="n">
+        <v>0.06347377175431131</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.01840721306832219</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07283711447037478</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.04067673438987768</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07216750109762307</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.0662370541204394</v>
+        <v>0.0427227717366343</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07192091755404668</v>
+        <v>0.07182832109883419</v>
       </c>
       <c r="N158" t="n">
-        <v>0.01938438996351191</v>
+        <v>0.05792115042042345</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07283711447037478</v>
+        <v>0.07167689685577101</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01940441968508486</v>
+        <v>0.06191752629657236</v>
       </c>
       <c r="G159" t="n">
+        <v>0.06415628542908886</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.01832435910210063</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07362030924962611</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.04048002054886318</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07294349573308138</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.06643944345313141</v>
+        <v>0.04204990082536267</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07269426075355256</v>
+        <v>0.07260066863753134</v>
       </c>
       <c r="N159" t="n">
-        <v>0.01940441968508486</v>
+        <v>0.056977657672514</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07362030924962611</v>
+        <v>0.07244761617680082</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01942600577526565</v>
+        <v>0.0619529053851369</v>
       </c>
       <c r="G160" t="n">
+        <v>0.06483879910386639</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.01834522753404932</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07440350402887747</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.0403913099184684</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.0737194903685397</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.06583932043656443</v>
+        <v>0.04207176138651714</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07346760395305844</v>
+        <v>0.07337301617622848</v>
       </c>
       <c r="N160" t="n">
-        <v>0.01942600577526565</v>
+        <v>0.05691600221943355</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07440350402887747</v>
+        <v>0.07321833549783062</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01914900386735134</v>
+        <v>0.06198044078500353</v>
       </c>
       <c r="G161" t="n">
+        <v>0.06552131277864393</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.01806954064717019</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.0751866988081288</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.04011007921708193</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07449548500399801</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.06483724847905697</v>
+        <v>0.04188837396382639</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07424094715256432</v>
+        <v>0.07414536371492562</v>
       </c>
       <c r="N161" t="n">
-        <v>0.01914900386735134</v>
+        <v>0.0556375153645845</v>
       </c>
       <c r="O161" t="n">
-        <v>0.0751866988081288</v>
+        <v>0.07398905481886041</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01927326959463894</v>
+        <v>0.06200012196560749</v>
       </c>
       <c r="G162" t="n">
+        <v>0.06620382645342147</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.01819702072446519</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07596989358738014</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.04023580516309211</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07527147963945632</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.06443379098892743</v>
+        <v>0.041199759101019</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07501429035207019</v>
+        <v>0.07491771125362276</v>
       </c>
       <c r="N162" t="n">
-        <v>0.01927326959463894</v>
+        <v>0.05524352841136937</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07596989358738014</v>
+        <v>0.07475977413989021</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01919865859042551</v>
+        <v>0.06201193839638403</v>
       </c>
       <c r="G163" t="n">
+        <v>0.06688634012819901</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.01792739004893625</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07675308836663149</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.04026796447488742</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07604747427491464</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.06422951137449434</v>
+        <v>0.04120593734182373</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07578763355157608</v>
+        <v>0.07569005879231989</v>
       </c>
       <c r="N163" t="n">
-        <v>0.01919865859042551</v>
+        <v>0.05473537266319056</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07675308836663149</v>
+        <v>0.07553049346092</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01892502648800805</v>
+        <v>0.06201587954676838</v>
       </c>
       <c r="G164" t="n">
+        <v>0.06756885380297656</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.01806037090358531</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07753628314588283</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.04010603387085632</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07682346891037295</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.06322334742701285</v>
+        <v>0.04060692922996925</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07656097675108195</v>
+        <v>0.07646240633101704</v>
       </c>
       <c r="N164" t="n">
-        <v>0.01892502648800805</v>
+        <v>0.05371437942345053</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07753628314588283</v>
+        <v>0.0763012127819498</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01905222892068362</v>
+        <v>0.06201587954676836</v>
       </c>
       <c r="G165" t="n">
+        <v>0.06756885380297656</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.01799568557141432</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07831947792513416</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.03954949006938718</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07759946354583126</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.06275190744304771</v>
+        <v>0.04030275530918423</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07733431995058784</v>
+        <v>0.07723475386971419</v>
       </c>
       <c r="N165" t="n">
-        <v>0.01905222892068362</v>
+        <v>0.05298187999555165</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07831947792513416</v>
+        <v>0.07707193210297961</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01898012152174922</v>
+        <v>0.06099195162638094</v>
       </c>
       <c r="G166" t="n">
+        <v>0.06756858527451254</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.01773305633542521</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.07910267270438551</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.03969780978886853</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07837545818128956</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.0623872682467102</v>
+        <v>0.04049343612319731</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07810766315009371</v>
+        <v>0.07800710140841133</v>
       </c>
       <c r="N166" t="n">
-        <v>0.01898012152174922</v>
+        <v>0.05223920568289653</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07910267270438551</v>
+        <v>0.0778426514240094</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01880855992450189</v>
+        <v>0.05997934620877877</v>
       </c>
       <c r="G167" t="n">
+        <v>0.06756831674604853</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.01777220547861992</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.07988586748363685</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.03945046974768873</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.07915145281674789</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.06173623380962789</v>
+        <v>0.04017899221573715</v>
       </c>
       <c r="M167" t="n">
-        <v>0.0788810063495996</v>
+        <v>0.07877944894710848</v>
       </c>
       <c r="N167" t="n">
-        <v>0.01880855992450189</v>
+        <v>0.05158768778888739</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07988586748363685</v>
+        <v>0.0786133707450392</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01873739976223869</v>
+        <v>0.05897856785390665</v>
       </c>
       <c r="G168" t="n">
+        <v>0.0675680482175845</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.0176128552840004</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08066906226288818</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.03900694666423632</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.0799274474522062</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.06060560810342774</v>
+        <v>0.03935944413053252</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07965434954910547</v>
+        <v>0.07955179648580561</v>
       </c>
       <c r="N168" t="n">
-        <v>0.01873739976223869</v>
+        <v>0.05082865761692679</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08066906226288818</v>
+        <v>0.07938409006606899</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.01866649666825661</v>
+        <v>0.05799012112183971</v>
       </c>
       <c r="G169" t="n">
+        <v>0.06756777968912049</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.01765472803456859</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08145225704213954</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.03886671725689972</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.0807034420876645</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.06020219509973707</v>
+        <v>0.03913481241131195</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08042769274861135</v>
+        <v>0.08032414402450276</v>
       </c>
       <c r="N169" t="n">
-        <v>0.01866649666825661</v>
+        <v>0.05036344647041724</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08145225704213954</v>
+        <v>0.08015480938709878</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01859570627585271</v>
+        <v>0.05701451057252216</v>
       </c>
       <c r="G170" t="n">
+        <v>0.06756751116065647</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.01759754601332641</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08223545182139087</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.03882925824406727</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08147943672312281</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.05923279877018317</v>
+        <v>0.03870511760180426</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08120103594811723</v>
+        <v>0.0810964915631999</v>
       </c>
       <c r="N170" t="n">
-        <v>0.01859570627585271</v>
+        <v>0.04949338565276107</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08223545182139087</v>
+        <v>0.08092552870812858</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01852488421832399</v>
+        <v>0.05605224076594209</v>
       </c>
       <c r="G171" t="n">
+        <v>0.06756724263219245</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.01754103150327584</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08301864660064222</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.0388940463441276</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08225543135858114</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.05760422308639329</v>
+        <v>0.03887038024573811</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08197437914762311</v>
+        <v>0.08186883910189703</v>
       </c>
       <c r="N171" t="n">
-        <v>0.01852488421832399</v>
+        <v>0.04851980646736065</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08301864660064222</v>
+        <v>0.08169624802915837</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01835388612896752</v>
+        <v>0.05510381626204651</v>
       </c>
       <c r="G172" t="n">
+        <v>0.06756697410372843</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.01738490678741875</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08380184137989356</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.03876055827546895</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08303142599403944</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.05642327201999453</v>
+        <v>0.03843062088684204</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08274772234712899</v>
+        <v>0.08264118664059418</v>
       </c>
       <c r="N172" t="n">
-        <v>0.01835388612896752</v>
+        <v>0.0480440402176186</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08380184137989356</v>
+        <v>0.08246696735018817</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01828256764108031</v>
+        <v>0.05416974162090607</v>
       </c>
       <c r="G173" t="n">
+        <v>0.06756670557526441</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.01742889414875715</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08458503615914489</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.03862827075647993</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08380742062949775</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.05579674954261427</v>
+        <v>0.03778586006884482</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08352106554663485</v>
+        <v>0.08341353417929132</v>
       </c>
       <c r="N173" t="n">
-        <v>0.01828256764108031</v>
+        <v>0.04726741820693731</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08458503615914489</v>
+        <v>0.08323768667121796</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.01821078438795938</v>
+        <v>0.05325052140246719</v>
       </c>
       <c r="G174" t="n">
+        <v>0.0675664370468004</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.01727271587029294</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08536823093839624</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.03829666050554892</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08458341526495608</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.0544314596258797</v>
+        <v>0.03733611833547515</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08429440874614075</v>
+        <v>0.08418588171798846</v>
       </c>
       <c r="N174" t="n">
-        <v>0.01821078438795938</v>
+        <v>0.04599127173871909</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08536823093839624</v>
+        <v>0.08400840599224776</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.0183383920029018</v>
+        <v>0.05234666016671795</v>
       </c>
       <c r="G175" t="n">
+        <v>0.06756616851833638</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.0173160942350281</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08615142571764758</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.03806520424106438</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08535940990041438</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.05313420624141807</v>
+        <v>0.03698141623046167</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08506775194564661</v>
+        <v>0.08495822925668561</v>
       </c>
       <c r="N175" t="n">
-        <v>0.0183383920029018</v>
+        <v>0.04541693211636649</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08615142571764758</v>
+        <v>0.08477912531327755</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.01816524611920455</v>
+        <v>0.05145866247360806</v>
       </c>
       <c r="G176" t="n">
+        <v>0.06756589998987236</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.01725875152596451</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08693462049689893</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.03793337868141472</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08613540453587269</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.05191179336085666</v>
+        <v>0.03682177429753306</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08584109514515251</v>
+        <v>0.08573057679538275</v>
       </c>
       <c r="N176" t="n">
-        <v>0.01816524611920455</v>
+        <v>0.044445730643282</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08693462049689893</v>
+        <v>0.08554984463430736</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.0179912023701647</v>
+        <v>0.05058703288320288</v>
       </c>
       <c r="G177" t="n">
+        <v>0.06756563146140834</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.01720041002610415</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08771781527615026</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.03820066054498839</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08691139917133102</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.05087102495582257</v>
+        <v>0.03625721308041796</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08661443834465837</v>
+        <v>0.0865029243340799</v>
       </c>
       <c r="N177" t="n">
-        <v>0.0179912023701647</v>
+        <v>0.04397899862286792</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08771781527615026</v>
+        <v>0.08632056395533716</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.01791611638907925</v>
+        <v>0.04973227595545143</v>
       </c>
       <c r="G178" t="n">
+        <v>0.06756536293294434</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.01704079201844895</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.0885010100554016</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.03786652655017383</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08768739380678932</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.04931870499794316</v>
+        <v>0.0362877531228451</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08738778154416425</v>
+        <v>0.08727527187277703</v>
       </c>
       <c r="N178" t="n">
-        <v>0.01791611638907925</v>
+        <v>0.04351806735852681</v>
       </c>
       <c r="O178" t="n">
-        <v>0.0885010100554016</v>
+        <v>0.08709128327636695</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.01783984380924526</v>
+        <v>0.04889489625034178</v>
       </c>
       <c r="G179" t="n">
+        <v>0.06756509440448032</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.01697961978600086</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.08928420483465295</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.03803045341535954</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08846338844224763</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.04846163745884563</v>
+        <v>0.03561341496854306</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08816112474367013</v>
+        <v>0.08804761941147418</v>
       </c>
       <c r="N179" t="n">
-        <v>0.01783984380924526</v>
+        <v>0.04236426815366107</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08928420483465295</v>
+        <v>0.08786200259739674</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.01796224026395976</v>
+        <v>0.04807539832782669</v>
       </c>
       <c r="G180" t="n">
+        <v>0.0675648258760163</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.01701661561176181</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.09006739961390429</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.03779191785893396</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.08923938307770596</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.0473066263101572</v>
+        <v>0.03523421916124067</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08893446794317601</v>
+        <v>0.08881996695017132</v>
       </c>
       <c r="N180" t="n">
-        <v>0.01796224026395976</v>
+        <v>0.04171893231167312</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09006739961390429</v>
+        <v>0.08863272191842653</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.01778316138651977</v>
+        <v>0.04727428674796552</v>
       </c>
       <c r="G181" t="n">
+        <v>0.06756455734755228</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.01695150177873374</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09085059439315564</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.03725039659928545</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.09001537771316426</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.04576047552350521</v>
+        <v>0.03515018624466648</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08970781114268189</v>
+        <v>0.08959231448886845</v>
       </c>
       <c r="N181" t="n">
-        <v>0.01778316138651977</v>
+        <v>0.04058339113596543</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09085059439315564</v>
+        <v>0.08940344123945633</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.01770246281022229</v>
+        <v>0.0464920660707103</v>
       </c>
       <c r="G182" t="n">
+        <v>0.06756428881908827</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.01678400056991859</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09163378917240697</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.03710536635480252</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09079137234862257</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.04432998907051683</v>
+        <v>0.03486133676254921</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09048115434218777</v>
+        <v>0.0903646620275656</v>
       </c>
       <c r="N182" t="n">
-        <v>0.01770246281022229</v>
+        <v>0.03995897592994041</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09163378917240697</v>
+        <v>0.09017416056048613</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.01762000016836439</v>
+        <v>0.045729240856049</v>
       </c>
       <c r="G183" t="n">
+        <v>0.06756402029062425</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.01691383426831831</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09241698395165832</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.03705630384387357</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.0915673669840809</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.0433219709228192</v>
+        <v>0.03396769125861751</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09125449754169365</v>
+        <v>0.09113700956626274</v>
       </c>
       <c r="N183" t="n">
-        <v>0.01762000016836439</v>
+        <v>0.03964701799700054</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09241698395165832</v>
+        <v>0.09094487988151592</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.01743562909424312</v>
+        <v>0.04498631566393781</v>
       </c>
       <c r="G184" t="n">
+        <v>0.06756375176216023</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.01684072515693481</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09320017873090966</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.0371026857848871</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.0923433616195392</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.04254322505203972</v>
+        <v>0.03376927027660009</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09202784074119952</v>
+        <v>0.09190935710495989</v>
       </c>
       <c r="N184" t="n">
-        <v>0.01743562909424312</v>
+        <v>0.03844884864054815</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09320017873090966</v>
+        <v>0.09171559920254573</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.01734920522115546</v>
+        <v>0.04426379505442944</v>
       </c>
       <c r="G185" t="n">
+        <v>0.06756348323369621</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.0167643955187701</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09398337351016099</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.03694398889623157</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09311935625499751</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.04130055542980554</v>
+        <v>0.03316609436022558</v>
       </c>
       <c r="M185" t="n">
-        <v>0.0928011839407054</v>
+        <v>0.09268170464365703</v>
       </c>
       <c r="N185" t="n">
-        <v>0.01734920522115546</v>
+        <v>0.03816579916398583</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09398337351016099</v>
+        <v>0.09248631852357551</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.01726058418239847</v>
+        <v>0.04356218358747917</v>
       </c>
       <c r="G186" t="n">
+        <v>0.06756321470523219</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.01658456763682602</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09476656828941235</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.03667968989629536</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09389535089045582</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.03970076602774397</v>
+        <v>0.03315818405322271</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09357452714021128</v>
+        <v>0.09345405218235417</v>
       </c>
       <c r="N186" t="n">
-        <v>0.01726058418239847</v>
+        <v>0.03749920087071595</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09476656828941235</v>
+        <v>0.09325703784460532</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.01716962161126917</v>
+        <v>0.04288198582307498</v>
       </c>
       <c r="G187" t="n">
+        <v>0.06756294617676818</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.01660096379410457</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09554976306866368</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.03660926550346694</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09467134552591414</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.03905066081748221</v>
+        <v>0.03264555989932005</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09434787033971716</v>
+        <v>0.09422639972105132</v>
       </c>
       <c r="N187" t="n">
-        <v>0.01716962161126917</v>
+        <v>0.03655038506414104</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09554976306866368</v>
+        <v>0.09402775716563511</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.01727617314106461</v>
+        <v>0.04222370632117682</v>
       </c>
       <c r="G188" t="n">
+        <v>0.06756267764830415</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.01651330627360767</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09633295784791503</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.03653219243613476</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09544734016137245</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.03805704377064745</v>
+        <v>0.03242824244224643</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09512121353922304</v>
+        <v>0.09499874725974845</v>
       </c>
       <c r="N188" t="n">
-        <v>0.01727617314106461</v>
+        <v>0.03642068304766327</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09633295784791503</v>
+        <v>0.09479847648666491</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.01708009440508181</v>
+        <v>0.04158784964183</v>
       </c>
       <c r="G189" t="n">
+        <v>0.06756240911984014</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.01622131735833729</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09711615262716637</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.03614794741268723</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09622333479683076</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.03732671885886696</v>
+        <v>0.0319062522257304</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09589455673872892</v>
+        <v>0.09577109479844559</v>
       </c>
       <c r="N189" t="n">
-        <v>0.01708009440508181</v>
+        <v>0.0359114261246854</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09711615262716637</v>
+        <v>0.0955691958076947</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.01708124103661778</v>
+        <v>0.04097286005837576</v>
       </c>
       <c r="G190" t="n">
+        <v>0.06756214059137612</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.01632471933129534</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.0978993474064177</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.03605600715151283</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09699932943228907</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.03596649005376806</v>
+        <v>0.03157960979350069</v>
       </c>
       <c r="M190" t="n">
-        <v>0.0966678999382348</v>
+        <v>0.09654344233714274</v>
       </c>
       <c r="N190" t="n">
-        <v>0.01708124103661778</v>
+        <v>0.03462394559860965</v>
       </c>
       <c r="O190" t="n">
-        <v>0.0978993474064177</v>
+        <v>0.09633991512872449</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.01677946866896957</v>
+        <v>0.04036688041109512</v>
       </c>
       <c r="G191" t="n">
+        <v>0.06756187206291212</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.01602323447548377</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.09868254218566905</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.03565584837100005</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09777532406774739</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.03538316132697777</v>
+        <v>0.03074833568928592</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09744124313774068</v>
+        <v>0.09731578987583987</v>
       </c>
       <c r="N191" t="n">
-        <v>0.01677946866896957</v>
+        <v>0.03425957277283859</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09868254218566905</v>
+        <v>0.09711063444975429</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.0168746329354342</v>
+        <v>0.03976835497333217</v>
       </c>
       <c r="G192" t="n">
+        <v>0.06756160353444808</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.01591658507390452</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.09946573696492039</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.03544694778953725</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.0985513187032057</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.03448353665012366</v>
+        <v>0.03061245045681488</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09821458633724656</v>
+        <v>0.09808813741453702</v>
       </c>
       <c r="N192" t="n">
-        <v>0.0168746329354342</v>
+        <v>0.03361963895077463</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09946573696492039</v>
+        <v>0.09788135377078408</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.01666658946930874</v>
+        <v>0.03917778830512711</v>
       </c>
       <c r="G193" t="n">
+        <v>0.06756133500598407</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.01579470139693896</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.1002489317441717</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.03552878212551291</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.09932731333866401</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.03377441999483277</v>
+        <v>0.03015484474641672</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09898792953675244</v>
+        <v>0.09886048495323416</v>
       </c>
       <c r="N193" t="n">
-        <v>0.01666658946930874</v>
+        <v>0.0331012704850619</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1002489317441717</v>
+        <v>0.09865207309181388</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.01655519390389018</v>
+        <v>0.03859568496644172</v>
       </c>
       <c r="G194" t="n">
+        <v>0.06756106647752005</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.01564610659793599</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1010321265234231</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.03510082809731543</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.1001033079741223</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.03386261533273233</v>
+        <v>0.02965640768257891</v>
       </c>
       <c r="M194" t="n">
-        <v>0.0997612727362583</v>
+        <v>0.09963283249193129</v>
       </c>
       <c r="N194" t="n">
-        <v>0.01655519390389018</v>
+        <v>0.03299928991559742</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1010321265234231</v>
+        <v>0.09942279241284369</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01634030187247557</v>
+        <v>0.0380225495172641</v>
       </c>
       <c r="G195" t="n">
+        <v>0.06756079794905605</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.01547240680689002</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1018153213026744</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.03486256242333333</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1008793026095806</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.0332549266354496</v>
+        <v>0.02901994919049397</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1005346159357642</v>
+        <v>0.1004051800306284</v>
       </c>
       <c r="N195" t="n">
-        <v>0.01634030187247557</v>
+        <v>0.03241277819248922</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1018153213026744</v>
+        <v>0.1001935117338735</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01622176900836191</v>
+        <v>0.0374588865175579</v>
       </c>
       <c r="G196" t="n">
+        <v>0.06756052942059201</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.0152752515900646</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1025985160819258</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.03461346182195504</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.101655297245039</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.03245815787461187</v>
+        <v>0.02824833172006952</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1013079591352701</v>
+        <v>0.1011775275693256</v>
       </c>
       <c r="N196" t="n">
-        <v>0.01622176900836191</v>
+        <v>0.03214082665827861</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1025985160819258</v>
+        <v>0.1009642310549033</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01609945094484626</v>
+        <v>0.03690520052736027</v>
       </c>
       <c r="G197" t="n">
+        <v>0.06756026089212801</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.01525629051372326</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1033817108611771</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.03445300301156898</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1024312918804973</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.03277911302184627</v>
+        <v>0.0280444177212133</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1020813023347759</v>
+        <v>0.1019498751080227</v>
       </c>
       <c r="N197" t="n">
-        <v>0.01609945094484626</v>
+        <v>0.03138252665550667</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1033817108611771</v>
+        <v>0.1017349503759331</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01607320331522567</v>
+        <v>0.0363619961066345</v>
       </c>
       <c r="G198" t="n">
+        <v>0.06755999236366399</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.01491717314412953</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1041649056404284</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.03398066271056355</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1032072865159556</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.03249891262407584</v>
+        <v>0.02741106964383289</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1028546455342818</v>
+        <v>0.1027222226467199</v>
       </c>
       <c r="N198" t="n">
-        <v>0.01607320331522567</v>
+        <v>0.03123696952671495</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1041649056404284</v>
+        <v>0.1025056696969629</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01604288175279713</v>
+        <v>0.03582977781536867</v>
       </c>
       <c r="G199" t="n">
+        <v>0.06755972383519997</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.01465954904754692</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1049481004196798</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.03399591763732732</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1039832811514139</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.03263305411189749</v>
+        <v>0.02675114993783587</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1036279887337877</v>
+        <v>0.103494570185417</v>
       </c>
       <c r="N199" t="n">
-        <v>0.01604288175279713</v>
+        <v>0.03040324661444471</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1049481004196798</v>
+        <v>0.1032763890179927</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01570834189085768</v>
+        <v>0.03530905021352837</v>
       </c>
       <c r="G200" t="n">
+        <v>0.06755945530673595</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.01448506779023898</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1057312951989311</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.0337982445102486</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1047592757868722</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.03257378046017118</v>
+        <v>0.02596752105312986</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1044013319332936</v>
+        <v>0.1042669177241142</v>
       </c>
       <c r="N200" t="n">
-        <v>0.01570834189085768</v>
+        <v>0.03048044926123727</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1057312951989311</v>
+        <v>0.1040471083390225</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.0155659900749644</v>
+        <v>0.03480031786114697</v>
       </c>
       <c r="G201" t="n">
+        <v>0.06755918677827193</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.01419537893846923</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1065144899781825</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.03308712004771591</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1055352704223305</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.03232052839426347</v>
+        <v>0.02496304543962252</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1051746751327995</v>
+        <v>0.1050392652628113</v>
       </c>
       <c r="N201" t="n">
-        <v>0.0155659900749644</v>
+        <v>0.02956766880963385</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1065144899781825</v>
+        <v>0.1048178276600523</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01539644594941206</v>
+        <v>0.03430408531818964</v>
       </c>
       <c r="G202" t="n">
+        <v>0.06755891824980792</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.01389213205850114</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1072976847574338</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.03316202096811768</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1063112650577888</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.03207273463954063</v>
+        <v>0.02464058554722154</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1059480183323053</v>
+        <v>0.1058116128015084</v>
       </c>
       <c r="N202" t="n">
-        <v>0.01539644594941206</v>
+        <v>0.02966399660217584</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1072976847574338</v>
+        <v>0.1055885469810821</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01519906238633667</v>
+        <v>0.03382085714464438</v>
       </c>
       <c r="G203" t="n">
+        <v>0.0675586497213439</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.01347697671659832</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1080808795366852</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.0326222743811988</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1070872596932471</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.03232983592136895</v>
+        <v>0.02360300382583441</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1067213615318112</v>
+        <v>0.1065839603402056</v>
       </c>
       <c r="N203" t="n">
-        <v>0.01519906238633667</v>
+        <v>0.02916852398140463</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1080808795366852</v>
+        <v>0.1063592663021118</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01507664774659688</v>
+        <v>0.0333511379004791</v>
       </c>
       <c r="G204" t="n">
+        <v>0.06755838119287988</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.01305156247902427</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1088640743159365</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.0318798415919424</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1078632543287055</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.03239126896511496</v>
+        <v>0.02285316272536889</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1074947047313171</v>
+        <v>0.1073563078789027</v>
       </c>
       <c r="N204" t="n">
-        <v>0.01507664774659688</v>
+        <v>0.02818034228986144</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1088640743159365</v>
+        <v>0.1071299856231416</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01473201039105128</v>
+        <v>0.03289543214572274</v>
       </c>
       <c r="G205" t="n">
+        <v>0.06755811266441586</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.0128175389120425</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1096472690951878</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.03137659588066799</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1086392489641638</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.03225647049614477</v>
+        <v>0.02209392469573249</v>
       </c>
       <c r="M205" t="n">
-        <v>0.108268047930823</v>
+        <v>0.1081286554175999</v>
       </c>
       <c r="N205" t="n">
-        <v>0.01473201039105128</v>
+        <v>0.02799854287008757</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1096472690951878</v>
+        <v>0.1079007049441714</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01446795868055847</v>
+        <v>0.03245424444034262</v>
       </c>
       <c r="G206" t="n">
+        <v>0.06755784413595185</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.01237655558191655</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1104304638744392</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.03083617357986634</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1094152435996221</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.03182487723982502</v>
+        <v>0.02112815218683284</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1090413911303288</v>
+        <v>0.108901002956297</v>
       </c>
       <c r="N206" t="n">
-        <v>0.01446795868055847</v>
+        <v>0.02782221706462434</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1104304638744392</v>
+        <v>0.1086714242652012</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01438730097597705</v>
+        <v>0.03202807934432673</v>
       </c>
       <c r="G207" t="n">
+        <v>0.06755757560748783</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.01203026205490994</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1112136586536905</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.02968221102202834</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1101912382350804</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.03219592592152171</v>
+        <v>0.02065870764857769</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1098147343298347</v>
+        <v>0.1096733504949942</v>
       </c>
       <c r="N207" t="n">
-        <v>0.01438730097597705</v>
+        <v>0.02725045621601319</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1112136586536905</v>
+        <v>0.109442143586231</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01399284563816559</v>
+        <v>0.03161744141764564</v>
       </c>
       <c r="G208" t="n">
+        <v>0.06755730707902381</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.01178030789728619</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1119968534329419</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.02883834453964479</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1109672328705387</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.03186905326660144</v>
+        <v>0.01998845353087458</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1105880775293406</v>
+        <v>0.1104456980336913</v>
       </c>
       <c r="N208" t="n">
-        <v>0.01399284563816559</v>
+        <v>0.02738235166679531</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1119968534329419</v>
+        <v>0.1102128629072608</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01368740102798277</v>
+        <v>0.03122283522032308</v>
       </c>
       <c r="G209" t="n">
+        <v>0.06755703855055979</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.01152834267530885</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1127800482121932</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.0278282104652067</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.111743227505997</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.03174369600043053</v>
+        <v>0.01912025228363107</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1113614207288465</v>
+        <v>0.1112180455723884</v>
       </c>
       <c r="N209" t="n">
-        <v>0.01368740102798277</v>
+        <v>0.0263169947595121</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1127800482121932</v>
+        <v>0.1109835822282906</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01337377550628716</v>
+        <v>0.03084476531232895</v>
       </c>
       <c r="G210" t="n">
+        <v>0.06755677002209577</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.01097601595524143</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1135632429914445</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.02687544513120488</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1125192221414553</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.03231929084837526</v>
+        <v>0.01845696635675495</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1121347639283524</v>
+        <v>0.1119903931110856</v>
       </c>
       <c r="N210" t="n">
-        <v>0.01337377550628716</v>
+        <v>0.02665347683670471</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1135632429914445</v>
+        <v>0.1117543015493204</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01305477743393732</v>
+        <v>0.03048373625365125</v>
       </c>
       <c r="G211" t="n">
+        <v>0.06755650149363177</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.01062497730334746</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1143464377706959</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.02570368487013022</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1132952167769136</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.03169527453580201</v>
+        <v>0.01750145820015372</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1129081071278582</v>
+        <v>0.1127627406497827</v>
       </c>
       <c r="N211" t="n">
-        <v>0.01305477743393732</v>
+        <v>0.02589088924091465</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1143464377706959</v>
+        <v>0.1125250208703502</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01273321517179192</v>
+        <v>0.03014025260426345</v>
       </c>
       <c r="G212" t="n">
+        <v>0.06755623296516773</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.01027687628589046</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1151296325499472</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.02473656601447349</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1140712114123719</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.03197108378807717</v>
+        <v>0.016656590263735</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1136814503273641</v>
+        <v>0.1135350881884799</v>
       </c>
       <c r="N212" t="n">
-        <v>0.01273321517179192</v>
+        <v>0.02562832331468318</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1151296325499472</v>
+        <v>0.11329574019138</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01231189708070953</v>
+        <v>0.02981481892418354</v>
       </c>
       <c r="G213" t="n">
+        <v>0.06755596443670372</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.01003336246913399</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1159128273291986</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.02369772489672564</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1148472060478303</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.03194615533056699</v>
+        <v>0.0162252249974065</v>
       </c>
       <c r="M213" t="n">
-        <v>0.11445479352687</v>
+        <v>0.114307435727177</v>
       </c>
       <c r="N213" t="n">
-        <v>0.01231189708070953</v>
+        <v>0.02536487040055163</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1159128273291986</v>
+        <v>0.1140664595124098</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01209363152154875</v>
+        <v>0.02950793977338419</v>
       </c>
       <c r="G214" t="n">
+        <v>0.0675556959082397</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.009596085419341503</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1166960221084499</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.02281079784937751</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1156232006832886</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.03181992588863791</v>
+        <v>0.01521022485107579</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1152281367263759</v>
+        <v>0.1150797832658741</v>
       </c>
       <c r="N214" t="n">
-        <v>0.01209363152154875</v>
+        <v>0.02459962184106118</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1166960221084499</v>
+        <v>0.1148371788334396</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01188122685516821</v>
+        <v>0.02950793977338419</v>
       </c>
       <c r="G215" t="n">
+        <v>0.0675556959082397</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.00936669470277661</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1174792168877013</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.02179942120492001</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1163991953187469</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.0322918321876563</v>
+        <v>0.01481445227465056</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1160014799258818</v>
+        <v>0.1158521308045713</v>
       </c>
       <c r="N215" t="n">
-        <v>0.01188122685516821</v>
+        <v>0.02473166897875334</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1174792168877013</v>
+        <v>0.1156078981544694</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01137749144242649</v>
+        <v>0.02876201813742549</v>
       </c>
       <c r="G216" t="n">
+        <v>0.06740664106032088</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.009146839885702786</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1182624116669526</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.02118723129584402</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1171751899542052</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.03156131095298842</v>
+        <v>0.0140407697180383</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1167748231253876</v>
+        <v>0.1166244783432684</v>
       </c>
       <c r="N216" t="n">
-        <v>0.01137749144242649</v>
+        <v>0.02446010315616931</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1182624116669526</v>
+        <v>0.1163786174754992</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01108523364418218</v>
+        <v>0.02802405428303156</v>
       </c>
       <c r="G217" t="n">
+        <v>0.06725758621240206</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.008838170534383571</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1190456064462039</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.02029786445464027</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1179511845896635</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.03152779891000079</v>
+        <v>0.01309203963114675</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1175481663248935</v>
+        <v>0.1173968258819656</v>
       </c>
       <c r="N217" t="n">
-        <v>0.01108523364418218</v>
+        <v>0.02378401571585032</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1190456064462039</v>
+        <v>0.117149336796529</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01080726182129393</v>
+        <v>0.02729435956695574</v>
       </c>
       <c r="G218" t="n">
+        <v>0.06710853136448323</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.008442336215082495</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1198288012254553</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.0200203609320441</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1187271792251218</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.03219073278405943</v>
+        <v>0.01297112446388352</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1183215095243994</v>
+        <v>0.1181691734206627</v>
       </c>
       <c r="N218" t="n">
-        <v>0.01080726182129393</v>
+        <v>0.02370249800033797</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1198288012254553</v>
+        <v>0.1179200561175588</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.0107463843346203</v>
+        <v>0.02657324534595158</v>
       </c>
       <c r="G219" t="n">
+        <v>0.06695947651656441</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.008260986494063087</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1206119960047066</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.01895220462115405</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1195031738605801</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.03184954930053102</v>
+        <v>0.0120808866661562</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1190948527239053</v>
+        <v>0.1189415209593599</v>
       </c>
       <c r="N219" t="n">
-        <v>0.0107463843346203</v>
+        <v>0.02271464135217333</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1206119960047066</v>
+        <v>0.1186907754385886</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01030540954501992</v>
+        <v>0.02586102297677259</v>
       </c>
       <c r="G220" t="n">
+        <v>0.06681042166864559</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.007795770937588861</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.121395190783958</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.0187850681793994</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1202791684960385</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.03160368518478179</v>
+        <v>0.01142418868787246</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1198681959234111</v>
+        <v>0.119713868498057</v>
       </c>
       <c r="N220" t="n">
-        <v>0.01030540954501992</v>
+        <v>0.02291953711389771</v>
       </c>
       <c r="O220" t="n">
-        <v>0.121395190783958</v>
+        <v>0.1194614947596184</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01028714581335139</v>
+        <v>0.02515800381617214</v>
       </c>
       <c r="G221" t="n">
+        <v>0.06666136682072676</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.007748339111923352</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1221783855632093</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.01791945451280216</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1210551631314968</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.03155257716217807</v>
+        <v>0.01110389297893991</v>
       </c>
       <c r="M221" t="n">
-        <v>0.120641539122917</v>
+        <v>0.1204862160367541</v>
       </c>
       <c r="N221" t="n">
-        <v>0.01028714581335139</v>
+        <v>0.02231627662805269</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1221783855632093</v>
+        <v>0.1202322140806482</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01009440150047331</v>
+        <v>0.02446449922090371</v>
       </c>
       <c r="G222" t="n">
+        <v>0.06651231197280794</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.007520340583330093</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1229615803424606</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.01775586652738434</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1218311577669551</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.03169566195808621</v>
+        <v>0.01042286198926609</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1214148823224229</v>
+        <v>0.1212585635754513</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01009440150047331</v>
+        <v>0.02160395123717923</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1229615803424606</v>
+        <v>0.121002933401678</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.009929984967244287</v>
+        <v>0.02378082054772082</v>
       </c>
       <c r="G223" t="n">
+        <v>0.06636325712488911</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.007313424918072596</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.123744775121712</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.01669480712916799</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1226071524024134</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.03123237629787262</v>
+        <v>0.01018395816875878</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1221882255219288</v>
+        <v>0.1220309111141484</v>
       </c>
       <c r="N223" t="n">
-        <v>0.009929984967244287</v>
+        <v>0.0212816522838189</v>
       </c>
       <c r="O223" t="n">
-        <v>0.123744775121712</v>
+        <v>0.1217736527227078</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.009694127565410139</v>
+        <v>0.02310727915337696</v>
       </c>
       <c r="G224" t="n">
+        <v>0.06621420227697029</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.007129241682414397</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1245279699009633</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.01633677922417512</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1233831470378717</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.03155954083884688</v>
+        <v>0.009990043967325501</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1229615687214347</v>
+        <v>0.1228032586528456</v>
       </c>
       <c r="N224" t="n">
-        <v>0.009694127565410139</v>
+        <v>0.02074847111051292</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1245279699009633</v>
+        <v>0.1225443720437376</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.009564798654360253</v>
+        <v>0.0224441863946255</v>
       </c>
       <c r="G225" t="n">
+        <v>0.06606514742905147</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.006969440442619032</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1253111646802147</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.01578228571842769</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.12415914167333</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.03105770212791664</v>
+        <v>0.00944398183487391</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1237349119209405</v>
+        <v>0.1235756061915427</v>
       </c>
       <c r="N225" t="n">
-        <v>0.009564798654360253</v>
+        <v>0.02030349905980261</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1253111646802147</v>
+        <v>0.1233150913647674</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.009536428509118157</v>
+        <v>0.02179185362821996</v>
       </c>
       <c r="G226" t="n">
+        <v>0.06591609258113264</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.006835670764950015</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.126094359459466</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.01533182951794776</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1249351363087883</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.03152353839429606</v>
+        <v>0.008848634221311658</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1245082551204464</v>
+        <v>0.1243479537302398</v>
       </c>
       <c r="N226" t="n">
-        <v>0.009536428509118157</v>
+        <v>0.01984582747422925</v>
       </c>
       <c r="O226" t="n">
-        <v>0.126094359459466</v>
+        <v>0.1240858106857972</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.009309137415955182</v>
+        <v>0.02115059221091384</v>
       </c>
       <c r="G227" t="n">
+        <v>0.06576703773321382</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.006729582215670868</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1268775542387174</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.01448591352875733</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1257111309442467</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.03145769715840313</v>
+        <v>0.008606863576546303</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1252815983199523</v>
+        <v>0.125120301268937</v>
       </c>
       <c r="N227" t="n">
-        <v>0.009309137415955182</v>
+        <v>0.01937454769633423</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1268775542387174</v>
+        <v>0.1248565300068269</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.009183045661142655</v>
+        <v>0.0205207134994605</v>
       </c>
       <c r="G228" t="n">
+        <v>0.065617982885295</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.006452824361045127</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1276607490179687</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.01434504065687853</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.126487125579705</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.031160825940656</v>
+        <v>0.008421532350485511</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1260549415194582</v>
+        <v>0.1258926488076341</v>
       </c>
       <c r="N228" t="n">
-        <v>0.009183045661142655</v>
+        <v>0.01898875106865888</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1276607490179687</v>
+        <v>0.1256272493278567</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.009058273530951934</v>
+        <v>0.0199025288506135</v>
       </c>
       <c r="G229" t="n">
+        <v>0.06546892803737617</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.006607046767336325</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.12844394379722</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.0139097138083332</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1272631202151633</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.03053357226147235</v>
+        <v>0.008795502993036941</v>
       </c>
       <c r="M229" t="n">
-        <v>0.126828284718964</v>
+        <v>0.1266649963463313</v>
       </c>
       <c r="N229" t="n">
-        <v>0.009058273530951934</v>
+        <v>0.01858752893374449</v>
       </c>
       <c r="O229" t="n">
-        <v>0.12844394379722</v>
+        <v>0.1263979686488865</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.008834941311654368</v>
+        <v>0.01929634962112632</v>
       </c>
       <c r="G230" t="n">
+        <v>0.06531987318945735</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.00659369718920623</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1292271385764714</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.01328043588914346</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1280391148506216</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.03057658364127036</v>
+        <v>0.008431232464156085</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1276016279184699</v>
+        <v>0.1274373438850284</v>
       </c>
       <c r="N230" t="n">
-        <v>0.008834941311654368</v>
+        <v>0.01777000162773168</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1292271385764714</v>
+        <v>0.1271686879699163</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.008713169289521261</v>
+        <v>0.01870248716775234</v>
       </c>
       <c r="G231" t="n">
+        <v>0.06517081834153853</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.006393763244945817</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1300103333557227</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.0125577098053313</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1288151094860799</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.03029050760046798</v>
+        <v>0.008692688490901851</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1283749711179758</v>
+        <v>0.1282096914237255</v>
       </c>
       <c r="N231" t="n">
-        <v>0.008713169289521261</v>
+        <v>0.01733825435163872</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1300103333557227</v>
+        <v>0.1279394072909461</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.008593077750823984</v>
+        <v>0.01812125284724508</v>
       </c>
       <c r="G232" t="n">
+        <v>0.0650217634936197</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.006494152023817493</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1307935281349741</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.01224203846291874</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1295911041215382</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.03017599165948309</v>
+        <v>0.008255124179865375</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1291483143174817</v>
+        <v>0.1289820389624227</v>
       </c>
       <c r="N232" t="n">
-        <v>0.008593077750823984</v>
+        <v>0.01709416572413458</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1307935281349741</v>
+        <v>0.1287101266119759</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.008474786981833862</v>
+        <v>0.01755295801635801</v>
       </c>
       <c r="G233" t="n">
+        <v>0.06487270864570087</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.006495154603840585</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1315767229142254</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.01173392476792784</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1303670987569965</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.02943368333873381</v>
+        <v>0.008518550049030044</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1299216575169876</v>
+        <v>0.1297543865011198</v>
       </c>
       <c r="N233" t="n">
-        <v>0.008474786981833862</v>
+        <v>0.01653794469031017</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1315767229142254</v>
+        <v>0.1294808459330057</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.008558417268822255</v>
+        <v>0.01699791403184463</v>
       </c>
       <c r="G234" t="n">
+        <v>0.06472365379778204</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.00639706206303442</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1323599176934767</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.01103387162638059</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1311430933924548</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.02946423015863797</v>
+        <v>0.008482976616379229</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1306950007164934</v>
+        <v>0.130526734039817</v>
       </c>
       <c r="N234" t="n">
-        <v>0.008558417268822255</v>
+        <v>0.01596980019525607</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1323599176934767</v>
+        <v>0.1302515652540355</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.008244088898060491</v>
+        <v>0.01645643225045831</v>
       </c>
       <c r="G235" t="n">
+        <v>0.06457459894986321</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.006600165479418288</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1331431124727281</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.01034238194429893</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1319190880279131</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.02846827963961363</v>
+        <v>0.008348414399896281</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1314683439159993</v>
+        <v>0.1312990815785141</v>
       </c>
       <c r="N235" t="n">
-        <v>0.008244088898060491</v>
+        <v>0.01538994118406328</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1331431124727281</v>
+        <v>0.1310222845750653</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.008131922155819905</v>
+        <v>0.01592882402895258</v>
       </c>
       <c r="G236" t="n">
+        <v>0.06442554410194438</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.006404755931011537</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1339263072519794</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.01015995862770497</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1326950826633715</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.02854647930207871</v>
+        <v>0.008214873917564702</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1322416871155052</v>
+        <v>0.1320714291172113</v>
       </c>
       <c r="N236" t="n">
-        <v>0.008131922155819905</v>
+        <v>0.01439857660182231</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1339263072519794</v>
+        <v>0.1317930038960951</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.008022037328371846</v>
+        <v>0.01541540072408094</v>
       </c>
       <c r="G237" t="n">
+        <v>0.06427648925402557</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.006511124495833458</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1347095020312308</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.009487104582620698</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1334710772988298</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.02819947666645134</v>
+        <v>0.008482365687367821</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1330150303150111</v>
+        <v>0.1328437766559084</v>
       </c>
       <c r="N237" t="n">
-        <v>0.008022037328371846</v>
+        <v>0.01429591539362413</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1347095020312308</v>
+        <v>0.1325637232171249</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.008114554701987652</v>
+        <v>0.01491647369259678</v>
       </c>
       <c r="G238" t="n">
+        <v>0.06412743440610674</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.006619562251903396</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1354926968104821</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.009424322715068184</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1342470719342881</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.0274279192531493</v>
+        <v>0.008050900227288993</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1337883735145169</v>
+        <v>0.1336161241946056</v>
       </c>
       <c r="N238" t="n">
-        <v>0.008114554701987652</v>
+        <v>0.01338216650455937</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1354926968104821</v>
+        <v>0.1333344425381547</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.007809594562938657</v>
+        <v>0.01443235429125359</v>
       </c>
       <c r="G239" t="n">
+        <v>0.06397837955818791</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.006530360277240653</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1362758915897334</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.008772115931069357</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1350230665697464</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.02693245458259064</v>
+        <v>0.008420488055311676</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1345617167140228</v>
+        <v>0.1343884717333027</v>
       </c>
       <c r="N239" t="n">
-        <v>0.007809594562938657</v>
+        <v>0.01285753887971886</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1362758915897334</v>
+        <v>0.1341051618591845</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.007707277197496219</v>
+        <v>0.01396208250339491</v>
       </c>
       <c r="G240" t="n">
+        <v>0.0638293247102691</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.006443809649864553</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1370590863689848</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.008130987136646256</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1357990612052047</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.02641373017519333</v>
+        <v>0.008391139689419208</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1353350599135287</v>
+        <v>0.1351608192719998</v>
       </c>
       <c r="N240" t="n">
-        <v>0.007707277197496219</v>
+        <v>0.01222224146419337</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1370590863689848</v>
+        <v>0.1348758811802143</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.007807722891931664</v>
+        <v>0.01349834144531417</v>
       </c>
       <c r="G241" t="n">
+        <v>0.06368026986235027</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.006460201447794411</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1378422811482361</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.007601439237820945</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.136575055840663</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.02587239355137538</v>
+        <v>0.00836286564759503</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1361084031130346</v>
+        <v>0.135933166810697</v>
       </c>
       <c r="N241" t="n">
-        <v>0.007807722891931664</v>
+        <v>0.01187648320307372</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1378422811482361</v>
+        <v>0.1356466005012441</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.007711051932516338</v>
+        <v>0.01304017110035492</v>
       </c>
       <c r="G242" t="n">
+        <v>0.06353121501443144</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.006479826749049546</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1386254759274875</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.007383975140615423</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1373510504761213</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.02560909223155483</v>
+        <v>0.007935676447822476</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1368817463125405</v>
+        <v>0.1367055143493941</v>
       </c>
       <c r="N242" t="n">
-        <v>0.007711051932516338</v>
+        <v>0.01112047304145053</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1386254759274875</v>
+        <v>0.1364173198222739</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.007417384605521576</v>
+        <v>0.01258788282527063</v>
       </c>
       <c r="G243" t="n">
+        <v>0.06338216016651263</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.006502976631649275</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1394086707067388</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.00697909775105171</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1381270451115796</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.02462447373614945</v>
+        <v>0.007809582608085064</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1376550895120464</v>
+        <v>0.1374778618880913</v>
       </c>
       <c r="N243" t="n">
-        <v>0.007417384605521576</v>
+        <v>0.01055441992441458</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1394086707067388</v>
+        <v>0.1371880391433037</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.007426841197218724</v>
+        <v>0.01214178797681471</v>
       </c>
       <c r="G244" t="n">
+        <v>0.0632331053185938</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.006729942173612925</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1401918654859902</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.006587309975151778</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.138903039747038</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.02371918558557745</v>
+        <v>0.007884594646366011</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1384284327115522</v>
+        <v>0.1382502094267884</v>
       </c>
       <c r="N244" t="n">
-        <v>0.007426841197218724</v>
+        <v>0.009178532797056826</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1401918654859902</v>
+        <v>0.1379587584643335</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.007439541993879126</v>
+        <v>0.01170219791174066</v>
       </c>
       <c r="G245" t="n">
+        <v>0.06308405047067497</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.006561014452959806</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1409750602652415</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.006009114718937669</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1396790343824963</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.02379387530025656</v>
+        <v>0.007860723080648835</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1392017759110581</v>
+        <v>0.1390225569654855</v>
       </c>
       <c r="N245" t="n">
-        <v>0.007439541993879126</v>
+        <v>0.008493020604467827</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1409750602652415</v>
+        <v>0.1387294777853633</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.007255607281774122</v>
+        <v>0.01126942398680195</v>
       </c>
       <c r="G246" t="n">
+        <v>0.06293499562275615</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.006696484547709235</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1417582550444928</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.00594501488843141</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1404550290179546</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.02274919040060497</v>
+        <v>0.007937978428916914</v>
       </c>
       <c r="M246" t="n">
-        <v>0.139975119110564</v>
+        <v>0.1397949045041827</v>
       </c>
       <c r="N246" t="n">
-        <v>0.007255607281774122</v>
+        <v>0.008498092291738424</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1417582550444928</v>
+        <v>0.1395001971063931</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.007175157347175047</v>
+        <v>0.01084377755875208</v>
       </c>
       <c r="G247" t="n">
+        <v>0.06278594077483733</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.006736643535880535</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1425414498237442</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.005595513389655027</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1412310236534129</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.02238577840704065</v>
+        <v>0.008216371209153583</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1407484623100699</v>
+        <v>0.1405672520428798</v>
       </c>
       <c r="N247" t="n">
-        <v>0.007175157347175047</v>
+        <v>0.007693956803959401</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1425414498237442</v>
+        <v>0.1402709164274229</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.00709831247635323</v>
+        <v>0.01042556998434443</v>
       </c>
       <c r="G248" t="n">
+        <v>0.0626368859269185</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.006681782495493026</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1433246446029955</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.005061113128630557</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1420070182888712</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.02170428683998138</v>
+        <v>0.008195911939342299</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1415218055095757</v>
+        <v>0.141339599581577</v>
       </c>
       <c r="N248" t="n">
-        <v>0.00709831247635323</v>
+        <v>0.006980823086221499</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1433246446029955</v>
+        <v>0.1410416357484527</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.007025192955580031</v>
+        <v>0.01001511262033253</v>
       </c>
       <c r="G249" t="n">
+        <v>0.06248783107899967</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.006832192504566022</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1441078393822469</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.004742317011379948</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1427830129243295</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.0206053632198453</v>
+        <v>0.008176611137466427</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1422951487090816</v>
+        <v>0.1421119471202741</v>
       </c>
       <c r="N249" t="n">
-        <v>0.007025192955580031</v>
+        <v>0.005958900083615437</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1441078393822469</v>
+        <v>0.1418123550694824</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.0070559190711268</v>
+        <v>0.009612716823469876</v>
       </c>
       <c r="G250" t="n">
+        <v>0.06233877623108085</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.006988164641118844</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1448910341614982</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.004439627943925301</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1435590075597878</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.01968965506705039</v>
+        <v>0.007858479321509321</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1430684919085875</v>
+        <v>0.1428842946589712</v>
       </c>
       <c r="N250" t="n">
-        <v>0.0070559190711268</v>
+        <v>0.005228396741232044</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1448910341614982</v>
+        <v>0.1425830743905123</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.006890611109264845</v>
+        <v>0.009218693950509844</v>
       </c>
       <c r="G251" t="n">
+        <v>0.06218972138316203</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.006949989983170805</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1456742289407496</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.004253548832288567</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1443350021952461</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.01955780990201444</v>
+        <v>0.007841527009454452</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1438418351080934</v>
+        <v>0.1436566421976684</v>
       </c>
       <c r="N251" t="n">
-        <v>0.006890611109264845</v>
+        <v>0.004489522004162194</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1456742289407496</v>
+        <v>0.143353793711542</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.006929389356265539</v>
+        <v>0.008833355358205959</v>
       </c>
       <c r="G252" t="n">
+        <v>0.0620406665352432</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.007117959608741231</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1464574237200009</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.003784582582491758</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1451109968307044</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.01831047524515578</v>
+        <v>0.007625764719285139</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1446151783075992</v>
+        <v>0.1444289897363655</v>
       </c>
       <c r="N252" t="n">
-        <v>0.006929389356265539</v>
+        <v>0.00414248481749635</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1464574237200009</v>
+        <v>0.1441245130325718</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.006672374098400199</v>
+        <v>0.008457012403311696</v>
       </c>
       <c r="G253" t="n">
+        <v>0.06189161168732438</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.007092364595849436</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1472406184992522</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.003833232100556971</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1458869914661628</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.01764829861689199</v>
+        <v>0.007711202968984837</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1453885215071051</v>
+        <v>0.1452013372750627</v>
       </c>
       <c r="N253" t="n">
-        <v>0.006672374098400199</v>
+        <v>0.003287494126325563</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1472406184992522</v>
+        <v>0.1448952323536016</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.006819685621940172</v>
+        <v>0.008089976442580492</v>
       </c>
       <c r="G254" t="n">
+        <v>0.06174255683940556</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.007273496022514744</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1480238132785036</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.00360000029250615</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1466629861016211</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.01697192753764132</v>
+        <v>0.007897852276536887</v>
       </c>
       <c r="M254" t="n">
-        <v>0.146161864706611</v>
+        <v>0.1459736848137598</v>
       </c>
       <c r="N254" t="n">
-        <v>0.006819685621940172</v>
+        <v>0.002124758875740429</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1480238132785036</v>
+        <v>0.1456659516746314</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.0065714442131568</v>
+        <v>0.007732558832765822</v>
       </c>
       <c r="G255" t="n">
+        <v>0.06159350199148673</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.007161644966756468</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1488070080577549</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.003585390064361316</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1474389807370794</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.01608200952782157</v>
+        <v>0.00768572315992469</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1469352079061169</v>
+        <v>0.146746032352457</v>
       </c>
       <c r="N255" t="n">
-        <v>0.0065714442131568</v>
+        <v>0.001854488010831823</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1488070080577549</v>
+        <v>0.1464366709956612</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.006527770158321428</v>
+        <v>0.007385070930621171</v>
       </c>
       <c r="G256" t="n">
+        <v>0.06144444714356791</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.007357102506593917</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1495902028370063</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.003189904322144554</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1482149753725377</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.01547919210785093</v>
+        <v>0.007974826137131685</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1477085511056228</v>
+        <v>0.1475183798911541</v>
       </c>
       <c r="N256" t="n">
-        <v>0.006527770158321428</v>
+        <v>0.0008768904766904839</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1495902028370063</v>
+        <v>0.147207390316691</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006688783743705393</v>
+        <v>0.007047824092899974</v>
       </c>
       <c r="G257" t="n">
+        <v>0.06129539229564909</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.007560159720046429</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1503733976162576</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.003014045971877821</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.148990970007996</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.01496412279814718</v>
+        <v>0.007665171726141173</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1484818943051286</v>
+        <v>0.1482907274298512</v>
       </c>
       <c r="N257" t="n">
-        <v>0.006688783743705393</v>
+        <v>-0.0002078247815929246</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1503733976162576</v>
+        <v>0.1479781096377208</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006454605255580032</v>
+        <v>0.006721129676355707</v>
       </c>
       <c r="G258" t="n">
+        <v>0.06114633744773026</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.007671107685133308</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1511565923955089</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.003058317919583137</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1497669646434543</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.01343744911912836</v>
+        <v>0.007556770444936689</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1492552375046345</v>
+        <v>0.1490630749685484</v>
       </c>
       <c r="N258" t="n">
-        <v>0.006454605255580032</v>
+        <v>-0.000899448818927534</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1511565923955089</v>
+        <v>0.1487488289587506</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.006625354980216693</v>
+        <v>0.006405299037741848</v>
       </c>
       <c r="G259" t="n">
+        <v>0.06099728259981143</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.007690237479873879</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1519397871747603</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.00242322307128251</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1505429592789126</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.01329981859121243</v>
+        <v>0.008049632811501506</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1500285807041404</v>
+        <v>0.1498354225072455</v>
       </c>
       <c r="N259" t="n">
-        <v>0.006625354980216693</v>
+        <v>-0.001997772690222638</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1519397871747603</v>
+        <v>0.1495195482797804</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.006401153203886713</v>
+        <v>0.006100643533811886</v>
       </c>
       <c r="G260" t="n">
+        <v>0.06084822775189261</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.007717840182287466</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1527229819540116</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.002609264332997963</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.151318953914371</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.01205187873481739</v>
+        <v>0.007643769343819024</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1508019239036463</v>
+        <v>0.1506077700459427</v>
       </c>
       <c r="N260" t="n">
-        <v>0.006401153203886713</v>
+        <v>-0.002102587450387411</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1527229819540116</v>
+        <v>0.1502902676008102</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.006582120212861427</v>
+        <v>0.005807474521319238</v>
       </c>
       <c r="G261" t="n">
+        <v>0.06069917290397378</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.007854206870393371</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.153506176733263</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.002316944610751576</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1520949485498293</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.01089427707036134</v>
+        <v>0.0078391905598727</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1515752671031522</v>
+        <v>0.1513801175846398</v>
       </c>
       <c r="N261" t="n">
-        <v>0.006582120212861427</v>
+        <v>-0.003413684154331048</v>
       </c>
       <c r="O261" t="n">
-        <v>0.153506176733263</v>
+        <v>0.15106098692184</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.006368376293412185</v>
+        <v>0.005526103357017385</v>
       </c>
       <c r="G262" t="n">
+        <v>0.06055011805605495</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.007999628622210923</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1542893715125143</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.002546766810565315</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1528709431852876</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.01002766111826192</v>
+        <v>0.007635906977645879</v>
       </c>
       <c r="M262" t="n">
-        <v>0.152348610302658</v>
+        <v>0.1521524651233369</v>
       </c>
       <c r="N262" t="n">
-        <v>0.006368376293412185</v>
+        <v>-0.004130853856962963</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1542893715125143</v>
+        <v>0.1518317062428698</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.006360041731810331</v>
+        <v>0.005256841397659834</v>
       </c>
       <c r="G263" t="n">
+        <v>0.06040106320813614</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.008254396515759432</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1550725662917657</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.002399233838461162</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1536469378207459</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.009152678398937464</v>
+        <v>0.007533929115121962</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1531219535021639</v>
+        <v>0.1529248126620341</v>
       </c>
       <c r="N263" t="n">
-        <v>0.006360041731810331</v>
+        <v>-0.005053887613192226</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1550725662917657</v>
+        <v>0.1526024255638996</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.006557236814327183</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.06025200836021731</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.008418801629058233</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.155855761071017</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.002374848600461194</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1544229324562042</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.008369976432805681</v>
+        <v>0.007533267490284379</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1538952967016698</v>
+        <v>0.1536971602007312</v>
       </c>
       <c r="N264" t="n">
-        <v>0.006557236814327183</v>
+        <v>-0.005882576477928114</v>
       </c>
       <c r="O264" t="n">
-        <v>0.155855761071017</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1533731448849294</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.06023885046548046</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005767807694621783</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.06023911899394448</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006531578684954291</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.06023938752240849</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.007291270340337726</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.06023965605087252</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.008046840030013179</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.06023992457933653</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008798245123321023</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.06024019310780054</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.009545442989568491</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.06024046163626456</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.01028839099809503</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.06024073016472858</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01102704651814321</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.0602409986931926</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01176136691905266</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.06024126722165662</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01249130957013062</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.06024153575012063</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01321683184071578</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.06024180427858466</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01393789110005221</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.06024207280704867</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01465444471747882</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.06024234133551268</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01536645006230281</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.0602426098639767</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01607386450386212</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.06024287839244073</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01677664541140236</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.06024314692090474</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01747475015426166</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.06024341544936875</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01816813610174724</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.06024368397783277</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01885676062319618</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.06024395250629679</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01954058108785575</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.06024422103476081</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.02021955486506331</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.06024448956322483</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.020893639324126</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.06024475809168884</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.0215627918343801</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.06024502662015287</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.0222269697650746</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.06024529514861688</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02288630456087473</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.06024556367708089</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02354179804306082</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.06024583220554491</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02419358165629723</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.06024610073400893</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02484161276983445</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.06024636926247295</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02548584875300812</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.06024663779093696</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.0261262469751255</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.06024690631940097</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02676276480552141</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.060247174847865</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02739535961344765</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.06024744337632901</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02802398876823928</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.06024771190479303</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02864860963920346</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.06024798043325705</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02926917959567439</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.06024824896172108</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02988565600690524</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.06024851749018509</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.03049799624223032</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.0602487860186491</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.03110615767095688</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.06024905454711312</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.03171009766241831</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.06024932307557714</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.0323097735858693</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.06024959160404116</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.0329051428106434</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.06024986013250517</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03349616270604786</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.06025012866096918</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03408279064141534</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.06025039718943321</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03466498398600197</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.06025066571789722</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03524270010914066</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.06025093424636124</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03581589638013856</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.06025120277482526</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03638453016832757</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.06025147130328928</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03694855884296543</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.0602517398317533</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03750793977338421</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.06025200836021731</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03750793977338419</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.06023885046548046</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03813717311210293</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.06038844237032732</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03876106154877089</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.06053803427517418</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03937948456145592</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.06068762618002105</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03999232162822569</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.0608372180848679</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.04059945222714809</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.06098680998971476</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.04120075583629089</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.06113640189456162</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.04179611193372186</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.06128599379940847</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.04238539999750884</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.06143558570425533</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.04296849950571964</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.0615851776091022</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.043545289936422</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.06173476951394905</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.04411565076768369</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.06188436141879591</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04467946147757255</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.06203395332364277</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.04523660154415639</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.06218354522848962</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.045786950445503</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.06233313713333649</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04633038765968012</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.06248272903818335</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.04686679266475557</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.06263232094303021</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.04739604493879719</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.06278191284787707</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.04791802395987269</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.06293150475272392</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.04843260920604994</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.06308109665757078</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04893968015539675</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.06323068856241765</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.04943911628598081</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.0633802804672645</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.04993079707587</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.06352987237211136</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.05041460200313205</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.06367946427695821</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.05089041054583482</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.06382905618180508</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.05135859431326928</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.06397864808665195</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.05182198557084221</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.0641282399914988</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.05228095592784461</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.06427783189634566</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.05273538486234425</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.06442742380119251</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.05318515185240898</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.06457701570603937</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.05363013637610659</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.06472660761088624</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.05407021791150479</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.06487619951573309</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.05450527593667145</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.06502579142057996</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.05493518992967433</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.06517538332542681</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.05535983936858126</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.06532497523027367</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.05577910373146</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.06547456713512052</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.05619286249637838</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.06562415903996739</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.05660099514140415</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.06577375094481425</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.05700338114460513</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.0659233428496611</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.05739989998404908</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.06607293475450797</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.05779043113780384</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.06622252665935482</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.05817485408393719</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.06637211856420168</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.05855304830051694</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.06652171046904855</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.05892489326561084</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.0666713023738954</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.05929026845728672</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.06682089427874226</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.05964905335361233</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.06697048618358911</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.06000112743265552</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.06712007808843597</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.06034637017248408</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.06726966999328284</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.06068466105116577</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.0674192618981297</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.06101587954676838</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06756885380297656</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.05634391969784558</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06756885380297656</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.06112480482756334</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06944620190464476</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.06122551839858231</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.07132355000631296</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.06131834208328647</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.07320089810798117</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.06140359770513701</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.07507824620964937</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.06148160708759515</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.07695559431131758</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.06155269205412206</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07883294241298577</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.06161717442817893</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.08071029051465399</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.06167537603322699</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.08258763861632219</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.06172761869272743</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.08446498671799041</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.06177422423014144</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.08634233481965861</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.0618155144689302</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.08821968292132681</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.06185181123255493</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.09009703102299502</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.06188343634447681</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.09197437912466322</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.06191071162815705</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.09385172722633142</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.06193395890705684</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.09572907532799962</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.06195350000463738</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.09760642342966784</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.06196965674435988</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.09948377153133603</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.06198275094968551</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1013611196330042</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.06199310444407546</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1032384677346724</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.06200103905099098</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1051158158363407</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.06200687659389321</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1069931639380089</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.06201093889624339</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1088705120396771</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.06201354778150268</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1107478601413453</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.06201502507313229</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1126252082430135</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.06201569259459343</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1145025563446817</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.06201587216934729</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1163799044463499</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.06200589613179756</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1182572525480181</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.06192415450326483</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1201346006496863</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.06176496785163997</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1220119487513545</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.06153427803387485</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1238892968530227</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.06123802690692132</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1257666449546909</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.06088215632773124</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1276439930563591</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.06047260815325647</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1295213411580273</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.06001532424044889</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1313986892596955</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.05951624644626033</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1332760373613637</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.05898131662764268</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1351533854630319</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.05841647664154775</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1370307335647001</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.05782766834492746</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1389080816663684</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.05722083359473362</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1407854297680366</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.05660191424791812</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1426627778697048</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.05597685216143281</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1445401259713729</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.05535158919222953</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1464174740730412</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.05473206719726016</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1482948221747094</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.05412422803347658</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.05353401355783061</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1520495183780458</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.05296736562727412</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.153926866479714</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.05243022609875897</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1558042145813822</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.05192853682923702</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1576815626830504</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.05146823967566014</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1595589107847186</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.05105527649498018</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1614362588863868</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.05067669313653919</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.163313606988055</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.05029672105556726</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1651909550897232</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.04991515881564428</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1670683031913914</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.04953295741518192</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1689456512930596</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.0491510678525918</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1708229993947278</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.04877044112628559</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.172700347496396</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.04839202823467496</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1745776955980642</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.04801678017617154</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1764550436997324</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.04764564794918702</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1783323918014006</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.04727958255213305</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1802097399030689</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.0469195349834213</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1820870880047371</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.04656645624146337</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1839644361064053</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.04622129732467097</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1858417842080735</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.04588500923145573</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1877191323097417</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.04555854296022935</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1895964804114099</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.04524284950940344</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1914738285130781</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.04493887987738969</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1933511766147463</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.04464758506259972</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1952285247164145</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.04436991606344522</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1971058728180827</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.04410682387833784</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1989832209197509</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.04385925950568922</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2008605690214191</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.04362817394391105</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2027379171230873</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.04341451819141497</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2046152652247555</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.04321924324661261</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2064926133264237</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.04304330010791567</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2083699614280919</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.04288744822725317</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2102473095297601</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.0427396339589261</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2121246576314283</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.04259261920924441</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2140020057330966</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.04244694081528103</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2158793538347647</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.04230313561410892</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.217756701936433</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.04216174044280099</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.2196340500381012</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.04202329213843023</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.2215113981397694</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.04188832753806952</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2233887462414376</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.04175738347879183</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2252660943431058</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.04163099679767013</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.227143442444774</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.04150970433177731</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2290207905464422</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.04139404291818634</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2308981386481104</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.04128454939397014</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2327754867497786</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.04118176059620166</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2346528348514468</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.04108621336195384</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.236530182953115</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.04099844452829962</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2384075310547832</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.04091899093231197</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2402848791564514</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.04084838941106378</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2421622272581196</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.04078717680162801</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2440395753597878</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.04073588994107762</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.245916923461456</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.04069506566648552</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2477942715631243</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.04066524081492466</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2496716196647924</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.04064695222346801</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2515489677664607</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.04064073672918847</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2534263158681289</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1114.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1114.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.09134391969784558</v>
+        <v>0.06185476386403051</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.04134391969784558</v>
+        <v>0.0118547638640305</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02759885380297656</v>
+        <v>0.01161360077562008</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001331143254118587</v>
+        <v>0.002249043880093171</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.000682513674777541</v>
+        <v>0.001640581956245581</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001281714134047061</v>
+        <v>0.003250882491031171</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007831947792513417</v>
+        <v>0.001648681287257835</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.00448127649693611</v>
+        <v>0.01013543301340555</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007723475386971418</v>
+        <v>0.002090367685994943</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.008544073834070465</v>
+        <v>0.01640517190297369</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.000770719321029796</v>
+        <v>0.001648023276031055</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002647560223677708</v>
+        <v>0.006585979924461388</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001365027349555082</v>
+        <v>0.003871200258540025</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.002869484089680609</v>
+        <v>0.006761584399466891</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001566389558502683</v>
+        <v>0.00397441953598076</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.009045475159649263</v>
+        <v>0.01225677439408446</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001544695077394284</v>
+        <v>0.003304358272821442</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01612123582073577</v>
+        <v>0.02156926888905714</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001541438642059592</v>
+        <v>0.002510552351472376</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.00394911306254514</v>
+        <v>0.005583478857914763</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002047541024332623</v>
+        <v>0.004921745868736742</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.003999999999999997</v>
+        <v>0.007519243162108107</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002351176470588233</v>
+        <v>0.004946043861773506</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01199999999999998</v>
+        <v>0.01546593983041691</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002177015250544659</v>
+        <v>0.004956537409232162</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02275283770369257</v>
+        <v>0.02764208850749622</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002312157963089388</v>
+        <v>0.004944069828093166</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005235663924588616</v>
+        <v>0.007884150633604321</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002730054699110164</v>
+        <v>0.006562327824982323</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.00491205826676485</v>
+        <v>0.008463761253037189</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003132779117005367</v>
+        <v>0.006594725149031341</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01459061544603085</v>
+        <v>0.01777207098978495</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003089390154788567</v>
+        <v>0.006608716545642883</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02600000000000002</v>
+        <v>0.03029579208622918</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002830119825708064</v>
+        <v>0.00659209310412422</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01548480103416012</v>
+        <v>0.003871200258540025</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02634391969784558</v>
+        <v>0.006585979924461388</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006507074963675891</v>
+        <v>0.009954614103829938</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003412568373887705</v>
+        <v>0.008202909781227903</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.005669180093821384</v>
+        <v>0.009285287067987202</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003915973896256708</v>
+        <v>0.008243406436289177</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01703860535041951</v>
+        <v>0.01934625486134359</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003861737693485709</v>
+        <v>0.008260895682053604</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03039582254903478</v>
+        <v>0.03306007036813302</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.00385359660514898</v>
+        <v>0.008240116380155274</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007763208333674727</v>
+        <v>0.009889430490313184</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004095082048665245</v>
+        <v>0.009843491737473484</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.006571820643526904</v>
+        <v>0.009976978012731785</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.00469916867550805</v>
+        <v>0.009892087723547011</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.01923846817813149</v>
+        <v>0.02125957843424778</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004634085232182852</v>
+        <v>0.009913074818464323</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03300972948714193</v>
+        <v>0.03508917054680777</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004624315926178776</v>
+        <v>0.009888139656186332</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.009003926188452874</v>
+        <v>0.0118547638640305</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004777595723442787</v>
+        <v>0.01161360077562008</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.00732235234461065</v>
+        <v>0.01063199149304462</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005482363454759391</v>
+        <v>0.01154076901080485</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02108819045733021</v>
+        <v>0.02298312869765257</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005406432770879994</v>
+        <v>0.01156525395487504</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03518489394768126</v>
+        <v>0.03663733981585365</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005395035247208572</v>
+        <v>0.01153616293221739</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01022909068187808</v>
+        <v>0.01269569513058775</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005460109398220328</v>
+        <v>0.01312465564996465</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.007823147625801906</v>
+        <v>0.01146031254146931</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006265558234010734</v>
+        <v>0.01322536764705881</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02258575871617902</v>
+        <v>0.0253385825335139</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006178780309577135</v>
+        <v>0.01392143962848297</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.03708764061756559</v>
+        <v>0.03921685252555845</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006165754568238368</v>
+        <v>0.01309442341292952</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01143856396781811</v>
+        <v>0.01361089711635422</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006142623072997869</v>
+        <v>0.01476523760621023</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.008576578915829906</v>
+        <v>0.01203703320418148</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007048753013262075</v>
+        <v>0.01483813158532052</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02412915948284144</v>
+        <v>0.0263962675752196</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006951127848274277</v>
+        <v>0.01486961222769649</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.03921685252555845</v>
+        <v>0.04193192941966023</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007114640502208475</v>
+        <v>0.0148322094842795</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.0126322082001407</v>
+        <v>0.01251931981141441</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.006825136747775409</v>
+        <v>0.01640581956245581</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.009085018643423946</v>
+        <v>0.01306281960704046</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007831947792513417</v>
+        <v>0.01648681287257835</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.0253385825335139</v>
+        <v>0.02787651960410698</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007661455639256161</v>
+        <v>0.01652179136410721</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04029834318746917</v>
+        <v>0.044529227651389</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.00770719321029796</v>
+        <v>0.01648023276031055</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01380988553271362</v>
+        <v>0.01541166291649056</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.00750765042255295</v>
+        <v>0.01804640151870139</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.009650839237313247</v>
+        <v>0.01380766642052021</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008615142571764758</v>
+        <v>0.01813549415983619</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02598835576293765</v>
+        <v>0.02998250805661715</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008495822925668561</v>
+        <v>0.01817397050051793</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04129225248078561</v>
+        <v>0.04700272686344015</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008477912531327757</v>
+        <v>0.01812825603634161</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01497145811940461</v>
+        <v>0.01527862613230491</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008190164097330491</v>
+        <v>0.01968698347494697</v>
       </c>
       <c r="J77" t="n">
-        <v>0.0102764131262271</v>
+        <v>0.014558421052373</v>
       </c>
       <c r="K77" t="n">
-        <v>0.0093983373510161</v>
+        <v>0.01978417544709402</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02724553215317971</v>
+        <v>0.03188906062043376</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009268170464365703</v>
+        <v>0.01982614963692865</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04287110175970893</v>
+        <v>0.05060523842292047</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009248631852357551</v>
+        <v>0.01977627931237266</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01611678811408144</v>
+        <v>0.01711090915957972</v>
       </c>
       <c r="G78" t="n">
-        <v>0.008872677772108033</v>
+        <v>0.02132756543119255</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01076411273889476</v>
+        <v>0.01560193091035103</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01018153213026744</v>
+        <v>0.02143285673435186</v>
       </c>
       <c r="L78" t="n">
-        <v>0.02808837283222421</v>
+        <v>0.0337710049832404</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01004051800306285</v>
+        <v>0.02147832877333937</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04393420592278463</v>
+        <v>0.05328957369693693</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01001935117338735</v>
+        <v>0.02142430258840371</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01724573767061185</v>
+        <v>0.01689921169903721</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009555191446885573</v>
+        <v>0.02296814738743813</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01146031254146931</v>
+        <v>0.01642504340220653</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01122717383045412</v>
+        <v>0.0230815380216097</v>
       </c>
       <c r="L79" t="n">
-        <v>0.02921655416329588</v>
+        <v>0.0356031688327208</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01081286554175999</v>
+        <v>0.02313050790975009</v>
       </c>
       <c r="N79" t="n">
-        <v>0.04578087986855806</v>
+        <v>0.05580854405259644</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01079007049441714</v>
+        <v>0.02307232586443477</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.0183581689428636</v>
+        <v>0.01663423345139962</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01023770512166312</v>
+        <v>0.02460872934368371</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01164225830477517</v>
+        <v>0.01701460593569175</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01174792168877012</v>
+        <v>0.02473021930886753</v>
       </c>
       <c r="L80" t="n">
-        <v>0.02972975250961943</v>
+        <v>0.03716037985655851</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01158521308045713</v>
+        <v>0.02478268704616081</v>
       </c>
       <c r="N80" t="n">
-        <v>0.04671043849557488</v>
+        <v>0.05901496085700575</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01156078981544694</v>
+        <v>0.02472034914046583</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01945394408470444</v>
+        <v>0.0183066741173892</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01092021879644066</v>
+        <v>0.02624931129992929</v>
       </c>
       <c r="J81" t="n">
-        <v>0.012065508777683</v>
+        <v>0.01775746591855892</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01253111646802147</v>
+        <v>0.02637890059612536</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03062764423441955</v>
+        <v>0.03901746574243725</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01235756061915427</v>
+        <v>0.02643486618257153</v>
       </c>
       <c r="N81" t="n">
-        <v>0.04832219670238053</v>
+        <v>0.06156163547727184</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01233150913647674</v>
+        <v>0.02636837241649688</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02053292525000212</v>
+        <v>0.01890723339772821</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0116027324712182</v>
+        <v>0.02788989325617487</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01238738843707255</v>
+        <v>0.0186404707585603</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01331431124727281</v>
+        <v>0.0280275818833832</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03190990570092098</v>
+        <v>0.04024925417804059</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01312990815785141</v>
+        <v>0.02808704531898225</v>
       </c>
       <c r="N82" t="n">
-        <v>0.04931546938752041</v>
+        <v>0.06360137928050147</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01310222845750653</v>
+        <v>0.02801639569252794</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02159497459262441</v>
+        <v>0.01842661099313884</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01228524614599574</v>
+        <v>0.02953047521242045</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01280742316552901</v>
+        <v>0.01915046786344808</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01409750602652415</v>
+        <v>0.02967626317064103</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0326762132723484</v>
+        <v>0.04213057285105218</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01390225569654855</v>
+        <v>0.02973922445539297</v>
       </c>
       <c r="N83" t="n">
-        <v>0.05098957144954014</v>
+        <v>0.06538700363380162</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01387294777853633</v>
+        <v>0.02966441896855899</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02263995426643903</v>
+        <v>0.0208555066043434</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01296775982077328</v>
+        <v>0.03117105716866603</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01342513884563754</v>
+        <v>0.01967430464097454</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01488070080577549</v>
+        <v>0.03132494445789887</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03332624331192649</v>
+        <v>0.04303624944915566</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0146746032352457</v>
+        <v>0.03139140359180369</v>
       </c>
       <c r="N84" t="n">
-        <v>0.05174381778698506</v>
+        <v>0.06717131990427905</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01464366709956613</v>
+        <v>0.03131244224459005</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02366772642531377</v>
+        <v>0.01918514662010565</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01365027349555082</v>
+        <v>0.03281163912491161</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0136400613599833</v>
+        <v>0.02009882849889189</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01566389558502683</v>
+        <v>0.03297362574515671</v>
       </c>
       <c r="L85" t="n">
-        <v>0.03445967218288004</v>
+        <v>0.04384111166003465</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01544695077394284</v>
+        <v>0.03304358272821441</v>
       </c>
       <c r="N85" t="n">
-        <v>0.05287752329840079</v>
+        <v>0.06880713945904071</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01541438642059592</v>
+        <v>0.0329604655206211</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02467815322311637</v>
+        <v>0.01946809877924797</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01433278717032836</v>
+        <v>0.03445222108115719</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01405171659115147</v>
+        <v>0.0204137723373097</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01644709036427817</v>
+        <v>0.03462230703241454</v>
       </c>
       <c r="L86" t="n">
-        <v>0.03507617624843365</v>
+        <v>0.04471998717137282</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01621929831263998</v>
+        <v>0.03469576186462514</v>
       </c>
       <c r="N86" t="n">
-        <v>0.05409000288233273</v>
+        <v>0.07026494546198608</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01618510574162571</v>
+        <v>0.03460848879665215</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02567109681371456</v>
+        <v>0.02174270021980429</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0150153008451059</v>
+        <v>0.03609280303740278</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01445963042172722</v>
+        <v>0.02068775401730759</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01723028514352952</v>
+        <v>0.03627098831967238</v>
       </c>
       <c r="L87" t="n">
-        <v>0.03557543187181209</v>
+        <v>0.04543589302546397</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01699164585133712</v>
+        <v>0.03634794100103586</v>
       </c>
       <c r="N87" t="n">
-        <v>0.05518057143732646</v>
+        <v>0.07070030358312346</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01695582506265551</v>
+        <v>0.03625651207268321</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02634391969784558</v>
+        <v>0.02100708412859809</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01548480103416012</v>
+        <v>0.03773338499364835</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01496332873429572</v>
+        <v>0.02105335297015079</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01801347992278086</v>
+        <v>0.03791966960693022</v>
       </c>
       <c r="L88" t="n">
-        <v>0.03645711541624005</v>
+        <v>0.04583180391530256</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01776399339003426</v>
+        <v>0.03800012013744658</v>
       </c>
       <c r="N88" t="n">
-        <v>0.05674854386192735</v>
+        <v>0.07190655674624885</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01772654438368531</v>
+        <v>0.03790453534871427</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02758740963880026</v>
+        <v>0.02025938369245288</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01638032819466098</v>
+        <v>0.03937396694989394</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01546233741144215</v>
+        <v>0.02110873763754609</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0187966747020322</v>
+        <v>0.03956835089418805</v>
       </c>
       <c r="L89" t="n">
-        <v>0.03732090324494228</v>
+        <v>0.04650655377534724</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01853634092873141</v>
+        <v>0.03965229927385729</v>
       </c>
       <c r="N89" t="n">
-        <v>0.05749323505468096</v>
+        <v>0.0722774449141263</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0184972637047151</v>
+        <v>0.03955255862474533</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02849600679973852</v>
+        <v>0.02049773209819217</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01706284186943852</v>
+        <v>0.04101454890613952</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01575618233575163</v>
+        <v>0.02145207646120033</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01957986948128354</v>
+        <v>0.04121703218144588</v>
       </c>
       <c r="L90" t="n">
-        <v>0.03826647172114342</v>
+        <v>0.0472560672278009</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01930868846742855</v>
+        <v>0.04130447841026802</v>
       </c>
       <c r="N90" t="n">
-        <v>0.05911395991413271</v>
+        <v>0.07380670804951961</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0192679830257449</v>
+        <v>0.04120058190077638</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02937535228875335</v>
+        <v>0.02072026253263948</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01774535554421607</v>
+        <v>0.04265513086238509</v>
       </c>
       <c r="J91" t="n">
-        <v>0.01614438938980936</v>
+        <v>0.0216815378828203</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02036306426053489</v>
+        <v>0.04286571346870372</v>
       </c>
       <c r="L91" t="n">
-        <v>0.03889349720806823</v>
+        <v>0.04747626889486667</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02008103600612569</v>
+        <v>0.04295665754667874</v>
       </c>
       <c r="N91" t="n">
-        <v>0.06041003333882822</v>
+        <v>0.07408808611519302</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02003870234677469</v>
+        <v>0.04284860517680743</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03022959485840984</v>
+        <v>0.02192510818261832</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01842786921899361</v>
+        <v>0.04429571281863067</v>
       </c>
       <c r="J92" t="n">
-        <v>0.01652648445620052</v>
+        <v>0.02189529034411283</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02114625903978622</v>
+        <v>0.04451439475596156</v>
       </c>
       <c r="L92" t="n">
-        <v>0.03970165606894133</v>
+        <v>0.04846308339874744</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02085338354482283</v>
+        <v>0.04460883668308946</v>
       </c>
       <c r="N92" t="n">
-        <v>0.06078077022731287</v>
+        <v>0.07461531907391045</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02080942166780449</v>
+        <v>0.04449662845283849</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03106288326127311</v>
+        <v>0.02111040223495218</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01911038289377115</v>
+        <v>0.04593629477487626</v>
       </c>
       <c r="J93" t="n">
-        <v>0.01700199341751027</v>
+        <v>0.02209150228678471</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02192945381903756</v>
+        <v>0.04616307604321939</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04019062466698753</v>
+        <v>0.04891243536164619</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02162573108351997</v>
+        <v>0.04626101581950018</v>
       </c>
       <c r="N93" t="n">
-        <v>0.06192548547813209</v>
+        <v>0.07538214688843592</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02158014098883429</v>
+        <v>0.04614465172886954</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03187936624990827</v>
+        <v>0.02227427787646458</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01979289656854868</v>
+        <v>0.04757687673112183</v>
       </c>
       <c r="J94" t="n">
-        <v>0.01717044215632375</v>
+        <v>0.02226834215254278</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02271264859828891</v>
+        <v>0.04781175733047723</v>
       </c>
       <c r="L94" t="n">
-        <v>0.04116007936543145</v>
+        <v>0.04912024940576598</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02239807862221711</v>
+        <v>0.0479131949559109</v>
       </c>
       <c r="N94" t="n">
-        <v>0.06314349398983155</v>
+        <v>0.07628230952153331</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02235086030986408</v>
+        <v>0.0477926750049006</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03268319257688045</v>
+        <v>0.021414868293979</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02047541024332623</v>
+        <v>0.04921745868736742</v>
       </c>
       <c r="J95" t="n">
-        <v>0.01753135655522618</v>
+        <v>0.02252397838309385</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02349584337754025</v>
+        <v>0.04946043861773506</v>
       </c>
       <c r="L95" t="n">
-        <v>0.04170969652749787</v>
+        <v>0.04918245015330977</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02317042616091426</v>
+        <v>0.04956537409232162</v>
       </c>
       <c r="N95" t="n">
-        <v>0.0640341106609566</v>
+        <v>0.07660954693596689</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02312157963089388</v>
+        <v>0.04944069828093165</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03347851099475474</v>
+        <v>0.02353030667431899</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02115792391810377</v>
+        <v>0.050858040643613</v>
       </c>
       <c r="J96" t="n">
-        <v>0.01788426249680268</v>
+        <v>0.02255657942014472</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02427903815679159</v>
+        <v>0.05110911990499289</v>
       </c>
       <c r="L96" t="n">
-        <v>0.04193915251641142</v>
+        <v>0.04949496222648056</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0239427736996114</v>
+        <v>0.05121755322873234</v>
       </c>
       <c r="N96" t="n">
-        <v>0.06539665039005282</v>
+        <v>0.0774575990945004</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02389229895192367</v>
+        <v>0.0510887215569627</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03426947025609628</v>
+        <v>0.02261872620430802</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02184043759288131</v>
+        <v>0.05249862259985858</v>
       </c>
       <c r="J97" t="n">
-        <v>0.01842868586363848</v>
+        <v>0.02276431370540222</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02506223293604293</v>
+        <v>0.05275780119225073</v>
       </c>
       <c r="L97" t="n">
-        <v>0.04284812369539687</v>
+        <v>0.05015371024748133</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02471512123830854</v>
+        <v>0.05286973236514306</v>
       </c>
       <c r="N97" t="n">
-        <v>0.06633042807566558</v>
+        <v>0.07762020595989794</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02466301827295347</v>
+        <v>0.05273674483299376</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03506021911347017</v>
+        <v>0.02370952772806101</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02252295126765885</v>
+        <v>0.05413920455610416</v>
       </c>
       <c r="J98" t="n">
-        <v>0.01876415253831867</v>
+        <v>0.02264534968057313</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02584542771529427</v>
+        <v>0.05440648247950857</v>
       </c>
       <c r="L98" t="n">
-        <v>0.04353628642767893</v>
+        <v>0.05005461883851509</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02548746877700568</v>
+        <v>0.05452191150155378</v>
       </c>
       <c r="N98" t="n">
-        <v>0.06683475861634042</v>
+        <v>0.07759110749492365</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02543373759398327</v>
+        <v>0.05438476810902482</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03585490631944155</v>
+        <v>0.02270704146052727</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02320546494243639</v>
+        <v>0.05577978651234974</v>
       </c>
       <c r="J99" t="n">
-        <v>0.01899018840342846</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02662862249454561</v>
+        <v>0.05605516376676641</v>
       </c>
       <c r="L99" t="n">
-        <v>0.0437033170764822</v>
+        <v>0.05019361262178484</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02625981631570282</v>
+        <v>0.0561740906379645</v>
       </c>
       <c r="N99" t="n">
-        <v>0.06780895691062289</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02620445691501306</v>
+        <v>0.05603279138505587</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03665768062657554</v>
+        <v>0.022706500740498</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02388797861721393</v>
+        <v>0.05742036846859532</v>
       </c>
       <c r="J100" t="n">
-        <v>0.01920631934155304</v>
+        <v>0.02272000046748253</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02741181727379696</v>
+        <v>0.05770384505402424</v>
       </c>
       <c r="L100" t="n">
-        <v>0.04454889200503154</v>
+        <v>0.05067716506702777</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02703216385439997</v>
+        <v>0.05782626977437523</v>
       </c>
       <c r="N100" t="n">
-        <v>0.06865233785705838</v>
+        <v>0.07803275442491492</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02697517623604286</v>
+        <v>0.05768081466108693</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03747269078743722</v>
+        <v>0.02368897091496379</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02457049229199148</v>
+        <v>0.05906095042484091</v>
       </c>
       <c r="J101" t="n">
-        <v>0.01961207123527754</v>
+        <v>0.02281555515557646</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0281950120530483</v>
+        <v>0.05935252634128207</v>
       </c>
       <c r="L101" t="n">
-        <v>0.04507268757655153</v>
+        <v>0.05067350068081497</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02780451139309711</v>
+        <v>0.05947844891078595</v>
       </c>
       <c r="N101" t="n">
-        <v>0.06986421635419243</v>
+        <v>0.07771346076849028</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02774589555707265</v>
+        <v>0.05932883793711798</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03830408555459172</v>
+        <v>0.02265668508979059</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02525300596676901</v>
+        <v>0.06070153238108648</v>
       </c>
       <c r="J102" t="n">
-        <v>0.01990696996718713</v>
+        <v>0.02289561455276184</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02897820683229964</v>
+        <v>0.06100120762853991</v>
       </c>
       <c r="L102" t="n">
-        <v>0.04577438015426696</v>
+        <v>0.05024067260012002</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02857685893179425</v>
+        <v>0.06113062804719667</v>
       </c>
       <c r="N102" t="n">
-        <v>0.07064390730057057</v>
+        <v>0.07804199830575648</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02851661487810245</v>
+        <v>0.06097686121314904</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03915601368060416</v>
+        <v>0.02361062712935828</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02593551964154656</v>
+        <v>0.06234211433733206</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02009054141986699</v>
+        <v>0.0228614600671242</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02976140161155098</v>
+        <v>0.06264988891579774</v>
       </c>
       <c r="L103" t="n">
-        <v>0.04575364610140248</v>
+        <v>0.05027554769201514</v>
       </c>
       <c r="M103" t="n">
-        <v>0.0293492064704914</v>
+        <v>0.06278280718360739</v>
       </c>
       <c r="N103" t="n">
-        <v>0.07089072559473819</v>
+        <v>0.07792214857249702</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02928733419913225</v>
+        <v>0.06262488448918009</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04003262391803969</v>
+        <v>0.02355178089804681</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0266180333163241</v>
+        <v>0.06398269629357764</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02036231147590231</v>
+        <v>0.02271405698270323</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03054459639080232</v>
+        <v>0.06429857020305559</v>
       </c>
       <c r="L104" t="n">
-        <v>0.04671016178118281</v>
+        <v>0.04998027379812672</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03012155400918853</v>
+        <v>0.06443498632001811</v>
       </c>
       <c r="N104" t="n">
-        <v>0.07150398613524084</v>
+        <v>0.07805721078886468</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03005805352016204</v>
+        <v>0.06427290776521115</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04134391969784558</v>
+        <v>0.02348113026023609</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02759885380297656</v>
+        <v>0.06562327824982322</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02062180601787823</v>
+        <v>0.0227543705835387</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03132779117005367</v>
+        <v>0.06594725149031341</v>
       </c>
       <c r="L105" t="n">
-        <v>0.04704360355683271</v>
+        <v>0.05025699876008122</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03089390154788567</v>
+        <v>0.06608716545642883</v>
       </c>
       <c r="N105" t="n">
-        <v>0.07258300382062399</v>
+        <v>0.07745048417501221</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03082877284119184</v>
+        <v>0.06592093104124219</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04189316168167295</v>
+        <v>0.02239965908030603</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02798306066587918</v>
+        <v>0.0672638602060688</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02106855092837993</v>
+        <v>0.02258336615367029</v>
       </c>
       <c r="K106" t="n">
-        <v>0.032110985949305</v>
+        <v>0.06759593277757125</v>
       </c>
       <c r="L106" t="n">
-        <v>0.04755364779157684</v>
+        <v>0.05010787041950493</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03166624908658282</v>
+        <v>0.06773934459283955</v>
       </c>
       <c r="N106" t="n">
-        <v>0.07282709354943312</v>
+        <v>0.07690526795109265</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03159949216222163</v>
+        <v>0.06756895431727325</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04296543447356935</v>
+        <v>0.02230835122263654</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02866557434065672</v>
+        <v>0.06890444216231438</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02120207208999257</v>
+        <v>0.02260200897713772</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03289418072855635</v>
+        <v>0.06924461406482908</v>
       </c>
       <c r="L107" t="n">
-        <v>0.04753997084863984</v>
+        <v>0.04993503661802434</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03243859662527996</v>
+        <v>0.06939152372925028</v>
       </c>
       <c r="N107" t="n">
-        <v>0.07353557022021373</v>
+        <v>0.07672486133725864</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03237021148325143</v>
+        <v>0.06921697759330431</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04413306412662481</v>
+        <v>0.02320819055160757</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02934808801543426</v>
+        <v>0.07054502411855997</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02132189538530133</v>
+        <v>0.02251126433798076</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03367737550780769</v>
+        <v>0.07089329535208692</v>
       </c>
       <c r="L108" t="n">
-        <v>0.04800224909124653</v>
+        <v>0.04954064519726584</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0332109441639771</v>
+        <v>0.071043702865661</v>
       </c>
       <c r="N108" t="n">
-        <v>0.07440774873151124</v>
+        <v>0.07631256355366312</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03314093080428122</v>
+        <v>0.07086500086933537</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.0453629940213309</v>
+        <v>0.023100160931599</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0300306016902118</v>
+        <v>0.07218560607480555</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02172754669689136</v>
+        <v>0.02241209752023908</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03446057028705903</v>
+        <v>0.07254197663934475</v>
       </c>
       <c r="L109" t="n">
-        <v>0.04814015888262158</v>
+        <v>0.04952684399885582</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03398329170267424</v>
+        <v>0.07269588200207172</v>
       </c>
       <c r="N109" t="n">
-        <v>0.07494294398187129</v>
+        <v>0.0763716738204589</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03391165012531103</v>
+        <v>0.07251302414536642</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04662216753817909</v>
+        <v>0.02298524622699079</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03071311536498934</v>
+        <v>0.07382618803105112</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02191855190734784</v>
+        <v>0.02210547380795241</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03524376506631038</v>
+        <v>0.07419065792660259</v>
       </c>
       <c r="L110" t="n">
-        <v>0.04895337658598964</v>
+        <v>0.04919578086442064</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03475563924137139</v>
+        <v>0.07434806113848244</v>
       </c>
       <c r="N110" t="n">
-        <v>0.07544047086983924</v>
+        <v>0.07580549135779879</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03468236944634082</v>
+        <v>0.07416104742139748</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.047877528057661</v>
+        <v>0.02286443030216283</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03139562903976689</v>
+        <v>0.07546676998729671</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02199443689925595</v>
+        <v>0.0219923584851605</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03602695984556172</v>
+        <v>0.07583933921386043</v>
       </c>
       <c r="L111" t="n">
-        <v>0.04874157856457548</v>
+        <v>0.04914960363558682</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03552798678006853</v>
+        <v>0.07600024027489316</v>
       </c>
       <c r="N111" t="n">
-        <v>0.07569964429396059</v>
+        <v>0.0752173153858357</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03545308876737061</v>
+        <v>0.07580907069742854</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04909601896026811</v>
+        <v>0.02173869702149504</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03207814271454443</v>
+        <v>0.07710735194354229</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02205472755520085</v>
+        <v>0.02187371683590304</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03681015462481305</v>
+        <v>0.07748802050111826</v>
       </c>
       <c r="L112" t="n">
-        <v>0.04940444118160378</v>
+        <v>0.0488904601539806</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03630033431876567</v>
+        <v>0.07765241941130388</v>
       </c>
       <c r="N112" t="n">
-        <v>0.07601977915278091</v>
+        <v>0.07511044512472231</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03622380808840041</v>
+        <v>0.0774570939734596</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.05024458362649196</v>
+        <v>0.02260903024936736</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03276065638932196</v>
+        <v>0.07874793389978788</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02229894975776768</v>
+        <v>0.02175051414421977</v>
       </c>
       <c r="K113" t="n">
-        <v>0.0375933494040644</v>
+        <v>0.07913670178837609</v>
       </c>
       <c r="L113" t="n">
-        <v>0.04934164080029921</v>
+        <v>0.04852049826122853</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03707268185746281</v>
+        <v>0.07930459854771459</v>
       </c>
       <c r="N113" t="n">
-        <v>0.07650019034484556</v>
+        <v>0.07478817979461166</v>
       </c>
       <c r="O113" t="n">
-        <v>0.0369945274094302</v>
+        <v>0.07910511724949065</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.05129016543682409</v>
+        <v>0.02147641385015969</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0334431700640995</v>
+        <v>0.08038851585603346</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02232662938954165</v>
+        <v>0.02182371569415043</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03837654418331574</v>
+        <v>0.08078538307563393</v>
       </c>
       <c r="L114" t="n">
-        <v>0.04995285378388659</v>
+        <v>0.04784186579895691</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03784502939615995</v>
+        <v>0.08095677768412531</v>
       </c>
       <c r="N114" t="n">
-        <v>0.07714019276870016</v>
+        <v>0.07435381861565638</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03776524673046</v>
+        <v>0.0807531405255217</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.05219970777175606</v>
+        <v>0.02034183168825196</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03412568373887705</v>
+        <v>0.08202909781227903</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02253729233310792</v>
+        <v>0.02169428676973471</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03915973896256708</v>
+        <v>0.08243406436289176</v>
       </c>
       <c r="L115" t="n">
-        <v>0.05003775649559053</v>
+        <v>0.04775671060879222</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0386173769348571</v>
+        <v>0.08260895682053604</v>
       </c>
       <c r="N115" t="n">
-        <v>0.07723910132289008</v>
+        <v>0.07411066080800954</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0385359660514898</v>
+        <v>0.08240116380155275</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.05294015401177939</v>
+        <v>0.02220626762802408</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03480819741365459</v>
+        <v>0.08366967976852462</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02253046447105164</v>
+        <v>0.02136319265501234</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03994293374181843</v>
+        <v>0.0840827456501496</v>
       </c>
       <c r="L116" t="n">
-        <v>0.04989602529863571</v>
+        <v>0.04746718053236079</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03938972447355424</v>
+        <v>0.08426113595694676</v>
       </c>
       <c r="N116" t="n">
-        <v>0.07779623090596088</v>
+        <v>0.07326200559182372</v>
       </c>
       <c r="O116" t="n">
-        <v>0.0393066853725196</v>
+        <v>0.0840491870775838</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.05347844753738561</v>
+        <v>0.02207070553385597</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03549071108843213</v>
+        <v>0.08531026172477019</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02260567168595799</v>
+        <v>0.02123139863402305</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04072612852106977</v>
+        <v>0.08573142693740744</v>
       </c>
       <c r="L117" t="n">
-        <v>0.05042733655624693</v>
+        <v>0.04707542341128904</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04016207201225138</v>
+        <v>0.08591331509335748</v>
       </c>
       <c r="N117" t="n">
-        <v>0.07731089641645805</v>
+        <v>0.0730111521872519</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04007740469354939</v>
+        <v>0.08569721035361486</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.0538435253962425</v>
+        <v>0.02093612927012754</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03617322476320967</v>
+        <v>0.08695084368101577</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02276243986041215</v>
+        <v>0.02109986999080656</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04150932330032111</v>
+        <v>0.08738010822466528</v>
       </c>
       <c r="L118" t="n">
-        <v>0.05033136663164883</v>
+        <v>0.04718358708720344</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04093441955094852</v>
+        <v>0.0875654942297682</v>
       </c>
       <c r="N118" t="n">
-        <v>0.07748241275292705</v>
+        <v>0.07266139981444697</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04084812401457918</v>
+        <v>0.08734523362964591</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.05419142890516214</v>
+        <v>0.02080122381438328</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03685573843798721</v>
+        <v>0.08859142563726134</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02292062508293861</v>
+        <v>0.02096957200940258</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04229251807957245</v>
+        <v>0.08902878951192311</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05010779188806616</v>
+        <v>0.04689381940173029</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04170676708964566</v>
+        <v>0.08921767336617892</v>
       </c>
       <c r="N119" t="n">
-        <v>0.07781009481391338</v>
+        <v>0.0722160476935616</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04161884333560898</v>
+        <v>0.08899325690567697</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.05453192047853903</v>
+        <v>0.02164916787370051</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03753825211276476</v>
+        <v>0.09023200759350693</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02281876261830451</v>
+        <v>0.02103530347531862</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04307571285882379</v>
+        <v>0.09067747079918094</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05067716506702777</v>
+        <v>0.04620375367243659</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04247911462834281</v>
+        <v>0.09086985250258964</v>
       </c>
       <c r="N120" t="n">
-        <v>0.07843370505111691</v>
+        <v>0.07145380821717429</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04238956265663878</v>
+        <v>0.09064128018170803</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.05486498958580847</v>
+        <v>0.02147899341316663</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03822076578754229</v>
+        <v>0.09187258954975251</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02291830170398296</v>
+        <v>0.02068212887864757</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04385890763807513</v>
+        <v>0.09232615208643878</v>
       </c>
       <c r="L121" t="n">
-        <v>0.05067653339684583</v>
+        <v>0.04577706495011635</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04325146216703995</v>
+        <v>0.09252203163900036</v>
       </c>
       <c r="N121" t="n">
-        <v>0.07813121570361986</v>
+        <v>0.0711262825261097</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04316028197766858</v>
+        <v>0.09228930345773909</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.05519062569640569</v>
+        <v>0.02129390598053783</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03890327946231983</v>
+        <v>0.0935131715059981</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02280320600600116</v>
+        <v>0.0207121854393717</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04464210241732647</v>
+        <v>0.09397483337369661</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05027078606137358</v>
+        <v>0.04551102447531397</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04402380970573709</v>
+        <v>0.09417421077541108</v>
       </c>
       <c r="N122" t="n">
-        <v>0.07822094812380898</v>
+        <v>0.07044203388370041</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04393100129869837</v>
+        <v>0.09393732673377014</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.05550881827976591</v>
+        <v>0.01909711112357035</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03958579313709737</v>
+        <v>0.09515375346224367</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02287463734657069</v>
+        <v>0.02052861816827785</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04542529719657782</v>
+        <v>0.09562351466095445</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05044480478817215</v>
+        <v>0.04531263017279105</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04479615724443423</v>
+        <v>0.0958263899118218</v>
       </c>
       <c r="N123" t="n">
-        <v>0.07785565051073079</v>
+        <v>0.07021181154357725</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04470172061972816</v>
+        <v>0.0955853500098012</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.05581955680532436</v>
+        <v>0.01989181439002038</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04026830681187492</v>
+        <v>0.09679433541848925</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02283325500127617</v>
+        <v>0.02013457207615288</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04620849197582916</v>
+        <v>0.09727219594821229</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05019950182216165</v>
+        <v>0.0449888799673091</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04556850478313137</v>
+        <v>0.09747856904823253</v>
       </c>
       <c r="N124" t="n">
-        <v>0.07793693887858405</v>
+        <v>0.06894636475937116</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04547243994075796</v>
+        <v>0.09723337328583224</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05612283074251628</v>
+        <v>0.02068122132764419</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04095082048665246</v>
+        <v>0.09843491737473484</v>
       </c>
       <c r="J125" t="n">
-        <v>0.0225797182457023</v>
+        <v>0.02003319217378367</v>
       </c>
       <c r="K125" t="n">
-        <v>0.0469916867550805</v>
+        <v>0.09892087723547012</v>
       </c>
       <c r="L125" t="n">
-        <v>0.0502356144343889</v>
+        <v>0.04414677178362969</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04634085232182852</v>
+        <v>0.09913074818464325</v>
       </c>
       <c r="N125" t="n">
-        <v>0.07766704262121066</v>
+        <v>0.06845644278471313</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04624315926178776</v>
+        <v>0.0988813965618633</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05641862956077694</v>
+        <v>0.01846853748419797</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04163333416143</v>
+        <v>0.1000754993309804</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02251468635543374</v>
+        <v>0.01982762347195706</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04777488153433184</v>
+        <v>0.1005695585227279</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05005387989590063</v>
+        <v>0.04399330354651429</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04711319986052566</v>
+        <v>0.100782927321054</v>
       </c>
       <c r="N126" t="n">
-        <v>0.0776481911324528</v>
+        <v>0.06765279487323411</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04701387858281755</v>
+        <v>0.1005294198378944</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.05670694272954156</v>
+        <v>0.01825696840743798</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04231584783620754</v>
+        <v>0.101716081287226</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02243881860605516</v>
+        <v>0.0195210109814599</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04855807631358319</v>
+        <v>0.1022182398099858</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05005503547774362</v>
+        <v>0.04333547318072453</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04788554739922279</v>
+        <v>0.1024351064574647</v>
       </c>
       <c r="N127" t="n">
-        <v>0.07728261380615237</v>
+        <v>0.06674617027856505</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04778459790384735</v>
+        <v>0.1021774431139254</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.05698775971824539</v>
+        <v>0.01804971964512042</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04299836151098508</v>
+        <v>0.1033566632434716</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02255277427315125</v>
+        <v>0.01941649971307907</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04934127109283452</v>
+        <v>0.1038669210972436</v>
       </c>
       <c r="L128" t="n">
-        <v>0.0501398184509646</v>
+        <v>0.04278027861102202</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04865789493791994</v>
+        <v>0.1040872855938754</v>
       </c>
       <c r="N128" t="n">
-        <v>0.0765725400361516</v>
+        <v>0.06634731825433693</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04855531722487715</v>
+        <v>0.1038254663899565</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05726106999632365</v>
+        <v>0.01884999674500153</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04368087518576262</v>
+        <v>0.1049972451997172</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02235721263230663</v>
+        <v>0.01911723467760142</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05012446587208587</v>
+        <v>0.1055156023845015</v>
       </c>
       <c r="L129" t="n">
-        <v>0.05010896608661033</v>
+        <v>0.04263471776216815</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04943024247661708</v>
+        <v>0.1057394647302861</v>
       </c>
       <c r="N129" t="n">
-        <v>0.07652019921629233</v>
+        <v>0.06566698805418064</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04932603654590694</v>
+        <v>0.1054734896659875</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.05752686303321158</v>
+        <v>0.01965831898513727</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04436338886054016</v>
+        <v>0.1066378271559627</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02225279295910601</v>
+        <v>0.01892636088581381</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05090766065133721</v>
+        <v>0.1071642836717593</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04976321565572758</v>
+        <v>0.04190578855892454</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05020259001531422</v>
+        <v>0.1073916438666968</v>
       </c>
       <c r="N130" t="n">
-        <v>0.07652782074041675</v>
+        <v>0.06521592893172723</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05009675586693674</v>
+        <v>0.1071215129420186</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.05778512829834444</v>
+        <v>0.01745241330660253</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0450459025353177</v>
+        <v>0.1082784091122083</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02204017452913405</v>
+        <v>0.01873790573820781</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05169085543058854</v>
+        <v>0.1088129649590171</v>
       </c>
       <c r="L131" t="n">
-        <v>0.04930330442936309</v>
+        <v>0.04159286221170477</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05097493755401137</v>
+        <v>0.1090438230031076</v>
       </c>
       <c r="N131" t="n">
-        <v>0.07549763400236686</v>
+        <v>0.06456901877786708</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05086747518796653</v>
+        <v>0.1087695362180496</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.05803585526115745</v>
+        <v>0.01923027246548305</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04572841621009525</v>
+        <v>0.1099189910684539</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02202001661797542</v>
+        <v>0.01873191099496206</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05247405020983989</v>
+        <v>0.110461646246275</v>
       </c>
       <c r="L132" t="n">
-        <v>0.04912996967856362</v>
+        <v>0.04134714300775166</v>
       </c>
       <c r="M132" t="n">
-        <v>0.0517472850927085</v>
+        <v>0.1106960021395183</v>
       </c>
       <c r="N132" t="n">
-        <v>0.0750318683959848</v>
+        <v>0.06366142110749606</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05163819450899634</v>
+        <v>0.1104175594940807</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05827903339108588</v>
+        <v>0.01699648520433092</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04641092988487278</v>
+        <v>0.1115595730246995</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02179297850121478</v>
+        <v>0.01841162646622328</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05325724498909123</v>
+        <v>0.1121103275335328</v>
       </c>
       <c r="L133" t="n">
-        <v>0.0492439486743759</v>
+        <v>0.04086689560605369</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05251963263140565</v>
+        <v>0.112348181275929</v>
       </c>
       <c r="N133" t="n">
-        <v>0.0745327533151125</v>
+        <v>0.06270577422280682</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05240891383002613</v>
+        <v>0.1120655827701117</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05851465215756492</v>
+        <v>0.01675564026569827</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04709344355965032</v>
+        <v>0.113200154980945</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02185971945443682</v>
+        <v>0.01818155423585424</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05404043976834258</v>
+        <v>0.1137590088207906</v>
       </c>
       <c r="L134" t="n">
-        <v>0.04894597868784675</v>
+        <v>0.04016213753795694</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05329198017010279</v>
+        <v>0.1140003604123397</v>
       </c>
       <c r="N134" t="n">
-        <v>0.0745025181535921</v>
+        <v>0.06231746568352103</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05317963315105591</v>
+        <v>0.1137136060461428</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.05874270103002985</v>
+        <v>0.01651232639213716</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04777595723442787</v>
+        <v>0.1148407369371906</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0216208987532262</v>
+        <v>0.01794619638771763</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05482363454759392</v>
+        <v>0.1154076901080485</v>
       </c>
       <c r="L135" t="n">
-        <v>0.04863679699002291</v>
+        <v>0.03954288633480776</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05406432770879993</v>
+        <v>0.1156525395487505</v>
       </c>
       <c r="N135" t="n">
-        <v>0.07404339230526552</v>
+        <v>0.06131188304936031</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05395035247208572</v>
+        <v>0.1153616293221739</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.05896316947791587</v>
+        <v>0.01627113232619974</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04845847090920541</v>
+        <v>0.1164813188934362</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02157717567316757</v>
+        <v>0.01761005500567618</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05560682932684526</v>
+        <v>0.1170563713953063</v>
       </c>
       <c r="L136" t="n">
-        <v>0.04841714085195106</v>
+        <v>0.03901915952795224</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05483667524749708</v>
+        <v>0.1173047186851612</v>
       </c>
       <c r="N136" t="n">
-        <v>0.07335760516397499</v>
+        <v>0.06050441388004651</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05472107179311552</v>
+        <v>0.1170096525982049</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05917604697065826</v>
+        <v>0.01703664681043811</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04914098458398295</v>
+        <v>0.1181219008496818</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02122920948984562</v>
+        <v>0.01737763217359264</v>
       </c>
       <c r="K137" t="n">
-        <v>0.0563900241060966</v>
+        <v>0.1187050526825641</v>
       </c>
       <c r="L137" t="n">
-        <v>0.04808774754467807</v>
+        <v>0.03900097464873664</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05560902278619421</v>
+        <v>0.1189568978215719</v>
       </c>
       <c r="N137" t="n">
-        <v>0.07214738612356242</v>
+        <v>0.05951044573530129</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05549179111414531</v>
+        <v>0.118657675874236</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.05938132297769223</v>
+        <v>0.01681345858740436</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04982349825876049</v>
+        <v>0.1197624828059274</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02107765947884502</v>
+        <v>0.01725342997532971</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05717321888534794</v>
+        <v>0.120353733969822</v>
       </c>
       <c r="L138" t="n">
-        <v>0.04794935433925063</v>
+        <v>0.03819834922850715</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05638137032489136</v>
+        <v>0.1206090769579826</v>
       </c>
       <c r="N138" t="n">
-        <v>0.07161496457786992</v>
+        <v>0.0591453661748465</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05626251043517511</v>
+        <v>0.120305699150267</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05957898696845307</v>
+        <v>0.01660615639965059</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05050601193353803</v>
+        <v>0.121403064762173</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02102318491575043</v>
+        <v>0.0169419504947501</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05795641366459928</v>
+        <v>0.1220024152570798</v>
       </c>
       <c r="L139" t="n">
-        <v>0.0476026985067155</v>
+        <v>0.03792130079860997</v>
       </c>
       <c r="M139" t="n">
-        <v>0.0571537178635885</v>
+        <v>0.1222612560943933</v>
       </c>
       <c r="N139" t="n">
-        <v>0.07096256992073957</v>
+        <v>0.05812456275840361</v>
       </c>
       <c r="O139" t="n">
-        <v>0.0570332297562049</v>
+        <v>0.1219537224262981</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.05976902841237594</v>
+        <v>0.01541932898972892</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05118852560831557</v>
+        <v>0.1230436467184186</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02076644507614654</v>
+        <v>0.01674769581571656</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05873960844385063</v>
+        <v>0.1236510965443377</v>
       </c>
       <c r="L140" t="n">
-        <v>0.04734851731811943</v>
+        <v>0.03757984689039137</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05792606540228564</v>
+        <v>0.1239134352308041</v>
       </c>
       <c r="N140" t="n">
-        <v>0.07029243154601339</v>
+        <v>0.0576634230456945</v>
       </c>
       <c r="O140" t="n">
-        <v>0.0578039490772347</v>
+        <v>0.1236017457023291</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.05995143677889614</v>
+        <v>0.01525756510019145</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05187103928309311</v>
+        <v>0.1246842286746641</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02070809923561799</v>
+        <v>0.01657516802209179</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05952280322310197</v>
+        <v>0.1252997778315955</v>
       </c>
       <c r="L141" t="n">
-        <v>0.0471875480445092</v>
+        <v>0.03708400503519746</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05869841294098279</v>
+        <v>0.1255656143672148</v>
       </c>
       <c r="N141" t="n">
-        <v>0.07010677884753336</v>
+        <v>0.0568773345964409</v>
       </c>
       <c r="O141" t="n">
-        <v>0.0585746683982645</v>
+        <v>0.1252497689783602</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.0601262015374489</v>
+        <v>0.01712545347359029</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05255355295787065</v>
+        <v>0.1263248106309097</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02064880666974946</v>
+        <v>0.01652886919773855</v>
       </c>
       <c r="K142" t="n">
-        <v>0.0603059980023533</v>
+        <v>0.1269484591188533</v>
       </c>
       <c r="L142" t="n">
-        <v>0.04692052795693155</v>
+        <v>0.03634379276437447</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05947076047967993</v>
+        <v>0.1272177935036255</v>
       </c>
       <c r="N142" t="n">
-        <v>0.06920784121914159</v>
+        <v>0.05658168497036448</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05934538771929429</v>
+        <v>0.1268977922543912</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.06029331215746941</v>
+        <v>0.01502758285247754</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0532360666326482</v>
+        <v>0.1279653925871553</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02038922665412563</v>
+        <v>0.01641330142651949</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06108919278160465</v>
+        <v>0.1285971404061112</v>
       </c>
       <c r="L143" t="n">
-        <v>0.04654819432643326</v>
+        <v>0.03656922760926867</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06024310801837706</v>
+        <v>0.1288699726400362</v>
       </c>
       <c r="N143" t="n">
-        <v>0.0687978480546802</v>
+        <v>0.05599186172718701</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06011610704032409</v>
+        <v>0.1285458155304223</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.06045275810839297</v>
+        <v>0.01496854197940529</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05391858030742573</v>
+        <v>0.1296059745434009</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02013001846433116</v>
+        <v>0.0162329667922974</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06187238756085599</v>
+        <v>0.130245821693369</v>
       </c>
       <c r="L144" t="n">
-        <v>0.04667128442406107</v>
+        <v>0.03637032710122623</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06101545555707421</v>
+        <v>0.1305221517764469</v>
       </c>
       <c r="N144" t="n">
-        <v>0.06787902874799118</v>
+        <v>0.05622325242663012</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06088682636135388</v>
+        <v>0.1301938388064533</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.06060452885965481</v>
+        <v>0.01695240019217836</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05460109398220327</v>
+        <v>0.1312465564996464</v>
       </c>
       <c r="J145" t="n">
-        <v>0.01997184137595072</v>
+        <v>0.016292367378935</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06265558234010733</v>
+        <v>0.1318945029806268</v>
       </c>
       <c r="L145" t="n">
-        <v>0.0463905355208617</v>
+        <v>0.03615710877159334</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06178780309577134</v>
+        <v>0.1321743309128577</v>
       </c>
       <c r="N145" t="n">
-        <v>0.06735361269291645</v>
+        <v>0.05559124462841564</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06165754568238368</v>
+        <v>0.1318418620824844</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.06074861388069014</v>
+        <v>0.01595686151328005</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05528360765698082</v>
+        <v>0.132887138455892</v>
       </c>
       <c r="J146" t="n">
-        <v>0.01991535466456898</v>
+        <v>0.01618934705138751</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06343877711935868</v>
+        <v>0.1335431842678847</v>
       </c>
       <c r="L146" t="n">
-        <v>0.04580668488788195</v>
+        <v>0.03573495055541132</v>
       </c>
       <c r="M146" t="n">
-        <v>0.0625601506344685</v>
+        <v>0.1338265100492684</v>
       </c>
       <c r="N146" t="n">
-        <v>0.06622382928329834</v>
+        <v>0.0558845027709845</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06242826500341347</v>
+        <v>0.1334898853585154</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.06088500264093422</v>
+        <v>0.01696782516041424</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05596612133175836</v>
+        <v>0.1345277204121376</v>
       </c>
       <c r="J147" t="n">
-        <v>0.0196612176057706</v>
+        <v>0.01639637360658885</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06422197189861001</v>
+        <v>0.1351918655551425</v>
       </c>
       <c r="L147" t="n">
-        <v>0.04582046979616858</v>
+        <v>0.03574697528542822</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06333249817316564</v>
+        <v>0.1354786891856791</v>
       </c>
       <c r="N147" t="n">
-        <v>0.06589190791297861</v>
+        <v>0.05560955918870336</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06319898432444326</v>
+        <v>0.1351379086345465</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.06101368460982229</v>
+        <v>0.0149849539544497</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0566486350065359</v>
+        <v>0.1361683023683832</v>
       </c>
       <c r="J148" t="n">
-        <v>0.01951008947514027</v>
+        <v>0.01640960930686471</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06500516667786137</v>
+        <v>0.1368405468424003</v>
       </c>
       <c r="L148" t="n">
-        <v>0.04553262751676831</v>
+        <v>0.03577296898760612</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06410484571186277</v>
+        <v>0.1371308683220898</v>
       </c>
       <c r="N148" t="n">
-        <v>0.06456007797579955</v>
+        <v>0.05555579334203553</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06396970364547307</v>
+        <v>0.1367859319105776</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.06113464925678956</v>
+        <v>0.01700791071625525</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05733114868131343</v>
+        <v>0.1378088843246288</v>
       </c>
       <c r="J149" t="n">
-        <v>0.01956262954826267</v>
+        <v>0.01642872334073281</v>
       </c>
       <c r="K149" t="n">
-        <v>0.0657883614571127</v>
+        <v>0.1384892281296582</v>
       </c>
       <c r="L149" t="n">
-        <v>0.04524389532072795</v>
+        <v>0.03581219557739071</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06487719325055992</v>
+        <v>0.1387830474585006</v>
       </c>
       <c r="N149" t="n">
-        <v>0.06393056886560311</v>
+        <v>0.05622207455869777</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06474042296650286</v>
+        <v>0.1384339551866086</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.06124788605127132</v>
+        <v>0.01503635826669969</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05801366235609098</v>
+        <v>0.1394494662808744</v>
       </c>
       <c r="J150" t="n">
-        <v>0.01931949710072244</v>
+        <v>0.0162533848967109</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06657155623636404</v>
+        <v>0.140137909416916</v>
       </c>
       <c r="L150" t="n">
-        <v>0.04475501047909419</v>
+        <v>0.03626391897022777</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06564954078925705</v>
+        <v>0.1404352265949113</v>
       </c>
       <c r="N150" t="n">
-        <v>0.06350560997623128</v>
+        <v>0.05620727216640703</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06551114228753266</v>
+        <v>0.1400819784626397</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.06135338446270276</v>
+        <v>0.01706995942665183</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05869617603086853</v>
+        <v>0.1410900482371199</v>
       </c>
       <c r="J151" t="n">
-        <v>0.01908135140810423</v>
+        <v>0.0162832631633167</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06735475101561539</v>
+        <v>0.1417865907041738</v>
       </c>
       <c r="L151" t="n">
-        <v>0.04426671026291384</v>
+        <v>0.03632740308156304</v>
       </c>
       <c r="M151" t="n">
-        <v>0.0664218883279542</v>
+        <v>0.142087405731322</v>
       </c>
       <c r="N151" t="n">
-        <v>0.06288743070152614</v>
+        <v>0.05601025549288002</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06628186160856245</v>
+        <v>0.1417300017386707</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.06145113396051917</v>
+        <v>0.01610837701698047</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05937868970564606</v>
+        <v>0.1427306301933655</v>
       </c>
       <c r="J152" t="n">
-        <v>0.01894885174599276</v>
+        <v>0.01641802732906797</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06813794579486672</v>
+        <v>0.1434352719914317</v>
       </c>
       <c r="L152" t="n">
-        <v>0.04427973194323365</v>
+        <v>0.0363019118268422</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06719423586665134</v>
+        <v>0.1437395848677327</v>
       </c>
       <c r="N152" t="n">
-        <v>0.06207826043532982</v>
+        <v>0.05582989386583376</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06705258092959225</v>
+        <v>0.1433780250147018</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.06154112401415573</v>
+        <v>0.01515127385855441</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0600612033804236</v>
+        <v>0.1443712121496111</v>
       </c>
       <c r="J153" t="n">
-        <v>0.01902265738997268</v>
+        <v>0.01645734658248242</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06892114057411806</v>
+        <v>0.1450839532786895</v>
       </c>
       <c r="L153" t="n">
-        <v>0.04369481279110035</v>
+        <v>0.03608670912151107</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06796658340534849</v>
+        <v>0.1453917640041434</v>
       </c>
       <c r="N153" t="n">
-        <v>0.06108032857148427</v>
+        <v>0.05616505661298493</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06782330025062205</v>
+        <v>0.1450260482907328</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.06162334409304772</v>
+        <v>0.01519831277224246</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06074371705520115</v>
+        <v>0.1460117941058567</v>
       </c>
       <c r="J154" t="n">
-        <v>0.01870342761562864</v>
+        <v>0.01640089011207777</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06970433535336941</v>
+        <v>0.1467326345659473</v>
       </c>
       <c r="L154" t="n">
-        <v>0.04371269007756071</v>
+        <v>0.03638105888101539</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06873893094404564</v>
+        <v>0.1470439431405542</v>
       </c>
       <c r="N154" t="n">
-        <v>0.06039586450383161</v>
+        <v>0.05641461306205053</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06859401957165184</v>
+        <v>0.1466740715667639</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.06169778366663037</v>
+        <v>0.01724915657891343</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06142623072997868</v>
+        <v>0.1476523760621022</v>
       </c>
       <c r="J155" t="n">
-        <v>0.01879182169854535</v>
+        <v>0.01654832710637179</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07048753013262075</v>
+        <v>0.1483813158532052</v>
       </c>
       <c r="L155" t="n">
-        <v>0.04353410107366149</v>
+        <v>0.03678422502080092</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06951127848274277</v>
+        <v>0.1486961222769649</v>
       </c>
       <c r="N155" t="n">
-        <v>0.05972709762621392</v>
+        <v>0.0567774325407473</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06936473889268165</v>
+        <v>0.148322094842795</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.06176443220433891</v>
+        <v>0.0173034680994361</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06210874440475623</v>
+        <v>0.1492929580183478</v>
       </c>
       <c r="J156" t="n">
-        <v>0.01858849891430743</v>
+        <v>0.01669932675388218</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07127072491187209</v>
+        <v>0.150029997140463</v>
       </c>
       <c r="L156" t="n">
-        <v>0.04335978305044941</v>
+        <v>0.03689547145631336</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07028362602143992</v>
+        <v>0.1503483014133756</v>
       </c>
       <c r="N156" t="n">
-        <v>0.05917625733247317</v>
+        <v>0.05715238437679204</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07013545821371144</v>
+        <v>0.149970118118826</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.06182327917560861</v>
+        <v>0.01736182274910377</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06279125807953377</v>
+        <v>0.1509335399745934</v>
       </c>
       <c r="J157" t="n">
-        <v>0.01859411853849958</v>
+        <v>0.01665355824312668</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07205391969112344</v>
+        <v>0.1516786784277209</v>
       </c>
       <c r="L157" t="n">
-        <v>0.04269047327897127</v>
+        <v>0.03671406210299849</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07105597356013706</v>
+        <v>0.1520004805497863</v>
       </c>
       <c r="N157" t="n">
-        <v>0.0586455730164514</v>
+        <v>0.05663833789790179</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07090617753474122</v>
+        <v>0.1516181413948571</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.06187431404987469</v>
+        <v>0.01545992403932549</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06347377175431131</v>
+        <v>0.152574121930839</v>
       </c>
       <c r="J158" t="n">
-        <v>0.01840721306832219</v>
+        <v>0.01682257925651121</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07283711447037478</v>
+        <v>0.1533273597149787</v>
       </c>
       <c r="L158" t="n">
-        <v>0.0427227717366343</v>
+        <v>0.0366506245686942</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07182832109883419</v>
+        <v>0.153652659686197</v>
       </c>
       <c r="N158" t="n">
-        <v>0.05792115042042345</v>
+        <v>0.05698021229381284</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07167689685577101</v>
+        <v>0.1532661646708881</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.06191752629657236</v>
+        <v>0.01760892273798233</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06415628542908886</v>
+        <v>0.1542147038870846</v>
       </c>
       <c r="J159" t="n">
-        <v>0.01832435910210063</v>
+        <v>0.01684280735318608</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07362030924962611</v>
+        <v>0.1549760410022365</v>
       </c>
       <c r="L159" t="n">
-        <v>0.04204990082536267</v>
+        <v>0.03729170685100855</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07260066863753134</v>
+        <v>0.1553048388226078</v>
       </c>
       <c r="N159" t="n">
-        <v>0.056977657672514</v>
+        <v>0.05749862274644685</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07244761617680082</v>
+        <v>0.1549141879469192</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.0619529053851369</v>
+        <v>0.01679864022091432</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06483879910386639</v>
+        <v>0.1558552858433301</v>
       </c>
       <c r="J160" t="n">
-        <v>0.01834522753404932</v>
+        <v>0.01710794022666448</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07440350402887747</v>
+        <v>0.1566247222894944</v>
       </c>
       <c r="L160" t="n">
-        <v>0.04207176138651714</v>
+        <v>0.03773743423557918</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07337301617622848</v>
+        <v>0.1569570179590185</v>
       </c>
       <c r="N160" t="n">
-        <v>0.05691600221943355</v>
+        <v>0.05816914244168331</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07321833549783062</v>
+        <v>0.1565622112229502</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.06198044078500353</v>
+        <v>0.0180188978639615</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06552131277864393</v>
+        <v>0.1574958677995758</v>
       </c>
       <c r="J161" t="n">
-        <v>0.01806954064717019</v>
+        <v>0.01710799147673873</v>
       </c>
       <c r="K161" t="n">
-        <v>0.0751866988081288</v>
+        <v>0.1582734035767522</v>
       </c>
       <c r="L161" t="n">
-        <v>0.04188837396382639</v>
+        <v>0.03806558610631669</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07414536371492562</v>
+        <v>0.1586091970954292</v>
       </c>
       <c r="N161" t="n">
-        <v>0.0556375153645845</v>
+        <v>0.05885763911226871</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07398905481886041</v>
+        <v>0.1582102344989813</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.06200012196560749</v>
+        <v>0.01625951704296388</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06620382645342147</v>
+        <v>0.1591364497558213</v>
       </c>
       <c r="J162" t="n">
-        <v>0.01819702072446519</v>
+        <v>0.01753297470320121</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07596989358738014</v>
+        <v>0.15992208486401</v>
       </c>
       <c r="L162" t="n">
-        <v>0.041199759101019</v>
+        <v>0.03825394184713168</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07491771125362276</v>
+        <v>0.1602613762318399</v>
       </c>
       <c r="N162" t="n">
-        <v>0.05524352841136937</v>
+        <v>0.0593299804909494</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07475977413989021</v>
+        <v>0.1598582577750123</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.06201193839638403</v>
+        <v>0.01751031913376152</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06688634012819901</v>
+        <v>0.1607770317120669</v>
       </c>
       <c r="J163" t="n">
-        <v>0.01792739004893625</v>
+        <v>0.01777290350584418</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07675308836663149</v>
+        <v>0.1615707661512679</v>
       </c>
       <c r="L163" t="n">
-        <v>0.04120593734182373</v>
+        <v>0.03868028084193459</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07569005879231989</v>
+        <v>0.1619135553682506</v>
       </c>
       <c r="N163" t="n">
-        <v>0.05473537266319056</v>
+        <v>0.0603520343104717</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07553049346092</v>
+        <v>0.1615062810510434</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.06201587954676838</v>
+        <v>0.01876112551219444</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06756885380297656</v>
+        <v>0.1624176136683125</v>
       </c>
       <c r="J164" t="n">
-        <v>0.01806037090358531</v>
+        <v>0.01801779148445999</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07753628314588283</v>
+        <v>0.1632194474385257</v>
       </c>
       <c r="L164" t="n">
-        <v>0.04060692922996925</v>
+        <v>0.03972238247463597</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07646240633101704</v>
+        <v>0.1635657345046614</v>
       </c>
       <c r="N164" t="n">
-        <v>0.05371437942345053</v>
+        <v>0.06168966830358213</v>
       </c>
       <c r="O164" t="n">
-        <v>0.0763012127819498</v>
+        <v>0.1631543043270745</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.06201587954676836</v>
+        <v>0.01900175755410269</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06756885380297656</v>
+        <v>0.1640581956245581</v>
       </c>
       <c r="J165" t="n">
-        <v>0.01799568557141432</v>
+        <v>0.01805765223884095</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07831947792513416</v>
+        <v>0.1648681287257835</v>
       </c>
       <c r="L165" t="n">
-        <v>0.04030275530918423</v>
+        <v>0.0401580261291464</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07723475386971419</v>
+        <v>0.1652179136410721</v>
       </c>
       <c r="N165" t="n">
-        <v>0.05298187999555165</v>
+        <v>0.06180875020302712</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07707193210297961</v>
+        <v>0.1648023276031055</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.06099195162638094</v>
+        <v>0.01722203663532627</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06756858527451254</v>
+        <v>0.1656987775808036</v>
       </c>
       <c r="J166" t="n">
-        <v>0.01773305633542521</v>
+        <v>0.01848249936877944</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07910267270438551</v>
+        <v>0.1665168100130414</v>
       </c>
       <c r="L166" t="n">
-        <v>0.04049343612319731</v>
+        <v>0.04056499118937631</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07800710140841133</v>
+        <v>0.1668700927774828</v>
       </c>
       <c r="N166" t="n">
-        <v>0.05223920568289653</v>
+        <v>0.06317514774155286</v>
       </c>
       <c r="O166" t="n">
-        <v>0.0778426514240094</v>
+        <v>0.1664503508791365</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.05997934620877877</v>
+        <v>0.01741243836698109</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06756831674604853</v>
+        <v>0.1673393595370492</v>
       </c>
       <c r="J167" t="n">
-        <v>0.01777220547861992</v>
+        <v>0.0184823464740677</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07988586748363685</v>
+        <v>0.1681654913002992</v>
       </c>
       <c r="L167" t="n">
-        <v>0.04017899221573715</v>
+        <v>0.0412210570392364</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07877944894710848</v>
+        <v>0.1685222719138935</v>
       </c>
       <c r="N167" t="n">
-        <v>0.05158768778888739</v>
+        <v>0.06375472865190585</v>
       </c>
       <c r="O167" t="n">
-        <v>0.0786133707450392</v>
+        <v>0.1680983741551676</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.05897856785390665</v>
+        <v>0.01758804938831494</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0675680482175845</v>
+        <v>0.1689799414932948</v>
       </c>
       <c r="J168" t="n">
-        <v>0.0176128552840004</v>
+        <v>0.01885636660480383</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08066906226288818</v>
+        <v>0.169814172587557</v>
       </c>
       <c r="L168" t="n">
-        <v>0.03935944413053252</v>
+        <v>0.0412141768597736</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07955179648580561</v>
+        <v>0.1701744510503042</v>
       </c>
       <c r="N168" t="n">
-        <v>0.05082865761692679</v>
+        <v>0.06414827293620706</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07938409006606899</v>
+        <v>0.1697463974311987</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.05799012112183971</v>
+        <v>0.01775931499193827</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06756777968912049</v>
+        <v>0.1706205234495404</v>
       </c>
       <c r="J169" t="n">
-        <v>0.01765472803456859</v>
+        <v>0.01882470234827822</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08145225704213954</v>
+        <v>0.1714628538748149</v>
       </c>
       <c r="L169" t="n">
-        <v>0.03913481241131195</v>
+        <v>0.04198906936832084</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08032414402450276</v>
+        <v>0.171826630186715</v>
       </c>
       <c r="N169" t="n">
-        <v>0.05036344647041724</v>
+        <v>0.06452353180362291</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08015480938709878</v>
+        <v>0.1713944207072297</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.05701451057252216</v>
+        <v>0.0179265580744449</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06756751116065647</v>
+        <v>0.172261105405786</v>
       </c>
       <c r="J170" t="n">
-        <v>0.01759754601332641</v>
+        <v>0.01908896307475096</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08223545182139087</v>
+        <v>0.1731115351620727</v>
       </c>
       <c r="L170" t="n">
-        <v>0.03870511760180426</v>
+        <v>0.04215477202869605</v>
       </c>
       <c r="M170" t="n">
-        <v>0.0810964915631999</v>
+        <v>0.1734788093231257</v>
       </c>
       <c r="N170" t="n">
-        <v>0.04949338565276107</v>
+        <v>0.0653848982822085</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08092552870812858</v>
+        <v>0.1730424439832608</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.05605224076594209</v>
+        <v>0.01809010153242865</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06756724263219245</v>
+        <v>0.1739016873620315</v>
       </c>
       <c r="J171" t="n">
-        <v>0.01754103150327584</v>
+        <v>0.01914946558289353</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08301864660064222</v>
+        <v>0.1747602164493306</v>
       </c>
       <c r="L171" t="n">
-        <v>0.03887038024573811</v>
+        <v>0.04271198974572091</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08186883910189703</v>
+        <v>0.1751309884595364</v>
       </c>
       <c r="N171" t="n">
-        <v>0.04851980646736065</v>
+        <v>0.06603345515021208</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08169624802915837</v>
+        <v>0.1746904672592918</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.05510381626204651</v>
+        <v>0.01825026826248334</v>
       </c>
       <c r="G172" t="n">
-        <v>0.06756697410372843</v>
+        <v>0.1755422693182771</v>
       </c>
       <c r="J172" t="n">
-        <v>0.01738490678741875</v>
+        <v>0.01950652667137745</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08380184137989356</v>
+        <v>0.1764088977365884</v>
       </c>
       <c r="L172" t="n">
-        <v>0.03843062088684204</v>
+        <v>0.042861427424217</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08264118664059418</v>
+        <v>0.1767831675959471</v>
       </c>
       <c r="N172" t="n">
-        <v>0.0480440402176186</v>
+        <v>0.06607028518588159</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08246696735018817</v>
+        <v>0.1763384905353229</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.05416974162090607</v>
+        <v>0.01840738116120275</v>
       </c>
       <c r="G173" t="n">
-        <v>0.06756670557526441</v>
+        <v>0.1771828512745227</v>
       </c>
       <c r="J173" t="n">
-        <v>0.01742889414875715</v>
+        <v>0.01966046313887417</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08458503615914489</v>
+        <v>0.1780575790238462</v>
       </c>
       <c r="L173" t="n">
-        <v>0.03778586006884482</v>
+        <v>0.04290378996900593</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08341353417929132</v>
+        <v>0.1784353467323578</v>
       </c>
       <c r="N173" t="n">
-        <v>0.04726741820693731</v>
+        <v>0.06699647116746499</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08323768667121796</v>
+        <v>0.1779865138113539</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.05325052140246719</v>
+        <v>0.0205617631251807</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0675664370468004</v>
+        <v>0.1788234332307683</v>
       </c>
       <c r="J174" t="n">
-        <v>0.01727271587029294</v>
+        <v>0.0197115917840552</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08536823093839624</v>
+        <v>0.1797062603111041</v>
       </c>
       <c r="L174" t="n">
-        <v>0.03733611833547515</v>
+        <v>0.04323978228490927</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08418588171798846</v>
+        <v>0.1800875258687686</v>
       </c>
       <c r="N174" t="n">
-        <v>0.04599127173871909</v>
+        <v>0.06781309587321038</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08400840599224776</v>
+        <v>0.179634537087385</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.05234666016671795</v>
+        <v>0.018713737051011</v>
       </c>
       <c r="G175" t="n">
-        <v>0.06756616851833638</v>
+        <v>0.1804640151870139</v>
       </c>
       <c r="J175" t="n">
-        <v>0.0173160942350281</v>
+        <v>0.01986022940559203</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08615142571764758</v>
+        <v>0.1813549415983619</v>
       </c>
       <c r="L175" t="n">
-        <v>0.03698141623046167</v>
+        <v>0.04367010927674869</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08495822925668561</v>
+        <v>0.1817397050051793</v>
       </c>
       <c r="N175" t="n">
-        <v>0.04541693211636649</v>
+        <v>0.06792124208136574</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08477912531327755</v>
+        <v>0.1812825603634161</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.05145866247360806</v>
+        <v>0.01986362583528747</v>
       </c>
       <c r="G176" t="n">
-        <v>0.06756589998987236</v>
+        <v>0.1821045971432594</v>
       </c>
       <c r="J176" t="n">
-        <v>0.01725875152596451</v>
+        <v>0.02010669280215614</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08693462049689893</v>
+        <v>0.1830036228856197</v>
       </c>
       <c r="L176" t="n">
-        <v>0.03682177429753306</v>
+        <v>0.04389547584934578</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08573057679538275</v>
+        <v>0.18339188414159</v>
       </c>
       <c r="N176" t="n">
-        <v>0.044445730643282</v>
+        <v>0.06872199257017919</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08554984463430736</v>
+        <v>0.1829305836394471</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.05058703288320288</v>
+        <v>0.02001175237460392</v>
       </c>
       <c r="G177" t="n">
-        <v>0.06756563146140834</v>
+        <v>0.183745179099505</v>
       </c>
       <c r="J177" t="n">
-        <v>0.01720041002610415</v>
+        <v>0.02015129877241903</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08771781527615026</v>
+        <v>0.1846523041728776</v>
       </c>
       <c r="L177" t="n">
-        <v>0.03625721308041796</v>
+        <v>0.04451658690752205</v>
       </c>
       <c r="M177" t="n">
-        <v>0.0865029243340799</v>
+        <v>0.1850440632780007</v>
       </c>
       <c r="N177" t="n">
-        <v>0.04397899862286792</v>
+        <v>0.06921643011789874</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08632056395533716</v>
+        <v>0.1845786069154782</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04973227595545143</v>
+        <v>0.01915843956555414</v>
       </c>
       <c r="G178" t="n">
-        <v>0.06756536293294434</v>
+        <v>0.1853857610557506</v>
       </c>
       <c r="J178" t="n">
-        <v>0.01704079201844895</v>
+        <v>0.02019436411505221</v>
       </c>
       <c r="K178" t="n">
-        <v>0.0885010100554016</v>
+        <v>0.1863009854601354</v>
       </c>
       <c r="L178" t="n">
-        <v>0.0362877531228451</v>
+        <v>0.04503414735609923</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08727527187277703</v>
+        <v>0.1866962424144114</v>
       </c>
       <c r="N178" t="n">
-        <v>0.04351806735852681</v>
+        <v>0.06980563750277224</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08709128327636695</v>
+        <v>0.1862266301915092</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04889489625034178</v>
+        <v>0.02030968424748594</v>
       </c>
       <c r="G179" t="n">
-        <v>0.06756509440448032</v>
+        <v>0.1870263430119962</v>
       </c>
       <c r="J179" t="n">
-        <v>0.01697961978600086</v>
+        <v>0.02043803237149933</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08928420483465295</v>
+        <v>0.1879496667473932</v>
       </c>
       <c r="L179" t="n">
-        <v>0.03561341496854306</v>
+        <v>0.04535066480077504</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08804761941147418</v>
+        <v>0.1883484215508222</v>
       </c>
       <c r="N179" t="n">
-        <v>0.04236426815366107</v>
+        <v>0.06989773995545712</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08786200259739674</v>
+        <v>0.1878746534675403</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04807539832782669</v>
+        <v>0.01946892365279901</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0675648258760163</v>
+        <v>0.1886669249682418</v>
       </c>
       <c r="J180" t="n">
-        <v>0.01701661561176181</v>
+        <v>0.02059013924726193</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09006739961390429</v>
+        <v>0.1895983480346511</v>
       </c>
       <c r="L180" t="n">
-        <v>0.03523421916124067</v>
+        <v>0.04558455974161021</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08881996695017132</v>
+        <v>0.1900006006872329</v>
       </c>
       <c r="N180" t="n">
-        <v>0.04171893231167312</v>
+        <v>0.07071887807057492</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08863272191842653</v>
+        <v>0.1895226767435713</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04727428674796552</v>
+        <v>0.02063062789259595</v>
       </c>
       <c r="G181" t="n">
-        <v>0.06756455734755228</v>
+        <v>0.1903075069244873</v>
       </c>
       <c r="J181" t="n">
-        <v>0.01695150177873374</v>
+        <v>0.02084689823873424</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09085059439315564</v>
+        <v>0.1912470293219089</v>
       </c>
       <c r="L181" t="n">
-        <v>0.03515018624466648</v>
+        <v>0.04603093757035109</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08959231448886845</v>
+        <v>0.1916527798236436</v>
       </c>
       <c r="N181" t="n">
-        <v>0.04058339113596543</v>
+        <v>0.071055299052528</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08940344123945633</v>
+        <v>0.1911707000196024</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.0464920660707103</v>
+        <v>0.02078925017289693</v>
       </c>
       <c r="G182" t="n">
-        <v>0.06756428881908827</v>
+        <v>0.1919480888807329</v>
       </c>
       <c r="J182" t="n">
-        <v>0.01678400056991859</v>
+        <v>0.02100286730348686</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09163378917240697</v>
+        <v>0.1928957106091667</v>
       </c>
       <c r="L182" t="n">
-        <v>0.03486133676254921</v>
+        <v>0.04587768926542315</v>
       </c>
       <c r="M182" t="n">
-        <v>0.0903646620275656</v>
+        <v>0.1933049589600543</v>
       </c>
       <c r="N182" t="n">
-        <v>0.03995897592994041</v>
+        <v>0.07148840268074202</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09017416056048613</v>
+        <v>0.1928187232956335</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.045729240856049</v>
+        <v>0.01993924369972218</v>
       </c>
       <c r="G183" t="n">
-        <v>0.06756402029062425</v>
+        <v>0.1935886708369785</v>
       </c>
       <c r="J183" t="n">
-        <v>0.01691383426831831</v>
+        <v>0.02105260439909032</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09241698395165832</v>
+        <v>0.1945443918964246</v>
       </c>
       <c r="L183" t="n">
-        <v>0.03396769125861751</v>
+        <v>0.04641270580525181</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09113700956626274</v>
+        <v>0.1949571380964651</v>
       </c>
       <c r="N183" t="n">
-        <v>0.03964701799700054</v>
+        <v>0.07189958873464253</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09094487988151592</v>
+        <v>0.1944667465716645</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.04498631566393781</v>
+        <v>0.02207506167909186</v>
       </c>
       <c r="G184" t="n">
-        <v>0.06756375176216023</v>
+        <v>0.1952292527932241</v>
       </c>
       <c r="J184" t="n">
-        <v>0.01684072515693481</v>
+        <v>0.02109066748311518</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09320017873090966</v>
+        <v>0.1961930731836824</v>
       </c>
       <c r="L184" t="n">
-        <v>0.03376927027660009</v>
+        <v>0.04652387816826245</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09190935710495989</v>
+        <v>0.1966093172328758</v>
       </c>
       <c r="N184" t="n">
-        <v>0.03844884864054815</v>
+        <v>0.07257025699365499</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09171559920254573</v>
+        <v>0.1961147698476955</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.04426379505442944</v>
+        <v>0.02119115731702619</v>
       </c>
       <c r="G185" t="n">
-        <v>0.06756348323369621</v>
+        <v>0.1968698347494697</v>
       </c>
       <c r="J185" t="n">
-        <v>0.0167643955187701</v>
+        <v>0.02131161451313199</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09398337351016099</v>
+        <v>0.1978417544709402</v>
       </c>
       <c r="L185" t="n">
-        <v>0.03316609436022558</v>
+        <v>0.0468990973328805</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09268170464365703</v>
+        <v>0.1982614963692865</v>
       </c>
       <c r="N185" t="n">
-        <v>0.03816579916398583</v>
+        <v>0.07278180723720518</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09248631852357551</v>
+        <v>0.1977627931237266</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.04356218358747917</v>
+        <v>0.02128198381954532</v>
       </c>
       <c r="G186" t="n">
-        <v>0.06756321470523219</v>
+        <v>0.1985104167057152</v>
       </c>
       <c r="J186" t="n">
-        <v>0.01658456763682602</v>
+        <v>0.02131000344671133</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09476656828941235</v>
+        <v>0.1994904357581981</v>
       </c>
       <c r="L186" t="n">
-        <v>0.03315818405322271</v>
+        <v>0.04732625427753134</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09345405218235417</v>
+        <v>0.1999136755056972</v>
       </c>
       <c r="N186" t="n">
-        <v>0.03749920087071595</v>
+        <v>0.07321563924471858</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09325703784460532</v>
+        <v>0.1994108163997577</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.04288198582307498</v>
+        <v>0.02234573169138279</v>
       </c>
       <c r="G187" t="n">
-        <v>0.06756294617676818</v>
+        <v>0.2001509986619608</v>
       </c>
       <c r="J187" t="n">
-        <v>0.01660096379410457</v>
+        <v>0.02138052951113489</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09554976306866368</v>
+        <v>0.2011391170454559</v>
       </c>
       <c r="L187" t="n">
-        <v>0.03264555989932005</v>
+        <v>0.04769323998064043</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09422639972105132</v>
+        <v>0.2015658546421079</v>
       </c>
       <c r="N187" t="n">
-        <v>0.03655038506414104</v>
+        <v>0.0736539866045004</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09402775716563511</v>
+        <v>0.2010588396757887</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.04222370632117682</v>
+        <v>0.02140384488153826</v>
       </c>
       <c r="G188" t="n">
-        <v>0.06756267764830415</v>
+        <v>0.2017915806182064</v>
       </c>
       <c r="J188" t="n">
-        <v>0.01651330627360767</v>
+        <v>0.02153745306584334</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09633295784791503</v>
+        <v>0.2027877983327138</v>
       </c>
       <c r="L188" t="n">
-        <v>0.03242824244224643</v>
+        <v>0.04761998258234246</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09499874725974845</v>
+        <v>0.2032180337785187</v>
       </c>
       <c r="N188" t="n">
-        <v>0.03642068304766327</v>
+        <v>0.07404857027020478</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09479847648666491</v>
+        <v>0.2027068629518197</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.04158784964183</v>
+        <v>0.02046067213178758</v>
       </c>
       <c r="G189" t="n">
-        <v>0.06756240911984014</v>
+        <v>0.203432162574452</v>
       </c>
       <c r="J189" t="n">
-        <v>0.01622131735833729</v>
+        <v>0.02159312864114085</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09711615262716637</v>
+        <v>0.2044364796199716</v>
       </c>
       <c r="L189" t="n">
-        <v>0.0319062522257304</v>
+        <v>0.04744378752228659</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09577109479844559</v>
+        <v>0.2048702129149294</v>
       </c>
       <c r="N189" t="n">
-        <v>0.0359114261246854</v>
+        <v>0.07383888471811201</v>
       </c>
       <c r="O189" t="n">
-        <v>0.0955691958076947</v>
+        <v>0.2043548862278508</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.04097286005837576</v>
+        <v>0.02051619302917829</v>
       </c>
       <c r="G190" t="n">
-        <v>0.06756214059137612</v>
+        <v>0.2050727445306976</v>
       </c>
       <c r="J190" t="n">
-        <v>0.01632471933129534</v>
+        <v>0.02164753620957487</v>
       </c>
       <c r="K190" t="n">
-        <v>0.0978993474064177</v>
+        <v>0.2060851609072294</v>
       </c>
       <c r="L190" t="n">
-        <v>0.03157960979350069</v>
+        <v>0.04806478408489606</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09654344233714274</v>
+        <v>0.2065223920513401</v>
       </c>
       <c r="N190" t="n">
-        <v>0.03462394559860965</v>
+        <v>0.07412486149689346</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09633991512872449</v>
+        <v>0.2060029095038819</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.04036688041109512</v>
+        <v>0.02157038716075804</v>
       </c>
       <c r="G191" t="n">
-        <v>0.06756187206291212</v>
+        <v>0.2067133264869432</v>
       </c>
       <c r="J191" t="n">
-        <v>0.01602323447548377</v>
+        <v>0.02170065574369288</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09868254218566905</v>
+        <v>0.2077338421944873</v>
       </c>
       <c r="L191" t="n">
-        <v>0.03074833568928592</v>
+        <v>0.04808292770733302</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09731578987583987</v>
+        <v>0.2081745711877508</v>
       </c>
       <c r="N191" t="n">
-        <v>0.03425957277283859</v>
+        <v>0.0740064321552204</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09711063444975429</v>
+        <v>0.2076509327799129</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03976835497333217</v>
+        <v>0.02262323411357436</v>
       </c>
       <c r="G192" t="n">
-        <v>0.06756160353444808</v>
+        <v>0.2083539084431887</v>
       </c>
       <c r="J192" t="n">
-        <v>0.01591658507390452</v>
+        <v>0.02185246721604231</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09946573696492039</v>
+        <v>0.2093825234817451</v>
       </c>
       <c r="L192" t="n">
-        <v>0.03061245045681488</v>
+        <v>0.04819817382675942</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09808813741453702</v>
+        <v>0.2098267503241615</v>
       </c>
       <c r="N192" t="n">
-        <v>0.03361963895077463</v>
+        <v>0.07418352824176422</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09788135377078408</v>
+        <v>0.209298956055944</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03917778830512711</v>
+        <v>0.02167471347467484</v>
       </c>
       <c r="G193" t="n">
-        <v>0.06756133500598407</v>
+        <v>0.2099944903994343</v>
       </c>
       <c r="J193" t="n">
-        <v>0.01579470139693896</v>
+        <v>0.02190295059917063</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1002489317441717</v>
+        <v>0.2110312047690029</v>
       </c>
       <c r="L193" t="n">
-        <v>0.03015484474641672</v>
+        <v>0.04791047788033739</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09886048495323416</v>
+        <v>0.2114789294605723</v>
       </c>
       <c r="N193" t="n">
-        <v>0.0331012704850619</v>
+        <v>0.07425608130519629</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09865207309181388</v>
+        <v>0.210946979331975</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03859568496644172</v>
+        <v>0.02172480483110707</v>
       </c>
       <c r="G194" t="n">
-        <v>0.06756106647752005</v>
+        <v>0.2116350723556799</v>
       </c>
       <c r="J194" t="n">
-        <v>0.01564610659793599</v>
+        <v>0.02185208586562533</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1010321265234231</v>
+        <v>0.2126798860562608</v>
       </c>
       <c r="L194" t="n">
-        <v>0.02965640768257891</v>
+        <v>0.04821979530522894</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09963283249193129</v>
+        <v>0.213131108596983</v>
       </c>
       <c r="N194" t="n">
-        <v>0.03299928991559742</v>
+        <v>0.07482402289418788</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09942279241284369</v>
+        <v>0.2125950026080061</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.0380225495172641</v>
+        <v>0.0217734877699186</v>
       </c>
       <c r="G195" t="n">
-        <v>0.06756079794905605</v>
+        <v>0.2132756543119255</v>
       </c>
       <c r="J195" t="n">
-        <v>0.01547240680689002</v>
+        <v>0.02179985298795381</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1018153213026744</v>
+        <v>0.2143285673435186</v>
       </c>
       <c r="L195" t="n">
-        <v>0.02901994919049397</v>
+        <v>0.0481260815385961</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1004051800306284</v>
+        <v>0.2147832877333937</v>
       </c>
       <c r="N195" t="n">
-        <v>0.03241277819248922</v>
+        <v>0.07488728455741051</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1001935117338735</v>
+        <v>0.2142430258840372</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.0374588865175579</v>
+        <v>0.02082074187815704</v>
       </c>
       <c r="G196" t="n">
-        <v>0.06756052942059201</v>
+        <v>0.2149162362681711</v>
       </c>
       <c r="J196" t="n">
-        <v>0.0152752515900646</v>
+        <v>0.02194623193870358</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1025985160819258</v>
+        <v>0.2159772486307764</v>
       </c>
       <c r="L196" t="n">
-        <v>0.02824833172006952</v>
+        <v>0.04872929201760093</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1011775275693256</v>
+        <v>0.2164354668698044</v>
       </c>
       <c r="N196" t="n">
-        <v>0.03214082665827861</v>
+        <v>0.07524579784353547</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1009642310549033</v>
+        <v>0.2158910491600682</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03690520052736027</v>
+        <v>0.02086654674286995</v>
       </c>
       <c r="G197" t="n">
-        <v>0.06756026089212801</v>
+        <v>0.2165568182244166</v>
       </c>
       <c r="J197" t="n">
-        <v>0.01525629051372326</v>
+        <v>0.02199120269042208</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1033817108611771</v>
+        <v>0.2176259299180343</v>
       </c>
       <c r="L197" t="n">
-        <v>0.0280444177212133</v>
+        <v>0.04882938217940555</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1019498751080227</v>
+        <v>0.2180876460062151</v>
       </c>
       <c r="N197" t="n">
-        <v>0.03138252665550667</v>
+        <v>0.07499949430123398</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1017349503759331</v>
+        <v>0.2175390724360993</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.0363619961066345</v>
+        <v>0.02191088195110492</v>
       </c>
       <c r="G198" t="n">
-        <v>0.06755999236366399</v>
+        <v>0.2181974001806622</v>
       </c>
       <c r="J198" t="n">
-        <v>0.01491717314412953</v>
+        <v>0.02213474521565675</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1041649056404284</v>
+        <v>0.2192746112052921</v>
       </c>
       <c r="L198" t="n">
-        <v>0.02741106964383289</v>
+        <v>0.04872630746117187</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1027222226467199</v>
+        <v>0.2197398251426259</v>
       </c>
       <c r="N198" t="n">
-        <v>0.03123696952671495</v>
+        <v>0.0752483054791776</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1025056696969629</v>
+        <v>0.2191870957121303</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03582977781536867</v>
+        <v>0.02095372708990953</v>
       </c>
       <c r="G199" t="n">
-        <v>0.06755972383519997</v>
+        <v>0.2198379821369078</v>
       </c>
       <c r="J199" t="n">
-        <v>0.01465954904754692</v>
+        <v>0.02197683948695509</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1049481004196798</v>
+        <v>0.2209232924925499</v>
       </c>
       <c r="L199" t="n">
-        <v>0.02675114993783587</v>
+        <v>0.04902002330006208</v>
       </c>
       <c r="M199" t="n">
-        <v>0.103494570185417</v>
+        <v>0.2213920042790366</v>
       </c>
       <c r="N199" t="n">
-        <v>0.03040324661444471</v>
+        <v>0.07589216292603768</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1032763890179927</v>
+        <v>0.2208351189881614</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03530905021352837</v>
+        <v>0.02099506174633133</v>
       </c>
       <c r="G200" t="n">
-        <v>0.06755945530673595</v>
+        <v>0.2214785640931534</v>
       </c>
       <c r="J200" t="n">
-        <v>0.01448506779023898</v>
+        <v>0.02201746547686449</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1057312951989311</v>
+        <v>0.2225719737798078</v>
       </c>
       <c r="L200" t="n">
-        <v>0.02596752105312986</v>
+        <v>0.04881048513323816</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1042669177241142</v>
+        <v>0.2230441834154473</v>
       </c>
       <c r="N200" t="n">
-        <v>0.03048044926123727</v>
+        <v>0.07553099819048542</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1040471083390225</v>
+        <v>0.2224831422641924</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03480031786114697</v>
+        <v>0.02103486550741793</v>
       </c>
       <c r="G201" t="n">
-        <v>0.06755918677827193</v>
+        <v>0.2231191460493989</v>
       </c>
       <c r="J201" t="n">
-        <v>0.01419537893846923</v>
+        <v>0.02205660315793249</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1065144899781825</v>
+        <v>0.2242206550670656</v>
       </c>
       <c r="L201" t="n">
-        <v>0.02496304543962252</v>
+        <v>0.04889764839786218</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1050392652628113</v>
+        <v>0.224696362551858</v>
       </c>
       <c r="N201" t="n">
-        <v>0.02956766880963385</v>
+        <v>0.07616474282119229</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1048178276600523</v>
+        <v>0.2241311655402235</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03430408531818964</v>
+        <v>0.02307311796021691</v>
       </c>
       <c r="G202" t="n">
-        <v>0.06755891824980792</v>
+        <v>0.2247597280056445</v>
       </c>
       <c r="J202" t="n">
-        <v>0.01389213205850114</v>
+        <v>0.02229423250270651</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1072976847574338</v>
+        <v>0.2258693363543234</v>
       </c>
       <c r="L202" t="n">
-        <v>0.02464058554722154</v>
+        <v>0.04878146853109611</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1058116128015084</v>
+        <v>0.2263485416882688</v>
       </c>
       <c r="N202" t="n">
-        <v>0.02966399660217584</v>
+        <v>0.07559332836682964</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1055885469810821</v>
+        <v>0.2257791888162546</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03382085714464438</v>
+        <v>0.02310979869177582</v>
       </c>
       <c r="G203" t="n">
-        <v>0.0675586497213439</v>
+        <v>0.2264003099618901</v>
       </c>
       <c r="J203" t="n">
-        <v>0.01347697671659832</v>
+        <v>0.022130333483734</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1080808795366852</v>
+        <v>0.2275180176415813</v>
       </c>
       <c r="L203" t="n">
-        <v>0.02360300382583441</v>
+        <v>0.04916190097010209</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1065839603402056</v>
+        <v>0.2280007208246795</v>
       </c>
       <c r="N203" t="n">
-        <v>0.02916852398140463</v>
+        <v>0.07591668637606885</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1063592663021118</v>
+        <v>0.2274272120922856</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.0333511379004791</v>
+        <v>0.02314488728914225</v>
       </c>
       <c r="G204" t="n">
-        <v>0.06755838119287988</v>
+        <v>0.2280408919181357</v>
       </c>
       <c r="J204" t="n">
-        <v>0.01305156247902427</v>
+        <v>0.02236488607356246</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1088640743159365</v>
+        <v>0.2291666989288391</v>
       </c>
       <c r="L204" t="n">
-        <v>0.02285316272536889</v>
+        <v>0.0493389011520422</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1073563078789027</v>
+        <v>0.2296528999610902</v>
       </c>
       <c r="N204" t="n">
-        <v>0.02818034228986144</v>
+        <v>0.07643474839758119</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1071299856231416</v>
+        <v>0.2290752353683167</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03289543214572274</v>
+        <v>0.02117836333936381</v>
       </c>
       <c r="G205" t="n">
-        <v>0.06755811266441586</v>
+        <v>0.2296814738743813</v>
       </c>
       <c r="J205" t="n">
-        <v>0.0128175389120425</v>
+        <v>0.02219787024473927</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1096472690951878</v>
+        <v>0.230815380216097</v>
       </c>
       <c r="L205" t="n">
-        <v>0.02209392469573249</v>
+        <v>0.04941242451407835</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1081286554175999</v>
+        <v>0.2313050790975009</v>
       </c>
       <c r="N205" t="n">
-        <v>0.02799854287008757</v>
+        <v>0.07664744598003809</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1079007049441714</v>
+        <v>0.2307232586443477</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03245424444034262</v>
+        <v>0.02221020642948805</v>
       </c>
       <c r="G206" t="n">
-        <v>0.06755784413595185</v>
+        <v>0.2313220558306269</v>
       </c>
       <c r="J206" t="n">
-        <v>0.01237655558191655</v>
+        <v>0.02222926596981196</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1104304638744392</v>
+        <v>0.2324640615033548</v>
       </c>
       <c r="L206" t="n">
-        <v>0.02112815218683284</v>
+        <v>0.04918242649337268</v>
       </c>
       <c r="M206" t="n">
-        <v>0.108901002956297</v>
+        <v>0.2329572582339116</v>
       </c>
       <c r="N206" t="n">
-        <v>0.02782221706462434</v>
+        <v>0.07635471067211097</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1086714242652012</v>
+        <v>0.2323712819203788</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03202807934432673</v>
+        <v>0.02324039614656254</v>
       </c>
       <c r="G207" t="n">
-        <v>0.06755757560748783</v>
+        <v>0.2329626377868724</v>
       </c>
       <c r="J207" t="n">
-        <v>0.01203026205490994</v>
+        <v>0.02245905322132798</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1112136586536905</v>
+        <v>0.2341127427906126</v>
       </c>
       <c r="L207" t="n">
-        <v>0.02065870764857769</v>
+        <v>0.04964886252708725</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1096733504949942</v>
+        <v>0.2346094373703224</v>
       </c>
       <c r="N207" t="n">
-        <v>0.02725045621601319</v>
+        <v>0.07655647402247107</v>
       </c>
       <c r="O207" t="n">
-        <v>0.109442143586231</v>
+        <v>0.2340193051964098</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03161744141764564</v>
+        <v>0.02226891207763487</v>
       </c>
       <c r="G208" t="n">
-        <v>0.06755730707902381</v>
+        <v>0.234603219743118</v>
       </c>
       <c r="J208" t="n">
-        <v>0.01178030789728619</v>
+        <v>0.02228721197183475</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1119968534329419</v>
+        <v>0.2357614240778705</v>
       </c>
       <c r="L208" t="n">
-        <v>0.01998845353087458</v>
+        <v>0.04961168805238414</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1104456980336913</v>
+        <v>0.2362616165067331</v>
       </c>
       <c r="N208" t="n">
-        <v>0.02738235166679531</v>
+        <v>0.07665266757978983</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1102128629072608</v>
+        <v>0.2356673284724409</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03122283522032308</v>
+        <v>0.02129573380975264</v>
       </c>
       <c r="G209" t="n">
-        <v>0.06755703855055979</v>
+        <v>0.2362438016993636</v>
       </c>
       <c r="J209" t="n">
-        <v>0.01152834267530885</v>
+        <v>0.02251372219387976</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1127800482121932</v>
+        <v>0.2374101053651283</v>
       </c>
       <c r="L209" t="n">
-        <v>0.01912025228363107</v>
+        <v>0.04977085850642526</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1112180455723884</v>
+        <v>0.2379137956431438</v>
       </c>
       <c r="N209" t="n">
-        <v>0.0263169947595121</v>
+        <v>0.07684322289273859</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1109835822282906</v>
+        <v>0.2373153517484719</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03084476531232895</v>
+        <v>0.02132084092996339</v>
       </c>
       <c r="G210" t="n">
-        <v>0.06755677002209577</v>
+        <v>0.2378843836556092</v>
       </c>
       <c r="J210" t="n">
-        <v>0.01097601595524143</v>
+        <v>0.02233856386001046</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1135632429914445</v>
+        <v>0.2390587866523861</v>
       </c>
       <c r="L210" t="n">
-        <v>0.01845696635675495</v>
+        <v>0.04962632932637279</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1119903931110856</v>
+        <v>0.2395659747795545</v>
       </c>
       <c r="N210" t="n">
-        <v>0.02665347683670471</v>
+        <v>0.07652807150998864</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1117543015493204</v>
+        <v>0.238963375024503</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03048373625365125</v>
+        <v>0.02234421302531472</v>
       </c>
       <c r="G211" t="n">
-        <v>0.06755650149363177</v>
+        <v>0.2395249656118548</v>
       </c>
       <c r="J211" t="n">
-        <v>0.01062497730334746</v>
+        <v>0.02246171694277431</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1143464377706959</v>
+        <v>0.240707467939644</v>
       </c>
       <c r="L211" t="n">
-        <v>0.01750145820015372</v>
+        <v>0.04987805594938868</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1127627406497827</v>
+        <v>0.2412181539159652</v>
       </c>
       <c r="N211" t="n">
-        <v>0.02589088924091465</v>
+        <v>0.07710714498021143</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1125250208703502</v>
+        <v>0.240611398300534</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03014025260426345</v>
+        <v>0.02336582968285421</v>
       </c>
       <c r="G212" t="n">
-        <v>0.06755623296516773</v>
+        <v>0.2411655475681004</v>
       </c>
       <c r="J212" t="n">
-        <v>0.01027687628589046</v>
+        <v>0.02258316141471878</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1151296325499472</v>
+        <v>0.2423561492269018</v>
       </c>
       <c r="L212" t="n">
-        <v>0.016656590263735</v>
+        <v>0.04972599381263509</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1135350881884799</v>
+        <v>0.242870333052376</v>
       </c>
       <c r="N212" t="n">
-        <v>0.02562832331468318</v>
+        <v>0.07668037485207835</v>
       </c>
       <c r="O212" t="n">
-        <v>0.11329574019138</v>
+        <v>0.2422594215765651</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02981481892418354</v>
+        <v>0.02138567048962942</v>
       </c>
       <c r="G213" t="n">
-        <v>0.06755596443670372</v>
+        <v>0.2428061295243459</v>
       </c>
       <c r="J213" t="n">
-        <v>0.01003336246913399</v>
+        <v>0.0224028772483913</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1159128273291986</v>
+        <v>0.2440048305141596</v>
       </c>
       <c r="L213" t="n">
-        <v>0.0162252249974065</v>
+        <v>0.04977009835327401</v>
       </c>
       <c r="M213" t="n">
-        <v>0.114307435727177</v>
+        <v>0.2445225121887867</v>
       </c>
       <c r="N213" t="n">
-        <v>0.02536487040055163</v>
+        <v>0.07674769267426063</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1140664595124098</v>
+        <v>0.2439074448525962</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02950793977338419</v>
+        <v>0.02340371503268796</v>
       </c>
       <c r="G214" t="n">
-        <v>0.0675556959082397</v>
+        <v>0.2444467114805915</v>
       </c>
       <c r="J214" t="n">
-        <v>0.009596085419341503</v>
+        <v>0.02242084441633935</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1166960221084499</v>
+        <v>0.2456535118014175</v>
       </c>
       <c r="L214" t="n">
-        <v>0.01521022485107579</v>
+        <v>0.04971032500846748</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1150797832658741</v>
+        <v>0.2461746913251974</v>
       </c>
       <c r="N214" t="n">
-        <v>0.02459962184106118</v>
+        <v>0.07730902999542971</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1148371788334396</v>
+        <v>0.2455554681286272</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02950793977338419</v>
+        <v>0.02241994289907739</v>
       </c>
       <c r="G215" t="n">
-        <v>0.0675556959082397</v>
+        <v>0.2460872934368371</v>
       </c>
       <c r="J215" t="n">
-        <v>0.00936669470277661</v>
+        <v>0.02253704289111039</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1174792168877013</v>
+        <v>0.2473021930886753</v>
       </c>
       <c r="L215" t="n">
-        <v>0.01481445227465056</v>
+        <v>0.04954662921537753</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1158521308045713</v>
+        <v>0.2478268704616081</v>
       </c>
       <c r="N215" t="n">
-        <v>0.02473166897875334</v>
+        <v>0.07686431836425689</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1156078981544694</v>
+        <v>0.2472034914046582</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02876201813742549</v>
+        <v>0.02243433367584528</v>
       </c>
       <c r="G216" t="n">
-        <v>0.06740664106032088</v>
+        <v>0.2477278753930827</v>
       </c>
       <c r="J216" t="n">
-        <v>0.009146839885702786</v>
+        <v>0.02265145264525185</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1182624116669526</v>
+        <v>0.2489508743759331</v>
       </c>
       <c r="L216" t="n">
-        <v>0.0140407697180383</v>
+        <v>0.04977896641116628</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1166244783432684</v>
+        <v>0.2494790495980188</v>
       </c>
       <c r="N216" t="n">
-        <v>0.02446010315616931</v>
+        <v>0.07681348932941368</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1163786174754992</v>
+        <v>0.2488515146806893</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02802405428303156</v>
+        <v>0.02244686695003922</v>
       </c>
       <c r="G217" t="n">
-        <v>0.06725758621240206</v>
+        <v>0.2493684573493282</v>
       </c>
       <c r="J217" t="n">
-        <v>0.008838170534383571</v>
+        <v>0.02266405365131126</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1190456064462039</v>
+        <v>0.250599555663191</v>
       </c>
       <c r="L217" t="n">
-        <v>0.01309203963114675</v>
+        <v>0.0500072920329957</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1173968258819656</v>
+        <v>0.2511312287344296</v>
       </c>
       <c r="N217" t="n">
-        <v>0.02378401571585032</v>
+        <v>0.0775564744395712</v>
       </c>
       <c r="O217" t="n">
-        <v>0.117149336796529</v>
+        <v>0.2504995379567204</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02729435956695574</v>
+        <v>0.02145752230870679</v>
       </c>
       <c r="G218" t="n">
-        <v>0.06710853136448323</v>
+        <v>0.2510090393055738</v>
       </c>
       <c r="J218" t="n">
-        <v>0.008442336215082495</v>
+        <v>0.02247482588183598</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1198288012254553</v>
+        <v>0.2522482369504488</v>
       </c>
       <c r="L218" t="n">
-        <v>0.01297112446388352</v>
+        <v>0.04983156151802787</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1181691734206627</v>
+        <v>0.2527834078708403</v>
       </c>
       <c r="N218" t="n">
-        <v>0.02370249800033797</v>
+        <v>0.07699320524340109</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1179200561175588</v>
+        <v>0.2521475612327514</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02657324534595158</v>
+        <v>0.02246627933889557</v>
       </c>
       <c r="G219" t="n">
-        <v>0.06695947651656441</v>
+        <v>0.2526496212618194</v>
       </c>
       <c r="J219" t="n">
-        <v>0.008260986494063087</v>
+        <v>0.02268374930937356</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1206119960047066</v>
+        <v>0.2538969182377066</v>
       </c>
       <c r="L219" t="n">
-        <v>0.0120808866661562</v>
+        <v>0.04965173030342482</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1189415209593599</v>
+        <v>0.254435587007251</v>
       </c>
       <c r="N219" t="n">
-        <v>0.02271464135217333</v>
+        <v>0.07742361328957453</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1186907754385886</v>
+        <v>0.2537955845087825</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02586102297677259</v>
+        <v>0.02247311762765312</v>
       </c>
       <c r="G220" t="n">
-        <v>0.06681042166864559</v>
+        <v>0.254290203218065</v>
       </c>
       <c r="J220" t="n">
-        <v>0.007795770937588861</v>
+        <v>0.02249080390647137</v>
       </c>
       <c r="K220" t="n">
-        <v>0.121395190783958</v>
+        <v>0.2555455995249645</v>
       </c>
       <c r="L220" t="n">
-        <v>0.01142418868787246</v>
+        <v>0.04976775382634868</v>
       </c>
       <c r="M220" t="n">
-        <v>0.119713868498057</v>
+        <v>0.2560877661436617</v>
       </c>
       <c r="N220" t="n">
-        <v>0.02291953711389771</v>
+        <v>0.07694763012676292</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1194614947596184</v>
+        <v>0.2554436077848135</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02515800381617214</v>
+        <v>0.02147801676202706</v>
       </c>
       <c r="G221" t="n">
-        <v>0.06666136682072676</v>
+        <v>0.2559307851743106</v>
       </c>
       <c r="J221" t="n">
-        <v>0.007748339111923352</v>
+        <v>0.02249596964567696</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1221783855632093</v>
+        <v>0.2571942808122223</v>
       </c>
       <c r="L221" t="n">
-        <v>0.01110389297893991</v>
+        <v>0.04977958752396142</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1204862160367541</v>
+        <v>0.2577399452800724</v>
       </c>
       <c r="N221" t="n">
-        <v>0.02231627662805269</v>
+        <v>0.07726518730363752</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1202322140806482</v>
+        <v>0.2570916310608446</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02446449922090371</v>
+        <v>0.02248095632906491</v>
       </c>
       <c r="G222" t="n">
-        <v>0.06651231197280794</v>
+        <v>0.2575713671305562</v>
       </c>
       <c r="J222" t="n">
-        <v>0.007520340583330093</v>
+        <v>0.02249922649953773</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1229615803424606</v>
+        <v>0.2588429620994802</v>
       </c>
       <c r="L222" t="n">
-        <v>0.01042286198926609</v>
+        <v>0.05008718683342511</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1212585635754513</v>
+        <v>0.2593921244164832</v>
       </c>
       <c r="N222" t="n">
-        <v>0.02160395123717923</v>
+        <v>0.0771762163688699</v>
       </c>
       <c r="O222" t="n">
-        <v>0.121002933401678</v>
+        <v>0.2587396543368756</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02378082054772082</v>
+        <v>0.02248190531850354</v>
       </c>
       <c r="G223" t="n">
-        <v>0.06636325712488911</v>
+        <v>0.2592119490868017</v>
       </c>
       <c r="J223" t="n">
-        <v>0.007313424918072596</v>
+        <v>0.02260055444060115</v>
       </c>
       <c r="K223" t="n">
-        <v>0.123744775121712</v>
+        <v>0.260491643386738</v>
       </c>
       <c r="L223" t="n">
-        <v>0.01018395816875878</v>
+        <v>0.04999050719190176</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1220309111141484</v>
+        <v>0.2610443035528939</v>
       </c>
       <c r="N223" t="n">
-        <v>0.0212816522838189</v>
+        <v>0.07768064887113124</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1217736527227078</v>
+        <v>0.2603876776129067</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02310727915337696</v>
+        <v>0.02345020395502045</v>
       </c>
       <c r="G224" t="n">
-        <v>0.06621420227697029</v>
+        <v>0.2608525310430473</v>
       </c>
       <c r="J224" t="n">
-        <v>0.007129241682414397</v>
+        <v>0.02268052808311818</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1245279699009633</v>
+        <v>0.2621403246739958</v>
       </c>
       <c r="L224" t="n">
-        <v>0.009990043967325501</v>
+        <v>0.04995494354183827</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1228032586528456</v>
+        <v>0.2626964826893046</v>
       </c>
       <c r="N224" t="n">
-        <v>0.02074847111051292</v>
+        <v>0.077309431168473</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1225443720437376</v>
+        <v>0.2620357008889377</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.0224441863946255</v>
+        <v>0.02236169469640663</v>
       </c>
       <c r="G225" t="n">
-        <v>0.06606514742905147</v>
+        <v>0.2624931129992929</v>
       </c>
       <c r="J225" t="n">
-        <v>0.006969440442619032</v>
+        <v>0.02260482089954129</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1253111646802147</v>
+        <v>0.2637890059612537</v>
       </c>
       <c r="L225" t="n">
-        <v>0.00944398183487391</v>
+        <v>0.0496971982388397</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1235756061915427</v>
+        <v>0.2643486618257153</v>
       </c>
       <c r="N225" t="n">
-        <v>0.02030349905980261</v>
+        <v>0.07734758014172938</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1233150913647674</v>
+        <v>0.2636837241649688</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02179185362821996</v>
+        <v>0.02122274114549681</v>
       </c>
       <c r="G226" t="n">
-        <v>0.06591609258113264</v>
+        <v>0.2641336949555385</v>
       </c>
       <c r="J226" t="n">
-        <v>0.006835670764950015</v>
+        <v>0.02227866901098602</v>
       </c>
       <c r="K226" t="n">
-        <v>0.126094359459466</v>
+        <v>0.2654376872485115</v>
       </c>
       <c r="L226" t="n">
-        <v>0.008848634221311658</v>
+        <v>0.049526299636935</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1243479537302398</v>
+        <v>0.2660008409621261</v>
       </c>
       <c r="N226" t="n">
-        <v>0.01984582747422925</v>
+        <v>0.07691357886788414</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1240858106857972</v>
+        <v>0.2653317474409999</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02115059221091384</v>
+        <v>0.02103970690512585</v>
       </c>
       <c r="G227" t="n">
-        <v>0.06576703773321382</v>
+        <v>0.2657742769117841</v>
       </c>
       <c r="J227" t="n">
-        <v>0.006729582215670868</v>
+        <v>0.02210831584325058</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1268775542387174</v>
+        <v>0.2670863685357693</v>
       </c>
       <c r="L227" t="n">
-        <v>0.008606863576546303</v>
+        <v>0.04935613990596133</v>
       </c>
       <c r="M227" t="n">
-        <v>0.125120301268937</v>
+        <v>0.2676530200985368</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01937454769633423</v>
+        <v>0.07612876659566498</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1248565300068269</v>
+        <v>0.2669797707170309</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.0205207134994605</v>
+        <v>0.02181895557812849</v>
       </c>
       <c r="G228" t="n">
-        <v>0.065617982885295</v>
+        <v>0.2674148588680296</v>
       </c>
       <c r="J228" t="n">
-        <v>0.006452824361045127</v>
+        <v>0.02210000482213324</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1276607490179687</v>
+        <v>0.2687350498230272</v>
       </c>
       <c r="L228" t="n">
-        <v>0.008421532350485511</v>
+        <v>0.04840061121575565</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1258926488076341</v>
+        <v>0.2693051992349475</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01898875106865888</v>
+        <v>0.0751144825737991</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1256272493278567</v>
+        <v>0.268627793993062</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.0199025288506135</v>
+        <v>0.02056685076733955</v>
       </c>
       <c r="G229" t="n">
-        <v>0.06546892803737617</v>
+        <v>0.2690554408242752</v>
       </c>
       <c r="J229" t="n">
-        <v>0.006607046767336325</v>
+        <v>0.0217599793734322</v>
       </c>
       <c r="K229" t="n">
-        <v>0.12844394379722</v>
+        <v>0.270383731110285</v>
       </c>
       <c r="L229" t="n">
-        <v>0.008795502993036941</v>
+        <v>0.04787360573615504</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1266649963463313</v>
+        <v>0.2709573783713582</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01858752893374449</v>
+        <v>0.07439206605101412</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1263979686488865</v>
+        <v>0.270275817269093</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01929634962112632</v>
+        <v>0.0212897560755938</v>
       </c>
       <c r="G230" t="n">
-        <v>0.06531987318945735</v>
+        <v>0.2706960227805208</v>
       </c>
       <c r="J230" t="n">
-        <v>0.00659369718920623</v>
+        <v>0.02139448292294574</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1292271385764714</v>
+        <v>0.2720324123975428</v>
       </c>
       <c r="L230" t="n">
-        <v>0.008431232464156085</v>
+        <v>0.04778901563699656</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1274373438850284</v>
+        <v>0.2726095575077689</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01777000162773168</v>
+        <v>0.07338285627603752</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1271686879699163</v>
+        <v>0.2719238405451241</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01870248716775234</v>
+        <v>0.01999403510572603</v>
       </c>
       <c r="G231" t="n">
-        <v>0.06517081834153853</v>
+        <v>0.2723366047367664</v>
       </c>
       <c r="J231" t="n">
-        <v>0.006393763244945817</v>
+        <v>0.02130975889647209</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1300103333557227</v>
+        <v>0.2736810936848006</v>
       </c>
       <c r="L231" t="n">
-        <v>0.008692688490901851</v>
+        <v>0.04716073308811725</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1282096914237255</v>
+        <v>0.2742617366441797</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01733825435163872</v>
+        <v>0.07280819249759668</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1279394072909461</v>
+        <v>0.2735718638211551</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01812125284724508</v>
+        <v>0.02068605146057106</v>
       </c>
       <c r="G232" t="n">
-        <v>0.0650217634936197</v>
+        <v>0.273977186693012</v>
       </c>
       <c r="J232" t="n">
-        <v>0.006494152023817493</v>
+        <v>0.02081205071980946</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1307935281349741</v>
+        <v>0.2753297749720585</v>
       </c>
       <c r="L232" t="n">
-        <v>0.008255124179865375</v>
+        <v>0.04650265025935413</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1289820389624227</v>
+        <v>0.2759139157805904</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01709416572413458</v>
+        <v>0.07188941396441917</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1287101266119759</v>
+        <v>0.2752198870971862</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01755295801635801</v>
+        <v>0.01937216874296364</v>
       </c>
       <c r="G233" t="n">
-        <v>0.06487270864570087</v>
+        <v>0.2756177686492575</v>
       </c>
       <c r="J233" t="n">
-        <v>0.006495154603840585</v>
+        <v>0.0205076018187561</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1315767229142254</v>
+        <v>0.2769784562593163</v>
       </c>
       <c r="L233" t="n">
-        <v>0.008518550049030044</v>
+        <v>0.04542865932054421</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1297543865011198</v>
+        <v>0.2775660949170011</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01653794469031017</v>
+        <v>0.07054785992523227</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1294808459330057</v>
+        <v>0.2768679103732172</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01699791403184463</v>
+        <v>0.0210587505557386</v>
       </c>
       <c r="G234" t="n">
-        <v>0.06472365379778204</v>
+        <v>0.2772583506055031</v>
       </c>
       <c r="J234" t="n">
-        <v>0.00639706206303442</v>
+        <v>0.02020265561911028</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1323599176934767</v>
+        <v>0.2786271375465741</v>
       </c>
       <c r="L234" t="n">
-        <v>0.008482976616379229</v>
+        <v>0.04515265244152469</v>
       </c>
       <c r="M234" t="n">
-        <v>0.130526734039817</v>
+        <v>0.2792182740534118</v>
       </c>
       <c r="N234" t="n">
-        <v>0.01596980019525607</v>
+        <v>0.06960486962876361</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1302515652540355</v>
+        <v>0.2785159336492483</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01645643225045831</v>
+        <v>0.01975216050173069</v>
       </c>
       <c r="G235" t="n">
-        <v>0.06457459894986321</v>
+        <v>0.2788989325617487</v>
       </c>
       <c r="J235" t="n">
-        <v>0.006600165479418288</v>
+        <v>0.0200034555466702</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1331431124727281</v>
+        <v>0.280275818833832</v>
       </c>
       <c r="L235" t="n">
-        <v>0.008348414399896281</v>
+        <v>0.04438852179213246</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1312990815785141</v>
+        <v>0.2808704531898226</v>
       </c>
       <c r="N235" t="n">
-        <v>0.01538994118406328</v>
+        <v>0.06838178232374054</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1310222845750653</v>
+        <v>0.2801639569252793</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01592882402895258</v>
+        <v>0.01845876218377474</v>
       </c>
       <c r="G236" t="n">
-        <v>0.06442554410194438</v>
+        <v>0.2805395145179943</v>
       </c>
       <c r="J236" t="n">
-        <v>0.006404755931011537</v>
+        <v>0.01971624502723411</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1339263072519794</v>
+        <v>0.2819245001210899</v>
       </c>
       <c r="L236" t="n">
-        <v>0.008214873917564702</v>
+        <v>0.04355015954220462</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1320714291172113</v>
+        <v>0.2825226323262333</v>
       </c>
       <c r="N236" t="n">
-        <v>0.01439857660182231</v>
+        <v>0.06759993725889063</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1317930038960951</v>
+        <v>0.2818119802013104</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01541540072408094</v>
+        <v>0.0191849192047055</v>
       </c>
       <c r="G237" t="n">
-        <v>0.06427648925402557</v>
+        <v>0.2821800964742399</v>
       </c>
       <c r="J237" t="n">
-        <v>0.006511124495833458</v>
+        <v>0.01934726748660028</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1347095020312308</v>
+        <v>0.2835731814083477</v>
       </c>
       <c r="L237" t="n">
-        <v>0.008482365687367821</v>
+        <v>0.04285145786157821</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1328437766559084</v>
+        <v>0.284174811462644</v>
       </c>
       <c r="N237" t="n">
-        <v>0.01429591539362413</v>
+        <v>0.06618067368294123</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1325637232171249</v>
+        <v>0.2834600034773415</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01491647369259678</v>
+        <v>0.01993400576222591</v>
       </c>
       <c r="G238" t="n">
-        <v>0.06412743440610674</v>
+        <v>0.2838206784304854</v>
       </c>
       <c r="J238" t="n">
-        <v>0.006619562251903396</v>
+        <v>0.01930133819482564</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1354926968104821</v>
+        <v>0.2852218626956055</v>
       </c>
       <c r="L238" t="n">
-        <v>0.008050900227288993</v>
+        <v>0.0422041927009337</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1336161241946056</v>
+        <v>0.2858269905990547</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01338216650455937</v>
+        <v>0.06544010383717463</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1333344425381547</v>
+        <v>0.2851080267533725</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01443235429125359</v>
+        <v>0.01768680198706842</v>
       </c>
       <c r="G239" t="n">
-        <v>0.06397837955818791</v>
+        <v>0.285461260386731</v>
       </c>
       <c r="J239" t="n">
-        <v>0.006530360277240653</v>
+        <v>0.0190612942293982</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1362758915897334</v>
+        <v>0.2868705439828634</v>
       </c>
       <c r="L239" t="n">
-        <v>0.008420488055311676</v>
+        <v>0.04167244217154562</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1343884717333027</v>
+        <v>0.2874791697354654</v>
       </c>
       <c r="N239" t="n">
-        <v>0.01285753887971886</v>
+        <v>0.06511897656956511</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1341051618591845</v>
+        <v>0.2867560500294036</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01396208250339491</v>
+        <v>0.01743865558982656</v>
       </c>
       <c r="G240" t="n">
-        <v>0.0638293247102691</v>
+        <v>0.2871018423429766</v>
       </c>
       <c r="J240" t="n">
-        <v>0.006443809649864553</v>
+        <v>0.01882033180319742</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1370590863689848</v>
+        <v>0.2885192252701212</v>
       </c>
       <c r="L240" t="n">
-        <v>0.008391139689419208</v>
+        <v>0.04143865405496433</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1351608192719998</v>
+        <v>0.2891313488718761</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01222224146419337</v>
+        <v>0.06409470835986525</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1348758811802143</v>
+        <v>0.2884040733054347</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01349834144531417</v>
+        <v>0.01918955149488921</v>
       </c>
       <c r="G241" t="n">
-        <v>0.06368026986235027</v>
+        <v>0.2887424242992222</v>
       </c>
       <c r="J241" t="n">
-        <v>0.006460201447794411</v>
+        <v>0.01847843612531602</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1378422811482361</v>
+        <v>0.290167906557379</v>
       </c>
       <c r="L241" t="n">
-        <v>0.00836286564759503</v>
+        <v>0.04090279544012426</v>
       </c>
       <c r="M241" t="n">
-        <v>0.135933166810697</v>
+        <v>0.2907835280082869</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01187648320307372</v>
+        <v>0.06316724865460344</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1356466005012441</v>
+        <v>0.2900520965814657</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01304017110035492</v>
+        <v>0.01793947462664529</v>
       </c>
       <c r="G242" t="n">
-        <v>0.06353121501443144</v>
+        <v>0.2903830062554678</v>
       </c>
       <c r="J242" t="n">
-        <v>0.006479826749049546</v>
+        <v>0.0182355924048468</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1386254759274875</v>
+        <v>0.2918165878446369</v>
       </c>
       <c r="L242" t="n">
-        <v>0.007935676447822476</v>
+        <v>0.04036483341595995</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1367055143493941</v>
+        <v>0.2924357071446976</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01112047304145053</v>
+        <v>0.06213654690030812</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1364173198222739</v>
+        <v>0.2917001198574967</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01258788282527063</v>
+        <v>0.01668840990948368</v>
       </c>
       <c r="G243" t="n">
-        <v>0.06338216016651263</v>
+        <v>0.2920235882117133</v>
       </c>
       <c r="J243" t="n">
-        <v>0.006502976631649275</v>
+        <v>0.0179917858508825</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1394086707067388</v>
+        <v>0.2934652691318947</v>
       </c>
       <c r="L243" t="n">
-        <v>0.007809582608085064</v>
+        <v>0.03952473507140586</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1374778618880913</v>
+        <v>0.2940878862811083</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01055441992441458</v>
+        <v>0.06170255254350776</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1371880391433037</v>
+        <v>0.2933481431335278</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01214178797681471</v>
+        <v>0.01643634226779328</v>
       </c>
       <c r="G244" t="n">
-        <v>0.0632331053185938</v>
+        <v>0.2936641701679589</v>
       </c>
       <c r="J244" t="n">
-        <v>0.006729942173612925</v>
+        <v>0.01784700167251586</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1401918654859902</v>
+        <v>0.2951139504191525</v>
       </c>
       <c r="L244" t="n">
-        <v>0.007884594646366011</v>
+        <v>0.03938246749539653</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1382502094267884</v>
+        <v>0.295740065417519</v>
       </c>
       <c r="N244" t="n">
-        <v>0.009178532797056826</v>
+        <v>0.06096521503073066</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1379587584643335</v>
+        <v>0.2949961664095588</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01170219791174066</v>
+        <v>0.016183256625963</v>
       </c>
       <c r="G245" t="n">
-        <v>0.06308405047067497</v>
+        <v>0.2953047521242045</v>
       </c>
       <c r="J245" t="n">
-        <v>0.006561014452959806</v>
+        <v>0.01740122507883966</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1409750602652415</v>
+        <v>0.2967626317064104</v>
       </c>
       <c r="L245" t="n">
-        <v>0.007860723080648835</v>
+        <v>0.03883799777686636</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1390225569654855</v>
+        <v>0.2973922445539298</v>
       </c>
       <c r="N245" t="n">
-        <v>0.008493020604467827</v>
+        <v>0.0599244838085054</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1387294777853633</v>
+        <v>0.2966441896855899</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01126942398680195</v>
+        <v>0.01792913790838173</v>
       </c>
       <c r="G246" t="n">
-        <v>0.06293499562275615</v>
+        <v>0.2969453340804501</v>
       </c>
       <c r="J246" t="n">
-        <v>0.006696484547709235</v>
+        <v>0.01715444127894665</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1417582550444928</v>
+        <v>0.2984113129936682</v>
       </c>
       <c r="L246" t="n">
-        <v>0.007937978428916914</v>
+        <v>0.03839129300474983</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1397949045041827</v>
+        <v>0.2990444236903405</v>
       </c>
       <c r="N246" t="n">
-        <v>0.008498092291738424</v>
+        <v>0.05888030832336033</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1395001971063931</v>
+        <v>0.298292212961621</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01084377755875208</v>
+        <v>0.01667397103943839</v>
       </c>
       <c r="G247" t="n">
-        <v>0.06278594077483733</v>
+        <v>0.2985859160366957</v>
       </c>
       <c r="J247" t="n">
-        <v>0.006736643535880535</v>
+        <v>0.01700663548192959</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1425414498237442</v>
+        <v>0.300059994280926</v>
       </c>
       <c r="L247" t="n">
-        <v>0.008216371209153583</v>
+        <v>0.03784232026798151</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1405672520428798</v>
+        <v>0.3006966028267512</v>
       </c>
       <c r="N247" t="n">
-        <v>0.007693956803959401</v>
+        <v>0.05823263802182382</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1402709164274229</v>
+        <v>0.299940236237652</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01042556998434443</v>
+        <v>0.01741774094352187</v>
       </c>
       <c r="G248" t="n">
-        <v>0.0626368859269185</v>
+        <v>0.3002264979929413</v>
       </c>
       <c r="J248" t="n">
-        <v>0.006681782495493026</v>
+        <v>0.01665779289688121</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1433246446029955</v>
+        <v>0.3017086755681839</v>
       </c>
       <c r="L248" t="n">
-        <v>0.008195911939342299</v>
+        <v>0.03709104665549587</v>
       </c>
       <c r="M248" t="n">
-        <v>0.141339599581577</v>
+        <v>0.3023487819631619</v>
       </c>
       <c r="N248" t="n">
-        <v>0.006980823086221499</v>
+        <v>0.0576814223504245</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1410416357484527</v>
+        <v>0.3015882595136831</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01001511262033253</v>
+        <v>0.01516043254502105</v>
       </c>
       <c r="G249" t="n">
-        <v>0.06248783107899967</v>
+        <v>0.3018670799491868</v>
       </c>
       <c r="J249" t="n">
-        <v>0.006832192504566022</v>
+        <v>0.01640789873289429</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1441078393822469</v>
+        <v>0.3033573568554417</v>
       </c>
       <c r="L249" t="n">
-        <v>0.008176611137466427</v>
+        <v>0.03663743925622734</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1421119471202741</v>
+        <v>0.3040009610995726</v>
       </c>
       <c r="N249" t="n">
-        <v>0.005958900083615437</v>
+        <v>0.05652661075569054</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1418123550694824</v>
+        <v>0.3032362827897142</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.009612716823469876</v>
+        <v>0.01490203076832486</v>
       </c>
       <c r="G250" t="n">
-        <v>0.06233877623108085</v>
+        <v>0.3035076619054324</v>
       </c>
       <c r="J250" t="n">
-        <v>0.006988164641118844</v>
+        <v>0.0163569381990616</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1448910341614982</v>
+        <v>0.3050060381426996</v>
       </c>
       <c r="L250" t="n">
-        <v>0.007858479321509321</v>
+        <v>0.03578146515911043</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1428842946589712</v>
+        <v>0.3056531402359834</v>
       </c>
       <c r="N250" t="n">
-        <v>0.005228396741232044</v>
+        <v>0.05576815268415064</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1425830743905123</v>
+        <v>0.3048843060657452</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.009218693950509844</v>
+        <v>0.01464252053782217</v>
       </c>
       <c r="G251" t="n">
-        <v>0.06218972138316203</v>
+        <v>0.305148243861678</v>
       </c>
       <c r="J251" t="n">
-        <v>0.006949989983170805</v>
+        <v>0.01590489650447585</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1456742289407496</v>
+        <v>0.3066547194299574</v>
       </c>
       <c r="L251" t="n">
-        <v>0.007841527009454452</v>
+        <v>0.03512309145307965</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1436566421976684</v>
+        <v>0.3073053193723941</v>
       </c>
       <c r="N251" t="n">
-        <v>0.004489522004162194</v>
+        <v>0.05480599758233301</v>
       </c>
       <c r="O251" t="n">
-        <v>0.143353793711542</v>
+        <v>0.3065323293417763</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.008833355358205959</v>
+        <v>0.01538188677790191</v>
       </c>
       <c r="G252" t="n">
-        <v>0.0620406665352432</v>
+        <v>0.3067888258179236</v>
       </c>
       <c r="J252" t="n">
-        <v>0.007117959608741231</v>
+        <v>0.01565175885822984</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1464574237200009</v>
+        <v>0.3083034007172152</v>
       </c>
       <c r="L252" t="n">
-        <v>0.007625764719285139</v>
+        <v>0.03466228522706949</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1444289897363655</v>
+        <v>0.3089574985088048</v>
       </c>
       <c r="N252" t="n">
-        <v>0.00414248481749635</v>
+        <v>0.05354009489676625</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1441245130325718</v>
+        <v>0.3081803526178073</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.008457012403311696</v>
+        <v>0.01512011441295295</v>
       </c>
       <c r="G253" t="n">
-        <v>0.06189161168732438</v>
+        <v>0.3084294077741692</v>
       </c>
       <c r="J253" t="n">
-        <v>0.007092364595849436</v>
+        <v>0.0153975104694163</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1472406184992522</v>
+        <v>0.3099520820044731</v>
       </c>
       <c r="L253" t="n">
-        <v>0.007711202968984837</v>
+        <v>0.03419901357001442</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1452013372750627</v>
+        <v>0.3106096776452155</v>
       </c>
       <c r="N253" t="n">
-        <v>0.003287494126325563</v>
+        <v>0.05297039407397863</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1448952323536016</v>
+        <v>0.3098283758938384</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.008089976442580492</v>
+        <v>0.01385718836736422</v>
       </c>
       <c r="G254" t="n">
-        <v>0.06174255683940556</v>
+        <v>0.3100699897304147</v>
       </c>
       <c r="J254" t="n">
-        <v>0.007273496022514744</v>
+        <v>0.015342136547128</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1480238132785036</v>
+        <v>0.3116007632917309</v>
       </c>
       <c r="L254" t="n">
-        <v>0.007897852276536887</v>
+        <v>0.03383324357084891</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1459736848137598</v>
+        <v>0.3122618567816263</v>
       </c>
       <c r="N254" t="n">
-        <v>0.002124758875740429</v>
+        <v>0.0523968445604987</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1456659516746314</v>
+        <v>0.3114763991698694</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.007732558832765822</v>
+        <v>0.0135930935655246</v>
       </c>
       <c r="G255" t="n">
-        <v>0.06159350199148673</v>
+        <v>0.3117105716866603</v>
       </c>
       <c r="J255" t="n">
-        <v>0.007161644966756468</v>
+        <v>0.01488562230045769</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1488070080577549</v>
+        <v>0.3132494445789887</v>
       </c>
       <c r="L255" t="n">
-        <v>0.00768572315992469</v>
+        <v>0.0330649423185074</v>
       </c>
       <c r="M255" t="n">
-        <v>0.146746032352457</v>
+        <v>0.313914035918037</v>
       </c>
       <c r="N255" t="n">
-        <v>0.001854488010831823</v>
+        <v>0.05101939580285481</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1464366709956612</v>
+        <v>0.3131244224459005</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.007385070930621171</v>
+        <v>0.01532781493182299</v>
       </c>
       <c r="G256" t="n">
-        <v>0.06144444714356791</v>
+        <v>0.3133511536429059</v>
       </c>
       <c r="J256" t="n">
-        <v>0.007357102506593917</v>
+        <v>0.01472795293849813</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1495902028370063</v>
+        <v>0.3148981258662465</v>
       </c>
       <c r="L256" t="n">
-        <v>0.007974826137131685</v>
+        <v>0.03269407690192455</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1475183798911541</v>
+        <v>0.3155662150544477</v>
       </c>
       <c r="N256" t="n">
-        <v>0.0008768904766904839</v>
+        <v>0.05033799724757548</v>
       </c>
       <c r="O256" t="n">
-        <v>0.147207390316691</v>
+        <v>0.3147724457219315</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.007047824092899974</v>
+        <v>0.0130613373906483</v>
       </c>
       <c r="G257" t="n">
-        <v>0.06129539229564909</v>
+        <v>0.3149917355991515</v>
       </c>
       <c r="J257" t="n">
-        <v>0.007560159720046429</v>
+        <v>0.01436911367034206</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1503733976162576</v>
+        <v>0.3165468071535044</v>
       </c>
       <c r="L257" t="n">
-        <v>0.007665171726141173</v>
+        <v>0.03222061441003463</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1482907274298512</v>
+        <v>0.3172183941908583</v>
       </c>
       <c r="N257" t="n">
-        <v>-0.0002078247815929246</v>
+        <v>0.04925259834118911</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1479781096377208</v>
+        <v>0.3164204689979626</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006721129676355707</v>
+        <v>0.01279364586638942</v>
       </c>
       <c r="G258" t="n">
-        <v>0.06114633744773026</v>
+        <v>0.3166323175553971</v>
       </c>
       <c r="J258" t="n">
-        <v>0.007671107685133308</v>
+        <v>0.01420908970508226</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1511565923955089</v>
+        <v>0.3181954884407622</v>
       </c>
       <c r="L258" t="n">
-        <v>0.007556770444936689</v>
+        <v>0.03134452193177228</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1490630749685484</v>
+        <v>0.3188705733272691</v>
       </c>
       <c r="N258" t="n">
-        <v>-0.000899448818927534</v>
+        <v>0.04886314853022411</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1487488289587506</v>
+        <v>0.3180684922739936</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.006405299037741848</v>
+        <v>0.01252472528343527</v>
       </c>
       <c r="G259" t="n">
-        <v>0.06099728259981143</v>
+        <v>0.3182728995116426</v>
       </c>
       <c r="J259" t="n">
-        <v>0.007690237479873879</v>
+        <v>0.01384786625181147</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1519397871747603</v>
+        <v>0.31984416972802</v>
       </c>
       <c r="L259" t="n">
-        <v>0.008049632811501506</v>
+        <v>0.03096576655607192</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1498354225072455</v>
+        <v>0.3205227524636798</v>
       </c>
       <c r="N259" t="n">
-        <v>-0.001997772690222638</v>
+        <v>0.04736959726120893</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1495195482797804</v>
+        <v>0.3197165155500247</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.006100643533811886</v>
+        <v>0.01325456056617472</v>
       </c>
       <c r="G260" t="n">
-        <v>0.06084822775189261</v>
+        <v>0.3199134814678882</v>
       </c>
       <c r="J260" t="n">
-        <v>0.007717840182287466</v>
+        <v>0.01358542851962245</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1527229819540116</v>
+        <v>0.3214928510152779</v>
       </c>
       <c r="L260" t="n">
-        <v>0.007643769343819024</v>
+        <v>0.03028431537186801</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1506077700459427</v>
+        <v>0.3221749316000905</v>
       </c>
       <c r="N260" t="n">
-        <v>-0.002102587450387411</v>
+        <v>0.0471718939806719</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1502902676008102</v>
+        <v>0.3213645388260557</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005807474521319238</v>
+        <v>0.01398313663899668</v>
       </c>
       <c r="G261" t="n">
-        <v>0.06069917290397378</v>
+        <v>0.3215540634241338</v>
       </c>
       <c r="J261" t="n">
-        <v>0.007854206870393371</v>
+        <v>0.01332176171760796</v>
       </c>
       <c r="K261" t="n">
-        <v>0.153506176733263</v>
+        <v>0.3231415323025357</v>
       </c>
       <c r="L261" t="n">
-        <v>0.0078391905598727</v>
+        <v>0.02980013546809512</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1513801175846398</v>
+        <v>0.3238271107365012</v>
       </c>
       <c r="N261" t="n">
-        <v>-0.003413684154331048</v>
+        <v>0.04596998813514158</v>
       </c>
       <c r="O261" t="n">
-        <v>0.15106098692184</v>
+        <v>0.3230125621020868</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005526103357017385</v>
+        <v>0.01171043842629006</v>
       </c>
       <c r="G262" t="n">
-        <v>0.06055011805605495</v>
+        <v>0.3231946453803794</v>
       </c>
       <c r="J262" t="n">
-        <v>0.007999628622210923</v>
+        <v>0.01305685105486076</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1542893715125143</v>
+        <v>0.3247902135897935</v>
       </c>
       <c r="L262" t="n">
-        <v>0.007635906977645879</v>
+        <v>0.02891319393368769</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1521524651233369</v>
+        <v>0.325479289872912</v>
       </c>
       <c r="N262" t="n">
-        <v>-0.004130853856962963</v>
+        <v>0.04496382917114639</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1518317062428698</v>
+        <v>0.3246605853781178</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005256841397659834</v>
+        <v>0.01143645085244376</v>
       </c>
       <c r="G263" t="n">
-        <v>0.06040106320813614</v>
+        <v>0.324835227336625</v>
       </c>
       <c r="J263" t="n">
-        <v>0.008254396515759432</v>
+        <v>0.01299068174047359</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1550725662917657</v>
+        <v>0.3264388948770514</v>
       </c>
       <c r="L263" t="n">
-        <v>0.007533929115121962</v>
+        <v>0.02862345785758019</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1529248126620341</v>
+        <v>0.3271314690093227</v>
       </c>
       <c r="N263" t="n">
-        <v>-0.005053887613192226</v>
+        <v>0.04375336653521478</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1526024255638996</v>
+        <v>0.3263086086541489</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01216115884184667</v>
       </c>
       <c r="G264" t="n">
-        <v>0.06025200836021731</v>
+        <v>0.3264758092928705</v>
       </c>
       <c r="J264" t="n">
-        <v>0.008418801629058233</v>
+        <v>0.0125232389835392</v>
       </c>
       <c r="K264" t="n">
-        <v>0.155855761071017</v>
+        <v>0.3280875761643093</v>
       </c>
       <c r="L264" t="n">
-        <v>0.007533267490284379</v>
+        <v>0.02813089432870711</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1536971602007312</v>
+        <v>0.3287836481457335</v>
       </c>
       <c r="N264" t="n">
-        <v>-0.005882576477928114</v>
+        <v>0.04303854967387494</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1533731448849294</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.06023885046548046</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005767807694621783</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.06023911899394448</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006531578684954291</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.06023938752240849</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.007291270340337726</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.06023965605087252</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.008046840030013179</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.06023992457933653</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008798245123321023</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.06024019310780054</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.009545442989568491</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.06024046163626456</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.01028839099809503</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.06024073016472858</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01102704651814321</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.0602409986931926</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01176136691905266</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.06024126722165662</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01249130957013062</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.06024153575012063</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01321683184071578</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.06024180427858466</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01393789110005221</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.06024207280704867</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01465444471747882</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.06024234133551268</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01536645006230281</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.0602426098639767</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01607386450386212</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.06024287839244073</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01677664541140236</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.06024314692090474</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01747475015426166</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.06024341544936875</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01816813610174724</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.06024368397783277</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01885676062319618</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.06024395250629679</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01954058108785575</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.06024422103476081</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.02021955486506331</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.06024448956322483</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.020893639324126</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.06024475809168884</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.0215627918343801</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.06024502662015287</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.0222269697650746</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.06024529514861688</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.02288630456087473</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.06024556367708089</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.02354179804306082</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.06024583220554491</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02419358165629723</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.06024610073400893</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02484161276983445</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.06024636926247295</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02548584875300812</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.06024663779093696</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.0261262469751255</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.06024690631940097</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02676276480552141</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.060247174847865</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02739535961344765</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.06024744337632901</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02802398876823928</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.06024771190479303</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02864860963920346</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.06024798043325705</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02926917959567439</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.06024824896172108</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02988565600690524</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.06024851749018509</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.03049799624223032</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.0602487860186491</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.03110615767095688</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.06024905454711312</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.03171009766241831</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.06024932307557714</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.0323097735858693</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.06024959160404116</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.0329051428106434</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.06024986013250517</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.03349616270604786</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.06025012866096918</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.03408279064141534</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.06025039718943321</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.03466498398600197</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.06025066571789722</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.03524270010914066</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.06025093424636124</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.03581589638013856</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.06025120277482526</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.03638453016832757</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.06025147130328928</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03694855884296543</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.0602517398317533</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03750793977338421</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.06025200836021731</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03750793977338419</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.06023885046548046</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.03813717311210293</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.06038844237032732</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03876106154877089</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.06053803427517418</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03937948456145592</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.06068762618002105</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03999232162822569</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.0608372180848679</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.04059945222714809</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.06098680998971476</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.04120075583629089</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.06113640189456162</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.04179611193372186</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.06128599379940847</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.04238539999750884</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.06143558570425533</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.04296849950571964</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.0615851776091022</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.043545289936422</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.06173476951394905</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.04411565076768369</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.06188436141879591</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.04467946147757255</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.06203395332364277</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.04523660154415639</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.06218354522848962</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.045786950445503</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.06233313713333649</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.04633038765968012</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.06248272903818335</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.04686679266475557</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.06263232094303021</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.04739604493879719</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.06278191284787707</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.04791802395987269</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.06293150475272392</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.04843260920604994</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.06308109665757078</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.04893968015539675</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.06323068856241765</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.04943911628598081</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.0633802804672645</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.04993079707587</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.06352987237211136</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.05041460200313205</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.06367946427695821</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.05089041054583482</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.06382905618180508</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.05135859431326928</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.06397864808665195</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.05182198557084221</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.0641282399914988</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.05228095592784461</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.06427783189634566</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.05273538486234425</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.06442742380119251</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.05318515185240898</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.06457701570603937</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.05363013637610659</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.06472660761088624</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.05407021791150479</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.06487619951573309</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.05450527593667145</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.06502579142057996</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.05493518992967433</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.06517538332542681</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.05535983936858126</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.06532497523027367</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.05577910373146</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.06547456713512052</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.05619286249637838</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.06562415903996739</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.05660099514140415</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.06577375094481425</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.05700338114460513</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.0659233428496611</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.05739989998404908</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.06607293475450797</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.05779043113780384</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.06622252665935482</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.05817485408393719</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.06637211856420168</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.05855304830051694</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.06652171046904855</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.05892489326561084</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.0666713023738954</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.05929026845728672</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.06682089427874226</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.05964905335361233</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.06697048618358911</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.06000112743265552</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.06712007808843597</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.06034637017248408</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.06726966999328284</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.06068466105116577</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.0674192618981297</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.06101587954676838</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.06756885380297656</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.05634391969784558</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.06756885380297656</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.06112480482756334</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.06944620190464476</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.06122551839858231</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.07132355000631296</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.06131834208328647</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.07320089810798117</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.06140359770513701</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.07507824620964937</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.06148160708759515</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.07695559431131758</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.06155269205412206</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.07883294241298577</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.06161717442817893</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.08071029051465399</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.06167537603322699</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.08258763861632219</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.06172761869272743</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.08446498671799041</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.06177422423014144</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.08634233481965861</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.0618155144689302</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.08821968292132681</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.06185181123255493</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.09009703102299502</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.06188343634447681</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.09197437912466322</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.06191071162815705</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.09385172722633142</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.06193395890705684</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.09572907532799962</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.06195350000463738</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.09760642342966784</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.06196965674435988</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.09948377153133603</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.06198275094968551</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.1013611196330042</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.06199310444407546</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.1032384677346724</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.06200103905099098</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.1051158158363407</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.06200687659389321</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.1069931639380089</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.06201093889624339</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.1088705120396771</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.06201354778150268</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.1107478601413453</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.06201502507313229</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.1126252082430135</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.06201569259459343</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.1145025563446817</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.06201587216934729</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.1163799044463499</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.06200589613179756</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1182572525480181</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.06192415450326483</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1201346006496863</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.06176496785163997</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1220119487513545</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.06153427803387485</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1238892968530227</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.06123802690692132</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1257666449546909</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.06088215632773124</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1276439930563591</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.06047260815325647</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1295213411580273</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.06001532424044889</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1313986892596955</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.05951624644626033</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1332760373613637</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.05898131662764268</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1351533854630319</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.05841647664154775</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1370307335647001</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.05782766834492746</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1389080816663684</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.05722083359473362</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1407854297680366</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.05660191424791812</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1426627778697048</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.05597685216143281</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1445401259713729</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.05535158919222953</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1464174740730412</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.05473206719726016</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1482948221747094</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.05412422803347658</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.05353401355783061</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1520495183780458</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.05296736562727412</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.153926866479714</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.05243022609875897</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1558042145813822</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.05192853682923702</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1576815626830504</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.05146823967566014</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1595589107847186</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.05105527649498018</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1614362588863868</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.05067669313653919</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.163313606988055</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.05029672105556726</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1651909550897232</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.04991515881564428</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1670683031913914</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.04953295741518192</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1689456512930596</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.0491510678525918</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1708229993947278</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.04877044112628559</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.172700347496396</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.04839202823467496</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1745776955980642</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.04801678017617154</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1764550436997324</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.04764564794918702</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1783323918014006</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.04727958255213305</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1802097399030689</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.0469195349834213</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1820870880047371</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.04656645624146337</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1839644361064053</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.04622129732467097</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1858417842080735</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.04588500923145573</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1877191323097417</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.04555854296022935</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1895964804114099</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.04524284950940344</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1914738285130781</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.04493887987738969</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1933511766147463</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.04464758506259972</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1952285247164145</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.04436991606344522</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.1971058728180827</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.04410682387833784</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.1989832209197509</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.04385925950568922</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.2008605690214191</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.04362817394391105</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.2027379171230873</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.04341451819141497</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.2046152652247555</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.04321924324661261</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.2064926133264237</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.04304330010791567</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.2083699614280919</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.04288744822725317</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.2102473095297601</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.0427396339589261</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.2121246576314283</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.04259261920924441</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.2140020057330966</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.04244694081528103</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.2158793538347647</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.04230313561410892</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.217756701936433</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.04216174044280099</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.2196340500381012</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.04202329213843023</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.2215113981397694</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.04188832753806952</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.2233887462414376</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.04175738347879183</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.2252660943431058</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.04163099679767013</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.227143442444774</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.04150970433177731</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.2290207905464422</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.04139404291818634</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.2308981386481104</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.04128454939397014</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.2327754867497786</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.04118176059620166</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2346528348514468</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.04108621336195384</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.236530182953115</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.04099844452829962</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2384075310547832</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.04091899093231197</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2402848791564514</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.04084838941106378</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2421622272581196</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.04078717680162801</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2440395753597878</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.04073588994107762</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.245916923461456</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.04069506566648552</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2477942715631243</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.04066524081492466</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2496716196647924</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.04064695222346801</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2515489677664607</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.04064073672918847</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2534263158681289</v>
-      </c>
-    </row>
+        <v>0.32795663193018</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1114.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1114.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.002249043880093171</v>
+        <v>0.001060520844947947</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001640581956245581</v>
+        <v>0.0005210464724810109</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.003250882491031171</v>
+        <v>0.001672112631149518</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001648681287257835</v>
+        <v>0.0008436144696129474</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01013543301340555</v>
+        <v>0.004921001389605523</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.002090367685994943</v>
+        <v>0.0008267962813785365</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01640517190297369</v>
+        <v>0.007870239200209683</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001648023276031055</v>
+        <v>0.0008282732333345249</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.006585979924461388</v>
+        <v>0.002101771139701059</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003871200258540025</v>
+        <v>0.001042092944962022</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.006761584399466891</v>
+        <v>0.003055786805636243</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.00397441953598076</v>
+        <v>0.001687228939225895</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01225677439408446</v>
+        <v>0.009481026456439723</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003304358272821442</v>
+        <v>0.001653592562757073</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02156926888905714</v>
+        <v>0.0144125412816738</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.002510552351472376</v>
+        <v>0.00165654646666905</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.005583478857914763</v>
+        <v>0.003104480334064526</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004921745868736742</v>
+        <v>0.001563139417443032</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.007519243162108107</v>
+        <v>0.004545803651720796</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004946043861773506</v>
+        <v>0.002530843408838842</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01546593983041691</v>
+        <v>0.01266929126675695</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004956537409232162</v>
+        <v>0.002364106311541901</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02764208850749622</v>
+        <v>0.02235360593956831</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004944069828093166</v>
+        <v>0.002795599591378427</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.007884150633604321</v>
+        <v>0.004049377877843513</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006562327824982323</v>
+        <v>0.002084185889924043</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.008463761253037189</v>
+        <v>0.005730156270734657</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006594725149031341</v>
+        <v>0.003368152149136239</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01777207098978495</v>
+        <v>0.01513030904462304</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006608716545642883</v>
+        <v>0.003307185125514146</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03029579208622918</v>
+        <v>0.02447689457259022</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00659209310412422</v>
+        <v>0.0033130929333381</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.006585979924461388</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.009954614103829938</v>
+        <v>0.004917193220843198</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008202909781227903</v>
+        <v>0.002605232362405055</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.009285287067987202</v>
+        <v>0.006593394450067</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008243406436289177</v>
+        <v>0.004218072348064737</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01934625486134359</v>
+        <v>0.01766903762278799</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008260895682053604</v>
+        <v>0.004133981406892684</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03306007036813302</v>
+        <v>0.02754310205843774</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008240116380155274</v>
+        <v>0.004141366166672625</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.009889430490313184</v>
+        <v>0.005688655812868745</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009843491737473484</v>
+        <v>0.003126278834886065</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.009976978012731785</v>
+        <v>0.007355083533225407</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009892087723547011</v>
+        <v>0.005061686817677684</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02125957843424778</v>
+        <v>0.01933066871530834</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009913074818464323</v>
+        <v>0.00496077768827122</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03508917054680777</v>
+        <v>0.0306466107950002</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009888139656186332</v>
+        <v>0.004969639400007149</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.0118547638640305</v>
+        <v>0.006585979924461388</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01161360077562008</v>
+        <v>0.003871200258540025</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01063199149304462</v>
+        <v>0.007837043101276378</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01154076901080485</v>
+        <v>0.005905301287290631</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02298312869765257</v>
+        <v>0.02136929389714515</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01156525395487504</v>
+        <v>0.005787573969649756</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03663733981585365</v>
+        <v>0.03289495762835265</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01153616293221739</v>
+        <v>0.005797912633341675</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01269569513058775</v>
+        <v>0.006886050920862967</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01312465564996465</v>
+        <v>0.004168371779848087</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01146031254146931</v>
+        <v>0.008554296503223674</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01322536764705881</v>
+        <v>0.006748915756903579</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.0253385825335139</v>
+        <v>0.02303900474325954</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01392143962848297</v>
+        <v>0.006614370251028292</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.03921685252555845</v>
+        <v>0.03479567940457007</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01309442341292952</v>
+        <v>0.006626185866676199</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01361089711635422</v>
+        <v>0.007396064504493829</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01476523760621023</v>
+        <v>0.004689418252329098</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01203703320418148</v>
+        <v>0.009221867088071087</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01483813158532052</v>
+        <v>0.007592530226516527</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.0263962675752196</v>
+        <v>0.02439389282861268</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01486961222769649</v>
+        <v>0.007441166532406829</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04193192941966023</v>
+        <v>0.03705631296972745</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.0148322094842795</v>
+        <v>0.007454459100010725</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01251931981141441</v>
+        <v>0.007884877513194645</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01640581956245581</v>
+        <v>0.005210464724810109</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01306281960704046</v>
+        <v>0.009654778204822349</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01648681287257835</v>
+        <v>0.008436144696129475</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02787651960410698</v>
+        <v>0.0253385825335139</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01652179136410721</v>
+        <v>0.007880354371806337</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.044529227651389</v>
+        <v>0.03921685252555845</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01648023276031055</v>
+        <v>0.008174267811048035</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01541166291649056</v>
+        <v>0.008351703104200844</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01804640151870139</v>
+        <v>0.00573151119729112</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01380766642052021</v>
+        <v>0.01026805320248125</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01813549415983619</v>
+        <v>0.009279759165742422</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02998250805661715</v>
+        <v>0.02719595531817445</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01817397050051793</v>
+        <v>0.009094759095163902</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04700272686344015</v>
+        <v>0.04134809717164151</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01812825603634161</v>
+        <v>0.009111005566679774</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01527862613230491</v>
+        <v>0.008795754434747803</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01968698347494697</v>
+        <v>0.00625255766977213</v>
       </c>
       <c r="J77" t="n">
-        <v>0.014558421052373</v>
+        <v>0.01067671543005155</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01978417544709402</v>
+        <v>0.01012337363535537</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03188906062043376</v>
+        <v>0.02870754022766328</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01982614963692865</v>
+        <v>0.00992155537654244</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05060523842292047</v>
+        <v>0.04344453158997985</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01977627931237266</v>
+        <v>0.009939278800014299</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01711090915957972</v>
+        <v>0.009216244662070952</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02132756543119255</v>
+        <v>0.006773604142253141</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01560193091035103</v>
+        <v>0.01146031254146931</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02143285673435186</v>
+        <v>0.01122717383045412</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0337710049832404</v>
+        <v>0.03012150623811605</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02147832877333937</v>
+        <v>0.01074835165792098</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05328957369693693</v>
+        <v>0.04536375911754681</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02142430258840371</v>
+        <v>0.01076755203334882</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01689921169903721</v>
+        <v>0.009612386943405715</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02296814738743813</v>
+        <v>0.007294650614734153</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01642504340220653</v>
+        <v>0.01173787707346488</v>
       </c>
       <c r="K79" t="n">
-        <v>0.0230815380216097</v>
+        <v>0.01181060257458126</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0356031688327208</v>
+        <v>0.03143229305716189</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02313050790975009</v>
+        <v>0.01157514793929951</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05580854405259644</v>
+        <v>0.04729603302426916</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02307232586443477</v>
+        <v>0.01159582526668335</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01663423345139962</v>
+        <v>0.009983394435987489</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02460872934368371</v>
+        <v>0.007815697087215164</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01701460593569175</v>
+        <v>0.01220187615134095</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02473021930886753</v>
+        <v>0.01265421704419421</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03716037985655851</v>
+        <v>0.03283434039242994</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02478268704616081</v>
+        <v>0.01240194422067805</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05901496085700575</v>
+        <v>0.05003160658007338</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02472034914046583</v>
+        <v>0.01242409850001787</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0183066741173892</v>
+        <v>0.01032848029705169</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02624931129992929</v>
+        <v>0.008336743559696174</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01775746591855892</v>
+        <v>0.01298392638465405</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02637890059612536</v>
+        <v>0.01349783151380716</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03901746574243725</v>
+        <v>0.03442208795154925</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02643486618257153</v>
+        <v>0.01322874050205658</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06156163547727184</v>
+        <v>0.05176073305488632</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02636837241649688</v>
+        <v>0.0132523717333524</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01890723339772821</v>
+        <v>0.01064685768383372</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02788989325617487</v>
+        <v>0.008857790032177185</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0186404707585603</v>
+        <v>0.01348035312920821</v>
       </c>
       <c r="K82" t="n">
-        <v>0.0280275818833832</v>
+        <v>0.01434144598342011</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04024925417804059</v>
+        <v>0.03548997544214905</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02808704531898225</v>
+        <v>0.01405553678343512</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06360137928050147</v>
+        <v>0.05407366571863442</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02801639569252794</v>
+        <v>0.01408064496668692</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01842661099313884</v>
+        <v>0.01093773975356901</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02953047521242045</v>
+        <v>0.009378836504658195</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01915046786344808</v>
+        <v>0.01418748174080743</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02967626317064103</v>
+        <v>0.01518506045303305</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04213057285105218</v>
+        <v>0.03703244257185845</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02973922445539297</v>
+        <v>0.01488233306481366</v>
       </c>
       <c r="N83" t="n">
-        <v>0.06538700363380162</v>
+        <v>0.0562606578412444</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02966441896855899</v>
+        <v>0.01490891820002145</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.0208555066043434</v>
+        <v>0.01120033966349297</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03117105716866603</v>
+        <v>0.009899882977139207</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01967430464097454</v>
+        <v>0.01470163757525571</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03132494445789887</v>
+        <v>0.016028674922646</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04303624944915566</v>
+        <v>0.03844392904830646</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03139140359180369</v>
+        <v>0.0157091293461922</v>
       </c>
       <c r="N84" t="n">
-        <v>0.06717131990427905</v>
+        <v>0.05781196269264294</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03131244224459005</v>
+        <v>0.01573719143335597</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01918514662010565</v>
+        <v>0.01143387057084099</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03281163912491161</v>
+        <v>0.01042092944962022</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02009882849889189</v>
+        <v>0.01541914598835707</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03297362574515671</v>
+        <v>0.01687228939225895</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04384111166003465</v>
+        <v>0.03931887457912231</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03304358272821441</v>
+        <v>0.01653592562757073</v>
       </c>
       <c r="N85" t="n">
-        <v>0.06880713945904071</v>
+        <v>0.0599178335427567</v>
       </c>
       <c r="O85" t="n">
-        <v>0.0329604655206211</v>
+        <v>0.0165654646666905</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01946809877924797</v>
+        <v>0.01163754563284852</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03445222108115719</v>
+        <v>0.01094197592210123</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0204137723373097</v>
+        <v>0.01593633233591552</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03462230703241454</v>
+        <v>0.01771590386187189</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04471998717137282</v>
+        <v>0.04055171887193509</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03469576186462514</v>
+        <v>0.01736272190894927</v>
       </c>
       <c r="N86" t="n">
-        <v>0.07026494546198608</v>
+        <v>0.06236852366151219</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03460848879665215</v>
+        <v>0.01739373790002502</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02174270021980429</v>
+        <v>0.0118547638640305</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03609280303740278</v>
+        <v>0.01161360077562008</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02068775401730759</v>
+        <v>0.01644952197373505</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03627098831967238</v>
+        <v>0.01855951833148484</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04543589302546397</v>
+        <v>0.04193690163437402</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03634794100103586</v>
+        <v>0.0181895181903278</v>
       </c>
       <c r="N87" t="n">
-        <v>0.07070030358312346</v>
+        <v>0.06425428631883623</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03625651207268321</v>
+        <v>0.01822201113335955</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02100708412859809</v>
+        <v>0.01195980197540734</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03773338499364835</v>
+        <v>0.01198406886706325</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02105335297015079</v>
+        <v>0.0171550402576197</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03791966960693022</v>
+        <v>0.01940313280109779</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04583180391530256</v>
+        <v>0.04296886257406812</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03800012013744658</v>
+        <v>0.01901631447170634</v>
       </c>
       <c r="N88" t="n">
-        <v>0.07190655674624885</v>
+        <v>0.06606537478465535</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03790453534871427</v>
+        <v>0.01905028436669408</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02025938369245288</v>
+        <v>0.01210608226379632</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03937396694989394</v>
+        <v>0.01250511533954426</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02110873763754609</v>
+        <v>0.01774921254337344</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03956835089418805</v>
+        <v>0.02024674727071074</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04650655377534724</v>
+        <v>0.0441420413986465</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03965229927385729</v>
+        <v>0.01984311075308488</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0722774449141263</v>
+        <v>0.06759204232889615</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03955255862474533</v>
+        <v>0.0198785576000286</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02049773209819217</v>
+        <v>0.01225066073025333</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04101454890613952</v>
+        <v>0.01302616181202527</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02145207646120033</v>
+        <v>0.01832836418680032</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04121703218144588</v>
+        <v>0.02109036174032368</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0472560672278009</v>
+        <v>0.04485087781573835</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04130447841026802</v>
+        <v>0.02066990703446341</v>
       </c>
       <c r="N90" t="n">
-        <v>0.07380670804951961</v>
+        <v>0.06902454222148546</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04120058190077638</v>
+        <v>0.02070683083336312</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02072026253263948</v>
+        <v>0.01239353104809852</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04265513086238509</v>
+        <v>0.01354720828450628</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0216815378828203</v>
+        <v>0.01898882054370432</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04286571346870372</v>
+        <v>0.02193397620993663</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04747626889486667</v>
+        <v>0.04608981153297273</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04295665754667874</v>
+        <v>0.02149670331584195</v>
       </c>
       <c r="N91" t="n">
-        <v>0.07408808611519302</v>
+        <v>0.07065312773234972</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04284860517680743</v>
+        <v>0.02153510406669765</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02192510818261832</v>
+        <v>0.01253468689065213</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04429571281863067</v>
+        <v>0.01406825475698729</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02189529034411283</v>
+        <v>0.01952690696988948</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04451439475596156</v>
+        <v>0.02277759067954958</v>
       </c>
       <c r="L92" t="n">
-        <v>0.04846308339874744</v>
+        <v>0.04665328225797888</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04460883668308946</v>
+        <v>0.02232349959722049</v>
       </c>
       <c r="N92" t="n">
-        <v>0.07461531907391045</v>
+        <v>0.07236805213141573</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04449662845283849</v>
+        <v>0.02236337730003217</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02111040223495218</v>
+        <v>0.01267412193123432</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04593629477487626</v>
+        <v>0.01458930122946831</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02209150228678471</v>
+        <v>0.0198389488211598</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04616307604321939</v>
+        <v>0.02362120514916253</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04891243536164619</v>
+        <v>0.04793572969838583</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04626101581950018</v>
+        <v>0.02315029587859902</v>
       </c>
       <c r="N93" t="n">
-        <v>0.07538214688843592</v>
+        <v>0.07365956868861001</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04614465172886954</v>
+        <v>0.0231916505333667</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02227427787646458</v>
+        <v>0.01281182984316528</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04757687673112183</v>
+        <v>0.01511034770194931</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02226834215254278</v>
+        <v>0.02032127145331925</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04781175733047723</v>
+        <v>0.02446481961877547</v>
       </c>
       <c r="L94" t="n">
-        <v>0.04912024940576598</v>
+        <v>0.04813159356182267</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0479131949559109</v>
+        <v>0.02397709215997756</v>
       </c>
       <c r="N94" t="n">
-        <v>0.07628230952153331</v>
+        <v>0.07481793067385928</v>
       </c>
       <c r="O94" t="n">
-        <v>0.0477926750049006</v>
+        <v>0.02401992376670122</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.021414868293979</v>
+        <v>0.0129478042997652</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04921745868736742</v>
+        <v>0.01563139417443033</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02252397838309385</v>
+        <v>0.0209702002221719</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04946043861773506</v>
+        <v>0.02530843408838842</v>
       </c>
       <c r="L95" t="n">
-        <v>0.04918245015330977</v>
+        <v>0.04913531355591869</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04956537409232162</v>
+        <v>0.0248038884413561</v>
       </c>
       <c r="N95" t="n">
-        <v>0.07660954693596689</v>
+        <v>0.07563339135709019</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04944069828093165</v>
+        <v>0.02484819700003575</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02353030667431899</v>
+        <v>0.01308203897435426</v>
       </c>
       <c r="G96" t="n">
-        <v>0.050858040643613</v>
+        <v>0.01615244064691134</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02255657942014472</v>
+        <v>0.02128206048352171</v>
       </c>
       <c r="K96" t="n">
-        <v>0.05110911990499289</v>
+        <v>0.02615204855800137</v>
       </c>
       <c r="L96" t="n">
-        <v>0.04949496222648056</v>
+        <v>0.04974132938830286</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05121755322873234</v>
+        <v>0.02563068472273464</v>
       </c>
       <c r="N96" t="n">
-        <v>0.0774575990945004</v>
+        <v>0.07659620400822936</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0510887215569627</v>
+        <v>0.02567647023337027</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02261872620430802</v>
+        <v>0.01321452754025267</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05249862259985858</v>
+        <v>0.01667348711939235</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02276431370540222</v>
+        <v>0.02165317759317271</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05275780119225073</v>
+        <v>0.02699566302761432</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05015371024748133</v>
+        <v>0.05004408076660435</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05286973236514306</v>
+        <v>0.02645748100411317</v>
       </c>
       <c r="N97" t="n">
-        <v>0.07762020595989794</v>
+        <v>0.07689662189720342</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05273674483299376</v>
+        <v>0.0265047434667048</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02370952772806101</v>
+        <v>0.01334526367078059</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05413920455610416</v>
+        <v>0.01719453359187336</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02264534968057313</v>
+        <v>0.02187987690692893</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05440648247950857</v>
+        <v>0.02783927749722727</v>
       </c>
       <c r="L98" t="n">
-        <v>0.05005461883851509</v>
+        <v>0.04993800739845231</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05452191150155378</v>
+        <v>0.02728427728549171</v>
       </c>
       <c r="N98" t="n">
-        <v>0.07759110749492365</v>
+        <v>0.07792489829393906</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05438476810902482</v>
+        <v>0.02733301670003932</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02270704146052727</v>
+        <v>0.01347424103925823</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05577978651234974</v>
+        <v>0.01771558006435437</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02292062508293861</v>
+        <v>0.02235848378059434</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05605516376676641</v>
+        <v>0.02868289196684021</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05019361262178484</v>
+        <v>0.05067716506702777</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0561740906379645</v>
+        <v>0.02811107356687024</v>
       </c>
       <c r="N99" t="n">
-        <v>0.07843370505111691</v>
+        <v>0.07807128646836281</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05603279138505587</v>
+        <v>0.02816128993337385</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.022706500740498</v>
+        <v>0.01360145331900577</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05742036846859532</v>
+        <v>0.01823662653683538</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02272000046748253</v>
+        <v>0.02238532356997297</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05770384505402424</v>
+        <v>0.02952650643645316</v>
       </c>
       <c r="L100" t="n">
-        <v>0.05067716506702777</v>
+        <v>0.05047716506702776</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05782626977437523</v>
+        <v>0.02893786984824878</v>
       </c>
       <c r="N100" t="n">
-        <v>0.07803275442491492</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05768081466108693</v>
+        <v>0.02898956316670838</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02368897091496379</v>
+        <v>0.01372689418334339</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05906095042484091</v>
+        <v>0.01875767300931639</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02281555515557646</v>
+        <v>0.02255672163086882</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05935252634128207</v>
+        <v>0.03037012090606611</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05067350068081497</v>
+        <v>0.05037716506702777</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05947844891078595</v>
+        <v>0.02976466612962732</v>
       </c>
       <c r="N101" t="n">
-        <v>0.07771346076849028</v>
+        <v>0.0780337050511169</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05932883793711798</v>
+        <v>0.0298178364000429</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02265668508979059</v>
+        <v>0.0138505573055913</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06070153238108648</v>
+        <v>0.0192787194817974</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02289561455276184</v>
+        <v>0.02276900331908592</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06100120762853991</v>
+        <v>0.03121373537567905</v>
       </c>
       <c r="L102" t="n">
-        <v>0.05024067260012002</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06113062804719667</v>
+        <v>0.03059146241100585</v>
       </c>
       <c r="N102" t="n">
-        <v>0.07804199830575648</v>
+        <v>0.07833370505111692</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06097686121314904</v>
+        <v>0.03064610963337742</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02361062712935828</v>
+        <v>0.01397243635906966</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06234211433733206</v>
+        <v>0.01979976595427841</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0228614600671242</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06264988891579774</v>
+        <v>0.032057349845292</v>
       </c>
       <c r="L103" t="n">
-        <v>0.05027554769201514</v>
+        <v>0.05027716506702776</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06278280718360739</v>
+        <v>0.03141825869238439</v>
       </c>
       <c r="N103" t="n">
-        <v>0.07792214857249702</v>
+        <v>0.07783370505111692</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06262488448918009</v>
+        <v>0.03147438286671195</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02355178089804681</v>
+        <v>0.01409252501709868</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06398269629357764</v>
+        <v>0.02032081242675942</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02271405698270323</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06429857020305559</v>
+        <v>0.03290096431490495</v>
       </c>
       <c r="L104" t="n">
-        <v>0.04998027379812672</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06443498632001811</v>
+        <v>0.03224505497376293</v>
       </c>
       <c r="N104" t="n">
-        <v>0.07805721078886468</v>
+        <v>0.07773370505111693</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06427290776521115</v>
+        <v>0.03230265610004648</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02348113026023609</v>
+        <v>0.01421081695299854</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06562327824982322</v>
+        <v>0.02084185889924044</v>
       </c>
       <c r="J105" t="n">
-        <v>0.0227543705835387</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06594725149031341</v>
+        <v>0.0337445787845179</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05025699876008122</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06608716545642883</v>
+        <v>0.03307185125514147</v>
       </c>
       <c r="N105" t="n">
-        <v>0.07745048417501221</v>
+        <v>0.07783370505111692</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06592093104124219</v>
+        <v>0.033130929333381</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02239965908030603</v>
+        <v>0.01432730584008943</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0672638602060688</v>
+        <v>0.02136290537172145</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02258336615367029</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06759593277757125</v>
+        <v>0.03458819325413084</v>
       </c>
       <c r="L106" t="n">
-        <v>0.05010787041950493</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06773934459283955</v>
+        <v>0.03389864753652</v>
       </c>
       <c r="N106" t="n">
-        <v>0.07690526795109265</v>
+        <v>0.07773370505111693</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06756895431727325</v>
+        <v>0.03395920256671552</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02230835122263654</v>
+        <v>0.01444198535169153</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06890444216231438</v>
+        <v>0.02188395184420246</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02260200897713772</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06924461406482908</v>
+        <v>0.03543180772374379</v>
       </c>
       <c r="L107" t="n">
-        <v>0.04993503661802434</v>
+        <v>0.05027716506702776</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06939152372925028</v>
+        <v>0.03472544381789854</v>
       </c>
       <c r="N107" t="n">
-        <v>0.07672486133725864</v>
+        <v>0.07813370505111689</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06921697759330431</v>
+        <v>0.03478747580005005</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02320819055160757</v>
+        <v>0.01455484916112504</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07054502411855997</v>
+        <v>0.02240499831668347</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02251126433798076</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07089329535208692</v>
+        <v>0.03627542219335674</v>
       </c>
       <c r="L108" t="n">
-        <v>0.04954064519726584</v>
+        <v>0.05047716506702776</v>
       </c>
       <c r="M108" t="n">
-        <v>0.071043702865661</v>
+        <v>0.03555224009927707</v>
       </c>
       <c r="N108" t="n">
-        <v>0.07631256355366312</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07086500086933537</v>
+        <v>0.03561574903338457</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.023100160931599</v>
+        <v>0.01466589094171014</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07218560607480555</v>
+        <v>0.02292604478916448</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02241209752023908</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07254197663934475</v>
+        <v>0.03711903666296969</v>
       </c>
       <c r="L109" t="n">
-        <v>0.04952684399885582</v>
+        <v>0.05027716506702776</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07269588200207172</v>
+        <v>0.03637903638065561</v>
       </c>
       <c r="N109" t="n">
-        <v>0.0763716738204589</v>
+        <v>0.07783370505111692</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07251302414536642</v>
+        <v>0.0364440222667191</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02298524622699079</v>
+        <v>0.01477510436676702</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07382618803105112</v>
+        <v>0.02344709126164549</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02210547380795241</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07419065792660259</v>
+        <v>0.03796265113258263</v>
       </c>
       <c r="L110" t="n">
-        <v>0.04919578086442064</v>
+        <v>0.05067716506702777</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07434806113848244</v>
+        <v>0.03720583266203414</v>
       </c>
       <c r="N110" t="n">
-        <v>0.07580549135779879</v>
+        <v>0.07823370505111693</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07416104742139748</v>
+        <v>0.03727229550005362</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02286443030216283</v>
+        <v>0.01488248310961586</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07546676998729671</v>
+        <v>0.0239681377341265</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0219923584851605</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07583933921386043</v>
+        <v>0.03880626560219558</v>
       </c>
       <c r="L111" t="n">
-        <v>0.04914960363558682</v>
+        <v>0.05037716506702777</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07600024027489316</v>
+        <v>0.03803262894341269</v>
       </c>
       <c r="N111" t="n">
-        <v>0.0752173153858357</v>
+        <v>0.07813370505111689</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07580907069742854</v>
+        <v>0.03810056873338815</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02173869702149504</v>
+        <v>0.01498802084357687</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07710735194354229</v>
+        <v>0.02448918420660751</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02187371683590304</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07748802050111826</v>
+        <v>0.03964988007180853</v>
       </c>
       <c r="L112" t="n">
-        <v>0.0488904601539806</v>
+        <v>0.05047716506702776</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07765241941130388</v>
+        <v>0.03885942522479122</v>
       </c>
       <c r="N112" t="n">
-        <v>0.07511044512472231</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O112" t="n">
-        <v>0.0774570939734596</v>
+        <v>0.03892884196672267</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02260903024936736</v>
+        <v>0.01509171124197022</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07874793389978788</v>
+        <v>0.02501023067908852</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02175051414421977</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07913670178837609</v>
+        <v>0.04049349454142148</v>
       </c>
       <c r="L113" t="n">
-        <v>0.04852049826122853</v>
+        <v>0.05037716506702777</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07930459854771459</v>
+        <v>0.03968622150616976</v>
       </c>
       <c r="N113" t="n">
-        <v>0.07478817979461166</v>
+        <v>0.0780337050511169</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07910511724949065</v>
+        <v>0.0397571152000572</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02147641385015969</v>
+        <v>0.0151935479781161</v>
       </c>
       <c r="G114" t="n">
-        <v>0.08038851585603346</v>
+        <v>0.02553127715156953</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02182371569415043</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08078538307563393</v>
+        <v>0.04133710901103443</v>
       </c>
       <c r="L114" t="n">
-        <v>0.04784186579895691</v>
+        <v>0.05067716506702777</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08095677768412531</v>
+        <v>0.04051301778754829</v>
       </c>
       <c r="N114" t="n">
-        <v>0.07435381861565638</v>
+        <v>0.07773370505111693</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0807531405255217</v>
+        <v>0.04058538843339172</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02034183168825196</v>
+        <v>0.0152935247253347</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08202909781227903</v>
+        <v>0.02605232362405055</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02169428676973471</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08243406436289176</v>
+        <v>0.04218072348064737</v>
       </c>
       <c r="L115" t="n">
-        <v>0.04775671060879222</v>
+        <v>0.05017716506702777</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08260895682053604</v>
+        <v>0.04133981406892683</v>
       </c>
       <c r="N115" t="n">
-        <v>0.07411066080800954</v>
+        <v>0.07813370505111689</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08240116380155275</v>
+        <v>0.04141366166672624</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02220626762802408</v>
+        <v>0.01539163515694622</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08366967976852462</v>
+        <v>0.02657337009653156</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02136319265501234</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K116" t="n">
-        <v>0.0840827456501496</v>
+        <v>0.04302433795026032</v>
       </c>
       <c r="L116" t="n">
-        <v>0.04746718053236079</v>
+        <v>0.05037716506702777</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08426113595694676</v>
+        <v>0.04216661035030537</v>
       </c>
       <c r="N116" t="n">
-        <v>0.07326200559182372</v>
+        <v>0.07773370505111693</v>
       </c>
       <c r="O116" t="n">
-        <v>0.0840491870775838</v>
+        <v>0.04224193490006077</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02207070553385597</v>
+        <v>0.01548787294627083</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08531026172477019</v>
+        <v>0.02709441656901256</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02123139863402305</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08573142693740744</v>
+        <v>0.04386795241987327</v>
       </c>
       <c r="L117" t="n">
-        <v>0.04707542341128904</v>
+        <v>0.05017716506702777</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08591331509335748</v>
+        <v>0.0429934066316839</v>
       </c>
       <c r="N117" t="n">
-        <v>0.0730111521872519</v>
+        <v>0.07793370505111691</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08569721035361486</v>
+        <v>0.04307020813339529</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02093612927012754</v>
+        <v>0.01558223176662872</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08695084368101577</v>
+        <v>0.02761546304149358</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02109986999080656</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08738010822466528</v>
+        <v>0.04471156688948621</v>
       </c>
       <c r="L118" t="n">
-        <v>0.04718358708720344</v>
+        <v>0.05037716506702777</v>
       </c>
       <c r="M118" t="n">
-        <v>0.0875654942297682</v>
+        <v>0.04382020291306244</v>
       </c>
       <c r="N118" t="n">
-        <v>0.07266139981444697</v>
+        <v>0.07833370505111692</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08734523362964591</v>
+        <v>0.04389848136672982</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02080122381438328</v>
+        <v>0.01567470529134009</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08859142563726134</v>
+        <v>0.02813650951397459</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02096957200940258</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08902878951192311</v>
+        <v>0.04555518135909916</v>
       </c>
       <c r="L119" t="n">
-        <v>0.04689381940173029</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08921767336617892</v>
+        <v>0.04464699919444098</v>
       </c>
       <c r="N119" t="n">
-        <v>0.0722160476935616</v>
+        <v>0.07833370505111692</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08899325690567697</v>
+        <v>0.04472675460006435</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02164916787370051</v>
+        <v>0.01576528719372512</v>
       </c>
       <c r="G120" t="n">
-        <v>0.09023200759350693</v>
+        <v>0.0286575559864556</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02103530347531862</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09067747079918094</v>
+        <v>0.04639879582871211</v>
       </c>
       <c r="L120" t="n">
-        <v>0.04620375367243659</v>
+        <v>0.05067716506702777</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09086985250258964</v>
+        <v>0.04547379547581951</v>
       </c>
       <c r="N120" t="n">
-        <v>0.07145380821717429</v>
+        <v>0.07773370505111693</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09064128018170803</v>
+        <v>0.04555502783339888</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02147899341316663</v>
+        <v>0.015853971147104</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09187258954975251</v>
+        <v>0.02917860245893661</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02068212887864757</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09232615208643878</v>
+        <v>0.04724241029832505</v>
       </c>
       <c r="L121" t="n">
-        <v>0.04577706495011635</v>
+        <v>0.05067716506702777</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09252203163900036</v>
+        <v>0.04630059175719805</v>
       </c>
       <c r="N121" t="n">
-        <v>0.0711262825261097</v>
+        <v>0.07793370505111691</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09228930345773909</v>
+        <v>0.0463833010667334</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02129390598053783</v>
+        <v>0.01594075082479692</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0935131715059981</v>
+        <v>0.02969964893141762</v>
       </c>
       <c r="J122" t="n">
-        <v>0.0207121854393717</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09397483337369661</v>
+        <v>0.048086024767938</v>
       </c>
       <c r="L122" t="n">
-        <v>0.04551102447531397</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09417421077541108</v>
+        <v>0.04712738803857659</v>
       </c>
       <c r="N122" t="n">
-        <v>0.07044203388370041</v>
+        <v>0.07833370505111692</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09393732673377014</v>
+        <v>0.04721157430006792</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01909711112357035</v>
+        <v>0.01602561990012406</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09515375346224367</v>
+        <v>0.03022069540389863</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02052861816827785</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09562351466095445</v>
+        <v>0.04892963923755095</v>
       </c>
       <c r="L123" t="n">
-        <v>0.04531263017279105</v>
+        <v>0.05047716506702776</v>
       </c>
       <c r="M123" t="n">
-        <v>0.0958263899118218</v>
+        <v>0.04795418431995512</v>
       </c>
       <c r="N123" t="n">
-        <v>0.07021181154357725</v>
+        <v>0.07773370505111693</v>
       </c>
       <c r="O123" t="n">
-        <v>0.0955853500098012</v>
+        <v>0.04803984753340244</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01989181439002038</v>
+        <v>0.01610857204640561</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09679433541848925</v>
+        <v>0.03074174187637965</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02013457207615288</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09727219594821229</v>
+        <v>0.0497732537071639</v>
       </c>
       <c r="L124" t="n">
-        <v>0.0449888799673091</v>
+        <v>0.05047716506702776</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09747856904823253</v>
+        <v>0.04878098060133366</v>
       </c>
       <c r="N124" t="n">
-        <v>0.06894636475937116</v>
+        <v>0.07833370505111692</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09723337328583224</v>
+        <v>0.04886812076673697</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02068122132764419</v>
+        <v>0.01618960093696177</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09843491737473484</v>
+        <v>0.03126278834886066</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02003319217378367</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09892087723547012</v>
+        <v>0.05061686817677685</v>
       </c>
       <c r="L125" t="n">
-        <v>0.04414677178362969</v>
+        <v>0.05017716506702777</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09913074818464325</v>
+        <v>0.04960777688271219</v>
       </c>
       <c r="N125" t="n">
-        <v>0.06845644278471313</v>
+        <v>0.07823370505111693</v>
       </c>
       <c r="O125" t="n">
-        <v>0.0988813965618633</v>
+        <v>0.0496963940000715</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01846853748419797</v>
+        <v>0.01626870024511272</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1000754993309804</v>
+        <v>0.03178383482134167</v>
       </c>
       <c r="J126" t="n">
-        <v>0.01982762347195706</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1005695585227279</v>
+        <v>0.05146048264638979</v>
       </c>
       <c r="L126" t="n">
-        <v>0.04399330354651429</v>
+        <v>0.05017716506702777</v>
       </c>
       <c r="M126" t="n">
-        <v>0.100782927321054</v>
+        <v>0.05043457316409073</v>
       </c>
       <c r="N126" t="n">
-        <v>0.06765279487323411</v>
+        <v>0.07773370505111693</v>
       </c>
       <c r="O126" t="n">
-        <v>0.1005294198378944</v>
+        <v>0.05052466723340602</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01825696840743798</v>
+        <v>0.01634586364417863</v>
       </c>
       <c r="G127" t="n">
-        <v>0.101716081287226</v>
+        <v>0.03230488129382268</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0195210109814599</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1022182398099858</v>
+        <v>0.05230409711600274</v>
       </c>
       <c r="L127" t="n">
-        <v>0.04333547318072453</v>
+        <v>0.05017716506702777</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1024351064574647</v>
+        <v>0.05126136944546927</v>
       </c>
       <c r="N127" t="n">
-        <v>0.06674617027856505</v>
+        <v>0.0780337050511169</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1021774431139254</v>
+        <v>0.05135294046674055</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01804971964512042</v>
+        <v>0.01642108480747973</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1033566632434716</v>
+        <v>0.03282592776630368</v>
       </c>
       <c r="J128" t="n">
-        <v>0.01941649971307907</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1038669210972436</v>
+        <v>0.05314771158561569</v>
       </c>
       <c r="L128" t="n">
-        <v>0.04278027861102202</v>
+        <v>0.05027716506702776</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1040872855938754</v>
+        <v>0.0520881657268478</v>
       </c>
       <c r="N128" t="n">
-        <v>0.06634731825433693</v>
+        <v>0.07793370505111691</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1038254663899565</v>
+        <v>0.05218121370007507</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01884999674500153</v>
+        <v>0.01649435740833616</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1049972451997172</v>
+        <v>0.03334697423878469</v>
       </c>
       <c r="J129" t="n">
-        <v>0.01911723467760142</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1055156023845015</v>
+        <v>0.05399132605522863</v>
       </c>
       <c r="L129" t="n">
-        <v>0.04263471776216815</v>
+        <v>0.05067716506702777</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1057394647302861</v>
+        <v>0.05291496200822634</v>
       </c>
       <c r="N129" t="n">
-        <v>0.06566698805418064</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1054734896659875</v>
+        <v>0.05300948693340959</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01965831898513727</v>
+        <v>0.01656567512006814</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1066378271559627</v>
+        <v>0.0338680207112657</v>
       </c>
       <c r="J130" t="n">
-        <v>0.01892636088581381</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1071642836717593</v>
+        <v>0.05483494052484158</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04190578855892454</v>
+        <v>0.05067716506702777</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1073916438666968</v>
+        <v>0.05374175828960488</v>
       </c>
       <c r="N130" t="n">
-        <v>0.06521592893172723</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1071215129420186</v>
+        <v>0.05383776016674412</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01745241330660253</v>
+        <v>0.01663503161599587</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1082784091122083</v>
+        <v>0.03438906718374672</v>
       </c>
       <c r="J131" t="n">
-        <v>0.01873790573820781</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1088129649590171</v>
+        <v>0.05567855499445453</v>
       </c>
       <c r="L131" t="n">
-        <v>0.04159286221170477</v>
+        <v>0.05037716506702777</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1090438230031076</v>
+        <v>0.05456855457098341</v>
       </c>
       <c r="N131" t="n">
-        <v>0.06456901877786708</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1087695362180496</v>
+        <v>0.05466603340007864</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01923027246548305</v>
+        <v>0.0167024205694395</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1099189910684539</v>
+        <v>0.03491011365622773</v>
       </c>
       <c r="J132" t="n">
-        <v>0.01873191099496206</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K132" t="n">
-        <v>0.110461646246275</v>
+        <v>0.05652216946406748</v>
       </c>
       <c r="L132" t="n">
-        <v>0.04134714300775166</v>
+        <v>0.05017716506702777</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1106960021395183</v>
+        <v>0.05539535085236195</v>
       </c>
       <c r="N132" t="n">
-        <v>0.06366142110749606</v>
+        <v>0.07843370505111691</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1104175594940807</v>
+        <v>0.05549430663341317</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01699648520433092</v>
+        <v>0.01676783565371923</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1115595730246995</v>
+        <v>0.03543116012870874</v>
       </c>
       <c r="J133" t="n">
-        <v>0.01841162646622328</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1121103275335328</v>
+        <v>0.05736578393368042</v>
       </c>
       <c r="L133" t="n">
-        <v>0.04086689560605369</v>
+        <v>0.05047716506702776</v>
       </c>
       <c r="M133" t="n">
-        <v>0.112348181275929</v>
+        <v>0.05622214713374048</v>
       </c>
       <c r="N133" t="n">
-        <v>0.06270577422280682</v>
+        <v>0.07793370505111691</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1120655827701117</v>
+        <v>0.05632257986674769</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01675564026569827</v>
+        <v>0.01683127054215527</v>
       </c>
       <c r="G134" t="n">
-        <v>0.113200154980945</v>
+        <v>0.03595220660118975</v>
       </c>
       <c r="J134" t="n">
-        <v>0.01818155423585424</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1137590088207906</v>
+        <v>0.05820939840329337</v>
       </c>
       <c r="L134" t="n">
-        <v>0.04016213753795694</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1140003604123397</v>
+        <v>0.05704894341511902</v>
       </c>
       <c r="N134" t="n">
-        <v>0.06231746568352103</v>
+        <v>0.07833370505111692</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1137136060461428</v>
+        <v>0.05715085310008222</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01651232639213716</v>
+        <v>0.01689271890806778</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1148407369371906</v>
+        <v>0.03647325307367076</v>
       </c>
       <c r="J135" t="n">
-        <v>0.01794619638771763</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1154076901080485</v>
+        <v>0.05905301287290632</v>
       </c>
       <c r="L135" t="n">
-        <v>0.03954288633480776</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1156525395487505</v>
+        <v>0.05787573969649756</v>
       </c>
       <c r="N135" t="n">
-        <v>0.06131188304936031</v>
+        <v>0.07773370505111693</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1153616293221739</v>
+        <v>0.05797912633341675</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01627113232619974</v>
+        <v>0.01695217442477696</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1164813188934362</v>
+        <v>0.03699429954615177</v>
       </c>
       <c r="J136" t="n">
-        <v>0.01761005500567618</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1170563713953063</v>
+        <v>0.05989662734251926</v>
       </c>
       <c r="L136" t="n">
-        <v>0.03901915952795224</v>
+        <v>0.05047716506702776</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1173047186851612</v>
+        <v>0.0587025359778761</v>
       </c>
       <c r="N136" t="n">
-        <v>0.06050441388004651</v>
+        <v>0.07773370505111693</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1170096525982049</v>
+        <v>0.05880739956675127</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01703664681043811</v>
+        <v>0.01700963076560301</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1181219008496818</v>
+        <v>0.03751534601863278</v>
       </c>
       <c r="J137" t="n">
-        <v>0.01737763217359264</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1187050526825641</v>
+        <v>0.06074024181213222</v>
       </c>
       <c r="L137" t="n">
-        <v>0.03900097464873664</v>
+        <v>0.05017716506702777</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1189568978215719</v>
+        <v>0.05952933225925464</v>
       </c>
       <c r="N137" t="n">
-        <v>0.05951044573530129</v>
+        <v>0.07813370505111689</v>
       </c>
       <c r="O137" t="n">
-        <v>0.118657675874236</v>
+        <v>0.0596356728000858</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01681345858740436</v>
+        <v>0.0170650816038661</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1197624828059274</v>
+        <v>0.0380363924911138</v>
       </c>
       <c r="J138" t="n">
-        <v>0.01725342997532971</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K138" t="n">
-        <v>0.120353733969822</v>
+        <v>0.06158385628174516</v>
       </c>
       <c r="L138" t="n">
-        <v>0.03819834922850715</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1206090769579826</v>
+        <v>0.06035612854063317</v>
       </c>
       <c r="N138" t="n">
-        <v>0.0591453661748465</v>
+        <v>0.0780337050511169</v>
       </c>
       <c r="O138" t="n">
-        <v>0.120305699150267</v>
+        <v>0.06046394603342032</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01660615639965059</v>
+        <v>0.01711852061288643</v>
       </c>
       <c r="G139" t="n">
-        <v>0.121403064762173</v>
+        <v>0.03855743896359481</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0169419504947501</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1220024152570798</v>
+        <v>0.06242747075135811</v>
       </c>
       <c r="L139" t="n">
-        <v>0.03792130079860997</v>
+        <v>0.05017716506702777</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1222612560943933</v>
+        <v>0.06118292482201171</v>
       </c>
       <c r="N139" t="n">
-        <v>0.05812456275840361</v>
+        <v>0.07833370505111692</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1219537224262981</v>
+        <v>0.06129221926675484</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01541932898972892</v>
+        <v>0.01716994146598417</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1230436467184186</v>
+        <v>0.03907848543607582</v>
       </c>
       <c r="J140" t="n">
-        <v>0.01674769581571656</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1236510965443377</v>
+        <v>0.06327108522097107</v>
       </c>
       <c r="L140" t="n">
-        <v>0.03757984689039137</v>
+        <v>0.05067716506702777</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1239134352308041</v>
+        <v>0.06200972110339024</v>
       </c>
       <c r="N140" t="n">
-        <v>0.0576634230456945</v>
+        <v>0.07783370505111692</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1236017457023291</v>
+        <v>0.06212049250008937</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01525756510019145</v>
+        <v>0.01721933783647952</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1246842286746641</v>
+        <v>0.03959953190855683</v>
       </c>
       <c r="J141" t="n">
-        <v>0.01657516802209179</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1252997778315955</v>
+        <v>0.064114699690584</v>
       </c>
       <c r="L141" t="n">
-        <v>0.03708400503519746</v>
+        <v>0.05017716506702777</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1255656143672148</v>
+        <v>0.06283651738476878</v>
       </c>
       <c r="N141" t="n">
-        <v>0.0568773345964409</v>
+        <v>0.07773370505111693</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1252497689783602</v>
+        <v>0.06294876573342389</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01712545347359029</v>
+        <v>0.01726670339769268</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1263248106309097</v>
+        <v>0.04012057838103784</v>
       </c>
       <c r="J142" t="n">
-        <v>0.01652886919773855</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1269484591188533</v>
+        <v>0.06495831416019694</v>
       </c>
       <c r="L142" t="n">
-        <v>0.03634379276437447</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1272177935036255</v>
+        <v>0.06366331366614732</v>
       </c>
       <c r="N142" t="n">
-        <v>0.05658168497036448</v>
+        <v>0.07783370505111692</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1268977922543912</v>
+        <v>0.06377703896675842</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01502758285247754</v>
+        <v>0.01731203182294382</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1279653925871553</v>
+        <v>0.04064162485351885</v>
       </c>
       <c r="J143" t="n">
-        <v>0.01641330142651949</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1285971404061112</v>
+        <v>0.06580192862980989</v>
       </c>
       <c r="L143" t="n">
-        <v>0.03656922760926867</v>
+        <v>0.05047716506702776</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1288699726400362</v>
+        <v>0.06449010994752585</v>
       </c>
       <c r="N143" t="n">
-        <v>0.05599186172718701</v>
+        <v>0.07773370505111693</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1285458155304223</v>
+        <v>0.06460531220009295</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01496854197940529</v>
+        <v>0.01735531678555314</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1296059745434009</v>
+        <v>0.04116267132599986</v>
       </c>
       <c r="J144" t="n">
-        <v>0.0162329667922974</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K144" t="n">
-        <v>0.130245821693369</v>
+        <v>0.06664554309942285</v>
       </c>
       <c r="L144" t="n">
-        <v>0.03637032710122623</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1305221517764469</v>
+        <v>0.06531690622890439</v>
       </c>
       <c r="N144" t="n">
-        <v>0.05622325242663012</v>
+        <v>0.07783370505111692</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1301938388064533</v>
+        <v>0.06543358543342748</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01695240019217836</v>
+        <v>0.01739655195884082</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1312465564996464</v>
+        <v>0.04168371779848087</v>
       </c>
       <c r="J145" t="n">
-        <v>0.016292367378935</v>
+        <v>0.02282062508293861</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1318945029806268</v>
+        <v>0.0674891575690358</v>
       </c>
       <c r="L145" t="n">
-        <v>0.03615710877159334</v>
+        <v>0.05057716506702778</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1321743309128577</v>
+        <v>0.06614370251028294</v>
       </c>
       <c r="N145" t="n">
-        <v>0.05559124462841564</v>
+        <v>0.07813370505111689</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1318418620824844</v>
+        <v>0.066261858666762</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01595686151328005</v>
+        <v>0.01743573101612705</v>
       </c>
       <c r="G146" t="n">
-        <v>0.132887138455892</v>
+        <v>0.04220476427096188</v>
       </c>
       <c r="J146" t="n">
-        <v>0.01618934705138751</v>
+        <v>0.02272062508293861</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1335431842678847</v>
+        <v>0.06833277203864874</v>
       </c>
       <c r="L146" t="n">
-        <v>0.03573495055541132</v>
+        <v>0.05017614086795946</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1338265100492684</v>
+        <v>0.06697049879166146</v>
       </c>
       <c r="N146" t="n">
-        <v>0.0558845027709845</v>
+        <v>0.07823283770100037</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1334898853585154</v>
+        <v>0.06709013190009652</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01696782516041424</v>
+        <v>0.01747284763073201</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1345277204121376</v>
+        <v>0.04272581074344289</v>
       </c>
       <c r="J147" t="n">
-        <v>0.01639637360658885</v>
+        <v>0.02292062508293861</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1351918655551425</v>
+        <v>0.06917638650826169</v>
       </c>
       <c r="L147" t="n">
-        <v>0.03574697528542822</v>
+        <v>0.05047209221067869</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1354786891856791</v>
+        <v>0.06779729507304</v>
       </c>
       <c r="N147" t="n">
-        <v>0.05560955918870336</v>
+        <v>0.07772754900821821</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1351379086345465</v>
+        <v>0.06791840513343105</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.0149849539544497</v>
+        <v>0.01750789547597591</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1361683023683832</v>
+        <v>0.0432468572159239</v>
       </c>
       <c r="J148" t="n">
-        <v>0.01640960930686471</v>
+        <v>0.0228204821191253</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1368405468424003</v>
+        <v>0.07002000097787464</v>
       </c>
       <c r="L148" t="n">
-        <v>0.03577296898760612</v>
+        <v>0.05066507623786592</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1371308683220898</v>
+        <v>0.06862409135441853</v>
       </c>
       <c r="N148" t="n">
-        <v>0.05555579334203553</v>
+        <v>0.07801761349814945</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1367859319105776</v>
+        <v>0.06874667836676557</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01700791071625525</v>
+        <v>0.01754086822517893</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1378088843246288</v>
+        <v>0.04376790368840491</v>
       </c>
       <c r="J149" t="n">
-        <v>0.01642872334073281</v>
+        <v>0.02291910499381278</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1384892281296582</v>
+        <v>0.07086361544748758</v>
       </c>
       <c r="L149" t="n">
-        <v>0.03581219557739071</v>
+        <v>0.05025520951783746</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1387830474585006</v>
+        <v>0.06945088763579707</v>
       </c>
       <c r="N149" t="n">
-        <v>0.05622207455869777</v>
+        <v>0.07800321255366821</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1384339551866086</v>
+        <v>0.06957495160010009</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01503635826669969</v>
+        <v>0.01757175955166124</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1394494662808744</v>
+        <v>0.04428895016088592</v>
       </c>
       <c r="J150" t="n">
-        <v>0.0162533848967109</v>
+        <v>0.02281631201366408</v>
       </c>
       <c r="K150" t="n">
-        <v>0.140137909416916</v>
+        <v>0.07170722991710053</v>
       </c>
       <c r="L150" t="n">
-        <v>0.03626391897022777</v>
+        <v>0.05024260861890975</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1404352265949113</v>
+        <v>0.07027768391717561</v>
       </c>
       <c r="N150" t="n">
-        <v>0.05620727216640703</v>
+        <v>0.07818452755764854</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1400819784626397</v>
+        <v>0.07040322483343463</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01706995942665183</v>
+        <v>0.01760056312874304</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1410900482371199</v>
+        <v>0.04480999663336694</v>
       </c>
       <c r="J151" t="n">
-        <v>0.0162832631633167</v>
+        <v>0.02271215918424456</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1417865907041738</v>
+        <v>0.07255084438671348</v>
       </c>
       <c r="L151" t="n">
-        <v>0.03632740308156304</v>
+        <v>0.05032739010939918</v>
       </c>
       <c r="M151" t="n">
-        <v>0.142087405731322</v>
+        <v>0.07110448019855414</v>
       </c>
       <c r="N151" t="n">
-        <v>0.05601025549288002</v>
+        <v>0.07836173989296435</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1417300017386707</v>
+        <v>0.07123149806676915</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01610837701698047</v>
+        <v>0.01762727262974453</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1427306301933655</v>
+        <v>0.04533104310584795</v>
       </c>
       <c r="J152" t="n">
-        <v>0.01641802732906797</v>
+        <v>0.02270670251111959</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1434352719914317</v>
+        <v>0.07339445885632642</v>
       </c>
       <c r="L152" t="n">
-        <v>0.0363019118268422</v>
+        <v>0.05040967055762213</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1437395848677327</v>
+        <v>0.07193127647993268</v>
       </c>
       <c r="N152" t="n">
-        <v>0.05582989386583376</v>
+        <v>0.07813503094248991</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1433780250147018</v>
+        <v>0.07205977130010367</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01515127385855441</v>
+        <v>0.01765188172798587</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1443712121496111</v>
+        <v>0.04585208957832896</v>
       </c>
       <c r="J153" t="n">
-        <v>0.01645734658248242</v>
+        <v>0.02269999799985453</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1450839532786895</v>
+        <v>0.07423807332593937</v>
       </c>
       <c r="L153" t="n">
-        <v>0.03608670912151107</v>
+        <v>0.050589566531895</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1453917640041434</v>
+        <v>0.07275807276131122</v>
       </c>
       <c r="N153" t="n">
-        <v>0.05616505661298493</v>
+        <v>0.07760458208909915</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1450260482907328</v>
+        <v>0.0728880445334382</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01519831277224246</v>
+        <v>0.01767438409678727</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1460117941058567</v>
+        <v>0.04637313605080997</v>
       </c>
       <c r="J154" t="n">
-        <v>0.01640089011207777</v>
+        <v>0.02279210165601477</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1467326345659473</v>
+        <v>0.07508168779555233</v>
       </c>
       <c r="L154" t="n">
-        <v>0.03638105888101539</v>
+        <v>0.05036719460053421</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1470439431405542</v>
+        <v>0.07358486904268975</v>
       </c>
       <c r="N154" t="n">
-        <v>0.05641461306205053</v>
+        <v>0.07827057471566612</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1466740715667639</v>
+        <v>0.07371631776677272</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01724915657891343</v>
+        <v>0.01769477340946893</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1476523760621022</v>
+        <v>0.04689418252329098</v>
       </c>
       <c r="J155" t="n">
-        <v>0.01654832710637179</v>
+        <v>0.02278306948516563</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1483813158532052</v>
+        <v>0.07592530226516526</v>
       </c>
       <c r="L155" t="n">
-        <v>0.03678422502080092</v>
+        <v>0.05054267133185611</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1486961222769649</v>
+        <v>0.07441166532406829</v>
       </c>
       <c r="N155" t="n">
-        <v>0.0567774325407473</v>
+        <v>0.07763319020506504</v>
       </c>
       <c r="O155" t="n">
-        <v>0.148322094842795</v>
+        <v>0.07454459100010724</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.0173034680994361</v>
+        <v>0.01771304333935102</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1492929580183478</v>
+        <v>0.04741522899577199</v>
       </c>
       <c r="J156" t="n">
-        <v>0.01669932675388218</v>
+        <v>0.02267295749287249</v>
       </c>
       <c r="K156" t="n">
-        <v>0.150029997140463</v>
+        <v>0.07676891673477822</v>
       </c>
       <c r="L156" t="n">
-        <v>0.03689547145631336</v>
+        <v>0.05031611329417712</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1503483014133756</v>
+        <v>0.07523846160544684</v>
       </c>
       <c r="N156" t="n">
-        <v>0.05715238437679204</v>
+        <v>0.0776926099401698</v>
       </c>
       <c r="O156" t="n">
-        <v>0.149970118118826</v>
+        <v>0.07537286423344176</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01736182274910377</v>
+        <v>0.01772918755975372</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1509335399745934</v>
+        <v>0.047936275468253</v>
       </c>
       <c r="J157" t="n">
-        <v>0.01665355824312668</v>
+        <v>0.02276182168470073</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1516786784277209</v>
+        <v>0.07761253120439117</v>
       </c>
       <c r="L157" t="n">
-        <v>0.03671406210299849</v>
+        <v>0.05038763705581362</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1520004805497863</v>
+        <v>0.07606525788682537</v>
       </c>
       <c r="N157" t="n">
-        <v>0.05663833789790179</v>
+        <v>0.07794901530385451</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1516181413948571</v>
+        <v>0.0762011374667763</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01545992403932549</v>
+        <v>0.01774319974399721</v>
       </c>
       <c r="G158" t="n">
-        <v>0.152574121930839</v>
+        <v>0.04845732194073402</v>
       </c>
       <c r="J158" t="n">
-        <v>0.01682257925651121</v>
+        <v>0.02284971806621566</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1533273597149787</v>
+        <v>0.07845614567400411</v>
       </c>
       <c r="L158" t="n">
-        <v>0.0366506245686942</v>
+        <v>0.05045735918508201</v>
       </c>
       <c r="M158" t="n">
-        <v>0.153652659686197</v>
+        <v>0.07689205416820391</v>
       </c>
       <c r="N158" t="n">
-        <v>0.05698021229381284</v>
+        <v>0.07770258767899324</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1532661646708881</v>
+        <v>0.07702941070011082</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01760892273798233</v>
+        <v>0.01775507356540173</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1542147038870846</v>
+        <v>0.04897836841321503</v>
       </c>
       <c r="J159" t="n">
-        <v>0.01684280735318608</v>
+        <v>0.02273670264298271</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1549760410022365</v>
+        <v>0.07929976014361706</v>
       </c>
       <c r="L159" t="n">
-        <v>0.03729170685100855</v>
+        <v>0.05042539625029865</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1553048388226078</v>
+        <v>0.07771885044958245</v>
       </c>
       <c r="N159" t="n">
-        <v>0.05749862274644685</v>
+        <v>0.07795350844846016</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1549141879469192</v>
+        <v>0.07785768393344535</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01679864022091432</v>
+        <v>0.0177648026972874</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1558552858433301</v>
+        <v>0.04949941488569604</v>
       </c>
       <c r="J160" t="n">
-        <v>0.01710794022666448</v>
+        <v>0.02282283142056719</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1566247222894944</v>
+        <v>0.08014337461323001</v>
       </c>
       <c r="L160" t="n">
-        <v>0.03773743423557918</v>
+        <v>0.04989186481978</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1569570179590185</v>
+        <v>0.07854564673096098</v>
       </c>
       <c r="N160" t="n">
-        <v>0.05816914244168331</v>
+        <v>0.07730195899512915</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1565622112229502</v>
+        <v>0.07868595716677987</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.0180188978639615</v>
+        <v>0.01777238081297448</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1574958677995758</v>
+        <v>0.05002046135817704</v>
       </c>
       <c r="J161" t="n">
-        <v>0.01710799147673873</v>
+        <v>0.0228081604045345</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1582734035767522</v>
+        <v>0.08098698908284295</v>
       </c>
       <c r="L161" t="n">
-        <v>0.03806558610631669</v>
+        <v>0.05005688146184237</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1586091970954292</v>
+        <v>0.07937244301233952</v>
       </c>
       <c r="N161" t="n">
-        <v>0.05885763911226871</v>
+        <v>0.07734812070187436</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1582102344989813</v>
+        <v>0.07951423040011439</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01625951704296388</v>
+        <v>0.01777780158578308</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1591364497558213</v>
+        <v>0.05054150783065806</v>
       </c>
       <c r="J162" t="n">
-        <v>0.01753297470320121</v>
+        <v>0.02269274560044997</v>
       </c>
       <c r="K162" t="n">
-        <v>0.15992208486401</v>
+        <v>0.0818306035524559</v>
       </c>
       <c r="L162" t="n">
-        <v>0.03825394184713168</v>
+        <v>0.04992056274480219</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1602613762318399</v>
+        <v>0.08019923929371804</v>
       </c>
       <c r="N162" t="n">
-        <v>0.0593299804909494</v>
+        <v>0.07719217495156988</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1598582577750123</v>
+        <v>0.08034250363344891</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01751031913376152</v>
+        <v>0.01778105868903345</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1607770317120669</v>
+        <v>0.05106255430313907</v>
       </c>
       <c r="J163" t="n">
-        <v>0.01777290350584418</v>
+        <v>0.02257664301387899</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1615707661512679</v>
+        <v>0.08267421802206885</v>
       </c>
       <c r="L163" t="n">
-        <v>0.03868028084193459</v>
+        <v>0.04978302523697592</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1619135553682506</v>
+        <v>0.08102603557509658</v>
       </c>
       <c r="N163" t="n">
-        <v>0.0603520343104717</v>
+        <v>0.07723430312708968</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1615062810510434</v>
+        <v>0.08117077686678344</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01876112551219444</v>
+        <v>0.01778214579604575</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1624176136683125</v>
+        <v>0.05158360077562008</v>
       </c>
       <c r="J164" t="n">
-        <v>0.01801779148445999</v>
+        <v>0.02275990865038692</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1632194474385257</v>
+        <v>0.08351783249168179</v>
       </c>
       <c r="L164" t="n">
-        <v>0.03972238247463597</v>
+        <v>0.05024438550667984</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1635657345046614</v>
+        <v>0.08185283185647511</v>
       </c>
       <c r="N164" t="n">
-        <v>0.06168966830358213</v>
+        <v>0.07757468661130784</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1631543043270745</v>
+        <v>0.08199905010011796</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01900175755410269</v>
+        <v>0.01778214579604576</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1640581956245581</v>
+        <v>0.05158360077562008</v>
       </c>
       <c r="J165" t="n">
-        <v>0.01805765223884095</v>
+        <v>0.02254259851553908</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1648681287257835</v>
+        <v>0.08436144696129473</v>
       </c>
       <c r="L165" t="n">
-        <v>0.0401580261291464</v>
+        <v>0.0498047601222304</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1652179136410721</v>
+        <v>0.08267962813785365</v>
       </c>
       <c r="N165" t="n">
-        <v>0.06180875020302712</v>
+        <v>0.07721350678709854</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1648023276031055</v>
+        <v>0.08282732333345248</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01722203663532627</v>
+        <v>0.01734175065305221</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1656987775808036</v>
+        <v>0.05158333224715606</v>
       </c>
       <c r="J166" t="n">
-        <v>0.01848249936877944</v>
+        <v>0.0226247686149009</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1665168100130414</v>
+        <v>0.0852050614309077</v>
       </c>
       <c r="L166" t="n">
-        <v>0.04056499118937631</v>
+        <v>0.05016426565194401</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1668700927774828</v>
+        <v>0.08350642441923219</v>
       </c>
       <c r="N166" t="n">
-        <v>0.06317514774155286</v>
+        <v>0.07755094503733573</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1664503508791365</v>
+        <v>0.08365559656678702</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01741243836698109</v>
+        <v>0.01690627685442946</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1673393595370492</v>
+        <v>0.05158306371869204</v>
       </c>
       <c r="J167" t="n">
-        <v>0.0184823464740677</v>
+        <v>0.0226064749540377</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1681654913002992</v>
+        <v>0.08604867590052064</v>
       </c>
       <c r="L167" t="n">
-        <v>0.0412210570392364</v>
+        <v>0.049723018664137</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1685222719138935</v>
+        <v>0.08433322070061074</v>
       </c>
       <c r="N167" t="n">
-        <v>0.06375472865190585</v>
+        <v>0.07698718274489352</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1680983741551676</v>
+        <v>0.08448386980012154</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01758804938831494</v>
+        <v>0.01647635094779855</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1689799414932948</v>
+        <v>0.05158279519022803</v>
       </c>
       <c r="J168" t="n">
-        <v>0.01885636660480383</v>
+        <v>0.02268777353851485</v>
       </c>
       <c r="K168" t="n">
-        <v>0.169814172587557</v>
+        <v>0.08689229037013357</v>
       </c>
       <c r="L168" t="n">
-        <v>0.0412141768597736</v>
+        <v>0.0500811357271258</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1701744510503042</v>
+        <v>0.08516001698198927</v>
       </c>
       <c r="N168" t="n">
-        <v>0.06414827293620706</v>
+        <v>0.07742240129264594</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1697463974311987</v>
+        <v>0.08531214303345606</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.01775931499193827</v>
+        <v>0.01605259948074286</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1706205234495404</v>
+        <v>0.05158252666176401</v>
       </c>
       <c r="J169" t="n">
-        <v>0.01882470234827822</v>
+        <v>0.02256872037389769</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1714628538748149</v>
+        <v>0.08773590483974654</v>
       </c>
       <c r="L169" t="n">
-        <v>0.04198906936832084</v>
+        <v>0.05003873340922685</v>
       </c>
       <c r="M169" t="n">
-        <v>0.171826630186715</v>
+        <v>0.08598681326336781</v>
       </c>
       <c r="N169" t="n">
-        <v>0.06452353180362291</v>
+        <v>0.07695678206346701</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1713944207072297</v>
+        <v>0.08614041626679059</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0179265580744449</v>
+        <v>0.01563564900088288</v>
       </c>
       <c r="G170" t="n">
-        <v>0.172261105405786</v>
+        <v>0.05158225813329999</v>
       </c>
       <c r="J170" t="n">
-        <v>0.01908896307475096</v>
+        <v>0.02254937146575163</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1731115351620727</v>
+        <v>0.08857951930935948</v>
       </c>
       <c r="L170" t="n">
-        <v>0.04215477202869605</v>
+        <v>0.04999592827875649</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1734788093231257</v>
+        <v>0.08681360954474635</v>
       </c>
       <c r="N170" t="n">
-        <v>0.0653848982822085</v>
+        <v>0.07739050644023093</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1730424439832608</v>
+        <v>0.08696868950012511</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01809010153242865</v>
+        <v>0.01522612605580256</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1739016873620315</v>
+        <v>0.05158198960483597</v>
       </c>
       <c r="J171" t="n">
-        <v>0.01914946558289353</v>
+        <v>0.02252978281964201</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1747602164493306</v>
+        <v>0.08942313377897242</v>
       </c>
       <c r="L171" t="n">
-        <v>0.04271198974572091</v>
+        <v>0.0499528369040311</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1751309884595364</v>
+        <v>0.08764040582612488</v>
       </c>
       <c r="N171" t="n">
-        <v>0.06603345515021208</v>
+        <v>0.07692375580581162</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1746904672592918</v>
+        <v>0.08779696273345965</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01825026826248334</v>
+        <v>0.0148246571931218</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1755422693182771</v>
+        <v>0.05158172107637195</v>
       </c>
       <c r="J172" t="n">
-        <v>0.01950652667137745</v>
+        <v>0.02241001044113419</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1764088977365884</v>
+        <v>0.09026674824858538</v>
       </c>
       <c r="L172" t="n">
-        <v>0.042861427424217</v>
+        <v>0.04980940396676278</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1767831675959471</v>
+        <v>0.08846720210750342</v>
       </c>
       <c r="N172" t="n">
-        <v>0.06607028518588159</v>
+        <v>0.07665671106177047</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1763384905353229</v>
+        <v>0.08862523596679417</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01840738116120275</v>
+        <v>0.01443186896042521</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1771828512745227</v>
+        <v>0.05158145254790793</v>
       </c>
       <c r="J173" t="n">
-        <v>0.01966046313887417</v>
+        <v>0.02239011033579352</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1780575790238462</v>
+        <v>0.09111036271819832</v>
       </c>
       <c r="L173" t="n">
-        <v>0.04290378996900593</v>
+        <v>0.04985850204751602</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1784353467323578</v>
+        <v>0.08929399838888195</v>
       </c>
       <c r="N173" t="n">
-        <v>0.06699647116746499</v>
+        <v>0.07678059993847314</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1779865138113539</v>
+        <v>0.08945350920012869</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.0205617631251807</v>
+        <v>0.01404838790533196</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1788234332307683</v>
+        <v>0.05158118401944392</v>
       </c>
       <c r="J174" t="n">
-        <v>0.0197115917840552</v>
+        <v>0.02256983341211802</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1797062603111041</v>
+        <v>0.09195397718781126</v>
       </c>
       <c r="L174" t="n">
-        <v>0.04323978228490927</v>
+        <v>0.04929721401109072</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1800875258687686</v>
+        <v>0.09012079467026049</v>
       </c>
       <c r="N174" t="n">
-        <v>0.06781309587321038</v>
+        <v>0.07678805045246989</v>
       </c>
       <c r="O174" t="n">
-        <v>0.179634537087385</v>
+        <v>0.09028178243346323</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.018713737051011</v>
+        <v>0.01367484057542744</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1804640151870139</v>
+        <v>0.0515809154909799</v>
       </c>
       <c r="J175" t="n">
-        <v>0.01986022940559203</v>
+        <v>0.02254544249817236</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1813549415983619</v>
+        <v>0.09279759165742422</v>
       </c>
       <c r="L175" t="n">
-        <v>0.04367010927674869</v>
+        <v>0.04922675237637331</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1817397050051793</v>
+        <v>0.09094759095163903</v>
       </c>
       <c r="N175" t="n">
-        <v>0.06792124208136574</v>
+        <v>0.07668094930991948</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1812825603634161</v>
+        <v>0.09111005566679775</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.01986362583528747</v>
+        <v>0.01331185351832998</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1821045971432594</v>
+        <v>0.05158064696251589</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02010669280215614</v>
+        <v>0.02251626928683141</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1830036228856197</v>
+        <v>0.09364120612703716</v>
       </c>
       <c r="L176" t="n">
-        <v>0.04389547584934578</v>
+        <v>0.04934832966225025</v>
       </c>
       <c r="M176" t="n">
-        <v>0.18339188414159</v>
+        <v>0.09177438723301756</v>
       </c>
       <c r="N176" t="n">
-        <v>0.06872199257017919</v>
+        <v>0.07616118321698118</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1829305836394471</v>
+        <v>0.09193832890013227</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02001175237460392</v>
+        <v>0.01296005328162587</v>
       </c>
       <c r="G177" t="n">
-        <v>0.183745179099505</v>
+        <v>0.05158037843405187</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02015129877241903</v>
+        <v>0.02248289633609933</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1846523041728776</v>
+        <v>0.0944848205966501</v>
       </c>
       <c r="L177" t="n">
-        <v>0.04451658690752205</v>
+        <v>0.04936315838760799</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1850440632780007</v>
+        <v>0.0926011835143961</v>
       </c>
       <c r="N177" t="n">
-        <v>0.06921643011789874</v>
+        <v>0.07613063887981364</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1845786069154782</v>
+        <v>0.0927666021334668</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.01915843956555414</v>
+        <v>0.0126200664129325</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1853857610557506</v>
+        <v>0.05158010990558785</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02019436411505221</v>
+        <v>0.0223459062039803</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1863009854601354</v>
+        <v>0.09532843506626305</v>
       </c>
       <c r="L178" t="n">
-        <v>0.04503414735609923</v>
+        <v>0.04947245107133297</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1866962424144114</v>
+        <v>0.09342797979577463</v>
       </c>
       <c r="N178" t="n">
-        <v>0.06980563750277224</v>
+        <v>0.07609120300457595</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1862266301915092</v>
+        <v>0.09359487536680132</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02030968424748594</v>
+        <v>0.01229251945983716</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1870263430119962</v>
+        <v>0.05157984137712383</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02043803237149933</v>
+        <v>0.02240588144847855</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1879496667473932</v>
+        <v>0.09617204953587601</v>
       </c>
       <c r="L179" t="n">
-        <v>0.04535066480077504</v>
+        <v>0.0493774202323117</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1883484215508222</v>
+        <v>0.09425477607715317</v>
       </c>
       <c r="N179" t="n">
-        <v>0.06989773995545712</v>
+        <v>0.07634476229742704</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1878746534675403</v>
+        <v>0.09442314860013584</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.01946892365279901</v>
+        <v>0.01197803896995615</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1886669249682418</v>
+        <v>0.05157957284865982</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02059013924726193</v>
+        <v>0.0223634046275982</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1895983480346511</v>
+        <v>0.09701566400548896</v>
       </c>
       <c r="L180" t="n">
-        <v>0.04558455974161021</v>
+        <v>0.0487792783894305</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1900006006872329</v>
+        <v>0.09508157235853171</v>
       </c>
       <c r="N180" t="n">
-        <v>0.07071887807057492</v>
+        <v>0.07559320346452597</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1895226767435713</v>
+        <v>0.09525142183347036</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02063062789259595</v>
+        <v>0.01167725149087789</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1903075069244873</v>
+        <v>0.0515793043201958</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02084689823873424</v>
+        <v>0.02231905829934344</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1912470293219089</v>
+        <v>0.0978592784751019</v>
       </c>
       <c r="L181" t="n">
-        <v>0.04603093757035109</v>
+        <v>0.04897923806157592</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1916527798236436</v>
+        <v>0.09590836863991024</v>
       </c>
       <c r="N181" t="n">
-        <v>0.071055299052528</v>
+        <v>0.07603841321203153</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1911707000196024</v>
+        <v>0.09607969506680489</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02078925017289693</v>
+        <v>0.01139078357021756</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1919480888807329</v>
+        <v>0.05157903579173179</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02100286730348686</v>
+        <v>0.02207342502171848</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1928957106091667</v>
+        <v>0.09870289294471485</v>
       </c>
       <c r="L182" t="n">
-        <v>0.04587768926542315</v>
+        <v>0.04897851176763438</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1933049589600543</v>
+        <v>0.09673516492128878</v>
       </c>
       <c r="N182" t="n">
-        <v>0.07148840268074202</v>
+        <v>0.07558227824610286</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1928187232956335</v>
+        <v>0.09690796830013942</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.01993924369972218</v>
+        <v>0.01111926175557049</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1935886708369785</v>
+        <v>0.05157876726326777</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02105260439909032</v>
+        <v>0.02202708735272747</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1945443918964246</v>
+        <v>0.0995465074143278</v>
       </c>
       <c r="L183" t="n">
-        <v>0.04641270580525181</v>
+        <v>0.04857831202649232</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1949571380964651</v>
+        <v>0.09756196120266732</v>
       </c>
       <c r="N183" t="n">
-        <v>0.07189958873464253</v>
+        <v>0.07572668527289883</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1944667465716645</v>
+        <v>0.09773624153347395</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02207506167909186</v>
+        <v>0.01086331259453336</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1952292527932241</v>
+        <v>0.05157849873480375</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02109066748311518</v>
+        <v>0.0220806278503746</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1961930731836824</v>
+        <v>0.1003901218839407</v>
       </c>
       <c r="L184" t="n">
-        <v>0.04652387816826245</v>
+        <v>0.04837985135703615</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1966093172328758</v>
+        <v>0.09838875748404585</v>
       </c>
       <c r="N184" t="n">
-        <v>0.07257025699365499</v>
+        <v>0.07547352099857835</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1961147698476955</v>
+        <v>0.09856451476680847</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02119115731702619</v>
+        <v>0.01062356263471936</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1968698347494697</v>
+        <v>0.05157823020633973</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02131161451313199</v>
+        <v>0.02203462907266403</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1978417544709402</v>
+        <v>0.1012337363535537</v>
       </c>
       <c r="L185" t="n">
-        <v>0.0468990973328805</v>
+        <v>0.04868434227815238</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1982614963692865</v>
+        <v>0.09921555376542439</v>
       </c>
       <c r="N185" t="n">
-        <v>0.07278180723720518</v>
+        <v>0.07492467212930054</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1977627931237266</v>
+        <v>0.09939278800014299</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02128198381954532</v>
+        <v>0.01040063842372017</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1985104167057152</v>
+        <v>0.05157796167787571</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02131000344671133</v>
+        <v>0.02198967357759997</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1994904357581981</v>
+        <v>0.1020773508231666</v>
       </c>
       <c r="L186" t="n">
-        <v>0.04732625427753134</v>
+        <v>0.04849299730872739</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1999136755056972</v>
+        <v>0.1000423500468029</v>
       </c>
       <c r="N186" t="n">
-        <v>0.07321563924471858</v>
+        <v>0.07468202537122409</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1994108163997577</v>
+        <v>0.1002210612334775</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02234573169138279</v>
+        <v>0.01019516650914755</v>
       </c>
       <c r="G187" t="n">
-        <v>0.2001509986619608</v>
+        <v>0.0515776931494117</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02138052951113489</v>
+        <v>0.02204634392318659</v>
       </c>
       <c r="K187" t="n">
-        <v>0.2011391170454559</v>
+        <v>0.1029209652927796</v>
       </c>
       <c r="L187" t="n">
-        <v>0.04769323998064043</v>
+        <v>0.04860702896764771</v>
       </c>
       <c r="M187" t="n">
-        <v>0.2015658546421079</v>
+        <v>0.1008691463281815</v>
       </c>
       <c r="N187" t="n">
-        <v>0.0736539866045004</v>
+        <v>0.07474746743050825</v>
       </c>
       <c r="O187" t="n">
-        <v>0.2010588396757887</v>
+        <v>0.101049334466812</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02140384488153826</v>
+        <v>0.01000777343859464</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2017915806182064</v>
+        <v>0.05157742462094768</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02153745306584334</v>
+        <v>0.02200522266742806</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2027877983327138</v>
+        <v>0.1037645797623925</v>
       </c>
       <c r="L188" t="n">
-        <v>0.04761998258234246</v>
+        <v>0.04812764977379966</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2032180337785187</v>
+        <v>0.10169594260956</v>
       </c>
       <c r="N188" t="n">
-        <v>0.07404857027020478</v>
+        <v>0.07482288501331175</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2027068629518197</v>
+        <v>0.1018776077001466</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02046067213178758</v>
+        <v>0.009839085759671684</v>
       </c>
       <c r="G189" t="n">
-        <v>0.203432162574452</v>
+        <v>0.05157715609248367</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02159312864114085</v>
+        <v>0.02186689236832853</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2044364796199716</v>
+        <v>0.1046081942320055</v>
       </c>
       <c r="L189" t="n">
-        <v>0.04744378752228659</v>
+        <v>0.04845607224606982</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2048702129149294</v>
+        <v>0.1025227388909385</v>
       </c>
       <c r="N189" t="n">
-        <v>0.07383888471811201</v>
+        <v>0.07481016482579383</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2043548862278508</v>
+        <v>0.1027058809334811</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02051619302917829</v>
+        <v>0.009687356755539604</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2050727445306976</v>
+        <v>0.05157688756401965</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02164753620957487</v>
+        <v>0.02183193558389226</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2060851609072294</v>
+        <v>0.1054518087016184</v>
       </c>
       <c r="L190" t="n">
-        <v>0.04806478408489606</v>
+        <v>0.0480935089033446</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2065223920513401</v>
+        <v>0.1033495351723171</v>
       </c>
       <c r="N190" t="n">
-        <v>0.07412486149689346</v>
+        <v>0.07481119357411314</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2060029095038819</v>
+        <v>0.1035341541668156</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02157038716075804</v>
+        <v>0.009538903960352327</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2067133264869432</v>
+        <v>0.05157661903555563</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02170065574369288</v>
+        <v>0.02190093487212336</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2077338421944873</v>
+        <v>0.1062954231712314</v>
       </c>
       <c r="L191" t="n">
-        <v>0.04808292770733302</v>
+        <v>0.0483411722645104</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2081745711877508</v>
+        <v>0.1041763314536956</v>
       </c>
       <c r="N191" t="n">
-        <v>0.0740064321552204</v>
+        <v>0.0744278579644288</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2076509327799129</v>
+        <v>0.1043624274001501</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02262323411357436</v>
+        <v>0.009391803233091835</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2083539084431887</v>
+        <v>0.05157635050709161</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02185246721604231</v>
+        <v>0.02177447279102603</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2093825234817451</v>
+        <v>0.1071390376408443</v>
       </c>
       <c r="L192" t="n">
-        <v>0.04819817382675942</v>
+        <v>0.0481987096909571</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2098267503241615</v>
+        <v>0.1050031277350741</v>
       </c>
       <c r="N192" t="n">
-        <v>0.07418352824176422</v>
+        <v>0.07426065314695024</v>
       </c>
       <c r="O192" t="n">
-        <v>0.209298956055944</v>
+        <v>0.1051907006334847</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02167471347467484</v>
+        <v>0.009246495983091761</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2099944903994343</v>
+        <v>0.0515760819786276</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02190295059917063</v>
+        <v>0.02175311170712699</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2110312047690029</v>
+        <v>0.1079826521104573</v>
       </c>
       <c r="L193" t="n">
-        <v>0.04791047788033739</v>
+        <v>0.04785866697432856</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2114789294605723</v>
+        <v>0.1058299240164527</v>
       </c>
       <c r="N193" t="n">
-        <v>0.07425608130519629</v>
+        <v>0.07419831633842905</v>
       </c>
       <c r="O193" t="n">
-        <v>0.210946979331975</v>
+        <v>0.1060189738668192</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02172480483110707</v>
+        <v>0.009103423619673034</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2116350723556799</v>
+        <v>0.05157581345016358</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02185208586562533</v>
+        <v>0.02173437692504451</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2126798860562608</v>
+        <v>0.1088262665800702</v>
       </c>
       <c r="L194" t="n">
-        <v>0.04821979530522894</v>
+        <v>0.04781987212955027</v>
       </c>
       <c r="M194" t="n">
-        <v>0.213131108596983</v>
+        <v>0.1066567202978312</v>
       </c>
       <c r="N194" t="n">
-        <v>0.07482402289418788</v>
+        <v>0.07403792543786364</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2125950026080061</v>
+        <v>0.1068472471001537</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.0217734877699186</v>
+        <v>0.008963027552169107</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2132756543119255</v>
+        <v>0.05157554492169956</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02179985298795381</v>
+        <v>0.02181623748929584</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2143285673435186</v>
+        <v>0.1096698810496832</v>
       </c>
       <c r="L195" t="n">
-        <v>0.0481260815385961</v>
+        <v>0.04818228630279736</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2147832877333937</v>
+        <v>0.1074835165792098</v>
       </c>
       <c r="N195" t="n">
-        <v>0.07488728455741051</v>
+        <v>0.07437941998784448</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2142430258840372</v>
+        <v>0.1076755203334882</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02082074187815704</v>
+        <v>0.008825749189901123</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2149162362681711</v>
+        <v>0.05157527639323554</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02194623193870358</v>
+        <v>0.02159867473245489</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2159772486307764</v>
+        <v>0.1105134955192961</v>
       </c>
       <c r="L196" t="n">
-        <v>0.04872929201760093</v>
+        <v>0.04774587064024491</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2164354668698044</v>
+        <v>0.1083103128605883</v>
       </c>
       <c r="N196" t="n">
-        <v>0.07524579784353547</v>
+        <v>0.07392273953096229</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2158910491600682</v>
+        <v>0.1085037935668228</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02086654674286995</v>
+        <v>0.008692029942202292</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2165568182244166</v>
+        <v>0.05157500786477152</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02199120269042208</v>
+        <v>0.02158166998709561</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2176259299180343</v>
+        <v>0.1113571099889091</v>
       </c>
       <c r="L197" t="n">
-        <v>0.04882938217940555</v>
+        <v>0.04811058628806814</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2180876460062151</v>
+        <v>0.1091371091419668</v>
       </c>
       <c r="N197" t="n">
-        <v>0.07499949430123398</v>
+        <v>0.07436782360980759</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2175390724360993</v>
+        <v>0.1093320668001573</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02191088195110492</v>
+        <v>0.008562311218396818</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2181974001806622</v>
+        <v>0.05157473933630751</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02213474521565675</v>
+        <v>0.02156520458579193</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2192746112052921</v>
+        <v>0.112200724458522</v>
       </c>
       <c r="L198" t="n">
-        <v>0.04872630746117187</v>
+        <v>0.04797639439244217</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2197398251426259</v>
+        <v>0.1099639054233454</v>
       </c>
       <c r="N198" t="n">
-        <v>0.0752483054791776</v>
+        <v>0.07381461176697129</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2191870957121303</v>
+        <v>0.1101603400334918</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02095372708990953</v>
+        <v>0.008437034427809256</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2198379821369078</v>
+        <v>0.05157447080784349</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02197683948695509</v>
+        <v>0.02154925986111782</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2209232924925499</v>
+        <v>0.113044338928135</v>
       </c>
       <c r="L199" t="n">
-        <v>0.04902002330006208</v>
+        <v>0.04764325609954209</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2213920042790366</v>
+        <v>0.1107907017047239</v>
       </c>
       <c r="N199" t="n">
-        <v>0.07589216292603768</v>
+        <v>0.07376304354504393</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2208351189881614</v>
+        <v>0.1109886132668263</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02099506174633133</v>
+        <v>0.008316640979772284</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2214785640931534</v>
+        <v>0.05157420227937948</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02201746547686449</v>
+        <v>0.02163381714564716</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2225719737798078</v>
+        <v>0.1138879533977479</v>
       </c>
       <c r="L200" t="n">
-        <v>0.04881048513323816</v>
+        <v>0.04751113255554312</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2230441834154473</v>
+        <v>0.1116174979861024</v>
       </c>
       <c r="N200" t="n">
-        <v>0.07553099819048542</v>
+        <v>0.07371305848661597</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2224831422641924</v>
+        <v>0.1118168865001609</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02103486550741793</v>
+        <v>0.008201572283607919</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2231191460493989</v>
+        <v>0.05157393375091546</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02205660315793249</v>
+        <v>0.02161885777195392</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2242206550670656</v>
+        <v>0.1147315678673608</v>
       </c>
       <c r="L201" t="n">
-        <v>0.04889764839786218</v>
+        <v>0.04747998490662039</v>
       </c>
       <c r="M201" t="n">
-        <v>0.224696362551858</v>
+        <v>0.112444294267481</v>
       </c>
       <c r="N201" t="n">
-        <v>0.07616474282119229</v>
+        <v>0.07426459613427838</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2241311655402235</v>
+        <v>0.1126451597334954</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02307311796021691</v>
+        <v>0.008092269748648392</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2247597280056445</v>
+        <v>0.05157366522245144</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02229423250270651</v>
+        <v>0.02150436307261205</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2258693363543234</v>
+        <v>0.1155751823369738</v>
       </c>
       <c r="L202" t="n">
-        <v>0.04878146853109611</v>
+        <v>0.04754977429894902</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2263485416882688</v>
+        <v>0.1132710905488595</v>
       </c>
       <c r="N202" t="n">
-        <v>0.07559332836682964</v>
+        <v>0.07421759603062172</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2257791888162546</v>
+        <v>0.1134734329668299</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02310979869177582</v>
+        <v>0.007989174784216214</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2264003099618901</v>
+        <v>0.05157339669398742</v>
       </c>
       <c r="J203" t="n">
-        <v>0.022130333483734</v>
+        <v>0.02159031438019546</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2275180176415813</v>
+        <v>0.1164187968065867</v>
       </c>
       <c r="L203" t="n">
-        <v>0.04916190097010209</v>
+        <v>0.04782046187870417</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2280007208246795</v>
+        <v>0.114097886830238</v>
       </c>
       <c r="N203" t="n">
-        <v>0.07591668637606885</v>
+        <v>0.07357199771823658</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2274272120922856</v>
+        <v>0.1143017062001644</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02314488728914225</v>
+        <v>0.007892728799643089</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2280408919181357</v>
+        <v>0.05157312816552341</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02236488607356246</v>
+        <v>0.02167669302727809</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2291666989288391</v>
+        <v>0.1172624112761997</v>
       </c>
       <c r="L204" t="n">
-        <v>0.0493389011520422</v>
+        <v>0.04779200879206102</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2296528999610902</v>
+        <v>0.1149246831116166</v>
       </c>
       <c r="N204" t="n">
-        <v>0.07643474839758119</v>
+        <v>0.07342774073971359</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2290752353683167</v>
+        <v>0.115129979433499</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02117836333936381</v>
+        <v>0.007803373204252076</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2296814738743813</v>
+        <v>0.05157285963705939</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02219787024473927</v>
+        <v>0.02166348034643391</v>
       </c>
       <c r="K205" t="n">
-        <v>0.230815380216097</v>
+        <v>0.1181060257458126</v>
       </c>
       <c r="L205" t="n">
-        <v>0.04941242451407835</v>
+        <v>0.04766437618519462</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2313050790975009</v>
+        <v>0.1157514793929951</v>
       </c>
       <c r="N205" t="n">
-        <v>0.07664744598003809</v>
+        <v>0.07398476463764353</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2307232586443477</v>
+        <v>0.1159582526668335</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02221020642948805</v>
+        <v>0.007721549407374295</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2313220558306269</v>
+        <v>0.05157259110859538</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02222926596981196</v>
+        <v>0.02155065767023681</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2324640615033548</v>
+        <v>0.1189496402154256</v>
       </c>
       <c r="L206" t="n">
-        <v>0.04918242649337268</v>
+        <v>0.04773752520428021</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2329572582339116</v>
+        <v>0.1165782756743737</v>
       </c>
       <c r="N206" t="n">
-        <v>0.07635471067211097</v>
+        <v>0.07394300895461697</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2323712819203788</v>
+        <v>0.116786525900168</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02324039614656254</v>
+        <v>0.007647698818333437</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2329626377868724</v>
+        <v>0.05157232258013136</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02245905322132798</v>
+        <v>0.02163820633126075</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2341127427906126</v>
+        <v>0.1197932546850385</v>
       </c>
       <c r="L207" t="n">
-        <v>0.04964886252708725</v>
+        <v>0.04781141699549288</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2346094373703224</v>
+        <v>0.1174050719557522</v>
       </c>
       <c r="N207" t="n">
-        <v>0.07655647402247107</v>
+        <v>0.0740024132332246</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2340193051964098</v>
+        <v>0.1176147991335025</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02226891207763487</v>
+        <v>0.00758226284645995</v>
       </c>
       <c r="G208" t="n">
-        <v>0.234603219743118</v>
+        <v>0.05157205405166734</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02228721197183475</v>
+        <v>0.02152610766207967</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2357614240778705</v>
+        <v>0.1206368691546515</v>
       </c>
       <c r="L208" t="n">
-        <v>0.04961168805238414</v>
+        <v>0.04758601270500776</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2362616165067331</v>
+        <v>0.1182318682371307</v>
       </c>
       <c r="N208" t="n">
-        <v>0.07665266757978983</v>
+        <v>0.07376291701605703</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2356673284724409</v>
+        <v>0.1184430723668371</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02129573380975264</v>
+        <v>0.007525682901078232</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2362438016993636</v>
+        <v>0.05157178552320332</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02251372219387976</v>
+        <v>0.02161434299526752</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2374101053651283</v>
+        <v>0.1214804836242644</v>
       </c>
       <c r="L209" t="n">
-        <v>0.04977085850642526</v>
+        <v>0.04756127347900002</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2379137956431438</v>
+        <v>0.1190586645185093</v>
       </c>
       <c r="N209" t="n">
-        <v>0.07684322289273859</v>
+        <v>0.07342445984570495</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2373153517484719</v>
+        <v>0.1192713456001716</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02132084092996339</v>
+        <v>0.007478400391517974</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2378843836556092</v>
+        <v>0.0515715169947393</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02233856386001046</v>
+        <v>0.0216028936633982</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2390587866523861</v>
+        <v>0.1223240980938774</v>
       </c>
       <c r="L210" t="n">
-        <v>0.04962632932637279</v>
+        <v>0.04763716046364488</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2395659747795545</v>
+        <v>0.1198854607998878</v>
       </c>
       <c r="N210" t="n">
-        <v>0.07652807150998864</v>
+        <v>0.07338698126475907</v>
       </c>
       <c r="O210" t="n">
-        <v>0.238963375024503</v>
+        <v>0.1200996188335061</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02234421302531472</v>
+        <v>0.007440856727104379</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2395249656118548</v>
+        <v>0.05157124846627528</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02246171694277431</v>
+        <v>0.02139174099904567</v>
       </c>
       <c r="K211" t="n">
-        <v>0.240707467939644</v>
+        <v>0.1231677125634903</v>
       </c>
       <c r="L211" t="n">
-        <v>0.04987805594938868</v>
+        <v>0.04771363480511734</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2412181539159652</v>
+        <v>0.1207122570812663</v>
       </c>
       <c r="N211" t="n">
-        <v>0.07710714498021143</v>
+        <v>0.07355042081580987</v>
       </c>
       <c r="O211" t="n">
-        <v>0.240611398300534</v>
+        <v>0.1209278920668406</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02336582968285421</v>
+        <v>0.007413493317166307</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2411655475681004</v>
+        <v>0.05157097993781127</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02258316141471878</v>
+        <v>0.02138086633478387</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2423561492269018</v>
+        <v>0.1240113270331033</v>
       </c>
       <c r="L212" t="n">
-        <v>0.04972599381263509</v>
+        <v>0.04739065764959263</v>
       </c>
       <c r="M212" t="n">
-        <v>0.242870333052376</v>
+        <v>0.1215390533626449</v>
       </c>
       <c r="N212" t="n">
-        <v>0.07668037485207835</v>
+        <v>0.07361471804144831</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2422594215765651</v>
+        <v>0.1217561653001752</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02138567048962942</v>
+        <v>0.007396751571029821</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2428061295243459</v>
+        <v>0.05157071140934725</v>
       </c>
       <c r="J213" t="n">
-        <v>0.0224028772483913</v>
+        <v>0.02147025100318674</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2440048305141596</v>
+        <v>0.1248549415027162</v>
       </c>
       <c r="L213" t="n">
-        <v>0.04977009835327401</v>
+        <v>0.04766819014324589</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2445225121887867</v>
+        <v>0.1223658496440234</v>
       </c>
       <c r="N213" t="n">
-        <v>0.07674769267426063</v>
+        <v>0.07357981248426482</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2439074448525962</v>
+        <v>0.1225844385335097</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02340371503268796</v>
+        <v>0.007391072898022877</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2444467114805915</v>
+        <v>0.05157044288088324</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02242084441633935</v>
+        <v>0.02145987633682821</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2456535118014175</v>
+        <v>0.1256985559723292</v>
       </c>
       <c r="L214" t="n">
-        <v>0.04971032500846748</v>
+        <v>0.04714619343225224</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2461746913251974</v>
+        <v>0.123192645925402</v>
       </c>
       <c r="N214" t="n">
-        <v>0.07730902999542971</v>
+        <v>0.07364564368685</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2455554681286272</v>
+        <v>0.1234127117668442</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02241994289907739</v>
+        <v>0.007391072898022877</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2460872934368371</v>
+        <v>0.05157044288088324</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02253704289111039</v>
+        <v>0.0215497236682822</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2473021930886753</v>
+        <v>0.1265421704419421</v>
       </c>
       <c r="L215" t="n">
-        <v>0.04954662921537753</v>
+        <v>0.04752462866278687</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2478268704616081</v>
+        <v>0.1240194422067805</v>
       </c>
       <c r="N215" t="n">
-        <v>0.07686431836425689</v>
+        <v>0.07361215119179471</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2472034914046582</v>
+        <v>0.1242409850001787</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02243433367584528</v>
+        <v>0.007140040247772587</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2477278753930827</v>
+        <v>0.05154583824657438</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02265145264525185</v>
+        <v>0.02143977433012266</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2489508743759331</v>
+        <v>0.1273857849115551</v>
       </c>
       <c r="L216" t="n">
-        <v>0.04977896641116628</v>
+        <v>0.04760345698102489</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2494790495980188</v>
+        <v>0.124846238488159</v>
       </c>
       <c r="N216" t="n">
-        <v>0.07681348932941368</v>
+        <v>0.0735792745416895</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2488515146806893</v>
+        <v>0.1250692582335133</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02244686695003922</v>
+        <v>0.006893858773642882</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2493684573493282</v>
+        <v>0.05152123361226552</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02266405365131126</v>
+        <v>0.02143000965492355</v>
       </c>
       <c r="K217" t="n">
-        <v>0.250599555663191</v>
+        <v>0.128229399381168</v>
       </c>
       <c r="L217" t="n">
-        <v>0.0500072920329957</v>
+        <v>0.04728263953314144</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2511312287344296</v>
+        <v>0.1256730347695376</v>
       </c>
       <c r="N217" t="n">
-        <v>0.0775564744395712</v>
+        <v>0.07364695327912502</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2504995379567204</v>
+        <v>0.1258975314668478</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02145752230870679</v>
+        <v>0.006653016246456624</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2510090393055738</v>
+        <v>0.05149662897795666</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02247482588183598</v>
+        <v>0.02132041097525876</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2522482369504488</v>
+        <v>0.129073013850781</v>
       </c>
       <c r="L218" t="n">
-        <v>0.04983156151802787</v>
+        <v>0.04726213746531169</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2527834078708403</v>
+        <v>0.1264998310509161</v>
       </c>
       <c r="N218" t="n">
-        <v>0.07699320524340109</v>
+        <v>0.07291512694669194</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2521475612327514</v>
+        <v>0.1267258047001823</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02246627933889557</v>
+        <v>0.0064180004370369</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2526496212618194</v>
+        <v>0.0514720243436478</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02268374930937356</v>
+        <v>0.02131095962370227</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2538969182377066</v>
+        <v>0.1299166283203939</v>
       </c>
       <c r="L219" t="n">
-        <v>0.04965173030342482</v>
+        <v>0.04734191192371071</v>
       </c>
       <c r="M219" t="n">
-        <v>0.254435587007251</v>
+        <v>0.1273266273322946</v>
       </c>
       <c r="N219" t="n">
-        <v>0.07742361328957453</v>
+        <v>0.07308373508698085</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2537955845087825</v>
+        <v>0.1275540779335168</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02247311762765312</v>
+        <v>0.006189299116206581</v>
       </c>
       <c r="G220" t="n">
-        <v>0.254290203218065</v>
+        <v>0.05144741970933894</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02249080390647137</v>
+        <v>0.02130163693282801</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2555455995249645</v>
+        <v>0.1307602427900068</v>
       </c>
       <c r="L220" t="n">
-        <v>0.04976775382634868</v>
+        <v>0.04722192405451375</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2560877661436617</v>
+        <v>0.1281534236136732</v>
       </c>
       <c r="N220" t="n">
-        <v>0.07694763012676292</v>
+        <v>0.07295271724258262</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2554436077848135</v>
+        <v>0.1283823511668514</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02147801676202706</v>
+        <v>0.005967400054788755</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2559307851743106</v>
+        <v>0.05142281507503008</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02249596964567696</v>
+        <v>0.0212924242352099</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2571942808122223</v>
+        <v>0.1316038572596198</v>
       </c>
       <c r="L221" t="n">
-        <v>0.04977958752396142</v>
+        <v>0.04720213500389589</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2577399452800724</v>
+        <v>0.1289802198950517</v>
       </c>
       <c r="N221" t="n">
-        <v>0.07726518730363752</v>
+        <v>0.07352201295608768</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2570916310608446</v>
+        <v>0.1292106244001859</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02248095632906491</v>
+        <v>0.005752791023606284</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2575713671305562</v>
+        <v>0.05139821044072122</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02249922649953773</v>
+        <v>0.02138330286342188</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2588429620994802</v>
+        <v>0.1324474717292327</v>
       </c>
       <c r="L222" t="n">
-        <v>0.05008718683342511</v>
+        <v>0.04728250591803229</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2593921244164832</v>
+        <v>0.1298070161764302</v>
       </c>
       <c r="N222" t="n">
-        <v>0.0771762163688699</v>
+        <v>0.0730915617700868</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2587396543368756</v>
+        <v>0.1300388976335204</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02248190531850354</v>
+        <v>0.005545959793482269</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2592119490868017</v>
+        <v>0.05137360580641237</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02260055444060115</v>
+        <v>0.0214742541500379</v>
       </c>
       <c r="K223" t="n">
-        <v>0.260491643386738</v>
+        <v>0.1332910861988457</v>
       </c>
       <c r="L223" t="n">
-        <v>0.04999050719190176</v>
+        <v>0.04746299794309808</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2610443035528939</v>
+        <v>0.1306338124578088</v>
       </c>
       <c r="N223" t="n">
-        <v>0.07768064887113124</v>
+        <v>0.07296130322717048</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2603876776129067</v>
+        <v>0.130867170866855</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02345020395502045</v>
+        <v>0.005347394135239568</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2608525310430473</v>
+        <v>0.05134900117210351</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02268052808311818</v>
+        <v>0.0214652594276319</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2621403246739958</v>
+        <v>0.1341347006684586</v>
       </c>
       <c r="L224" t="n">
-        <v>0.04995494354183827</v>
+        <v>0.04694357222526846</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2626964826893046</v>
+        <v>0.1314606087391873</v>
       </c>
       <c r="N224" t="n">
-        <v>0.077309431168473</v>
+        <v>0.07283117686992968</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2620357008889377</v>
+        <v>0.1316954441001895</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02236169469640663</v>
+        <v>0.005157581819701267</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2624931129992929</v>
+        <v>0.05132439653779466</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02260482089954129</v>
+        <v>0.02135630002877779</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2637890059612537</v>
+        <v>0.1349783151380716</v>
       </c>
       <c r="L225" t="n">
-        <v>0.0496971982388397</v>
+        <v>0.04702418991071847</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2643486618257153</v>
+        <v>0.1322874050205659</v>
       </c>
       <c r="N225" t="n">
-        <v>0.07734758014172938</v>
+        <v>0.07320112224095482</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2636837241649688</v>
+        <v>0.132523717333524</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02122274114549681</v>
+        <v>0.00497701061769025</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2641336949555385</v>
+        <v>0.05129979190348579</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02227866901098602</v>
+        <v>0.02144735728604953</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2654376872485115</v>
+        <v>0.1358219296076845</v>
       </c>
       <c r="L226" t="n">
-        <v>0.049526299636935</v>
+        <v>0.04740481214562339</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2660008409621261</v>
+        <v>0.1331142013019444</v>
       </c>
       <c r="N226" t="n">
-        <v>0.07691357886788414</v>
+        <v>0.07327107888283657</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2653317474409999</v>
+        <v>0.1333519905668585</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02103970690512585</v>
+        <v>0.004806168300029577</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2657742769117841</v>
+        <v>0.05127518726917694</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02210831584325058</v>
+        <v>0.02123841253202104</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2670863685357693</v>
+        <v>0.1366655440772975</v>
       </c>
       <c r="L227" t="n">
-        <v>0.04935613990596133</v>
+        <v>0.04698540007615826</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2676530200985368</v>
+        <v>0.1339409975833229</v>
       </c>
       <c r="N227" t="n">
-        <v>0.07612876659566498</v>
+        <v>0.07264098633816568</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2669797707170309</v>
+        <v>0.134180263800193</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02181895557812849</v>
+        <v>0.004645542637542154</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2674148588680296</v>
+        <v>0.05125058263486808</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02210000482213324</v>
+        <v>0.02132944709926629</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2687350498230272</v>
+        <v>0.1375091585469105</v>
       </c>
       <c r="L228" t="n">
-        <v>0.04840061121575565</v>
+        <v>0.04686591484849828</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2693051992349475</v>
+        <v>0.1347677938647015</v>
       </c>
       <c r="N228" t="n">
-        <v>0.0751144825737991</v>
+        <v>0.07311078414953281</v>
       </c>
       <c r="O228" t="n">
-        <v>0.268627793993062</v>
+        <v>0.1350085370335276</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02056685076733955</v>
+        <v>0.004495621401051031</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2690554408242752</v>
+        <v>0.05122597800055922</v>
       </c>
       <c r="J229" t="n">
-        <v>0.0217599793734322</v>
+        <v>0.0214204423203592</v>
       </c>
       <c r="K229" t="n">
-        <v>0.270383731110285</v>
+        <v>0.1383527730165234</v>
       </c>
       <c r="L229" t="n">
-        <v>0.04787360573615504</v>
+        <v>0.04694631760881851</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2709573783713582</v>
+        <v>0.13559459014608</v>
       </c>
       <c r="N229" t="n">
-        <v>0.07439206605101412</v>
+        <v>0.0731804118595285</v>
       </c>
       <c r="O229" t="n">
-        <v>0.270275817269093</v>
+        <v>0.1358368102668621</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.0212897560755938</v>
+        <v>0.004356892361379108</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2706960227805208</v>
+        <v>0.05120137336625036</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02139448292294574</v>
+        <v>0.02141137952787367</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2720324123975428</v>
+        <v>0.1391963874861363</v>
       </c>
       <c r="L230" t="n">
-        <v>0.04778901563699656</v>
+        <v>0.04722656950329421</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2726095575077689</v>
+        <v>0.1364213864274585</v>
       </c>
       <c r="N230" t="n">
-        <v>0.07338285627603752</v>
+        <v>0.07254980901074348</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2719238405451241</v>
+        <v>0.1366650835001966</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01999403510572603</v>
+        <v>0.004229843289349437</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2723366047367664</v>
+        <v>0.0511767687319415</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02130975889647209</v>
+        <v>0.02130224005438369</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2736810936848006</v>
+        <v>0.1400400019557493</v>
       </c>
       <c r="L231" t="n">
-        <v>0.04716073308811725</v>
+        <v>0.04680663167810048</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2742617366441797</v>
+        <v>0.1372481827088371</v>
       </c>
       <c r="N231" t="n">
-        <v>0.07280819249759668</v>
+        <v>0.07251891514576836</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2735718638211551</v>
+        <v>0.1374933567335311</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02068605146057106</v>
+        <v>0.004114961955784931</v>
       </c>
       <c r="G232" t="n">
-        <v>0.273977186693012</v>
+        <v>0.05115216409763264</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02081205071980946</v>
+        <v>0.02119300523246317</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2753297749720585</v>
+        <v>0.1408836164253622</v>
       </c>
       <c r="L232" t="n">
-        <v>0.04650265025935413</v>
+        <v>0.04728652260545196</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2759139157805904</v>
+        <v>0.1380749789902156</v>
       </c>
       <c r="N232" t="n">
-        <v>0.07188941396441917</v>
+        <v>0.07318773998850409</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2752198870971862</v>
+        <v>0.1383216299668656</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01937216874296364</v>
+        <v>0.004012736131508605</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2756177686492575</v>
+        <v>0.05112755946332379</v>
       </c>
       <c r="J233" t="n">
-        <v>0.0205076018187561</v>
+        <v>0.02118373308640156</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2769784562593163</v>
+        <v>0.1417272308949752</v>
       </c>
       <c r="L233" t="n">
-        <v>0.04542865932054421</v>
+        <v>0.04686653659793635</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2775660949170011</v>
+        <v>0.1389017752715941</v>
       </c>
       <c r="N233" t="n">
-        <v>0.07054785992523227</v>
+        <v>0.07295673715962614</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2768679103732172</v>
+        <v>0.1391499032002002</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.0210587505557386</v>
+        <v>0.003923653587343451</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2772583506055031</v>
+        <v>0.05110295482901493</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02020265561911028</v>
+        <v>0.02137453998904239</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2786271375465741</v>
+        <v>0.1425708453645881</v>
       </c>
       <c r="L234" t="n">
-        <v>0.04515265244152469</v>
+        <v>0.04724672395817761</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2792182740534118</v>
+        <v>0.1397285715529727</v>
       </c>
       <c r="N234" t="n">
-        <v>0.06960486962876361</v>
+        <v>0.07262600332375002</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2785159336492483</v>
+        <v>0.1399781764335347</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01975216050173069</v>
+        <v>0.003848202094112407</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2788989325617487</v>
+        <v>0.05107835019470607</v>
       </c>
       <c r="J235" t="n">
-        <v>0.0200034555466702</v>
+        <v>0.02126542914494839</v>
       </c>
       <c r="K235" t="n">
-        <v>0.280275818833832</v>
+        <v>0.1434144598342011</v>
       </c>
       <c r="L235" t="n">
-        <v>0.04438852179213246</v>
+        <v>0.04672708805795028</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2808704531898226</v>
+        <v>0.1405553678343512</v>
       </c>
       <c r="N235" t="n">
-        <v>0.06838178232374054</v>
+        <v>0.07269554372743142</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2801639569252793</v>
+        <v>0.1408064496668693</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01845876218377474</v>
+        <v>0.003786869422638492</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2805395145179943</v>
+        <v>0.05105374556039721</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01971624502723411</v>
+        <v>0.02115640217409787</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2819245001210899</v>
+        <v>0.144258074303814</v>
       </c>
       <c r="L236" t="n">
-        <v>0.04355015954220462</v>
+        <v>0.04720763226902899</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2825226323262333</v>
+        <v>0.1413821641157298</v>
       </c>
       <c r="N236" t="n">
-        <v>0.06759993725889063</v>
+        <v>0.07266536361722598</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2818119802013104</v>
+        <v>0.1416347229002038</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.0191849192047055</v>
+        <v>0.003740143343744652</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2821800964742399</v>
+        <v>0.05102914092608835</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01934726748660028</v>
+        <v>0.0211474606964691</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2835731814083477</v>
+        <v>0.145101688773427</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04285145786157821</v>
+        <v>0.04668835996318832</v>
       </c>
       <c r="M237" t="n">
-        <v>0.284174811462644</v>
+        <v>0.1422089603971083</v>
       </c>
       <c r="N237" t="n">
-        <v>0.06618067368294123</v>
+        <v>0.07283546823968962</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2834600034773415</v>
+        <v>0.1424629961335383</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01993400576222591</v>
+        <v>0.003708511628253877</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2838206784304854</v>
+        <v>0.0510045362917795</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01930133819482564</v>
+        <v>0.02133860633204041</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2852218626956055</v>
+        <v>0.1459453032430399</v>
       </c>
       <c r="L238" t="n">
-        <v>0.0422041927009337</v>
+        <v>0.04666927451220282</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2858269905990547</v>
+        <v>0.1430357566784868</v>
       </c>
       <c r="N238" t="n">
-        <v>0.06544010383717463</v>
+        <v>0.07260586284137782</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2851080267533725</v>
+        <v>0.1432912693668728</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01768680198706842</v>
+        <v>0.003692462046989149</v>
       </c>
       <c r="G239" t="n">
-        <v>0.285461260386731</v>
+        <v>0.05097993165747063</v>
       </c>
       <c r="J239" t="n">
-        <v>0.0190612942293982</v>
+        <v>0.02132984070079007</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2868705439828634</v>
+        <v>0.1467889177126528</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04167244217154562</v>
+        <v>0.04695037928784718</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2874791697354654</v>
+        <v>0.1438625529598654</v>
       </c>
       <c r="N239" t="n">
-        <v>0.06511897656956511</v>
+        <v>0.07237655266884646</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2867560500294036</v>
+        <v>0.1441195426002073</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01743865558982656</v>
+        <v>0.003690490639912947</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2871018423429766</v>
+        <v>0.05095532702316178</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01882033180319742</v>
+        <v>0.02132116542269637</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2885192252701212</v>
+        <v>0.1476325321822658</v>
       </c>
       <c r="L240" t="n">
-        <v>0.04143865405496433</v>
+        <v>0.04693167766189593</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2891313488718761</v>
+        <v>0.1446893492412439</v>
       </c>
       <c r="N240" t="n">
-        <v>0.06409470835986525</v>
+        <v>0.07264754296865117</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2884040733054347</v>
+        <v>0.1449478158335419</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01918955149488921</v>
+        <v>0.003691134792685284</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2887424242992222</v>
+        <v>0.05093072238885292</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01847843612531602</v>
+        <v>0.02111258211773763</v>
       </c>
       <c r="K241" t="n">
-        <v>0.290167906557379</v>
+        <v>0.1484761466518787</v>
       </c>
       <c r="L241" t="n">
-        <v>0.04090279544012426</v>
+        <v>0.04711317300612367</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2907835280082869</v>
+        <v>0.1455161455226224</v>
       </c>
       <c r="N241" t="n">
-        <v>0.06316724865460344</v>
+        <v>0.07291883898734769</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2900520965814657</v>
+        <v>0.1457760890668764</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01793947462664529</v>
+        <v>0.003692890545268654</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2903830062554678</v>
+        <v>0.05090611775454407</v>
       </c>
       <c r="J242" t="n">
-        <v>0.0182355924048468</v>
+        <v>0.02120409240589215</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2918165878446369</v>
+        <v>0.1493197611214917</v>
       </c>
       <c r="L242" t="n">
-        <v>0.04036483341595995</v>
+        <v>0.04699486869230501</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2924357071446976</v>
+        <v>0.146342941804001</v>
       </c>
       <c r="N242" t="n">
-        <v>0.06213654690030812</v>
+        <v>0.07249044597149173</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2917001198574967</v>
+        <v>0.1466043623002109</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01668840990948368</v>
+        <v>0.003696245668486017</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2920235882117133</v>
+        <v>0.0508815131202352</v>
       </c>
       <c r="J243" t="n">
-        <v>0.0179917858508825</v>
+        <v>0.02129569790713817</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2934652691318947</v>
+        <v>0.1501633755911047</v>
       </c>
       <c r="L243" t="n">
-        <v>0.03952473507140586</v>
+        <v>0.04687676809221455</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2940878862811083</v>
+        <v>0.1471697380853795</v>
       </c>
       <c r="N243" t="n">
-        <v>0.06170255254350776</v>
+        <v>0.07286236916763905</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2933481431335278</v>
+        <v>0.1474326355335454</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01643634226779328</v>
+        <v>0.003701687933160371</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2936641701679589</v>
+        <v>0.05085690848592635</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01784700167251586</v>
+        <v>0.02128740024145404</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2951139504191525</v>
+        <v>0.1510069900607176</v>
       </c>
       <c r="L244" t="n">
-        <v>0.03938246749539653</v>
+        <v>0.04675887457762684</v>
       </c>
       <c r="M244" t="n">
-        <v>0.295740065417519</v>
+        <v>0.1479965343667581</v>
       </c>
       <c r="N244" t="n">
-        <v>0.06096521503073066</v>
+        <v>0.0723346138223453</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2949961664095588</v>
+        <v>0.1482609087668799</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.016183256625963</v>
+        <v>0.003709705110114689</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2953047521242045</v>
+        <v>0.05083230385161749</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01740122507883966</v>
+        <v>0.02127920102881804</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2967626317064104</v>
+        <v>0.1518506045303305</v>
       </c>
       <c r="L245" t="n">
-        <v>0.03883799777686636</v>
+        <v>0.04694119152031651</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2973922445539298</v>
+        <v>0.1488233306481366</v>
       </c>
       <c r="N245" t="n">
-        <v>0.0599244838085054</v>
+        <v>0.07240718518216621</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2966441896855899</v>
+        <v>0.1490891820002145</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01792913790838173</v>
+        <v>0.003720784970171934</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2969453340804501</v>
+        <v>0.05080769921730863</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01715444127894665</v>
+        <v>0.02107110188920845</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2984113129936682</v>
+        <v>0.1526942189999435</v>
       </c>
       <c r="L246" t="n">
-        <v>0.03839129300474983</v>
+        <v>0.04702372229205815</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2990444236903405</v>
+        <v>0.1496501269295151</v>
       </c>
       <c r="N246" t="n">
-        <v>0.05888030832336033</v>
+        <v>0.07278008849365764</v>
       </c>
       <c r="O246" t="n">
-        <v>0.298292212961621</v>
+        <v>0.149917455233549</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01667397103943839</v>
+        <v>0.003735415284155108</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2985859160366957</v>
+        <v>0.05078309458299977</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01700663548192959</v>
+        <v>0.02116310444260359</v>
       </c>
       <c r="K247" t="n">
-        <v>0.300059994280926</v>
+        <v>0.1535378334695564</v>
       </c>
       <c r="L247" t="n">
-        <v>0.03784232026798151</v>
+        <v>0.04670647026462638</v>
       </c>
       <c r="M247" t="n">
-        <v>0.3006966028267512</v>
+        <v>0.1504769232108937</v>
       </c>
       <c r="N247" t="n">
-        <v>0.05823263802182382</v>
+        <v>0.07215332900337507</v>
       </c>
       <c r="O247" t="n">
-        <v>0.299940236237652</v>
+        <v>0.1507457284668835</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01741774094352187</v>
+        <v>0.003754083822887166</v>
       </c>
       <c r="G248" t="n">
-        <v>0.3002264979929413</v>
+        <v>0.05075848994869091</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01665779289688121</v>
+        <v>0.02125521030898175</v>
       </c>
       <c r="K248" t="n">
-        <v>0.3017086755681839</v>
+        <v>0.1543814479391694</v>
       </c>
       <c r="L248" t="n">
-        <v>0.03709104665549587</v>
+        <v>0.04658943880979577</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3023487819631619</v>
+        <v>0.1513037194922722</v>
       </c>
       <c r="N248" t="n">
-        <v>0.0576814223504245</v>
+        <v>0.07272691195787434</v>
       </c>
       <c r="O248" t="n">
-        <v>0.3015882595136831</v>
+        <v>0.1515740017002181</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01516043254502105</v>
+        <v>0.003777278357191105</v>
       </c>
       <c r="G249" t="n">
-        <v>0.3018670799491868</v>
+        <v>0.05073388531438205</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01640789873289429</v>
+        <v>0.02124742110832122</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3033573568554417</v>
+        <v>0.1552250624087823</v>
       </c>
       <c r="L249" t="n">
-        <v>0.03663743925622734</v>
+        <v>0.04657263129934086</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3040009610995726</v>
+        <v>0.1521305157736507</v>
       </c>
       <c r="N249" t="n">
-        <v>0.05652661075569054</v>
+        <v>0.07220084260371112</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3032362827897142</v>
+        <v>0.1524022749335526</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01490203076832486</v>
+        <v>0.003805486657889892</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3035076619054324</v>
+        <v>0.05070928068007319</v>
       </c>
       <c r="J250" t="n">
-        <v>0.0163569381990616</v>
+        <v>0.02103973846060028</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3050060381426996</v>
+        <v>0.1560686768783953</v>
       </c>
       <c r="L250" t="n">
-        <v>0.03578146515911043</v>
+        <v>0.04645605110503639</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3056531402359834</v>
+        <v>0.1529573120550293</v>
       </c>
       <c r="N250" t="n">
-        <v>0.05576815268415064</v>
+        <v>0.07267512618744115</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3048843060657452</v>
+        <v>0.1532305481668871</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01464252053782217</v>
+        <v>0.003839196495806503</v>
       </c>
       <c r="G251" t="n">
-        <v>0.305148243861678</v>
+        <v>0.05068467604576434</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01590489650447585</v>
+        <v>0.02123216398579726</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3066547194299574</v>
+        <v>0.1569122913480082</v>
       </c>
       <c r="L251" t="n">
-        <v>0.03512309145307965</v>
+        <v>0.04673970159865681</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3073053193723941</v>
+        <v>0.1537841083364078</v>
       </c>
       <c r="N251" t="n">
-        <v>0.05480599758233301</v>
+        <v>0.07224976795562021</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3065323293417763</v>
+        <v>0.1540588214002216</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01538188677790191</v>
+        <v>0.003878895641763941</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3067888258179236</v>
+        <v>0.05066007141145547</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01565175885822984</v>
+        <v>0.02122469930389041</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3083034007172152</v>
+        <v>0.1577559058176212</v>
       </c>
       <c r="L252" t="n">
-        <v>0.03466228522706949</v>
+        <v>0.04672358615197675</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3089574985088048</v>
+        <v>0.1546109046177863</v>
       </c>
       <c r="N252" t="n">
-        <v>0.05354009489676625</v>
+        <v>0.07252477315480399</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3081803526178073</v>
+        <v>0.1548870946335562</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01512011441295295</v>
+        <v>0.003925071866585132</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3084294077741692</v>
+        <v>0.05063546677714662</v>
       </c>
       <c r="J253" t="n">
-        <v>0.0153975104694163</v>
+        <v>0.02121734603485806</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3099520820044731</v>
+        <v>0.1585995202872341</v>
       </c>
       <c r="L253" t="n">
-        <v>0.03419901357001442</v>
+        <v>0.0468077081367709</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3106096776452155</v>
+        <v>0.1554377008991649</v>
       </c>
       <c r="N253" t="n">
-        <v>0.05297039407397863</v>
+        <v>0.07230014703154808</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3098283758938384</v>
+        <v>0.1557153678668907</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01385718836736422</v>
+        <v>0.003978212941093115</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3100699897304147</v>
+        <v>0.05061086214283776</v>
       </c>
       <c r="J254" t="n">
-        <v>0.015342136547128</v>
+        <v>0.02121010579867849</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3116007632917309</v>
+        <v>0.1594431347568471</v>
       </c>
       <c r="L254" t="n">
-        <v>0.03383324357084891</v>
+        <v>0.04689207092481371</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3122618567816263</v>
+        <v>0.1562644971805434</v>
       </c>
       <c r="N254" t="n">
-        <v>0.0523968445604987</v>
+        <v>0.07217589483240838</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3114763991698694</v>
+        <v>0.1565436411002252</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.0135930935655246</v>
+        <v>0.004038806636110816</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3117105716866603</v>
+        <v>0.05058625750852891</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01488562230045769</v>
+        <v>0.02100298021532998</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3132494445789887</v>
+        <v>0.16028674922646</v>
       </c>
       <c r="L255" t="n">
-        <v>0.0330649423185074</v>
+        <v>0.04667667788787988</v>
       </c>
       <c r="M255" t="n">
-        <v>0.313914035918037</v>
+        <v>0.157091293461922</v>
       </c>
       <c r="N255" t="n">
-        <v>0.05101939580285481</v>
+        <v>0.07185202180394046</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3131244224459005</v>
+        <v>0.1573719143335597</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01532781493182299</v>
+        <v>0.004107340722461265</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3133511536429059</v>
+        <v>0.05056165287422004</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01472795293849813</v>
+        <v>0.02109597090479089</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3148981258662465</v>
+        <v>0.1611303636960729</v>
       </c>
       <c r="L256" t="n">
-        <v>0.03269407690192455</v>
+        <v>0.04686153239774399</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3155662150544477</v>
+        <v>0.1579180897433005</v>
       </c>
       <c r="N256" t="n">
-        <v>0.05033799724757548</v>
+        <v>0.07192853319270009</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3147724457219315</v>
+        <v>0.1582001875668943</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.0130613373906483</v>
+        <v>0.004184302970967384</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3149917355991515</v>
+        <v>0.05053704823991119</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01436911367034206</v>
+        <v>0.02098907948703943</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3165468071535044</v>
+        <v>0.1619739781656859</v>
       </c>
       <c r="L257" t="n">
-        <v>0.03222061441003463</v>
+        <v>0.04634663782618054</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3172183941908583</v>
+        <v>0.158744886024679</v>
       </c>
       <c r="N257" t="n">
-        <v>0.04925259834118911</v>
+        <v>0.07220543424524306</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3164204689979626</v>
+        <v>0.1590284608002288</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01279364586638942</v>
+        <v>0.004270181152452208</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3166323175553971</v>
+        <v>0.05051244360560233</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01420908970508226</v>
+        <v>0.02108230758205396</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3181954884407622</v>
+        <v>0.1628175926352989</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03134452193177228</v>
+        <v>0.04633199754496428</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3188705733272691</v>
+        <v>0.1595716823060576</v>
       </c>
       <c r="N258" t="n">
-        <v>0.04886314853022411</v>
+        <v>0.07238273020812502</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3180684922739936</v>
+        <v>0.1598567340335633</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01252472528343527</v>
+        <v>0.004365463037738646</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3182728995116426</v>
+        <v>0.05048783897129348</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01384786625181147</v>
+        <v>0.02097565680981274</v>
       </c>
       <c r="K259" t="n">
-        <v>0.31984416972802</v>
+        <v>0.1636612071049118</v>
       </c>
       <c r="L259" t="n">
-        <v>0.03096576655607192</v>
+        <v>0.04681761492586969</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3205227524636798</v>
+        <v>0.1603984785874361</v>
       </c>
       <c r="N259" t="n">
-        <v>0.04736959726120893</v>
+        <v>0.07196042632790167</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3197165155500247</v>
+        <v>0.1606850072668978</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01325456056617472</v>
+        <v>0.004470636397649747</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3199134814678882</v>
+        <v>0.05046323433698461</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01358542851962245</v>
+        <v>0.02106912879029409</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3214928510152779</v>
+        <v>0.1645048215745248</v>
       </c>
       <c r="L260" t="n">
-        <v>0.03028431537186801</v>
+        <v>0.04650349334067141</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3221749316000905</v>
+        <v>0.1612252748688146</v>
       </c>
       <c r="N260" t="n">
-        <v>0.0471718939806719</v>
+        <v>0.07243852785112864</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3213645388260557</v>
+        <v>0.1615132805002324</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01398313663899668</v>
+        <v>0.004586189003008445</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3215540634241338</v>
+        <v>0.05043862970267576</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01332176171760796</v>
+        <v>0.02096272514347626</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3231415323025357</v>
+        <v>0.1653484360441377</v>
       </c>
       <c r="L261" t="n">
-        <v>0.02980013546809512</v>
+        <v>0.046589636161144</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3238271107365012</v>
+        <v>0.1620520711501932</v>
       </c>
       <c r="N261" t="n">
-        <v>0.04596998813514158</v>
+        <v>0.07221704002436186</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3230125621020868</v>
+        <v>0.1623415537335669</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01171043842629006</v>
+        <v>0.004712608624637744</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3231946453803794</v>
+        <v>0.0504140250683669</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01305685105486076</v>
+        <v>0.0210564474893376</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3247902135897935</v>
+        <v>0.1661920505137506</v>
       </c>
       <c r="L262" t="n">
-        <v>0.02891319393368769</v>
+        <v>0.04667604675906206</v>
       </c>
       <c r="M262" t="n">
-        <v>0.325479289872912</v>
+        <v>0.1628788674315717</v>
       </c>
       <c r="N262" t="n">
-        <v>0.04496382917114639</v>
+        <v>0.07189596809415688</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3246605853781178</v>
+        <v>0.1631698269669014</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01143645085244376</v>
+        <v>0.004850383033360578</v>
       </c>
       <c r="G263" t="n">
-        <v>0.324835227336625</v>
+        <v>0.05038942043405804</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01299068174047359</v>
+        <v>0.02105029744785637</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3264388948770514</v>
+        <v>0.1670356649833636</v>
       </c>
       <c r="L263" t="n">
-        <v>0.02862345785758019</v>
+        <v>0.04646272850620028</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3271314690093227</v>
+        <v>0.1637056637129502</v>
       </c>
       <c r="N263" t="n">
-        <v>0.04375336653521478</v>
+        <v>0.07237531730706948</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3263086086541489</v>
+        <v>0.1639981002002359</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01216115884184667</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3264758092928705</v>
+        <v>0.05036481579974918</v>
       </c>
       <c r="J264" t="n">
-        <v>0.0125232389835392</v>
+        <v>0.02104427663901087</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3280875761643093</v>
+        <v>0.1678792794529765</v>
       </c>
       <c r="L264" t="n">
-        <v>0.02813089432870711</v>
+        <v>0.04664968477433312</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3287836481457335</v>
+        <v>0.1645324599943288</v>
       </c>
       <c r="N264" t="n">
-        <v>0.04303854967387494</v>
+        <v>0.07165509290965538</v>
       </c>
       <c r="O264" t="n">
-        <v>0.32795663193018</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1648263734335705</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05035165790501234</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005298950073203912</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05035192643347636</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005594953756207333</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05035219496194038</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005887919107759813</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05035246349040439</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006177754186636603</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05035273201886841</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006464367051587566</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05035300054733242</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006747665761387626</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05035326907579644</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.007027558374786941</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05035353760426046</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007303952950560175</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05035380613272448</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007576757547457749</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05035407466118849</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.007845880224254025</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05035434318965251</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008111229039699776</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05035461171811653</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008372712052568988</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05035488024658055</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008630237321612784</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05035514877504457</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.008883712905604829</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05035541730350859</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.009133046863296572</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.0503556858319726</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.009378147253461339</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05035595436043662</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.009618922134850938</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05035622288890063</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.009855279566233222</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05035649141736465</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01008712760637566</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05035675994582867</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01031437431403064</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05035702847429268</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01053692774797053</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.0503572970027567</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01075469596694811</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05035756553122071</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01096758702973532</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05035783405968473</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01117550899508539</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05035810258814875</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01137874534848975</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05035837111661277</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01157945670902142</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05035863964507679</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01177792656217148</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05035890817354081</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01197406296669375</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05035917670200482</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01216777398135928</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05035944523046884</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01235896766492208</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05035971375893285</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01254755207615296</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05035998228739687</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01273343527380617</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05036025081586089</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01291652531664834</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.0503605193443249</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01309673026344583</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05036078787278892</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01327395817295327</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05036105640125293</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01344811710394084</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05036132492971696</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01361911511516346</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05036159345818098</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01378686026539099</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.050361861986645</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01395126061337867</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05036213051510901</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01411222421789608</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05036239904357303</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.0142696591376987</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05036266757203704</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01442347343155587</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05036293610050106</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01457357515822336</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05036320462896508</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01471987237647016</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.0503634731574291</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01486227314505242</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05036374168589311</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01500068552273876</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05036401021435713</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01513501756828566</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05036427874282114</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01526517734046143</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05036454727128516</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01539107289802288</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05036481579974918</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01539107289802288</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05035165790501234</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01549451582157131</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05037679959624923</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.0155945659266835</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05040194128748612</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01569114343580456</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05042708297872302</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01578416857137967</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05045222466995991</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.0158735615558539</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.0504773663611968</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01595924261167243</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.0505025080524337</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01604113196128037</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05052764974367058</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01611914982712288</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05055279143490748</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01619321643164505</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05057793312614437</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01626325199729205</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05060307481738126</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.016329176746509</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05062821650861816</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.01639091090174103</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05065335819985505</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01644837468543328</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05067849989109195</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01650148832003089</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05070364158232884</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01655017202797895</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05072878327356573</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01659434603172266</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05075392496480263</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01663393055370709</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05077906665603951</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01666884581637741</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05080420834727641</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01669901204217875</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.0508293500385133</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01672434945355623</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05085449172975019</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01674477827295499</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05087963342098709</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01676021872282017</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05090477511222397</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.0167705910255969</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05092991680346087</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.0167758154037303</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05095505849469776</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01677613783801455</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05098020018593465</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01677343310098903</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05100534187717155</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01676794717344792</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05103048356840844</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01675960027783633</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05105562525964533</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01674831263659941</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05108076695088223</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01673400447218229</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05110590864211911</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01671659600703011</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05113105033335601</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01669600746358799</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.0511561920245929</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01667215906430106</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05118133371582979</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01664497103161446</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05120647540706669</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01661436358797334</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05123161709830357</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01658025695582281</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05125675878954047</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01654257135760801</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05128190048077736</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01650122701577406</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05130704217201426</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01645614415276613</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05133218386325115</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01640724299102931</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05135732555448804</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01635444375300876</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05138246724572493</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.0162976666611496</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05140760893696183</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01623683193789698</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05143275062819872</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01617185980569601</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05145789231943561</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01610267048699184</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.0514830340106725</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01602918420422959</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.0515081757019094</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01595132117985441</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05153331739314629</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01586900163631141</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05155845908438319</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01578214579604575</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05158360077562008</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01578214579604575</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05158360077562008</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01616767631507768</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05316594527685767</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01654575652167418</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05474828977809528</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.01691620940407258</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05633063427933287</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.0172788579505102</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05791297878057047</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.01763352514922437</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05949532328180808</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.0179800339884524</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06107766778304568</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.01831820745643161</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06266001228428326</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.01864786854139931</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06424235678552087</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.01896884023159288</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06582470128675848</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.01928094551524957</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06740704578799608</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.01958400738060673</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.06898939028923368</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.01987784881590167</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07057173479047127</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.02016229280937172</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07215407929170888</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02043716234925425</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07373642379294648</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.02070228042378647</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07531876829418409</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02095747002120578</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.07690111279542168</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.0212025541297495</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.07848345729665927</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02143735573765491</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08006580179789688</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.0216616978331594</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08164814629913449</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02187540340450021</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08323049080037208</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02207829543991471</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08481283530160968</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02227019692764021</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08639517980284728</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02245093085591403</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08797752430408488</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02262032021297349</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.08955986880532248</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02277818798705591</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09114221330656007</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02292435716639861</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09272455780779769</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02305865073923892</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09430690230903528</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02318089169381415</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09588924681027289</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02329090301836163</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09747159131151048</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02338850770111869</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.09905393581274807</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02347352873032263</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1006362803139857</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02354578909421078</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1022186248152233</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02360511178102044</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1038009693164609</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02365131977898897</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1053833138176985</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02368423607635368</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1069656583189361</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02370952772806101</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1085480028201737</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.02370951111942017</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1101303473214113</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02370644234517078</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1117126918226489</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02369833996212735</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1132950363238865</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.02368558626536021</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1148773808251241</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02366856354993964</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1164597253263617</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02364765411093595</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1180420698275993</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.02362324024341941</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1196244143288369</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.02359570424246035</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1212067588300745</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02356542840312907</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1227891033313121</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02353279502049585</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1243714478325497</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02349818638963098</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1259537923337873</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.02346198480560478</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1275361368350249</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02342457256348757</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1291184813362625</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02338633195834959</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1307008258375001</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.02334738746193291</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1322831703387377</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02329628276026313</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1338655148399753</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.0232295621831304</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1354478593412129</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.02315120228271686</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1370302038424505</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02306517961120486</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1386125483436881</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02297547072077658</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1401948928449257</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02288605216361431</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1417772373461633</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02280090049190028</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1433595818474009</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02272399225781677</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1449419263486385</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.02265930401354599</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1465242708498761</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.02261081231127024</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1481066153511137</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02257455901169435</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.02254052115472788</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1512713043535889</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02250848171171865</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1528536488548265</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02247831325845602</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1544359933560641</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02244988837072934</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1560183378573017</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02242307962432792</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1576006823585393</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02239775959504112</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1591830268597769</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02237380085865825</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1607653713610145</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02235107599096871</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1623477158622521</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02232945756776177</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1639300603634897</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.0223088181648268</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1655124048647273</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02228903035795313</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1670947493659649</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02226996672293009</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1686770938672025</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02225149983554706</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1702594383684401</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02223350227159332</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1718417828696777</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02221584660685824</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1734241273709153</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02219840541713114</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1750064718721529</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.0221810512782014</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1765888163733905</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02216365676585831</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1781711608746281</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.0221460944558912</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1797535053758657</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02212823692408947</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1813358498771033</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02211032996953113</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1829181943783409</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02209272227094902</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1845005388795785</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02207542490616003</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1860828833808161</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02205844893316727</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1876652278820537</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02204180540997389</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1892475723832913</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02202550539458294</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1908299168845289</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02200955994499758</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1924122613857665</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02199398011922093</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1939946058870041</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02197877697525609</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1955769503882417</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02196396157110618</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1971592948894793</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02194954496477429</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.1987416393907169</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02193553821426356</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2003239838919545</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02192195237757709</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2019063283931921</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02190879851271803</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2034886728944297</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02189608767768947</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2050710173956673</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02188383093049449</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2066533618969049</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02187203932913628</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2082357063981425</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
